--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
   <si>
     <t>Cost</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Existing</t>
   </si>
   <si>
-    <t>20+</t>
-  </si>
-  <si>
     <t>Halawa</t>
   </si>
   <si>
@@ -412,6 +409,30 @@
   </si>
   <si>
     <t>Project Status (@2012)</t>
+  </si>
+  <si>
+    <t>Makakilo Mauka Frontage Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalaeloa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makakilo </t>
+  </si>
+  <si>
+    <t>Frontage Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamokila </t>
+  </si>
+  <si>
+    <t>Kapolei</t>
+  </si>
+  <si>
+    <t>FDR</t>
+  </si>
+  <si>
+    <t>additional</t>
   </si>
 </sst>
 </file>
@@ -499,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,6 +557,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,13 +1237,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,11 +1252,11 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="5" customWidth="1"/>
+    <col min="12" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="18" customWidth="1"/>
     <col min="16" max="16" width="18" style="5" customWidth="1"/>
     <col min="17" max="19" width="18" customWidth="1"/>
@@ -1321,7 +1348,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
@@ -1379,7 +1406,7 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J10">
@@ -1412,15 +1439,15 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
         <v>119</v>
       </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
       <c r="F11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="6"/>
@@ -1449,15 +1476,15 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J12" s="6"/>
@@ -1486,21 +1513,21 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" t="s">
-        <v>125</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
       <c r="O13" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P13" s="8">
         <v>0</v>
@@ -1534,7 +1561,7 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J14">
@@ -1575,7 +1602,7 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J15"/>
@@ -1611,7 +1638,7 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J16">
@@ -1649,7 +1676,7 @@
       <c r="F17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="22" t="s">
         <v>73</v>
       </c>
       <c r="J17"/>
@@ -1684,7 +1711,7 @@
       <c r="F18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="23" t="s">
         <v>40</v>
       </c>
       <c r="J18"/>
@@ -1707,40 +1734,37 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="P19" s="5">
+        <v>2</v>
+      </c>
+      <c r="P19" s="8">
         <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1751,35 +1775,37 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
+      <c r="G20" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" s="5">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -1793,33 +1819,32 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="N21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
       </c>
       <c r="P21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1836,21 +1861,21 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J22"/>
@@ -1859,7 +1884,7 @@
         <v>115</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P22" s="5">
         <v>1</v>
@@ -1879,30 +1904,30 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J23"/>
-      <c r="K23" s="10"/>
+      <c r="K23"/>
       <c r="N23" t="s">
         <v>115</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P23" s="5">
         <v>1</v>
@@ -1922,75 +1947,71 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="J24"/>
-      <c r="K24"/>
+      <c r="K24" s="10"/>
       <c r="N24" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="8">
-        <v>0</v>
+      <c r="O24" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="N25" t="s">
         <v>115</v>
       </c>
@@ -1998,45 +2019,98 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
+      <c r="A26" s="4">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
       </c>
       <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
       <c r="G28" s="4"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2202,11 +2276,21 @@
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -2287,10 +2371,12 @@
       <c r="K61"/>
     </row>
     <row r="62" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G62" s="4"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
     <row r="63" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="4"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
@@ -2307,41 +2393,34 @@
       <c r="K66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
+      <c r="J67"/>
+      <c r="K67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
       <c r="O68" s="19"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
     </row>
-    <row r="69" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="8"/>
-      <c r="K69" s="5"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="O69" s="19"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="I70" s="4"/>
+    <row r="70" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="5"/>
       <c r="O70" s="19"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
@@ -2351,7 +2430,12 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="O71" s="19"/>
       <c r="P71" s="8"/>
@@ -2362,8 +2446,9 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="O72" s="19"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
@@ -2374,7 +2459,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="O73" s="19"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
@@ -2429,6 +2514,7 @@
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
       <c r="O78" s="19"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
@@ -2439,6 +2525,7 @@
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
       <c r="O79" s="19"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -2499,7 +2586,6 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
       <c r="O85" s="19"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
@@ -2509,7 +2595,6 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
       <c r="G86" s="4"/>
       <c r="O86" s="19"/>
       <c r="P86" s="8"/>
@@ -2520,8 +2605,8 @@
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
       <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="O87" s="19"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
@@ -2531,10 +2616,8 @@
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="8"/>
       <c r="O88" s="19"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
@@ -2544,9 +2627,9 @@
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="8"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="8"/>
       <c r="O89" s="19"/>
       <c r="P89" s="8"/>
@@ -2567,15 +2650,34 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T26"/>
+  <autoFilter ref="A9:T27"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H88:H90"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H90:H92"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>
@@ -2968,7 +3070,7 @@
       </c>
       <c r="J23"/>
       <c r="O23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,7 +3089,7 @@
       </c>
       <c r="J24"/>
       <c r="O24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3006,7 +3108,7 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="O25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1243,7 +1243,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2094,7 @@
       <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J27">
@@ -2102,6 +2102,21 @@
       </c>
       <c r="K27">
         <v>4</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2675,7 +2690,7 @@
       <c r="C98" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T27"/>
+  <autoFilter ref="A9:T28"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H90:H92"/>
   </dataValidations>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>Cost</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>additional</t>
+  </si>
+  <si>
+    <t>King St. Bike Track</t>
+  </si>
+  <si>
+    <t>Alapai St</t>
+  </si>
+  <si>
+    <t>Isenberg St</t>
+  </si>
+  <si>
+    <t>Capacity Reduction for bike lane</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1249,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,22 +2132,49 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="J28"/>
       <c r="K28"/>
+      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2311,6 +2350,11 @@
       <c r="K46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -2396,6 +2440,7 @@
       <c r="K63"/>
     </row>
     <row r="64" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G64" s="4"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
@@ -2412,46 +2457,34 @@
       <c r="K67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O68" s="19"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
+      <c r="J68"/>
+      <c r="K68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="G69" s="4"/>
       <c r="O69" s="19"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="5"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="G70" s="4"/>
       <c r="O70" s="19"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+    <row r="71" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="5"/>
       <c r="O71" s="19"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
@@ -2461,8 +2494,12 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="O72" s="19"/>
       <c r="P72" s="8"/>
@@ -2473,6 +2510,7 @@
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="I73" s="4"/>
       <c r="O73" s="19"/>
@@ -2485,7 +2523,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="O74" s="19"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
@@ -2551,6 +2589,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="O80" s="19"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
@@ -2621,7 +2660,6 @@
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
       <c r="O87" s="19"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
@@ -2631,8 +2669,8 @@
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
       <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="O88" s="19"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
@@ -2644,8 +2682,6 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="8"/>
       <c r="O89" s="19"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
@@ -2655,9 +2691,9 @@
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="8"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="8"/>
       <c r="O90" s="19"/>
       <c r="P90" s="8"/>
@@ -2683,16 +2719,29 @@
       <c r="B92" s="4"/>
       <c r="G92" s="4"/>
       <c r="I92" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T28"/>
+  <autoFilter ref="A9:T29"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H90:H92"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H91:H93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
   <si>
     <t>Cost</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>FDR</t>
-  </si>
-  <si>
-    <t>additional</t>
   </si>
   <si>
     <t>King St. Bike Track</t>
@@ -1255,7 +1252,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,16 +2133,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>40</v>
@@ -2169,8 +2166,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>137</v>
+      <c r="A29">
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>116</v>
@@ -2178,6 +2175,21 @@
       <c r="G29" s="4"/>
       <c r="J29"/>
       <c r="K29"/>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
@@ -9,17 +9,19 @@
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Non-Modeled Projects" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="274">
   <si>
     <t>Cost</t>
   </si>
@@ -327,9 +329,6 @@
     <t>OC7</t>
   </si>
   <si>
-    <t>Makakilo Dr Extension</t>
-  </si>
-  <si>
     <t>Palehua Subdivision</t>
   </si>
   <si>
@@ -442,13 +441,420 @@
   </si>
   <si>
     <t>Capacity Reduction for bike lane</t>
+  </si>
+  <si>
+    <t>PROJECT NO 2035</t>
+  </si>
+  <si>
+    <t>PROJECT NO 2040</t>
+  </si>
+  <si>
+    <t>Included in FFYs 2015-2019 TIP</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>CITY/ STATE</t>
+  </si>
+  <si>
+    <t>FACILITY / PROJECT TITLE</t>
+  </si>
+  <si>
+    <t>Range_2035</t>
+  </si>
+  <si>
+    <t>Category_2035</t>
+  </si>
+  <si>
+    <t>Range_2040</t>
+  </si>
+  <si>
+    <t>Category_2040</t>
+  </si>
+  <si>
+    <t>CMP Ranking</t>
+  </si>
+  <si>
+    <t>PROJECT DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ESTIMATED COST In $M ($YOE)</t>
+  </si>
+  <si>
+    <t>COST_2015</t>
+  </si>
+  <si>
+    <t>Federal Highway Funds</t>
+  </si>
+  <si>
+    <t>Federal Transit Funds</t>
+  </si>
+  <si>
+    <t>State Highway Funds</t>
+  </si>
+  <si>
+    <t>City/ County Highway/ Street Funds</t>
+  </si>
+  <si>
+    <t>City/ County Transit Funds</t>
+  </si>
+  <si>
+    <t>Transit Fares</t>
+  </si>
+  <si>
+    <t>Developer &amp; Private Funds</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Interstate Route H-1, New Interchange, Kapolei Interchange</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Congestion</t>
+  </si>
+  <si>
+    <t>Modernization</t>
+  </si>
+  <si>
+    <t>Construct new Interstate Route H-1 Kapolei Interchange for Kapolei between the Palailai Interchange and Makakilo Interchange.  Project to be constructed in multiple phases.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Hanua Street Extension, Farrington Highway to Malakole Street; Interstate Route H-1, New On- &amp; Off-Ramps, Palailai Interchange</t>
+  </si>
+  <si>
+    <t>Modernization Developer</t>
+  </si>
+  <si>
+    <t>Hanua Street:
+• Extend Hanua Street from Malakole Street to Farrington Highway. This new 4-lane roadway will provide access to Kalaeloa Harbor.
+Interstate Route H-1, Palailai Interchange:
+• Construct new on- and off-ramps at Interstate Route H-1 Palailai Interchange to Hanua Street extension.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Kalaeloa Boulevard, Reconstruction and Widening; Lauwiliwili Street to Olai Street</t>
+  </si>
+  <si>
+    <t>Improve and reconstruct Kalaeloa Boulevard between Lauwiliwili Street and Olai Street.</t>
+  </si>
+  <si>
+    <t>Kapolei Parkway, Extension &amp; Widening, Aliinui Drive to Kalaeloa Boulevard</t>
+  </si>
+  <si>
+    <t>Extend the existing 4-lane Kapolei Parkway, from Aliinui Drive to Hanua Street.  This project includes widening of Kapolei Parkway from four to six lanes from Hanua Street to Kalaeloa Boulevard.</t>
+  </si>
+  <si>
+    <t>Kapolei Parkway, Extension, Kamokila Boulevard to Kamaaha Avenue</t>
+  </si>
+  <si>
+    <t>E+C</t>
+  </si>
+  <si>
+    <t>Complete the extension of the existing 4-lane Kapolei Parkway.</t>
+  </si>
+  <si>
+    <t>Farrington Highway, Widening, Golf Course Road to west of Fort Weaver Road</t>
+  </si>
+  <si>
+    <t>Widen Farrington Highway from 2 to 4 lanes, from Golf Course Road to just west of Fort Weaver Road.</t>
+  </si>
+  <si>
+    <t>Kualaka’i Parkway, Extension, Interstate Route H-1 to Franklin D Roosevelt Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend Kualaka’i Parkway from Kapolei Parkway to Franklin D Roosevelt Avenue </t>
+  </si>
+  <si>
+    <t>Kualaka’i Parkway, Widening, Interstate Route H-1 to Franklin D Roosevelt Avenue</t>
+  </si>
+  <si>
+    <t>Widen and extend Kualaka’i Parkway as follows:
+• From three to six lanes from Kapolei Parkway to Interstate Route H-1
+• Extend from Kapolei Parkway to Franklin D Roosevelt Avenue (6 lanes)</t>
+  </si>
+  <si>
+    <t>Keoneula Boulevard, Extension, Kapolei Parkway to Franklin D. Roosevelt Avenue</t>
+  </si>
+  <si>
+    <t>Extend Keoneula Boulevard from Kapolei Parkway to Franklin D. Roosevelt Avenue.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-1, Widening, Waiawa Interchange</t>
+  </si>
+  <si>
+    <t>Widen the Interstate Route H-1 by 1 lane, in each direction, through the Waiawa Interchange. This project will begin in the vicinity of the Waiawa Interchange and end at the Paiwa Interchange.</t>
+  </si>
+  <si>
+    <t>Kamehameha Highway, Widening, Lanikuhana Avenue to Ka Uka Boulevard</t>
+  </si>
+  <si>
+    <t>Widen Kamehameha Highway from a three-lane to a four-lane divided facility between Lanikuhana Avenue and Ka Uka Boulevard. This project includes shoulders for bicycles and disabled vehicles, bridge crossing replacement, bikeways, etc.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-2, Widening, Waipio Interchange</t>
+  </si>
+  <si>
+    <t>Widen both on- and off-ramps on Interstate Route H-2, at the Waipio Interchange. This project includes the widening of the Ka Uka Boulevard overpass and intersection improvements to facilitate movement to and from the on- and off-ramps.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-1, Pearl City and Waimalu Viaduct Improvements, Phase 2</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Replace, repair, and/or strengthen the Pearl City and Waimalu Viaduct concrete deck and other structural components, including guardrails.  Project will be implemented in five phases.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-1, Waiawa Interchange to Halawa Interchange, Widening, Eastbound</t>
+  </si>
+  <si>
+    <t>Widen the H-1 Freeway to six lanes from the Waiawa Interchange to the Halawa Interchange in the eastbound direction, and resture the current freeway lane width and shoulder standards.  Project may be phased due to high cost.</t>
+  </si>
+  <si>
+    <t>Salt Lake Boulevard Widening Project</t>
+  </si>
+  <si>
+    <t>Widen Salt Lake Boulevard from two to six lanes, between Maluna Street and Ala Lilikoi Street.</t>
+  </si>
+  <si>
+    <t>Makakilo Drive, Second Access, Makakilo Drive to Kualaka’i Parkway / Interstate Route H-1 Interchange</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Extend Makakilo Drive (vicinity Pueonani Street) south to the Interstate Route H-1 Freeway Interchange as 4-lane roadway, connecting Makakilo Drive to Kualaka‘i Parkway.</t>
+  </si>
+  <si>
+    <t>Kahekili  Highway Improvements, Likelike Hwy to Kamehameha Hwy</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Capacity improvements through the defined limits, which could include widening and/or improving intersections. ETPC is based on a potential full build alternative.</t>
+  </si>
+  <si>
+    <t>Honolulu High-Capacity Transit Corridor Project</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>Plan, design, and construct a fixed guideway system between East Kapolei and Ala Moana Center.  This project includes intermodal connections with TheBus system to provide feeder services to fixed guideway stations.</t>
+  </si>
+  <si>
+    <t>Fort Barrette Road, Widening, Farrington Highway to Barber's Point Gate</t>
+  </si>
+  <si>
+    <t>Increase capacity by widening from 2 to 4 lanes. Bike lanes and sidewalk improvements will be considered.</t>
+  </si>
+  <si>
+    <t>Farrington Highway, Widening, Hakimo Road to Kalaeloa Boulevard</t>
+  </si>
+  <si>
+    <t>Widen Farrington Highway from 4 to 6 lanes, from Hakimo Road to Kalaeloa Boulevard, including intersection of Lualualei Naval Road.</t>
+  </si>
+  <si>
+    <t>Kamokila Boulevard**</t>
+  </si>
+  <si>
+    <t>Extend as 4-lane roadway between Roosevelt and Saratoga.</t>
+  </si>
+  <si>
+    <t>Fort Barrette Road**</t>
+  </si>
+  <si>
+    <t>Kalaeloa East-West Spine Road, New Roadway, Kalaeloa Boulevard to Geiger Road</t>
+  </si>
+  <si>
+    <t>Construct a new 4-lane east-west spine road within Kalaeloa by realigning and connecting portions of the existing Saratoga Avenue from Kalaeloa Boulevard in the west and to Geiger Road in the east.</t>
+  </si>
+  <si>
+    <t>Makakilo Mauka Frontage Road, New Roadway, Kalaeloa Boulevard to Makakilo Drive</t>
+  </si>
+  <si>
+    <t>Construct a new 2-lane Makakilo Mauka Frontage Road, mauka of Interstate Route H-1, from Kalaeloa Boulevard to Makakilo Drive.</t>
+  </si>
+  <si>
+    <t>Farrington Highway, Widening, west of Fort Weaver Road to Waiawa Interchange</t>
+  </si>
+  <si>
+    <t>Widen Farrington Highway from Kunia to Waiawa by 1 lane in each direction, from west of Fort Weaver Road to Waiawa Interchange.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-2, New Interchange, Pineapple Road Overpass</t>
+  </si>
+  <si>
+    <t>Construct a new full-service freeway interchange on Interstate Route H-2, between Meheula Parkway and Ka Uka Boulevard, to accommodate future developments in Central Oahu. This project includes the widening of the existing Pineapple Road Overpass from 2 lanes to 4 lanes; and addition of new on- and off-ramps to and from Interstate Route H-2 at Pineapple Road Overpass.</t>
+  </si>
+  <si>
+    <t>Interstate Route H-1, Widening, Waiawa Interchange to Halawa Interchange</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Widen the Interstate Route H-1 by 1 lane in the eastbound direction, from the Waiawa Interchange to the Halawa Interchange.</t>
+  </si>
+  <si>
+    <t>new id</t>
+  </si>
+  <si>
+    <t>Maluna St</t>
+  </si>
+  <si>
+    <t>Ala Lilikoi St</t>
+  </si>
+  <si>
+    <t>Kapolei Parkway</t>
+  </si>
+  <si>
+    <t>Aliinui Drive</t>
+  </si>
+  <si>
+    <t>Kalaeloa Boulevard</t>
+  </si>
+  <si>
+    <t>Farrington Highway</t>
+  </si>
+  <si>
+    <t>Widening and Extension</t>
+  </si>
+  <si>
+    <t>Golf Course Rd</t>
+  </si>
+  <si>
+    <t>Old Fort Weaver Rd</t>
+  </si>
+  <si>
+    <t>Kualaka’i Parkway</t>
+  </si>
+  <si>
+    <t>2040 ID</t>
+  </si>
+  <si>
+    <t>Coral Sea Rd</t>
+  </si>
+  <si>
+    <t>New Location</t>
+  </si>
+  <si>
+    <t>Waiawa Interchange</t>
+  </si>
+  <si>
+    <t>Paiwa Interchange</t>
+  </si>
+  <si>
+    <t>Widening (1 lane per direction)</t>
+  </si>
+  <si>
+    <t>Varies</t>
+  </si>
+  <si>
+    <t>Kamehameha Highway</t>
+  </si>
+  <si>
+    <t>Lanikuhana Avenue</t>
+  </si>
+  <si>
+    <t>Ka Uka Boulevard</t>
+  </si>
+  <si>
+    <t>Waipio Interchange</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>Widening (1 lane)</t>
+  </si>
+  <si>
+    <t>Likelike Hwy</t>
+  </si>
+  <si>
+    <t>Hakimo Road</t>
+  </si>
+  <si>
+    <t>Kamokila Boulevard</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Saratoga</t>
+  </si>
+  <si>
+    <t>Fort Barrette Road</t>
+  </si>
+  <si>
+    <t>Salt Lake Boulevard</t>
+  </si>
+  <si>
+    <t>Keoneula Blvd</t>
+  </si>
+  <si>
+    <t>Kahekili  Highway</t>
+  </si>
+  <si>
+    <t>Makakilo Dr</t>
+  </si>
+  <si>
+    <t>Kalaeloa East-West Spine Road</t>
+  </si>
+  <si>
+    <t>Geiger Road</t>
+  </si>
+  <si>
+    <t>Fort Weaver Road</t>
+  </si>
+  <si>
+    <t>H-2 Pineapple Interchange</t>
+  </si>
+  <si>
+    <t>Hanua Street</t>
+  </si>
+  <si>
+    <t>Malakole Street</t>
+  </si>
+  <si>
+    <t>New Location and Interchange</t>
+  </si>
+  <si>
+    <t>current projid</t>
+  </si>
+  <si>
+    <t>new projid</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>updating model network</t>
+  </si>
+  <si>
+    <t>updating project list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +887,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -529,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -572,6 +989,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,6 +1015,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -999,7 +1425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1252,7 +1678,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1783,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
@@ -1400,204 +1826,133 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="O13" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1632,104 +1987,79 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" s="5">
-        <v>3</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="J16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="J17" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>40</v>
+        <v>103</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="5">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -1742,38 +2072,38 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>17</v>
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="P19" s="8">
+        <v>8</v>
+      </c>
+      <c r="P19" s="5">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1783,175 +2113,138 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
+        <v>118</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="G20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="N22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="5">
-        <v>1</v>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="O22" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="N23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1959,85 +2252,48 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" s="10"/>
-      <c r="N24" t="s">
-        <v>115</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="N25" t="s">
-        <v>115</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2045,16 +2301,16 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>112</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -2069,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P26" s="8">
         <v>0</v>
@@ -2089,297 +2345,738 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>117</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
-      <c r="P27" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="J30"/>
-      <c r="K30"/>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4">
+        <v>22</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="J31"/>
-      <c r="K31"/>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="4">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>25</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
       <c r="G34" s="4"/>
-      <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>26</v>
+      </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>27</v>
+      </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
       <c r="G36" s="4"/>
-      <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>29</v>
+      </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G38" s="4"/>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="J39"/>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
       <c r="G40" s="4"/>
-      <c r="J40"/>
-      <c r="K40"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="J42"/>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="J43"/>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="N41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>36</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="J45"/>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="J46"/>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="K46" s="10"/>
+      <c r="N46" t="s">
+        <v>114</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>38</v>
+      </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G48" s="4"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
-    </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G49" s="4"/>
-      <c r="J49"/>
-      <c r="K49"/>
+      <c r="N48" t="s">
+        <v>114</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
@@ -2751,8 +3448,12 @@
       <c r="C99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T29"/>
-  <dataValidations count="1">
+  <autoFilter ref="A9:T30">
+    <sortState ref="A10:T48">
+      <sortCondition ref="A9:A30"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H91:H93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,7 +3473,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +3655,7 @@
       <c r="J13"/>
       <c r="K13" s="10"/>
       <c r="O13" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2977,7 +3678,7 @@
       </c>
       <c r="J14"/>
       <c r="O14" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3001,7 +3702,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="O15" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3061,7 +3762,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>94</v>
@@ -3084,7 +3785,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>94</v>
@@ -3092,18 +3793,18 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3114,18 +3815,18 @@
       <c r="J21"/>
       <c r="K21" s="10"/>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="4"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3142,11 +3843,11 @@
         <v>34</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23"/>
       <c r="O23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3161,11 +3862,11 @@
         <v>36</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24"/>
       <c r="O24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3176,15 +3877,15 @@
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="O25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -3635,4 +4336,5030 @@
   <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J304"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(I4,$A$4:$C$42,3,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="0">VLOOKUP(I5,$A$4:$C$42,3,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>36</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>26</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>37</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="I34">
+        <v>37</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>32</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="I42">
+        <v>37</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="I43">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>37</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>27</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>33</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>36</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>37</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>27</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>27</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>37</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>37</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>39</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>31</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>41</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>30</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>32</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>31</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>42</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>41</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>41</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J132" si="1">VLOOKUP(I69,$A$4:$C$42,3,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>41</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>41</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>41</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>41</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>41</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>41</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>41</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>41</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>41</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>30</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>30</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>42</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>41</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>41</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>41</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>41</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>41</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>18</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>30</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>30</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>30</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>30</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>32</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>32</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>32</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>32</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>18</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>18</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>41</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>42</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>42</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>42</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>42</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>42</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>42</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>42</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>42</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>42</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>14</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>23</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>25</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>25</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>25</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>25</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>25</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>25</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>25</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>26</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>39</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <f t="shared" ref="J133:J196" si="2">VLOOKUP(I133,$A$4:$C$42,3,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>14</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>14</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>14</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>14</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>14</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>14</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>14</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>23</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>14</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>23</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>14</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>14</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>23</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>14</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>14</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>14</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>23</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>23</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>23</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>23</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>14</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>14</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>14</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>14</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>14</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>14</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>23</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>23</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>23</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>23</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>23</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>23</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>14</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>14</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>14</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>23</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>15</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>15</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>26</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>23</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>23</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>14</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>23</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>9</v>
+      </c>
+      <c r="J197">
+        <f t="shared" ref="J197:J260" si="3">VLOOKUP(I197,$A$4:$C$42,3,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>13</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>23</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>23</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>13</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>13</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>13</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>13</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>23</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>23</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>34</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>33</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>4</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>40</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>4</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>4</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>34</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>34</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>34</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>34</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>15</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>15</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>15</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>15</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>15</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>12</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>14</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>14</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>23</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>23</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>28</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>11</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>28</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>32</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>32</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>32</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>43</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>16</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>12</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>36</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>12</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>16</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>10</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>10</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>10</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>43</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>43</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>37</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>43</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>43</v>
+      </c>
+      <c r="J255">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>37</v>
+      </c>
+      <c r="J256">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>43</v>
+      </c>
+      <c r="J257">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>43</v>
+      </c>
+      <c r="J258">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>43</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>43</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>43</v>
+      </c>
+      <c r="J261">
+        <f t="shared" ref="J261:J304" si="4">VLOOKUP(I261,$A$4:$C$42,3,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>43</v>
+      </c>
+      <c r="J262">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>43</v>
+      </c>
+      <c r="J263">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>16</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>37</v>
+      </c>
+      <c r="J265">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>22</v>
+      </c>
+      <c r="J266">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>40</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>40</v>
+      </c>
+      <c r="J268">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>40</v>
+      </c>
+      <c r="J269">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>27</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>28</v>
+      </c>
+      <c r="J271">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>27</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>40</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>12</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>43</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>43</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>26</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>26</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>26</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>26</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <v>16</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>16</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <v>16</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <v>27</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>24</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>24</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>24</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>24</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>28</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>27</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>40</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>40</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>40</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>38</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>29</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>29</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>10</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>3</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>29</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>29</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>28</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>28</v>
+      </c>
+      <c r="J303">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>44</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B42">
+    <sortCondition ref="B4:B42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2">
+        <v>47.7</v>
+      </c>
+      <c r="O2" s="25">
+        <v>139</v>
+      </c>
+      <c r="P2">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3">
+        <v>120</v>
+      </c>
+      <c r="O3" s="25">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4" s="25">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5">
+        <v>44.1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>44.1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>801</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6">
+        <v>13.3</v>
+      </c>
+      <c r="O6" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="P6">
+        <v>7.8</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5.5</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" s="25">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7">
+        <v>33</v>
+      </c>
+      <c r="O7" s="25">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8" s="25">
+        <v>22</v>
+      </c>
+      <c r="C8" s="25">
+        <v>206</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="25">
+        <v>12</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" s="25">
+        <v>200</v>
+      </c>
+      <c r="O8" s="25">
+        <v>20</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9" s="25">
+        <v>180</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" s="25">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10">
+        <v>209.5</v>
+      </c>
+      <c r="O10" s="25">
+        <v>209.5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>20.95</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>188.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" s="25">
+        <v>306</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11">
+        <v>16.2</v>
+      </c>
+      <c r="O11" s="25">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25">
+        <v>26</v>
+      </c>
+      <c r="C12" s="25">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12">
+        <v>130</v>
+      </c>
+      <c r="O12" s="25">
+        <v>300</v>
+      </c>
+      <c r="P12">
+        <v>117</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13" s="25">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13">
+        <v>30.6</v>
+      </c>
+      <c r="O13" s="25">
+        <v>30.6</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>503</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" s="25">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15" s="25">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" s="25">
+        <v>90</v>
+      </c>
+      <c r="P15">
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" s="25">
+        <v>31</v>
+      </c>
+      <c r="C16" s="25">
+        <v>209</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N16">
+        <v>66</v>
+      </c>
+      <c r="O16" s="25">
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>66</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25">
+        <v>35</v>
+      </c>
+      <c r="C17" s="25">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17">
+        <v>69.09</v>
+      </c>
+      <c r="O17" s="25">
+        <v>76</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>59.09</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" s="25">
+        <v>62</v>
+      </c>
+      <c r="C18" s="25">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18">
+        <v>75</v>
+      </c>
+      <c r="O18" s="25">
+        <v>103</v>
+      </c>
+      <c r="P18">
+        <v>60</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19" s="25">
+        <v>852</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19">
+        <v>5532.5</v>
+      </c>
+      <c r="O19" s="25">
+        <v>5532.5</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1854.7</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>3677.8</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20" s="25">
+        <v>21</v>
+      </c>
+      <c r="C20" s="25">
+        <v>251</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20">
+        <v>23.5</v>
+      </c>
+      <c r="O20" s="25">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>23.5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>351</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21">
+        <v>233.1</v>
+      </c>
+      <c r="O21" s="25">
+        <v>233.1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>352</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>215</v>
+      </c>
+      <c r="N22">
+        <v>24.2</v>
+      </c>
+      <c r="O22" s="25">
+        <v>24.2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>6.0384915362244724</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>24.15396614489789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>353</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N23">
+        <v>10.713452725559549</v>
+      </c>
+      <c r="O23" s="25">
+        <v>10.713452725559549</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>10.713452725559549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>354</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>218</v>
+      </c>
+      <c r="N24">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="O24" s="25">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>54.22</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>216.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>355</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25">
+        <v>18.2</v>
+      </c>
+      <c r="O25" s="25">
+        <v>18.2</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>356</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26">
+        <v>130.80000000000004</v>
+      </c>
+      <c r="O26" s="25">
+        <v>130.80000000000004</v>
+      </c>
+      <c r="P26">
+        <v>44.472000000000008</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>43.164000000000009</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>43.164000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>357</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N27">
+        <v>102.5</v>
+      </c>
+      <c r="O27" s="25">
+        <v>102.5</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>952</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N28">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="O28" s="25">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="P28">
+        <v>486.27</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>54.03</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="276">
   <si>
     <t>Cost</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Adds WB Standard Lane</t>
-  </si>
-  <si>
-    <t>Not coded yet</t>
   </si>
   <si>
     <t>Waiawa</t>
@@ -848,6 +845,15 @@
   </si>
   <si>
     <t>updating project list</t>
+  </si>
+  <si>
+    <t>Not coded</t>
+  </si>
+  <si>
+    <t>Partially Funded (delayed)</t>
+  </si>
+  <si>
+    <t>2040 LRTP</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1789,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>0</v>
@@ -1819,7 +1825,7 @@
         <v>73</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>74</v>
@@ -1831,13 +1837,13 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1849,6 +1855,21 @@
       <c r="K10">
         <v>4</v>
       </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1856,13 +1877,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>9</v>
@@ -1874,6 +1895,21 @@
       <c r="K11">
         <v>6</v>
       </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1881,13 +1917,13 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -1899,6 +1935,21 @@
       <c r="K12">
         <v>6</v>
       </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1906,10 +1957,10 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>55</v>
@@ -1924,6 +1975,21 @@
       <c r="K13">
         <v>4</v>
       </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1931,16 +1997,16 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G14" s="4"/>
       <c r="J14">
@@ -1948,6 +2014,21 @@
       </c>
       <c r="K14">
         <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -1995,20 +2076,35 @@
         <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" t="s">
         <v>242</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>243</v>
-      </c>
-      <c r="F16" t="s">
-        <v>244</v>
       </c>
       <c r="G16" s="4"/>
       <c r="J16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2020,20 +2116,35 @@
         <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="4"/>
       <c r="J17" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2085,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>40</v>
@@ -2126,7 +2237,7 @@
         <v>118</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>40</v>
@@ -2194,21 +2305,21 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
       <c r="O22" s="21" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="P22" s="8">
         <v>0</v>
@@ -2232,7 +2343,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2246,22 +2357,37 @@
       <c r="K23">
         <v>2</v>
       </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" t="s">
         <v>266</v>
       </c>
-      <c r="D24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="G24" s="4"/>
       <c r="J24">
@@ -2269,6 +2395,21 @@
       </c>
       <c r="K24">
         <v>2</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2277,10 +2418,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>31</v>
@@ -2295,6 +2436,21 @@
       <c r="K25">
         <v>4</v>
       </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2349,16 +2505,16 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G27" s="4"/>
       <c r="J27">
@@ -2366,6 +2522,21 @@
       </c>
       <c r="K27">
         <v>4</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2374,13 +2545,13 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>9</v>
@@ -2392,6 +2563,21 @@
       <c r="K28">
         <v>4</v>
       </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2439,16 +2625,16 @@
         <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>116</v>
@@ -2481,16 +2667,16 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G31" s="4"/>
       <c r="J31">
@@ -2498,6 +2684,21 @@
       </c>
       <c r="K31">
         <v>4</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2525,7 +2726,7 @@
         <v>114</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P32" s="5">
         <v>1</v>
@@ -2583,16 +2784,16 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="4"/>
       <c r="J34">
@@ -2600,6 +2801,21 @@
       </c>
       <c r="K34" s="26">
         <v>4</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2617,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>40</v>
@@ -2650,16 +2866,16 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
         <v>240</v>
-      </c>
-      <c r="F36" t="s">
-        <v>241</v>
       </c>
       <c r="G36" s="4"/>
       <c r="J36">
@@ -2667,6 +2883,21 @@
       </c>
       <c r="K36">
         <v>2</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2674,16 +2905,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>40</v>
@@ -2712,10 +2943,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>81</v>
@@ -2730,6 +2961,21 @@
       <c r="K38">
         <v>6</v>
       </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2748,7 +2994,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>73</v>
@@ -2798,6 +3044,21 @@
       <c r="K40">
         <v>6</v>
       </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -2807,7 +3068,7 @@
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
         <v>102</v>
@@ -2816,7 +3077,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>73</v>
@@ -2847,16 +3108,16 @@
         <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>17</v>
@@ -2956,13 +3217,13 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>9</v>
@@ -2973,6 +3234,21 @@
       </c>
       <c r="K45">
         <v>6</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3000,7 +3276,7 @@
         <v>114</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P46" s="5">
         <v>1</v>
@@ -3024,7 +3300,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3034,6 +3310,21 @@
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -3060,7 +3351,7 @@
         <v>114</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P48" s="5">
         <v>1</v>
@@ -3847,7 +4138,7 @@
       </c>
       <c r="J23"/>
       <c r="O23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3866,7 +4157,7 @@
       </c>
       <c r="J24"/>
       <c r="O24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3885,7 +4176,7 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="O25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -4343,25 +4634,25 @@
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4372,10 +4663,10 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" t="s">
         <v>269</v>
-      </c>
-      <c r="J3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4383,7 +4674,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4401,7 +4692,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4419,7 +4710,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4437,7 +4728,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -4455,7 +4746,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -4617,7 +4908,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -4635,7 +4926,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -4653,7 +4944,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -4689,7 +4980,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -4707,7 +4998,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -4743,7 +5034,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -4761,7 +5052,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -4815,7 +5106,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -4851,7 +5142,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -4869,7 +5160,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -4887,7 +5178,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32">
         <v>29</v>
@@ -4941,7 +5232,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -4959,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -5013,7 +5304,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39">
         <v>36</v>
@@ -5049,7 +5340,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -7451,126 +7742,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>151</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" t="s">
         <v>153</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>155</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>156</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>157</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>158</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>159</v>
-      </c>
-      <c r="V1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>204</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>161</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="25">
+        <v>20</v>
+      </c>
+      <c r="C2" s="25">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>164</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="L2">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="N2">
-        <v>47.7</v>
+        <v>33</v>
       </c>
       <c r="O2" s="25">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>38.159999999999997</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -7588,54 +7884,54 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>9.5399999999999991</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>301</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
+        <v>351</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="L3">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="N3">
-        <v>120</v>
+        <v>233.1</v>
       </c>
       <c r="O3" s="25">
-        <v>120</v>
+        <v>233.1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -7656,63 +7952,63 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>120</v>
+        <v>233.1</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
+        <v>356</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" t="s">
         <v>164</v>
       </c>
-      <c r="I4" t="s">
-        <v>165</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L4">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>130.80000000000004</v>
       </c>
       <c r="O4" s="25">
-        <v>30</v>
+        <v>130.80000000000004</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>44.472000000000008</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>43.164000000000009</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -7724,54 +8020,54 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>30</v>
+        <v>43.164000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>303</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
+        <v>353</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" t="s">
         <v>164</v>
       </c>
-      <c r="I5" t="s">
-        <v>165</v>
-      </c>
       <c r="J5" s="24" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N5">
-        <v>44.1</v>
+        <v>10.713452725559549</v>
       </c>
       <c r="O5" s="25">
-        <v>44.1</v>
+        <v>10.713452725559549</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -7792,66 +8088,66 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>44.1</v>
+        <v>10.713452725559549</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" s="25">
+        <v>21</v>
+      </c>
+      <c r="C6" s="25">
+        <v>251</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>801</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="N6">
-        <v>13.3</v>
+        <v>23.5</v>
       </c>
       <c r="O6" s="25">
-        <v>13.3</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="S6">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7865,52 +8161,52 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>27</v>
-      </c>
-      <c r="B7" s="25">
-        <v>20</v>
-      </c>
-      <c r="C7" s="25">
-        <v>205</v>
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>301</v>
       </c>
       <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
         <v>168</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>180</v>
-      </c>
       <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" t="s">
         <v>164</v>
       </c>
-      <c r="I7" t="s">
-        <v>165</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N7">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="O7" s="25">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -7928,199 +8224,199 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>28</v>
-      </c>
-      <c r="B8" s="25">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
       </c>
       <c r="C8" s="25">
+        <v>852</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>164</v>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" s="25">
-        <v>12</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="N8" s="25">
-        <v>200</v>
+        <v>177</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8">
+        <v>5532.5</v>
       </c>
       <c r="O8" s="25">
-        <v>20</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>0</v>
-      </c>
-      <c r="R8" s="25">
-        <v>0</v>
-      </c>
-      <c r="S8" s="25">
-        <v>0</v>
-      </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
-      <c r="U8" s="25">
-        <v>0</v>
-      </c>
-      <c r="V8" s="25">
+        <v>5532.5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1854.7</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3677.8</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>28</v>
-      </c>
-      <c r="B9" s="25">
-        <v>22</v>
-      </c>
-      <c r="C9" s="25">
-        <v>304</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>204</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>184</v>
-      </c>
       <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
         <v>164</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9">
+        <v>47.7</v>
+      </c>
+      <c r="O9" s="25">
+        <v>139</v>
+      </c>
+      <c r="P9">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>503</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9">
-        <v>200</v>
-      </c>
-      <c r="O9" s="25">
-        <v>180</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10" s="25">
-        <v>305</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" t="s">
-        <v>165</v>
-      </c>
       <c r="J10" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="N10">
-        <v>209.5</v>
+        <v>100</v>
       </c>
       <c r="O10" s="25">
-        <v>209.5</v>
+        <v>100</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>20.95</v>
+        <v>20</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -8132,63 +8428,63 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>188.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
       <c r="C11" s="25">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" t="s">
-        <v>188</v>
+        <v>161</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="H11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" t="s">
         <v>164</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="L11">
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N11">
-        <v>16.2</v>
+        <v>100</v>
       </c>
       <c r="O11" s="25">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -8200,63 +8496,63 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>16.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>31</v>
-      </c>
-      <c r="B12" s="25">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
       </c>
       <c r="C12" s="25">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>190</v>
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
       </c>
       <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" t="s">
         <v>164</v>
       </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
       <c r="J12" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N12">
-        <v>130</v>
+        <v>16.2</v>
       </c>
       <c r="O12" s="25">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="P12">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -8268,131 +8564,131 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25">
-        <v>307</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>952</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
         <v>164</v>
       </c>
-      <c r="I13" t="s">
-        <v>165</v>
-      </c>
       <c r="J13" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="O13" s="25">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="P13">
+        <v>486.27</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>54.03</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>357</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>193</v>
-      </c>
-      <c r="N13">
-        <v>30.6</v>
-      </c>
-      <c r="O13" s="25">
-        <v>30.6</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>503</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" t="s">
-        <v>165</v>
-      </c>
       <c r="J14" s="24" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="O14" s="25">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="P14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -8404,63 +8700,63 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="25">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>191</v>
       </c>
       <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s">
         <v>164</v>
       </c>
-      <c r="I15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>164</v>
+      <c r="J15" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>30.6</v>
       </c>
       <c r="O15" s="25">
-        <v>90</v>
+        <v>30.6</v>
       </c>
       <c r="P15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -8472,66 +8768,66 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="25">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C16" s="25">
-        <v>209</v>
-      </c>
-      <c r="D16" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>161</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>172</v>
-      </c>
       <c r="G16" s="25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" t="s">
         <v>164</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>166</v>
-      </c>
       <c r="L16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N16">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O16" s="25">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S16">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -8545,52 +8841,52 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25">
-        <v>35</v>
-      </c>
-      <c r="C17" s="25">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>201</v>
-      </c>
       <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
         <v>164</v>
       </c>
-      <c r="I17" t="s">
-        <v>202</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="N17">
-        <v>69.09</v>
+        <v>30</v>
       </c>
       <c r="O17" s="25">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -8599,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>59.09</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -8608,66 +8904,66 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>34</v>
-      </c>
-      <c r="B18" s="25">
-        <v>62</v>
-      </c>
-      <c r="C18" s="25">
-        <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>354</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" t="s">
         <v>204</v>
       </c>
-      <c r="H18" t="s">
-        <v>205</v>
-      </c>
       <c r="I18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="25" t="s">
         <v>164</v>
       </c>
+      <c r="J18" s="24" t="s">
+        <v>204</v>
+      </c>
       <c r="K18" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="N18">
-        <v>75</v>
+        <v>271.10000000000002</v>
       </c>
       <c r="O18" s="25">
-        <v>103</v>
+        <v>271.10000000000002</v>
       </c>
       <c r="P18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>54.22</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -8676,69 +8972,69 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>216.88</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="25">
+        <v>26</v>
       </c>
       <c r="C19" s="25">
-        <v>852</v>
-      </c>
-      <c r="D19" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>161</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
+      <c r="G19" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
         <v>164</v>
       </c>
-      <c r="I19" t="s">
-        <v>208</v>
-      </c>
       <c r="J19" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="N19">
-        <v>5532.5</v>
+        <v>130</v>
       </c>
       <c r="O19" s="25">
-        <v>5532.5</v>
+        <v>300</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="Q19">
-        <v>1854.7</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3677.8</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -8749,49 +9045,49 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>36</v>
-      </c>
-      <c r="B20" s="25">
-        <v>21</v>
-      </c>
-      <c r="C20" s="25">
-        <v>251</v>
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>352</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>210</v>
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>213</v>
       </c>
       <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" t="s">
         <v>164</v>
       </c>
-      <c r="I20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>205</v>
+      <c r="J20" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L20">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N20">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="O20" s="25">
-        <v>50</v>
+        <v>24.2</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -8800,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>6.0384915362244724</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -8812,54 +9108,54 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>24.15396614489789</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>351</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>168</v>
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="N21">
-        <v>233.1</v>
+        <v>44.1</v>
       </c>
       <c r="O21" s="25">
-        <v>233.1</v>
+        <v>44.1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -8880,57 +9176,57 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>233.1</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>352</v>
+        <v>801</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="N22">
-        <v>24.2</v>
+        <v>13.3</v>
       </c>
       <c r="O22" s="25">
-        <v>24.2</v>
+        <v>13.3</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -8939,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>6.0384915362244724</v>
+        <v>5.5</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -8948,54 +9244,54 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>24.15396614489789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>353</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="25">
+        <v>305</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>172</v>
+      <c r="F23" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="N23">
-        <v>10.713452725559549</v>
+        <v>209.5</v>
       </c>
       <c r="O23" s="25">
-        <v>10.713452725559549</v>
+        <v>209.5</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -9004,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>20.95</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -9016,122 +9312,122 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>10.713452725559549</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>57</v>
-      </c>
-      <c r="C24">
-        <v>354</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="25">
+        <v>206</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24" t="s">
-        <v>218</v>
-      </c>
-      <c r="N24">
-        <v>271.10000000000002</v>
+      <c r="L24" s="25">
+        <v>12</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24" s="25">
+        <v>200</v>
       </c>
       <c r="O24" s="25">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>54.22</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>216.88</v>
+        <v>20</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="25">
+        <v>0</v>
+      </c>
+      <c r="U24" s="25">
+        <v>0</v>
+      </c>
+      <c r="V24" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>355</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>168</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="25">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" t="s">
-        <v>219</v>
+        <v>161</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>205</v>
+        <v>164</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="N25">
-        <v>18.2</v>
+        <v>200</v>
       </c>
       <c r="O25" s="25">
-        <v>18.2</v>
+        <v>180</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -9152,66 +9448,66 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>18.2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>41</v>
-      </c>
-      <c r="B26">
-        <v>59</v>
-      </c>
-      <c r="C26">
-        <v>356</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>168</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="25">
+        <v>35</v>
+      </c>
+      <c r="C26" s="25">
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" t="s">
-        <v>221</v>
+        <v>171</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="L26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="N26">
-        <v>130.80000000000004</v>
+        <v>69.09</v>
       </c>
       <c r="O26" s="25">
-        <v>130.80000000000004</v>
+        <v>76</v>
       </c>
       <c r="P26">
-        <v>44.472000000000008</v>
+        <v>10</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>43.164000000000009</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>59.09</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -9220,54 +9516,54 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>43.164000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N27">
-        <v>102.5</v>
+        <v>18.2</v>
       </c>
       <c r="O27" s="25">
-        <v>102.5</v>
+        <v>18.2</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -9288,66 +9584,66 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>102.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>61</v>
-      </c>
-      <c r="C28">
-        <v>952</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="25">
+        <v>31</v>
+      </c>
+      <c r="C28" s="25">
+        <v>209</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J28" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="L28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="N28">
-        <v>540.29999999999995</v>
+        <v>66</v>
       </c>
       <c r="O28" s="25">
-        <v>540.29999999999995</v>
+        <v>80</v>
       </c>
       <c r="P28">
-        <v>486.27</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>54.03</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -9360,6 +9656,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:V28">
+    <sortCondition ref="G1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$T$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="285">
   <si>
     <t>Cost</t>
   </si>
@@ -847,13 +847,40 @@
     <t>updating project list</t>
   </si>
   <si>
-    <t>Not coded</t>
-  </si>
-  <si>
     <t>Partially Funded (delayed)</t>
   </si>
   <si>
-    <t>2040 LRTP</t>
+    <t>Model ProjID</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Not coded - confirmed with Chris not to code</t>
+  </si>
+  <si>
+    <t>Mid Range w/o Dev Proj</t>
+  </si>
+  <si>
+    <t>Mid Range</t>
+  </si>
+  <si>
+    <t>2040 LRTP w/o Dev Proj</t>
+  </si>
+  <si>
+    <t>Plan Scenarios to Run</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>no bus/rail integration</t>
+  </si>
+  <si>
+    <t>bus/rail integration</t>
+  </si>
+  <si>
+    <t>bus/rail integration + HUB</t>
   </si>
 </sst>
 </file>
@@ -906,7 +933,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -916,12 +943,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -988,7 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1033,7 +1053,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1088,13 +1108,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1362636</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>33183</xdr:rowOff>
@@ -1106,7 +1126,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1181100" y="0"/>
+          <a:off x="2181225" y="0"/>
           <a:ext cx="10049436" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
@@ -1231,6 +1251,50 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>343458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27974925" y="2286000"/>
+          <a:ext cx="4001058" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1678,7 +1742,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
@@ -1689,57 +1753,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="18" style="5" customWidth="1"/>
-    <col min="17" max="19" width="18" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="18" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O1" s="16"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O2" s="16"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O3" s="16"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O4" s="16"/>
-      <c r="P4" s="2" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O5" s="16"/>
-      <c r="P5" s="2" t="s">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="16"/>
-      <c r="P6" s="2" t="s">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O7" s="16"/>
-      <c r="P7" s="2" t="s">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1754,8 +1821,8 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1768,97 +1835,105 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="4">
+        <v>205</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="J10">
+      <c r="H10" s="4"/>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="Q10" s="5">
         <v>0</v>
       </c>
       <c r="R10">
@@ -1870,192 +1945,225 @@
       <c r="T10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="4">
+        <v>351</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="J11">
+      <c r="H11" s="4"/>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4">
+        <v>356</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="J12">
+      <c r="H12" s="4"/>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="4">
+        <v>251</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="J13">
+      <c r="H13" s="4"/>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" s="5">
         <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="4">
+        <v>353</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="J14">
-        <v>0</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>853</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J15"/>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
+      <c r="K15"/>
+      <c r="Q15" s="5">
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2066,75 +2174,87 @@
       <c r="T15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="4">
+        <v>306</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>242</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>243</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="J16" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="K16" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="L16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="5">
         <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="4">
+        <v>208</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="J17" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="K17" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="L17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
       <c r="R17">
@@ -2146,30 +2266,36 @@
       <c r="T17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18">
+        <v>854</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J18"/>
       <c r="K18"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="L18"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18">
@@ -2181,37 +2307,46 @@
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>855</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>8</v>
       </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
+      <c r="Q19" s="5">
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2222,33 +2357,45 @@
       <c r="T19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>2012</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>856</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="Q20" s="5">
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -2259,32 +2406,44 @@
       <c r="T20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>2020</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>802</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>119</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="P21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q21">
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="Q21" s="8">
         <v>1</v>
       </c>
       <c r="R21">
@@ -2296,35 +2455,47 @@
       <c r="T21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>2030</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>902</v>
+      </c>
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>121</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="O22" s="21" t="s">
+      <c r="H22" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="P22" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="8">
         <v>0</v>
       </c>
       <c r="R22">
@@ -2336,110 +2507,128 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="4">
+        <v>357</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="J23">
-        <v>0</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>2</v>
       </c>
-      <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="Q23" s="5">
         <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>301</v>
+      </c>
+      <c r="D24" t="s">
         <v>265</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>233</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="J24">
-        <v>0</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="Q24" s="5">
         <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="4">
+        <v>211</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="J25">
+      <c r="H25" s="4"/>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="Q25" s="5">
         <v>0</v>
       </c>
       <c r="R25">
@@ -2451,122 +2640,140 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>302</v>
+      </c>
+      <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>111</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>114</v>
       </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
+      <c r="Q26" s="8">
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="4">
+        <v>354</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="J27">
-        <v>0</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="P27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="Q27" s="5">
         <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="4">
+        <v>207</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="J28">
+      <c r="H28" s="4"/>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="Q28" s="5">
         <v>0</v>
       </c>
       <c r="R28">
@@ -2578,37 +2785,43 @@
       <c r="T28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>857</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>3</v>
       </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
+      <c r="Q29" s="5">
+        <v>0</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2619,36 +2832,42 @@
       <c r="T29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30">
+        <v>803</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="P30" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q30">
+      <c r="Q30" s="8">
         <v>1</v>
       </c>
       <c r="R30">
@@ -2660,78 +2879,90 @@
       <c r="T30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" t="s">
+      <c r="C31" s="4">
+        <v>352</v>
+      </c>
+      <c r="D31" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="J31">
-        <v>0</v>
-      </c>
+      <c r="H31" s="4"/>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="Q31" s="5">
         <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>804</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>91</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J32"/>
       <c r="K32"/>
-      <c r="N32" t="s">
+      <c r="L32"/>
+      <c r="O32" t="s">
         <v>114</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="P32" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="P32" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q32">
+      <c r="Q32" s="5">
         <v>1</v>
       </c>
       <c r="R32">
@@ -2743,33 +2974,39 @@
       <c r="T32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J33"/>
       <c r="K33"/>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
+      <c r="L33"/>
+      <c r="Q33" s="5">
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2777,78 +3014,90 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="4">
+        <v>303</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="26">
+      <c r="H34" s="4"/>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="25">
         <v>4</v>
       </c>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="Q34" s="5">
         <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" t="s">
+      <c r="C35" s="4">
+        <v>801</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>240</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>6</v>
       </c>
-      <c r="P35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
+      <c r="Q35" s="5">
+        <v>0</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -2859,73 +3108,85 @@
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="4">
+        <v>305</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="J36">
-        <v>0</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>2</v>
       </c>
-      <c r="P36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="Q36" s="5">
         <v>0</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37">
+        <v>858</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="H37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J37"/>
       <c r="K37"/>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
+      <c r="L37"/>
+      <c r="Q37" s="8">
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -2936,83 +3197,95 @@
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="4">
+        <v>304</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="J38">
+      <c r="H38" s="4"/>
+      <c r="K38">
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>6</v>
       </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>80</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>240</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>4</v>
       </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="Q39" s="5">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -3020,160 +3293,184 @@
       <c r="T39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>80</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="J40">
+      <c r="H40" s="4"/>
+      <c r="K40">
         <v>4</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>6</v>
       </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="Q40" s="5">
         <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
         <v>260</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>102</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J41"/>
       <c r="K41"/>
-      <c r="N41" t="s">
+      <c r="L41"/>
+      <c r="O41" t="s">
         <v>114</v>
       </c>
-      <c r="P41" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="Q41" s="8">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42">
+        <v>355</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="H42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="Q42" s="8">
         <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>859</v>
+      </c>
+      <c r="D43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
       <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
+      <c r="Q43" s="5">
+        <v>0</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3184,22 +3481,28 @@
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="C44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="J44"/>
+      <c r="H44" s="4"/>
       <c r="K44"/>
-      <c r="P44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
+      <c r="L44"/>
+      <c r="Q44" s="8">
+        <v>0</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3210,39 +3513,45 @@
       <c r="T44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="4">
+        <v>209</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="J45">
+      <c r="H45" s="4"/>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>6</v>
       </c>
-      <c r="P45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
+      <c r="Q45" s="8">
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -3250,38 +3559,44 @@
       <c r="T45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>805</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>97</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="H46" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J46"/>
-      <c r="K46" s="10"/>
-      <c r="N46" t="s">
+      <c r="K46"/>
+      <c r="L46" s="10"/>
+      <c r="O46" t="s">
         <v>114</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="P46" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="P46" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q46">
+      <c r="Q46" s="5">
         <v>1</v>
       </c>
       <c r="R46">
@@ -3293,70 +3608,82 @@
       <c r="T46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="4">
+        <v>307</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="J47"/>
+      <c r="H47" s="4"/>
       <c r="K47"/>
-      <c r="P47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="L47"/>
+      <c r="Q47" s="5">
         <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>806</v>
+      </c>
+      <c r="D48" t="s">
         <v>88</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>86</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>87</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J48"/>
       <c r="K48"/>
-      <c r="N48" t="s">
+      <c r="L48"/>
+      <c r="O48" t="s">
         <v>114</v>
       </c>
-      <c r="O48" s="18" t="s">
+      <c r="P48" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="P48" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q48">
+      <c r="Q48" s="5">
         <v>1</v>
       </c>
       <c r="R48">
@@ -3368,130 +3695,140 @@
       <c r="T48">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G50" s="4"/>
-      <c r="J50"/>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
       <c r="K50"/>
-    </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G51" s="4"/>
-      <c r="J51"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="4"/>
       <c r="K51"/>
-    </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G52" s="4"/>
-      <c r="J52"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
       <c r="K52"/>
-    </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="4"/>
-      <c r="J53"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="4"/>
       <c r="K53"/>
-    </row>
-    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G54" s="4"/>
-      <c r="J54"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
       <c r="K54"/>
-    </row>
-    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G55" s="4"/>
-      <c r="J55"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="4"/>
       <c r="K55"/>
-    </row>
-    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G56" s="4"/>
-      <c r="J56"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
       <c r="K56"/>
-    </row>
-    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G57" s="4"/>
-      <c r="J57"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="4"/>
       <c r="K57"/>
-    </row>
-    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G58" s="4"/>
-      <c r="J58"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="4"/>
       <c r="K58"/>
-    </row>
-    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G59" s="4"/>
-      <c r="J59"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
       <c r="K59"/>
-    </row>
-    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G60" s="4"/>
-      <c r="J60"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
       <c r="K60"/>
-    </row>
-    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G61" s="4"/>
-      <c r="J61"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="4"/>
       <c r="K61"/>
-    </row>
-    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G62" s="4"/>
-      <c r="J62"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
       <c r="K62"/>
-    </row>
-    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G63" s="4"/>
-      <c r="J63"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
       <c r="K63"/>
-    </row>
-    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G64" s="4"/>
-      <c r="J64"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
       <c r="K64"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J65"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K65"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J66"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K66"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J67"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K67"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J68"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K68"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O69" s="19"/>
-      <c r="P69" s="8"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P69" s="19"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="8"/>
+      <c r="C70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="P70" s="19"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
-    </row>
-    <row r="71" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+    </row>
+    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D71"/>
       <c r="E71"/>
-      <c r="H71"/>
+      <c r="F71"/>
       <c r="I71"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="5"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="8"/>
+      <c r="J71"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="5"/>
+      <c r="P71" s="19"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3501,251 +3838,295 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="8"/>
+      <c r="J72" s="4"/>
+      <c r="P72" s="19"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="8"/>
+      <c r="H73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="P73" s="19"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="8"/>
+      <c r="C74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="P74" s="19"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="8"/>
+      <c r="I75" s="4"/>
+      <c r="P75" s="19"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="C76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="8"/>
+      <c r="I76" s="4"/>
+      <c r="P76" s="19"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="C77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="8"/>
+      <c r="I77" s="4"/>
+      <c r="P77" s="19"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="C78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="8"/>
+      <c r="I78" s="4"/>
+      <c r="P78" s="19"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="8"/>
+      <c r="I79" s="4"/>
+      <c r="P79" s="19"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="8"/>
+      <c r="I80" s="4"/>
+      <c r="P80" s="19"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="8"/>
+      <c r="C81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="P81" s="19"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="8"/>
+      <c r="C82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="P82" s="19"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="8"/>
+      <c r="C83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="P83" s="19"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="8"/>
+      <c r="C84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="P84" s="19"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="8"/>
+      <c r="C85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="P85" s="19"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="8"/>
+      <c r="C86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="P86" s="19"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="8"/>
+      <c r="C87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="P87" s="19"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="8"/>
+      <c r="I88" s="4"/>
+      <c r="P88" s="19"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="8"/>
+      <c r="D89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="P89" s="19"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="8"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="8"/>
+      <c r="D90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="8"/>
+      <c r="P90" s="19"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="8"/>
+      <c r="C91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="8"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="P91" s="19"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="8"/>
+      <c r="C92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="8"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="P92" s="19"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T30">
+  <autoFilter ref="A9:V30">
     <sortState ref="A10:T48">
       <sortCondition ref="A9:A30"/>
     </sortState>
   </autoFilter>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H91:H93"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I91:I93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>
@@ -4781,7 +5162,7 @@
       <c r="A10" s="4">
         <v>30</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C10">
@@ -7755,16 +8136,16 @@
       <c r="A1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>142</v>
       </c>
       <c r="F1" t="s">
@@ -7779,10 +8160,10 @@
       <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>148</v>
       </c>
       <c r="L1" t="s">
@@ -7794,7 +8175,7 @@
       <c r="N1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>152</v>
       </c>
       <c r="P1" t="s">
@@ -7823,10 +8204,10 @@
       <c r="A2">
         <v>27</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>20</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>205</v>
       </c>
       <c r="D2" t="s">
@@ -7838,7 +8219,7 @@
       <c r="F2" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>179</v>
       </c>
       <c r="H2" t="s">
@@ -7847,10 +8228,10 @@
       <c r="I2" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L2">
@@ -7862,7 +8243,7 @@
       <c r="N2">
         <v>33</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="24">
         <v>100</v>
       </c>
       <c r="P2">
@@ -7897,7 +8278,7 @@
       <c r="C3">
         <v>351</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E3">
@@ -7915,10 +8296,10 @@
       <c r="I3" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L3">
@@ -7930,7 +8311,7 @@
       <c r="N3">
         <v>233.1</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="24">
         <v>233.1</v>
       </c>
       <c r="P3">
@@ -7965,7 +8346,7 @@
       <c r="C4">
         <v>356</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E4">
@@ -7983,10 +8364,10 @@
       <c r="I4" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L4">
@@ -7998,7 +8379,7 @@
       <c r="N4">
         <v>130.80000000000004</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>130.80000000000004</v>
       </c>
       <c r="P4">
@@ -8033,7 +8414,7 @@
       <c r="C5">
         <v>353</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E5">
@@ -8051,10 +8432,10 @@
       <c r="I5" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L5">
@@ -8066,7 +8447,7 @@
       <c r="N5">
         <v>10.713452725559549</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <v>10.713452725559549</v>
       </c>
       <c r="P5">
@@ -8095,13 +8476,13 @@
       <c r="A6">
         <v>36</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>21</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>251</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E6">
@@ -8110,7 +8491,7 @@
       <c r="F6" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>209</v>
       </c>
       <c r="H6" t="s">
@@ -8119,10 +8500,10 @@
       <c r="I6" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L6">
@@ -8134,7 +8515,7 @@
       <c r="N6">
         <v>23.5</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="24">
         <v>50</v>
       </c>
       <c r="P6">
@@ -8187,10 +8568,10 @@
       <c r="I7" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L7">
@@ -8202,7 +8583,7 @@
       <c r="N7">
         <v>120</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="24">
         <v>120</v>
       </c>
       <c r="P7">
@@ -8234,10 +8615,10 @@
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>852</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E8">
@@ -8255,10 +8636,10 @@
       <c r="I8" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>177</v>
       </c>
       <c r="L8">
@@ -8270,7 +8651,7 @@
       <c r="N8">
         <v>5532.5</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="24">
         <v>5532.5</v>
       </c>
       <c r="P8">
@@ -8305,7 +8686,7 @@
       <c r="C9">
         <v>204</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E9">
@@ -8314,7 +8695,7 @@
       <c r="F9" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>162</v>
       </c>
       <c r="H9" t="s">
@@ -8323,10 +8704,10 @@
       <c r="I9" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L9">
@@ -8338,7 +8719,7 @@
       <c r="N9">
         <v>47.7</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="24">
         <v>139</v>
       </c>
       <c r="P9">
@@ -8373,7 +8754,7 @@
       <c r="C10">
         <v>503</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E10">
@@ -8382,7 +8763,7 @@
       <c r="F10" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>193</v>
       </c>
       <c r="H10" t="s">
@@ -8391,10 +8772,10 @@
       <c r="I10" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>194</v>
       </c>
       <c r="L10">
@@ -8406,7 +8787,7 @@
       <c r="N10">
         <v>100</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="24">
         <v>100</v>
       </c>
       <c r="P10">
@@ -8438,7 +8819,7 @@
       <c r="B11">
         <v>30</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>208</v>
       </c>
       <c r="D11" t="s">
@@ -8450,7 +8831,7 @@
       <c r="F11" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>196</v>
       </c>
       <c r="H11" t="s">
@@ -8459,10 +8840,10 @@
       <c r="I11" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L11">
@@ -8474,7 +8855,7 @@
       <c r="N11">
         <v>100</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="24">
         <v>90</v>
       </c>
       <c r="P11">
@@ -8506,7 +8887,7 @@
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>306</v>
       </c>
       <c r="D12" t="s">
@@ -8527,10 +8908,10 @@
       <c r="I12" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L12">
@@ -8542,7 +8923,7 @@
       <c r="N12">
         <v>16.2</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="24">
         <v>50</v>
       </c>
       <c r="P12">
@@ -8577,7 +8958,7 @@
       <c r="C13">
         <v>952</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E13">
@@ -8595,10 +8976,10 @@
       <c r="I13" t="s">
         <v>164</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="24" t="s">
         <v>225</v>
       </c>
       <c r="L13">
@@ -8610,7 +8991,7 @@
       <c r="N13">
         <v>540.29999999999995</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="24">
         <v>540.29999999999995</v>
       </c>
       <c r="P13">
@@ -8645,7 +9026,7 @@
       <c r="C14">
         <v>357</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E14">
@@ -8663,10 +9044,10 @@
       <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L14">
@@ -8678,7 +9059,7 @@
       <c r="N14">
         <v>102.5</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="24">
         <v>102.5</v>
       </c>
       <c r="P14">
@@ -8710,7 +9091,7 @@
       <c r="B15">
         <v>27</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>307</v>
       </c>
       <c r="D15" t="s">
@@ -8731,10 +9112,10 @@
       <c r="I15" t="s">
         <v>164</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L15">
@@ -8746,7 +9127,7 @@
       <c r="N15">
         <v>30.6</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="24">
         <v>30.6</v>
       </c>
       <c r="P15">
@@ -8775,10 +9156,10 @@
       <c r="A16">
         <v>34</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>62</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>211</v>
       </c>
       <c r="D16" t="s">
@@ -8790,7 +9171,7 @@
       <c r="F16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>203</v>
       </c>
       <c r="H16" t="s">
@@ -8799,10 +9180,10 @@
       <c r="I16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L16">
@@ -8814,7 +9195,7 @@
       <c r="N16">
         <v>75</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="24">
         <v>103</v>
       </c>
       <c r="P16">
@@ -8867,10 +9248,10 @@
       <c r="I17" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L17">
@@ -8882,7 +9263,7 @@
       <c r="N17">
         <v>30</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="24">
         <v>30</v>
       </c>
       <c r="P17">
@@ -8917,7 +9298,7 @@
       <c r="C18">
         <v>354</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E18">
@@ -8935,10 +9316,10 @@
       <c r="I18" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L18">
@@ -8950,7 +9331,7 @@
       <c r="N18">
         <v>271.10000000000002</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="24">
         <v>271.10000000000002</v>
       </c>
       <c r="P18">
@@ -8979,10 +9360,10 @@
       <c r="A19">
         <v>31</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>26</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>207</v>
       </c>
       <c r="D19" t="s">
@@ -8994,7 +9375,7 @@
       <c r="F19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>189</v>
       </c>
       <c r="H19" t="s">
@@ -9003,10 +9384,10 @@
       <c r="I19" t="s">
         <v>164</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L19">
@@ -9018,7 +9399,7 @@
       <c r="N19">
         <v>130</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="24">
         <v>300</v>
       </c>
       <c r="P19">
@@ -9053,7 +9434,7 @@
       <c r="C20">
         <v>352</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E20">
@@ -9071,10 +9452,10 @@
       <c r="I20" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L20">
@@ -9086,7 +9467,7 @@
       <c r="N20">
         <v>24.2</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="24">
         <v>24.2</v>
       </c>
       <c r="P20">
@@ -9139,10 +9520,10 @@
       <c r="I21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L21">
@@ -9154,7 +9535,7 @@
       <c r="N21">
         <v>44.1</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="24">
         <v>44.1</v>
       </c>
       <c r="P21">
@@ -9189,7 +9570,7 @@
       <c r="C22">
         <v>801</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E22">
@@ -9207,10 +9588,10 @@
       <c r="I22" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>177</v>
       </c>
       <c r="L22">
@@ -9222,7 +9603,7 @@
       <c r="N22">
         <v>13.3</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="24">
         <v>13.3</v>
       </c>
       <c r="P22">
@@ -9254,7 +9635,7 @@
       <c r="B23">
         <v>23</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>305</v>
       </c>
       <c r="D23" t="s">
@@ -9263,7 +9644,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>171</v>
       </c>
       <c r="G23" t="s">
@@ -9275,10 +9656,10 @@
       <c r="I23" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L23">
@@ -9290,7 +9671,7 @@
       <c r="N23">
         <v>209.5</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="24">
         <v>209.5</v>
       </c>
       <c r="P23">
@@ -9319,67 +9700,67 @@
       <c r="A24">
         <v>28</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>22</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>206</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="24">
         <v>12</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="24">
         <v>200</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="24">
         <v>20</v>
       </c>
-      <c r="P24" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0</v>
-      </c>
-      <c r="S24" s="25">
-        <v>0</v>
-      </c>
-      <c r="T24" s="25">
-        <v>0</v>
-      </c>
-      <c r="U24" s="25">
-        <v>0</v>
-      </c>
-      <c r="V24" s="25">
+      <c r="P24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>0</v>
+      </c>
+      <c r="R24" s="24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9387,10 +9768,10 @@
       <c r="A25">
         <v>28</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>22</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>304</v>
       </c>
       <c r="D25" t="s">
@@ -9402,7 +9783,7 @@
       <c r="F25" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>183</v>
       </c>
       <c r="H25" t="s">
@@ -9411,10 +9792,10 @@
       <c r="I25" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L25">
@@ -9426,7 +9807,7 @@
       <c r="N25">
         <v>200</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="24">
         <v>180</v>
       </c>
       <c r="P25">
@@ -9455,10 +9836,10 @@
       <c r="A26">
         <v>16</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>35</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>210</v>
       </c>
       <c r="D26" t="s">
@@ -9470,7 +9851,7 @@
       <c r="F26" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>200</v>
       </c>
       <c r="H26" t="s">
@@ -9479,10 +9860,10 @@
       <c r="I26" t="s">
         <v>201</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L26">
@@ -9494,7 +9875,7 @@
       <c r="N26">
         <v>69.09</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>76</v>
       </c>
       <c r="P26">
@@ -9529,7 +9910,7 @@
       <c r="C27">
         <v>355</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>167</v>
       </c>
       <c r="E27">
@@ -9547,10 +9928,10 @@
       <c r="I27" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>169</v>
       </c>
       <c r="L27">
@@ -9562,7 +9943,7 @@
       <c r="N27">
         <v>18.2</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <v>18.2</v>
       </c>
       <c r="P27">
@@ -9591,13 +9972,13 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>31</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>209</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E28">
@@ -9606,7 +9987,7 @@
       <c r="F28" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>198</v>
       </c>
       <c r="H28" t="s">
@@ -9615,10 +9996,10 @@
       <c r="I28" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L28">
@@ -9630,7 +10011,7 @@
       <c r="N28">
         <v>66</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="24">
         <v>80</v>
       </c>
       <c r="P28">

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="286">
   <si>
     <t>Cost</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Partially Funded</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>Fort Barrette Rd</t>
@@ -881,6 +878,12 @@
   </si>
   <si>
     <t>bus/rail integration + HUB</t>
+  </si>
+  <si>
+    <t>2040 LRTP</t>
+  </si>
+  <si>
+    <t>South St Reverse Direction</t>
   </si>
 </sst>
 </file>
@@ -1768,6 +1771,7 @@
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1840,13 +1844,13 @@
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -1861,7 +1865,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>0</v>
@@ -1894,16 +1898,16 @@
         <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="V9" s="3" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1915,13 +1919,13 @@
         <v>205</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1961,13 +1965,13 @@
         <v>351</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>9</v>
@@ -2007,13 +2011,13 @@
         <v>356</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
@@ -2044,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2056,10 +2060,10 @@
         <v>251</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>55</v>
@@ -2102,16 +2106,16 @@
         <v>353</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="4"/>
       <c r="K14">
@@ -2150,7 +2154,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -2190,23 +2194,23 @@
         <v>306</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" t="s">
         <v>241</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>242</v>
-      </c>
-      <c r="G16" t="s">
-        <v>243</v>
       </c>
       <c r="H16" s="4"/>
       <c r="K16" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
@@ -2239,20 +2243,20 @@
         <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H17" s="4"/>
       <c r="K17" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
@@ -2287,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>73</v>
@@ -2314,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -2334,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>40</v>
@@ -2367,7 +2371,7 @@
         <v>2012</v>
       </c>
       <c r="AD19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -2381,13 +2385,13 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
       <c r="G20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>40</v>
@@ -2416,7 +2420,7 @@
         <v>2020</v>
       </c>
       <c r="AD20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -2430,16 +2434,16 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="H21" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
@@ -2465,7 +2469,7 @@
         <v>2030</v>
       </c>
       <c r="AD21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -2479,21 +2483,21 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
         <v>121</v>
       </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
       <c r="G22" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
       <c r="P22" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
@@ -2523,12 +2527,12 @@
         <v>357</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="4"/>
       <c r="K23">
@@ -2564,16 +2568,16 @@
         <v>301</v>
       </c>
       <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" t="s">
         <v>265</v>
       </c>
-      <c r="E24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="H24" s="4"/>
       <c r="K24">
@@ -2610,10 +2614,10 @@
         <v>211</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>31</v>
@@ -2652,19 +2656,19 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26">
         <v>302</v>
       </c>
       <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
         <v>109</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>110</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2679,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="8">
         <v>0</v>
@@ -2709,16 +2713,16 @@
         <v>354</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H27" s="4"/>
       <c r="K27">
@@ -2755,13 +2759,13 @@
         <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>9</v>
@@ -2847,19 +2851,19 @@
         <v>803</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2895,16 +2899,16 @@
         <v>352</v>
       </c>
       <c r="D31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31" s="4"/>
       <c r="K31">
@@ -2940,27 +2944,27 @@
         <v>804</v>
       </c>
       <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="E32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
-        <v>91</v>
-      </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="O32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q32" s="5">
         <v>1</v>
@@ -2995,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>40</v>
@@ -3006,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -3030,16 +3034,16 @@
         <v>303</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H34" s="4"/>
       <c r="K34">
@@ -3076,16 +3080,16 @@
         <v>801</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
         <v>84</v>
       </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>40</v>
@@ -3124,16 +3128,16 @@
         <v>305</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
         <v>239</v>
-      </c>
-      <c r="G36" t="s">
-        <v>240</v>
       </c>
       <c r="H36" s="4"/>
       <c r="K36">
@@ -3169,16 +3173,16 @@
         <v>858</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>40</v>
@@ -3213,13 +3217,13 @@
         <v>304</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>9</v>
@@ -3264,13 +3268,13 @@
         <v>53</v>
       </c>
       <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="F39" t="s">
-        <v>80</v>
-      </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>73</v>
@@ -3311,10 +3315,10 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -3350,22 +3354,22 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>73</v>
@@ -3373,7 +3377,7 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="O41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q41" s="8">
         <v>0</v>
@@ -3402,16 +3406,16 @@
         <v>355</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>17</v>
@@ -3452,10 +3456,10 @@
         <v>26</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -3493,10 +3497,13 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="G44" t="s">
+        <v>285</v>
       </c>
       <c r="H44" s="4"/>
       <c r="K44"/>
@@ -3529,13 +3536,13 @@
         <v>209</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>9</v>
@@ -3574,27 +3581,27 @@
         <v>805</v>
       </c>
       <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
         <v>95</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>96</v>
       </c>
-      <c r="F46" t="s">
-        <v>97</v>
-      </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="10"/>
       <c r="O46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q46" s="5">
         <v>1</v>
@@ -3624,7 +3631,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3661,27 +3668,27 @@
         <v>806</v>
       </c>
       <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
         <v>88</v>
       </c>
-      <c r="E48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s">
-        <v>89</v>
-      </c>
       <c r="H48" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q48" s="5">
         <v>1</v>
@@ -4249,7 +4256,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>40</v>
@@ -4257,7 +4264,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -4280,7 +4287,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -4303,14 +4310,14 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -4327,7 +4334,7 @@
       <c r="J13"/>
       <c r="K13" s="10"/>
       <c r="O13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -4350,7 +4357,7 @@
       </c>
       <c r="J14"/>
       <c r="O14" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -4374,7 +4381,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="O15" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -4419,86 +4426,86 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="4"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="N18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4"/>
       <c r="J21"/>
       <c r="K21" s="10"/>
       <c r="N21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4515,11 +4522,11 @@
         <v>34</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23"/>
       <c r="O23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4534,11 +4541,11 @@
         <v>36</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24"/>
       <c r="O24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -4549,15 +4556,15 @@
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="O25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -5022,18 +5029,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,10 +5051,10 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" t="s">
         <v>268</v>
-      </c>
-      <c r="J3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5055,7 +5062,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5073,7 +5080,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5091,7 +5098,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -5109,7 +5116,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -5127,7 +5134,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5163,7 +5170,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -5289,7 +5296,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -5307,7 +5314,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -5325,7 +5332,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -5343,7 +5350,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -5361,7 +5368,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -5379,7 +5386,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -5415,7 +5422,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -5433,7 +5440,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -5451,7 +5458,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -5487,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -5505,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>26</v>
@@ -5523,7 +5530,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -5541,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -5559,7 +5566,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32">
         <v>29</v>
@@ -5613,7 +5620,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -5631,7 +5638,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -5667,7 +5674,7 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -5685,7 +5692,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C39">
         <v>36</v>
@@ -5703,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>37</v>
@@ -5721,7 +5728,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -5739,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>39</v>
@@ -8134,70 +8141,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" t="s">
         <v>152</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>154</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>155</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>156</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>157</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>158</v>
-      </c>
-      <c r="V1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -8211,34 +8218,34 @@
         <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L2">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N2">
         <v>33</v>
@@ -8279,34 +8286,34 @@
         <v>351</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N3">
         <v>233.1</v>
@@ -8347,34 +8354,34 @@
         <v>356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L4">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N4">
         <v>130.80000000000004</v>
@@ -8415,34 +8422,34 @@
         <v>353</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>10.713452725559549</v>
@@ -8483,34 +8490,34 @@
         <v>251</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
         <v>163</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L6">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>23.5</v>
@@ -8551,34 +8558,34 @@
         <v>301</v>
       </c>
       <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
         <v>167</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>168</v>
-      </c>
-      <c r="H7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>169</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N7">
         <v>120</v>
@@ -8619,34 +8626,34 @@
         <v>852</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
         <v>206</v>
       </c>
-      <c r="H8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" t="s">
-        <v>207</v>
-      </c>
       <c r="J8" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N8">
         <v>5532.5</v>
@@ -8687,34 +8694,34 @@
         <v>204</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" t="s">
         <v>162</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>163</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L9">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>47.7</v>
@@ -8746,7 +8753,7 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -8755,34 +8762,34 @@
         <v>503</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>160</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
-      </c>
       <c r="G10" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="H10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N10">
         <v>100</v>
@@ -8823,34 +8830,34 @@
         <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
         <v>163</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L11">
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -8891,34 +8898,34 @@
         <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
         <v>163</v>
       </c>
-      <c r="I12" t="s">
-        <v>164</v>
-      </c>
       <c r="J12" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12">
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N12">
         <v>16.2</v>
@@ -8959,34 +8966,34 @@
         <v>952</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="H13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>225</v>
       </c>
       <c r="L13">
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N13">
         <v>540.29999999999995</v>
@@ -9027,34 +9034,34 @@
         <v>357</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L14">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N14">
         <v>102.5</v>
@@ -9095,34 +9102,34 @@
         <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
-        <v>164</v>
-      </c>
       <c r="J15" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L15">
         <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N15">
         <v>30.6</v>
@@ -9163,34 +9170,34 @@
         <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" t="s">
         <v>203</v>
       </c>
-      <c r="H16" t="s">
-        <v>204</v>
-      </c>
       <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N16">
         <v>75</v>
@@ -9231,34 +9238,34 @@
         <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
-        <v>172</v>
-      </c>
       <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
         <v>163</v>
       </c>
-      <c r="I17" t="s">
-        <v>164</v>
-      </c>
       <c r="J17" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17">
         <v>30</v>
@@ -9299,34 +9306,34 @@
         <v>354</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L18">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N18">
         <v>271.10000000000002</v>
@@ -9367,34 +9374,34 @@
         <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
         <v>163</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19">
         <v>130</v>
@@ -9435,34 +9442,34 @@
         <v>352</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L20">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N20">
         <v>24.2</v>
@@ -9503,34 +9510,34 @@
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" t="s">
         <v>163</v>
       </c>
-      <c r="I21" t="s">
-        <v>164</v>
-      </c>
       <c r="J21" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L21">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N21">
         <v>44.1</v>
@@ -9571,34 +9578,34 @@
         <v>801</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="L22">
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N22">
         <v>13.3</v>
@@ -9639,34 +9646,34 @@
         <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
         <v>163</v>
       </c>
-      <c r="I23" t="s">
-        <v>164</v>
-      </c>
       <c r="J23" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23">
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N23">
         <v>209.5</v>
@@ -9707,34 +9714,34 @@
         <v>206</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="24">
         <v>1</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L24" s="24">
         <v>12</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N24" s="24">
         <v>200</v>
@@ -9775,34 +9782,34 @@
         <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" t="s">
         <v>163</v>
       </c>
-      <c r="I25" t="s">
-        <v>164</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L25">
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N25">
         <v>200</v>
@@ -9843,34 +9850,34 @@
         <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
         <v>200</v>
       </c>
-      <c r="H26" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" t="s">
-        <v>201</v>
-      </c>
       <c r="J26" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L26">
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N26">
         <v>69.09</v>
@@ -9911,34 +9918,34 @@
         <v>355</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L27">
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>18.2</v>
@@ -9979,34 +9986,34 @@
         <v>209</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="L28">
         <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>66</v>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="287">
   <si>
     <t>Cost</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>South St Reverse Direction</t>
+  </si>
+  <si>
+    <t>Makaiwa Frontage Road</t>
   </si>
 </sst>
 </file>
@@ -3709,77 +3712,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0</v>
+      </c>
+      <c r="T49" s="8">
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H50" s="4"/>
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H52" s="4"/>
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H54" s="4"/>
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H55" s="4"/>
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H56" s="4"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H57" s="4"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H59" s="4"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H60" s="4"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H61" s="4"/>
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H62" s="4"/>
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H63" s="4"/>
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H64" s="4"/>
       <c r="K64"/>
       <c r="L64"/>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -2391,7 +2391,7 @@
         <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>122</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -3406,7 +3406,7 @@
         <v>33</v>
       </c>
       <c r="C42">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>127</v>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>263</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0</v>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="305">
   <si>
     <t>Cost</t>
   </si>
@@ -887,6 +887,60 @@
   </si>
   <si>
     <t>Makaiwa Frontage Road</t>
+  </si>
+  <si>
+    <t>East-West Arterial</t>
+  </si>
+  <si>
+    <t>UHWO Roads</t>
+  </si>
+  <si>
+    <t>Hoopili Roads</t>
+  </si>
+  <si>
+    <t>AM ZIPPER Lane</t>
+  </si>
+  <si>
+    <t>Pearl Harbor Exit from zipper</t>
+  </si>
+  <si>
+    <t>Added Capacity</t>
+  </si>
+  <si>
+    <t>HDOT</t>
+  </si>
+  <si>
+    <t>increased capacity per HDOT</t>
+  </si>
+  <si>
+    <t>H-2 HOV SB PM Removal</t>
+  </si>
+  <si>
+    <t>H-2 Mililani Interchange</t>
+  </si>
+  <si>
+    <t>Removed PM HOV lane (added lane back to GP lanes)</t>
+  </si>
+  <si>
+    <t>H-1 HOV WB PM Removal</t>
+  </si>
+  <si>
+    <t>Keehi Interchange</t>
+  </si>
+  <si>
+    <t>Moanalua HOV EB PM Removal</t>
+  </si>
+  <si>
+    <t>Middle Street Merge</t>
+  </si>
+  <si>
+    <t>H-1 WB Shoulder Lane</t>
+  </si>
+  <si>
+    <t>Kualakai Pkwy</t>
+  </si>
+  <si>
+    <t>Kunia Road Interchange</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1805,10 @@
   <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,44 +3808,322 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" t="s">
+        <v>239</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="K50"/>
       <c r="L50"/>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="K51"/>
       <c r="L51"/>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0</v>
+      </c>
+      <c r="U51" s="8">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" t="s">
+        <v>239</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="K52"/>
       <c r="L52"/>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>290</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" t="s">
+        <v>292</v>
+      </c>
       <c r="H53" s="4"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>293</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
       <c r="H54" s="4"/>
-      <c r="K54"/>
-      <c r="L54"/>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>299</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
       <c r="H55" s="4"/>
-      <c r="K55"/>
-      <c r="L55"/>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>301</v>
+      </c>
+      <c r="G56" t="s">
+        <v>297</v>
+      </c>
       <c r="H56" s="4"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" t="s">
+        <v>292</v>
+      </c>
       <c r="H57" s="4"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H58" s="4"/>
@@ -4180,8 +4512,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I91:I93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5056,8 +5388,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H12 H10 H85:H87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
+    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Non-Modeled Projects" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="mosj_projects" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="353">
   <si>
     <t>Cost</t>
   </si>
@@ -941,13 +942,157 @@
   </si>
   <si>
     <t>Kunia Road Interchange</t>
+  </si>
+  <si>
+    <t>projid</t>
+  </si>
+  <si>
+    <t>Not in RTP?</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP, was added this year 2016</t>
+  </si>
+  <si>
+    <t>added in MINUTP as a developer project (ADD THIS)</t>
+  </si>
+  <si>
+    <t>was illustrative in 2006 ORTP, but somehow got into the MINUTP version of the model (ADD THIS)</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP, but is IN 2009 ORTP</t>
+  </si>
+  <si>
+    <t>is in the base year and future year networks in MINUTP (ADD THIS)</t>
+  </si>
+  <si>
+    <t>added in MINUTP, part of projID 29 and 30 (ADD THIS)</t>
+  </si>
+  <si>
+    <t>add this for private roads for transit only</t>
+  </si>
+  <si>
+    <t>don't have to add (proj and existing have same values)</t>
+  </si>
+  <si>
+    <t>DON'T ADD 44, 45, 46, 47, 48</t>
+  </si>
+  <si>
+    <t>check numbering two diff projects (yes okay)</t>
+  </si>
+  <si>
+    <t>PM ZIPPER LANE</t>
+  </si>
+  <si>
+    <t>KEEHI Interchange</t>
+  </si>
+  <si>
+    <t>H-1 Widening Waipahu Off-Ramp</t>
+  </si>
+  <si>
+    <t>H-1 University Avenue Interchange On/Off Ramp Modifications</t>
+  </si>
+  <si>
+    <t>Revised Ramps</t>
+  </si>
+  <si>
+    <t>H-1 HOV Median Lanes</t>
+  </si>
+  <si>
+    <t>Makakilo Interchange</t>
+  </si>
+  <si>
+    <t>Kunia Road Widening</t>
+  </si>
+  <si>
+    <t>Wilikina Drive</t>
+  </si>
+  <si>
+    <t>Anonui St</t>
+  </si>
+  <si>
+    <t>H-1 EB Loop On-Ramp at Kunia Interchange</t>
+  </si>
+  <si>
+    <t>Likelike Highway Widening</t>
+  </si>
+  <si>
+    <t>Kahekili Highway</t>
+  </si>
+  <si>
+    <t>Nimitz Hwy HOV Flyover</t>
+  </si>
+  <si>
+    <t>Pacific Street</t>
+  </si>
+  <si>
+    <t>Piikoi-Pensacola Couplet Reversal</t>
+  </si>
+  <si>
+    <t>Reverse on-way direction</t>
+  </si>
+  <si>
+    <t>Puuloa Road Widening</t>
+  </si>
+  <si>
+    <t>Pukuloa Road</t>
+  </si>
+  <si>
+    <t>Nimitz Hwy</t>
+  </si>
+  <si>
+    <t>Central Mauka Road Second Access</t>
+  </si>
+  <si>
+    <t>Mililani Mauka</t>
+  </si>
+  <si>
+    <t>Wahiawa Second Access</t>
+  </si>
+  <si>
+    <t>Whitmore Avenue</t>
+  </si>
+  <si>
+    <t>Waianae Second Access</t>
+  </si>
+  <si>
+    <t>Kunia Road</t>
+  </si>
+  <si>
+    <t>AM Zipper Lane Changed to 3+ Passengers</t>
+  </si>
+  <si>
+    <t>Revised Occupants</t>
+  </si>
+  <si>
+    <t>Roosevelt Extension</t>
+  </si>
+  <si>
+    <t>Near Saratoga</t>
+  </si>
+  <si>
+    <t>Kamaaha Extension</t>
+  </si>
+  <si>
+    <t>Wakea Extension</t>
+  </si>
+  <si>
+    <t>Makaiwa Roads into Hills</t>
+  </si>
+  <si>
+    <t>Fort Weaver Rd Widening</t>
+  </si>
+  <si>
+    <t>Kupuna Loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,8 +1137,120 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1263,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1024,16 +1460,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1081,12 +1665,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="26" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="30" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="42" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="27" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="31" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="43" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="24" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="28" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="32" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="36" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="40" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="44" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="25" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="29" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="10" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="14" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="19" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="9" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="8" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="12" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="15" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2 6" xfId="1"/>
     <cellStyle name="Normal 31" xfId="3"/>
     <cellStyle name="Normal 9" xfId="2"/>
+    <cellStyle name="Note" xfId="18" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="13" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1186,8 +1814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2181225" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="2245360" y="0"/>
+          <a:ext cx="10303436" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1382,8 +2010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1181100" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="10293276" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1799,75 +2427,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1899,7 +2527,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>273</v>
       </c>
@@ -1967,7 +2595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2013,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2059,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2108,7 +2736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2154,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2200,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2242,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2288,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2334,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -2378,7 +3006,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2431,7 +3059,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -2480,7 +3108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2529,7 +3157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -2575,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -2617,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -2662,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -2708,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -2761,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -2807,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -2853,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -2900,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -2947,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -2993,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3042,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3082,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3128,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -3176,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -3222,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -3265,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -3311,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -3361,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -3406,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -3455,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -3502,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -3549,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -3584,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -3630,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -3679,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -3717,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -3766,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -3807,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -3845,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -3877,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -3909,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -3941,23 +4569,23 @@
       <c r="Q53" s="8">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R53" s="8">
+        <v>0</v>
+      </c>
+      <c r="S53" s="8">
+        <v>0</v>
+      </c>
+      <c r="T53" s="8">
+        <v>0</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -3983,23 +4611,23 @@
       <c r="Q54" s="8">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="8">
+        <v>0</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -4025,23 +4653,23 @@
       <c r="Q55" s="8">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -4067,23 +4695,23 @@
       <c r="Q56" s="8">
         <v>0</v>
       </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="8">
+        <v>0</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -4109,74 +4737,230 @@
       <c r="Q57" s="8">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="8">
+        <v>0</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>292</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="29">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>292</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="29">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="29">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" t="s">
+        <v>292</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>292</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="29">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" t="s">
+        <v>292</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="29">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" t="s">
+        <v>292</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="29">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" t="s">
+        <v>292</v>
+      </c>
       <c r="K65"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <v>109</v>
+      </c>
+      <c r="D66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" t="s">
+        <v>334</v>
+      </c>
       <c r="K66"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="29">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
+      <c r="G67" t="s">
+        <v>292</v>
+      </c>
       <c r="K67"/>
       <c r="L67"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="29">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" t="s">
+        <v>292</v>
+      </c>
       <c r="K68"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="29">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" t="s">
+        <v>339</v>
+      </c>
+      <c r="G69" t="s">
+        <v>292</v>
+      </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -4184,10 +4968,24 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="29">
+        <v>113</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
+      <c r="D70" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" t="s">
+        <v>292</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="P70" s="19"/>
       <c r="Q70" s="8"/>
@@ -4196,10 +4994,18 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D71"/>
+    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>344</v>
+      </c>
       <c r="E71"/>
       <c r="F71"/>
+      <c r="G71" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="8"/>
@@ -4211,14 +5017,24 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="29">
+        <v>115</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -4229,11 +5045,18 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="29">
+        <v>116</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="J73" s="4"/>
       <c r="P73" s="19"/>
@@ -4243,10 +5066,18 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="29">
+        <v>117</v>
+      </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="J74" s="4"/>
       <c r="P74" s="19"/>
@@ -4256,10 +5087,18 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="29">
+        <v>118</v>
+      </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="P75" s="19"/>
@@ -4269,10 +5108,24 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>119</v>
+      </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="P76" s="19"/>
@@ -4282,10 +5135,24 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>120</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="P77" s="19"/>
@@ -4295,7 +5162,7 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4308,7 +5175,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4321,7 +5188,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4334,7 +5201,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4346,7 +5213,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4358,7 +5225,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4370,7 +5237,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4382,7 +5249,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4394,7 +5261,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4406,7 +5273,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4418,7 +5285,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4431,7 +5298,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4444,7 +5311,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4459,7 +5326,7 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4474,7 +5341,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4489,21 +5356,31 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V30">
+  <autoFilter ref="A9:V77">
+    <filterColumn colId="19">
+      <filters blank="1">
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A10:T48">
       <sortCondition ref="A9:A30"/>
     </sortState>
@@ -4512,8 +5389,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I91:I93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="3" scale="40" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4531,27 +5408,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4576,7 +5453,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +5500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -4643,7 +5520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -4666,7 +5543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -4689,7 +5566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -4713,7 +5590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -4736,7 +5613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -4760,7 +5637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -4780,7 +5657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -4800,7 +5677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -4823,7 +5700,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -4846,7 +5723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -4862,7 +5739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -4873,7 +5750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -4884,7 +5761,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -4905,7 +5782,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -4924,7 +5801,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -4948,7 +5825,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4958,7 +5835,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4968,7 +5845,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4978,7 +5855,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4988,7 +5865,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4998,7 +5875,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5008,7 +5885,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5018,7 +5895,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5028,7 +5905,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5038,7 +5915,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5048,7 +5925,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5058,7 +5935,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5068,7 +5945,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5078,7 +5955,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5088,7 +5965,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5098,7 +5975,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5108,129 +5985,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -5238,119 +6115,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -5359,7 +6236,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -5368,7 +6245,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -5377,7 +6254,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5388,8 +6265,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H12 H10 H85:H87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="3" scale="56" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5401,9 +6278,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -5411,7 +6288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -5419,7 +6296,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5433,7 +6310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -5451,7 +6328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -5469,7 +6346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -5487,7 +6364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -5505,7 +6382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -5523,7 +6400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5541,7 +6418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -5559,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -5577,7 +6454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -5595,7 +6472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5613,7 +6490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5631,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -5649,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -5667,7 +6544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -5685,7 +6562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -5703,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -5721,7 +6598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5739,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -5757,7 +6634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -5775,7 +6652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5793,7 +6670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5811,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -5829,7 +6706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -5847,7 +6724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -5865,7 +6742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5883,7 +6760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -5901,7 +6778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5919,7 +6796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -5937,7 +6814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -5955,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -5973,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -5991,7 +6868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -6009,7 +6886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6027,7 +6904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6045,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -6063,7 +6940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -6081,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -6099,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -6117,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -6135,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -6145,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>37</v>
       </c>
@@ -6154,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>37</v>
       </c>
@@ -6163,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>27</v>
       </c>
@@ -6172,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>33</v>
       </c>
@@ -6181,7 +7058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>36</v>
       </c>
@@ -6190,7 +7067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>37</v>
       </c>
@@ -6199,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>27</v>
       </c>
@@ -6208,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>27</v>
       </c>
@@ -6217,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>37</v>
       </c>
@@ -6226,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>27</v>
       </c>
@@ -6235,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>37</v>
       </c>
@@ -6244,7 +7121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>39</v>
       </c>
@@ -6253,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>31</v>
       </c>
@@ -6262,7 +7139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>41</v>
       </c>
@@ -6271,7 +7148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>30</v>
       </c>
@@ -6280,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>30</v>
       </c>
@@ -6289,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>32</v>
       </c>
@@ -6298,7 +7175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>32</v>
       </c>
@@ -6307,7 +7184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>32</v>
       </c>
@@ -6316,7 +7193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>31</v>
       </c>
@@ -6325,7 +7202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>42</v>
       </c>
@@ -6334,7 +7211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>41</v>
       </c>
@@ -6343,7 +7220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>5</v>
       </c>
@@ -6352,7 +7229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>41</v>
       </c>
@@ -6361,7 +7238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>5</v>
       </c>
@@ -6370,7 +7247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>5</v>
       </c>
@@ -6379,7 +7256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>5</v>
       </c>
@@ -6388,7 +7265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>41</v>
       </c>
@@ -6397,7 +7274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>41</v>
       </c>
@@ -6406,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>5</v>
       </c>
@@ -6415,7 +7292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>41</v>
       </c>
@@ -6424,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I75">
         <v>41</v>
       </c>
@@ -6433,7 +7310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I76">
         <v>5</v>
       </c>
@@ -6442,7 +7319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I77">
         <v>5</v>
       </c>
@@ -6451,7 +7328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>41</v>
       </c>
@@ -6460,7 +7337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>41</v>
       </c>
@@ -6469,7 +7346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>41</v>
       </c>
@@ -6478,7 +7355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>41</v>
       </c>
@@ -6487,7 +7364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I82">
         <v>41</v>
       </c>
@@ -6496,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I83">
         <v>6</v>
       </c>
@@ -6505,7 +7382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I84">
         <v>6</v>
       </c>
@@ -6514,7 +7391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I85">
         <v>6</v>
       </c>
@@ -6523,7 +7400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I86">
         <v>30</v>
       </c>
@@ -6532,7 +7409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I87">
         <v>30</v>
       </c>
@@ -6541,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I88">
         <v>42</v>
       </c>
@@ -6550,7 +7427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>41</v>
       </c>
@@ -6559,7 +7436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>41</v>
       </c>
@@ -6568,7 +7445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>41</v>
       </c>
@@ -6577,7 +7454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>41</v>
       </c>
@@ -6586,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I93">
         <v>41</v>
       </c>
@@ -6595,7 +7472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I94">
         <v>18</v>
       </c>
@@ -6604,7 +7481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I95">
         <v>30</v>
       </c>
@@ -6613,7 +7490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I96">
         <v>30</v>
       </c>
@@ -6622,7 +7499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <v>30</v>
       </c>
@@ -6631,7 +7508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I98">
         <v>30</v>
       </c>
@@ -6640,7 +7517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <v>30</v>
       </c>
@@ -6649,7 +7526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>30</v>
       </c>
@@ -6658,7 +7535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I101">
         <v>30</v>
       </c>
@@ -6667,7 +7544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I102">
         <v>30</v>
       </c>
@@ -6676,7 +7553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I103">
         <v>32</v>
       </c>
@@ -6685,7 +7562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>32</v>
       </c>
@@ -6694,7 +7571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I105">
         <v>32</v>
       </c>
@@ -6703,7 +7580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>32</v>
       </c>
@@ -6712,7 +7589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>18</v>
       </c>
@@ -6721,7 +7598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I108">
         <v>18</v>
       </c>
@@ -6730,7 +7607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I109">
         <v>41</v>
       </c>
@@ -6739,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I110">
         <v>42</v>
       </c>
@@ -6748,7 +7625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I111">
         <v>42</v>
       </c>
@@ -6757,7 +7634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I112">
         <v>42</v>
       </c>
@@ -6766,7 +7643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113">
         <v>42</v>
       </c>
@@ -6775,7 +7652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114">
         <v>42</v>
       </c>
@@ -6784,7 +7661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115">
         <v>42</v>
       </c>
@@ -6793,7 +7670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116">
         <v>42</v>
       </c>
@@ -6802,7 +7679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117">
         <v>42</v>
       </c>
@@ -6811,7 +7688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118">
         <v>42</v>
       </c>
@@ -6820,7 +7697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119">
         <v>14</v>
       </c>
@@ -6829,7 +7706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120">
         <v>23</v>
       </c>
@@ -6838,7 +7715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121">
         <v>2</v>
       </c>
@@ -6847,7 +7724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122">
         <v>25</v>
       </c>
@@ -6856,7 +7733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123">
         <v>25</v>
       </c>
@@ -6865,7 +7742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124">
         <v>25</v>
       </c>
@@ -6874,7 +7751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125">
         <v>25</v>
       </c>
@@ -6883,7 +7760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126">
         <v>25</v>
       </c>
@@ -6892,7 +7769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127">
         <v>25</v>
       </c>
@@ -6901,7 +7778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128">
         <v>25</v>
       </c>
@@ -6910,7 +7787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129">
         <v>26</v>
       </c>
@@ -6919,7 +7796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130">
         <v>2</v>
       </c>
@@ -6928,7 +7805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131">
         <v>2</v>
       </c>
@@ -6937,7 +7814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132">
         <v>39</v>
       </c>
@@ -6946,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133">
         <v>2</v>
       </c>
@@ -6955,7 +7832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134">
         <v>2</v>
       </c>
@@ -6964,7 +7841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135">
         <v>2</v>
       </c>
@@ -6973,7 +7850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136">
         <v>14</v>
       </c>
@@ -6982,7 +7859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137">
         <v>14</v>
       </c>
@@ -6991,7 +7868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138">
         <v>14</v>
       </c>
@@ -7000,7 +7877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139">
         <v>14</v>
       </c>
@@ -7009,7 +7886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140">
         <v>14</v>
       </c>
@@ -7018,7 +7895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141">
         <v>14</v>
       </c>
@@ -7027,7 +7904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142">
         <v>14</v>
       </c>
@@ -7036,7 +7913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143">
         <v>23</v>
       </c>
@@ -7045,7 +7922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144">
         <v>14</v>
       </c>
@@ -7054,7 +7931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145">
         <v>23</v>
       </c>
@@ -7063,7 +7940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146">
         <v>14</v>
       </c>
@@ -7072,7 +7949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147">
         <v>14</v>
       </c>
@@ -7081,7 +7958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148">
         <v>23</v>
       </c>
@@ -7090,7 +7967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149">
         <v>14</v>
       </c>
@@ -7099,7 +7976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150">
         <v>14</v>
       </c>
@@ -7108,7 +7985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151">
         <v>14</v>
       </c>
@@ -7117,7 +7994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152">
         <v>23</v>
       </c>
@@ -7126,7 +8003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153">
         <v>23</v>
       </c>
@@ -7135,7 +8012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154">
         <v>23</v>
       </c>
@@ -7144,7 +8021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155">
         <v>23</v>
       </c>
@@ -7153,7 +8030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156">
         <v>14</v>
       </c>
@@ -7162,7 +8039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157">
         <v>14</v>
       </c>
@@ -7171,7 +8048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158">
         <v>14</v>
       </c>
@@ -7180,7 +8057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159">
         <v>14</v>
       </c>
@@ -7189,7 +8066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160">
         <v>14</v>
       </c>
@@ -7198,7 +8075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161">
         <v>14</v>
       </c>
@@ -7207,7 +8084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162">
         <v>23</v>
       </c>
@@ -7216,7 +8093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163">
         <v>23</v>
       </c>
@@ -7225,7 +8102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164">
         <v>23</v>
       </c>
@@ -7234,7 +8111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165">
         <v>23</v>
       </c>
@@ -7243,7 +8120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166">
         <v>23</v>
       </c>
@@ -7252,7 +8129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167">
         <v>23</v>
       </c>
@@ -7261,7 +8138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168">
         <v>14</v>
       </c>
@@ -7270,7 +8147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169">
         <v>14</v>
       </c>
@@ -7279,7 +8156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170">
         <v>14</v>
       </c>
@@ -7288,7 +8165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171">
         <v>23</v>
       </c>
@@ -7297,7 +8174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172">
         <v>15</v>
       </c>
@@ -7306,7 +8183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173">
         <v>15</v>
       </c>
@@ -7315,7 +8192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174">
         <v>2</v>
       </c>
@@ -7324,7 +8201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175">
         <v>2</v>
       </c>
@@ -7333,7 +8210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176">
         <v>2</v>
       </c>
@@ -7342,7 +8219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177">
         <v>2</v>
       </c>
@@ -7351,7 +8228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178">
         <v>2</v>
       </c>
@@ -7360,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179">
         <v>2</v>
       </c>
@@ -7369,7 +8246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180">
         <v>2</v>
       </c>
@@ -7378,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181">
         <v>2</v>
       </c>
@@ -7387,7 +8264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182">
         <v>26</v>
       </c>
@@ -7396,7 +8273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183">
         <v>2</v>
       </c>
@@ -7405,7 +8282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184">
         <v>2</v>
       </c>
@@ -7414,7 +8291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185">
         <v>2</v>
       </c>
@@ -7423,7 +8300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186">
         <v>2</v>
       </c>
@@ -7432,7 +8309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I187">
         <v>2</v>
       </c>
@@ -7441,7 +8318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I188">
         <v>2</v>
       </c>
@@ -7450,7 +8327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I189">
         <v>2</v>
       </c>
@@ -7459,7 +8336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I190">
         <v>2</v>
       </c>
@@ -7468,7 +8345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I191">
         <v>23</v>
       </c>
@@ -7477,7 +8354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I192">
         <v>23</v>
       </c>
@@ -7486,7 +8363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I193">
         <v>14</v>
       </c>
@@ -7495,7 +8372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I194">
         <v>23</v>
       </c>
@@ -7504,7 +8381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I195">
         <v>2</v>
       </c>
@@ -7513,7 +8390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I196">
         <v>2</v>
       </c>
@@ -7522,7 +8399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I197">
         <v>9</v>
       </c>
@@ -7531,7 +8408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I198">
         <v>2</v>
       </c>
@@ -7540,7 +8417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I199">
         <v>2</v>
       </c>
@@ -7549,7 +8426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I200">
         <v>13</v>
       </c>
@@ -7558,7 +8435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I201">
         <v>23</v>
       </c>
@@ -7567,7 +8444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I202">
         <v>23</v>
       </c>
@@ -7576,7 +8453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I203">
         <v>13</v>
       </c>
@@ -7585,7 +8462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I204">
         <v>13</v>
       </c>
@@ -7594,7 +8471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I205">
         <v>13</v>
       </c>
@@ -7603,7 +8480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I206">
         <v>13</v>
       </c>
@@ -7612,7 +8489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I207">
         <v>23</v>
       </c>
@@ -7621,7 +8498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I208">
         <v>23</v>
       </c>
@@ -7630,7 +8507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I209">
         <v>2</v>
       </c>
@@ -7639,7 +8516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I210">
         <v>2</v>
       </c>
@@ -7648,7 +8525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I211">
         <v>2</v>
       </c>
@@ -7657,7 +8534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I212">
         <v>2</v>
       </c>
@@ -7666,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I213">
         <v>2</v>
       </c>
@@ -7675,7 +8552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I214">
         <v>34</v>
       </c>
@@ -7684,7 +8561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I215">
         <v>33</v>
       </c>
@@ -7693,7 +8570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I216">
         <v>4</v>
       </c>
@@ -7702,7 +8579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I217">
         <v>40</v>
       </c>
@@ -7711,7 +8588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I218">
         <v>4</v>
       </c>
@@ -7720,7 +8597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I219">
         <v>4</v>
       </c>
@@ -7729,7 +8606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I220">
         <v>4</v>
       </c>
@@ -7738,7 +8615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I221">
         <v>4</v>
       </c>
@@ -7747,7 +8624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I222">
         <v>34</v>
       </c>
@@ -7756,7 +8633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I223">
         <v>34</v>
       </c>
@@ -7765,7 +8642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I224">
         <v>34</v>
       </c>
@@ -7774,7 +8651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I225">
         <v>34</v>
       </c>
@@ -7783,7 +8660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I226">
         <v>15</v>
       </c>
@@ -7792,7 +8669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I227">
         <v>15</v>
       </c>
@@ -7801,7 +8678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I228">
         <v>15</v>
       </c>
@@ -7810,7 +8687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I229">
         <v>15</v>
       </c>
@@ -7819,7 +8696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I230">
         <v>15</v>
       </c>
@@ -7828,7 +8705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I231">
         <v>12</v>
       </c>
@@ -7837,7 +8714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I232">
         <v>14</v>
       </c>
@@ -7846,7 +8723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I233">
         <v>14</v>
       </c>
@@ -7855,7 +8732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I234">
         <v>23</v>
       </c>
@@ -7864,7 +8741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I235">
         <v>23</v>
       </c>
@@ -7873,7 +8750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I236">
         <v>28</v>
       </c>
@@ -7882,7 +8759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I237">
         <v>11</v>
       </c>
@@ -7891,7 +8768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I238">
         <v>28</v>
       </c>
@@ -7900,7 +8777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I239">
         <v>32</v>
       </c>
@@ -7909,7 +8786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I240">
         <v>32</v>
       </c>
@@ -7918,7 +8795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I241">
         <v>32</v>
       </c>
@@ -7927,7 +8804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I242">
         <v>43</v>
       </c>
@@ -7936,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I243">
         <v>16</v>
       </c>
@@ -7945,7 +8822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I244">
         <v>12</v>
       </c>
@@ -7954,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I245">
         <v>36</v>
       </c>
@@ -7963,7 +8840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I246">
         <v>12</v>
       </c>
@@ -7972,7 +8849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I247">
         <v>16</v>
       </c>
@@ -7981,7 +8858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I248">
         <v>10</v>
       </c>
@@ -7990,7 +8867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I249">
         <v>10</v>
       </c>
@@ -7999,7 +8876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I250">
         <v>10</v>
       </c>
@@ -8008,7 +8885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I251">
         <v>43</v>
       </c>
@@ -8017,7 +8894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I252">
         <v>43</v>
       </c>
@@ -8026,7 +8903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I253">
         <v>37</v>
       </c>
@@ -8035,7 +8912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I254">
         <v>43</v>
       </c>
@@ -8044,7 +8921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I255">
         <v>43</v>
       </c>
@@ -8053,7 +8930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I256">
         <v>37</v>
       </c>
@@ -8062,7 +8939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I257">
         <v>43</v>
       </c>
@@ -8071,7 +8948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I258">
         <v>43</v>
       </c>
@@ -8080,7 +8957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I259">
         <v>43</v>
       </c>
@@ -8089,7 +8966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I260">
         <v>43</v>
       </c>
@@ -8098,7 +8975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I261">
         <v>43</v>
       </c>
@@ -8107,7 +8984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I262">
         <v>43</v>
       </c>
@@ -8116,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I263">
         <v>43</v>
       </c>
@@ -8125,7 +9002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I264">
         <v>16</v>
       </c>
@@ -8134,7 +9011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I265">
         <v>37</v>
       </c>
@@ -8143,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I266">
         <v>22</v>
       </c>
@@ -8152,7 +9029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I267">
         <v>40</v>
       </c>
@@ -8161,7 +9038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I268">
         <v>40</v>
       </c>
@@ -8170,7 +9047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269">
         <v>40</v>
       </c>
@@ -8179,7 +9056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270">
         <v>27</v>
       </c>
@@ -8188,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I271">
         <v>28</v>
       </c>
@@ -8197,7 +9074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I272">
         <v>27</v>
       </c>
@@ -8206,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I273">
         <v>40</v>
       </c>
@@ -8215,7 +9092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I274">
         <v>12</v>
       </c>
@@ -8224,7 +9101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I275">
         <v>43</v>
       </c>
@@ -8233,7 +9110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I276">
         <v>43</v>
       </c>
@@ -8242,7 +9119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I277">
         <v>26</v>
       </c>
@@ -8251,7 +9128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I278">
         <v>26</v>
       </c>
@@ -8260,7 +9137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I279">
         <v>26</v>
       </c>
@@ -8269,7 +9146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I280">
         <v>26</v>
       </c>
@@ -8278,7 +9155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I281">
         <v>16</v>
       </c>
@@ -8287,7 +9164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I282">
         <v>16</v>
       </c>
@@ -8296,7 +9173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I283">
         <v>16</v>
       </c>
@@ -8305,7 +9182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I284">
         <v>27</v>
       </c>
@@ -8314,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I285">
         <v>24</v>
       </c>
@@ -8323,7 +9200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I286">
         <v>24</v>
       </c>
@@ -8332,7 +9209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I287">
         <v>24</v>
       </c>
@@ -8341,7 +9218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I288">
         <v>24</v>
       </c>
@@ -8350,7 +9227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I289">
         <v>28</v>
       </c>
@@ -8359,7 +9236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I290">
         <v>27</v>
       </c>
@@ -8368,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I291">
         <v>40</v>
       </c>
@@ -8377,7 +9254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I292">
         <v>40</v>
       </c>
@@ -8386,7 +9263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I293">
         <v>40</v>
       </c>
@@ -8395,7 +9272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I294">
         <v>38</v>
       </c>
@@ -8404,7 +9281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I295">
         <v>29</v>
       </c>
@@ -8413,7 +9290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I296">
         <v>29</v>
       </c>
@@ -8422,7 +9299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I297">
         <v>10</v>
       </c>
@@ -8431,7 +9308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I298">
         <v>3</v>
       </c>
@@ -8440,7 +9317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I299">
         <v>3</v>
       </c>
@@ -8449,7 +9326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I300">
         <v>29</v>
       </c>
@@ -8458,7 +9335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I301">
         <v>29</v>
       </c>
@@ -8467,7 +9344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I302">
         <v>28</v>
       </c>
@@ -8476,7 +9353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I303">
         <v>28</v>
       </c>
@@ -8485,7 +9362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I304">
         <v>44</v>
       </c>
@@ -8510,12 +9387,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -8583,7 +9460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -8651,7 +9528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -8719,7 +9596,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -8787,7 +9664,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -8855,7 +9732,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -8923,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -8991,7 +9868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -9059,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9127,7 +10004,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>248</v>
       </c>
@@ -9195,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -9263,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -9331,7 +10208,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -9399,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -9467,7 +10344,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -9535,7 +10412,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9603,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9671,7 +10548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -9739,7 +10616,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -9807,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -9875,7 +10752,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -9943,7 +10820,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -10011,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -10079,7 +10956,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -10147,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -10215,7 +11092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -10283,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -10351,7 +11228,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -10425,4 +11302,636 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="S8" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="S10" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+      <c r="S11" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="S12" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="S13" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="S14" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+      <c r="S15" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="S16" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q17">
+        <v>21</v>
+      </c>
+      <c r="S17" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+      <c r="S18" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="S19" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q20">
+        <v>25</v>
+      </c>
+      <c r="S20" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q21">
+        <v>26</v>
+      </c>
+      <c r="S21" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q22">
+        <v>27</v>
+      </c>
+      <c r="S22" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q23">
+        <v>29</v>
+      </c>
+      <c r="S23" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="S24" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25">
+        <v>31</v>
+      </c>
+      <c r="S25" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26">
+        <v>32</v>
+      </c>
+      <c r="S26" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q27">
+        <v>33</v>
+      </c>
+      <c r="S27" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+      <c r="S28" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q29">
+        <v>38</v>
+      </c>
+      <c r="S29" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+      <c r="S30" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q31">
+        <v>41</v>
+      </c>
+      <c r="S31" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="Q32">
+        <v>42</v>
+      </c>
+      <c r="S32" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="Q33">
+        <v>43</v>
+      </c>
+      <c r="S33" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>101</v>
+      </c>
+      <c r="Q34">
+        <v>101</v>
+      </c>
+      <c r="S34" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>102</v>
+      </c>
+      <c r="Q35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>103</v>
+      </c>
+      <c r="Q36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>104</v>
+      </c>
+      <c r="Q37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>105</v>
+      </c>
+      <c r="Q38">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>106</v>
+      </c>
+      <c r="Q39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>107</v>
+      </c>
+      <c r="Q40">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>108</v>
+      </c>
+      <c r="Q41">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>109</v>
+      </c>
+      <c r="Q42">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>110</v>
+      </c>
+      <c r="Q43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>111</v>
+      </c>
+      <c r="Q44">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>112</v>
+      </c>
+      <c r="Q45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>113</v>
+      </c>
+      <c r="Q46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>114</v>
+      </c>
+      <c r="Q47">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
+    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Non-Modeled Projects" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="mosj_projects" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="353">
   <si>
     <t>Cost</t>
   </si>
@@ -941,13 +942,157 @@
   </si>
   <si>
     <t>Kunia Road Interchange</t>
+  </si>
+  <si>
+    <t>projid</t>
+  </si>
+  <si>
+    <t>Not in RTP?</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP, was added this year 2016</t>
+  </si>
+  <si>
+    <t>added in MINUTP as a developer project (ADD THIS)</t>
+  </si>
+  <si>
+    <t>was illustrative in 2006 ORTP, but somehow got into the MINUTP version of the model (ADD THIS)</t>
+  </si>
+  <si>
+    <t>not in 2006 ORTP, but is IN 2009 ORTP</t>
+  </si>
+  <si>
+    <t>is in the base year and future year networks in MINUTP (ADD THIS)</t>
+  </si>
+  <si>
+    <t>added in MINUTP, part of projID 29 and 30 (ADD THIS)</t>
+  </si>
+  <si>
+    <t>add this for private roads for transit only</t>
+  </si>
+  <si>
+    <t>don't have to add (proj and existing have same values)</t>
+  </si>
+  <si>
+    <t>DON'T ADD 44, 45, 46, 47, 48</t>
+  </si>
+  <si>
+    <t>check numbering two diff projects (yes okay)</t>
+  </si>
+  <si>
+    <t>PM ZIPPER LANE</t>
+  </si>
+  <si>
+    <t>KEEHI Interchange</t>
+  </si>
+  <si>
+    <t>H-1 Widening Waipahu Off-Ramp</t>
+  </si>
+  <si>
+    <t>H-1 University Avenue Interchange On/Off Ramp Modifications</t>
+  </si>
+  <si>
+    <t>Revised Ramps</t>
+  </si>
+  <si>
+    <t>H-1 HOV Median Lanes</t>
+  </si>
+  <si>
+    <t>Makakilo Interchange</t>
+  </si>
+  <si>
+    <t>Kunia Road Widening</t>
+  </si>
+  <si>
+    <t>Wilikina Drive</t>
+  </si>
+  <si>
+    <t>Anonui St</t>
+  </si>
+  <si>
+    <t>H-1 EB Loop On-Ramp at Kunia Interchange</t>
+  </si>
+  <si>
+    <t>Likelike Highway Widening</t>
+  </si>
+  <si>
+    <t>Kahekili Highway</t>
+  </si>
+  <si>
+    <t>Nimitz Hwy HOV Flyover</t>
+  </si>
+  <si>
+    <t>Pacific Street</t>
+  </si>
+  <si>
+    <t>Piikoi-Pensacola Couplet Reversal</t>
+  </si>
+  <si>
+    <t>Reverse on-way direction</t>
+  </si>
+  <si>
+    <t>Puuloa Road Widening</t>
+  </si>
+  <si>
+    <t>Pukuloa Road</t>
+  </si>
+  <si>
+    <t>Nimitz Hwy</t>
+  </si>
+  <si>
+    <t>Central Mauka Road Second Access</t>
+  </si>
+  <si>
+    <t>Mililani Mauka</t>
+  </si>
+  <si>
+    <t>Wahiawa Second Access</t>
+  </si>
+  <si>
+    <t>Whitmore Avenue</t>
+  </si>
+  <si>
+    <t>Waianae Second Access</t>
+  </si>
+  <si>
+    <t>Kunia Road</t>
+  </si>
+  <si>
+    <t>AM Zipper Lane Changed to 3+ Passengers</t>
+  </si>
+  <si>
+    <t>Revised Occupants</t>
+  </si>
+  <si>
+    <t>Roosevelt Extension</t>
+  </si>
+  <si>
+    <t>Near Saratoga</t>
+  </si>
+  <si>
+    <t>Kamaaha Extension</t>
+  </si>
+  <si>
+    <t>Wakea Extension</t>
+  </si>
+  <si>
+    <t>Makaiwa Roads into Hills</t>
+  </si>
+  <si>
+    <t>Fort Weaver Rd Widening</t>
+  </si>
+  <si>
+    <t>Kupuna Loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,8 +1137,120 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1263,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1024,16 +1460,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1081,12 +1665,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="26" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="30" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="42" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="27" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="31" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="43" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="24" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="28" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="32" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="36" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="40" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="44" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="25" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="29" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="10" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="14" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="16" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="19" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="9" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="8" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="12" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="15" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="11" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2 6" xfId="1"/>
     <cellStyle name="Normal 31" xfId="3"/>
     <cellStyle name="Normal 9" xfId="2"/>
+    <cellStyle name="Note" xfId="18" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="13" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1186,8 +1814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2181225" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="2245360" y="0"/>
+          <a:ext cx="10303436" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1382,8 +2010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1181100" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="10293276" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1799,75 +2427,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1899,7 +2527,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>273</v>
       </c>
@@ -1967,7 +2595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2013,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2059,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2108,7 +2736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2154,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2200,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2242,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2288,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2334,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -2378,7 +3006,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2431,7 +3059,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -2480,7 +3108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2529,7 +3157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -2575,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -2617,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -2662,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -2708,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -2761,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -2807,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -2853,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -2900,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -2947,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -2993,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3042,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3082,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3128,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -3176,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -3222,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -3265,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -3311,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -3361,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -3406,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -3455,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -3502,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -3549,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -3584,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -3630,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -3679,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -3717,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -3766,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -3792,22 +4420,22 @@
         <v>0</v>
       </c>
       <c r="R49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -3830,22 +4458,22 @@
         <v>0</v>
       </c>
       <c r="R50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -3862,22 +4490,22 @@
         <v>0</v>
       </c>
       <c r="R51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -3894,22 +4522,22 @@
         <v>0</v>
       </c>
       <c r="R52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -3941,23 +4569,23 @@
       <c r="Q53" s="8">
         <v>0</v>
       </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R53" s="8">
+        <v>1</v>
+      </c>
+      <c r="S53" s="8">
+        <v>1</v>
+      </c>
+      <c r="T53" s="8">
+        <v>1</v>
+      </c>
+      <c r="U53" s="8">
+        <v>1</v>
+      </c>
+      <c r="V53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -3983,23 +4611,23 @@
       <c r="Q54" s="8">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R54" s="8">
+        <v>1</v>
+      </c>
+      <c r="S54" s="8">
+        <v>1</v>
+      </c>
+      <c r="T54" s="8">
+        <v>1</v>
+      </c>
+      <c r="U54" s="8">
+        <v>1</v>
+      </c>
+      <c r="V54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -4025,23 +4653,23 @@
       <c r="Q55" s="8">
         <v>0</v>
       </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R55" s="8">
+        <v>1</v>
+      </c>
+      <c r="S55" s="8">
+        <v>1</v>
+      </c>
+      <c r="T55" s="8">
+        <v>1</v>
+      </c>
+      <c r="U55" s="8">
+        <v>1</v>
+      </c>
+      <c r="V55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -4067,23 +4695,23 @@
       <c r="Q56" s="8">
         <v>0</v>
       </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R56" s="8">
+        <v>1</v>
+      </c>
+      <c r="S56" s="8">
+        <v>1</v>
+      </c>
+      <c r="T56" s="8">
+        <v>1</v>
+      </c>
+      <c r="U56" s="8">
+        <v>1</v>
+      </c>
+      <c r="V56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -4109,193 +4737,747 @@
       <c r="Q57" s="8">
         <v>0</v>
       </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R57" s="8">
+        <v>1</v>
+      </c>
+      <c r="S57" s="8">
+        <v>1</v>
+      </c>
+      <c r="T57" s="8">
+        <v>1</v>
+      </c>
+      <c r="U57" s="8">
+        <v>1</v>
+      </c>
+      <c r="V57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>292</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="K58"/>
       <c r="L58"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="8">
+        <v>0</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="29">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>292</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="K59"/>
       <c r="L59"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8">
+        <v>0</v>
+      </c>
+      <c r="T59" s="8">
+        <v>0</v>
+      </c>
+      <c r="U59" s="8">
+        <v>0</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="29">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="K60"/>
       <c r="L60"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0</v>
+      </c>
+      <c r="S60" s="8">
+        <v>0</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="29">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" t="s">
+        <v>292</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="K61"/>
       <c r="L61"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0</v>
+      </c>
+      <c r="S61" s="8">
+        <v>0</v>
+      </c>
+      <c r="T61" s="8">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
+      <c r="V61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>292</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="K62"/>
       <c r="L62"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="S62" s="8">
+        <v>0</v>
+      </c>
+      <c r="T62" s="8">
+        <v>0</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="29">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" t="s">
+        <v>292</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="K63"/>
       <c r="L63"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="8">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8">
+        <v>0</v>
+      </c>
+      <c r="T63" s="8">
+        <v>0</v>
+      </c>
+      <c r="U63" s="8">
+        <v>0</v>
+      </c>
+      <c r="V63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="29">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" t="s">
+        <v>292</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="K64"/>
       <c r="L64"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8">
+        <v>0</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" s="29">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" t="s">
+        <v>292</v>
+      </c>
       <c r="K65"/>
       <c r="L65"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="S65" s="8">
+        <v>0</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <v>109</v>
+      </c>
+      <c r="D66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" t="s">
+        <v>334</v>
+      </c>
       <c r="K66"/>
       <c r="L66"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q66" s="8">
+        <v>0</v>
+      </c>
+      <c r="R66" s="8">
+        <v>0</v>
+      </c>
+      <c r="S66" s="8">
+        <v>0</v>
+      </c>
+      <c r="T66" s="8">
+        <v>0</v>
+      </c>
+      <c r="U66" s="8">
+        <v>0</v>
+      </c>
+      <c r="V66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67" s="29">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
+      <c r="G67" t="s">
+        <v>292</v>
+      </c>
       <c r="K67"/>
       <c r="L67"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67" s="8">
+        <v>0</v>
+      </c>
+      <c r="S67" s="8">
+        <v>0</v>
+      </c>
+      <c r="T67" s="8">
+        <v>0</v>
+      </c>
+      <c r="U67" s="8">
+        <v>0</v>
+      </c>
+      <c r="V67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="29">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" t="s">
+        <v>292</v>
+      </c>
       <c r="K68"/>
       <c r="L68"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q68" s="8">
+        <v>0</v>
+      </c>
+      <c r="R68" s="8">
+        <v>0</v>
+      </c>
+      <c r="S68" s="8">
+        <v>0</v>
+      </c>
+      <c r="T68" s="8">
+        <v>0</v>
+      </c>
+      <c r="U68" s="8">
+        <v>0</v>
+      </c>
+      <c r="V68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A69" s="29">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" t="s">
+        <v>339</v>
+      </c>
+      <c r="G69" t="s">
+        <v>292</v>
+      </c>
       <c r="P69" s="19"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0</v>
+      </c>
+      <c r="S69" s="8">
+        <v>0</v>
+      </c>
+      <c r="T69" s="8">
+        <v>0</v>
+      </c>
+      <c r="U69" s="8">
+        <v>0</v>
+      </c>
+      <c r="V69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="29">
+        <v>113</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
+      <c r="D70" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" t="s">
+        <v>292</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="P70" s="19"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-    </row>
-    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D71"/>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="S70" s="8">
+        <v>0</v>
+      </c>
+      <c r="T70" s="8">
+        <v>0</v>
+      </c>
+      <c r="U70" s="8">
+        <v>0</v>
+      </c>
+      <c r="V70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>344</v>
+      </c>
       <c r="E71"/>
       <c r="F71"/>
+      <c r="G71" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71" s="8"/>
       <c r="L71" s="5"/>
       <c r="P71" s="19"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>0</v>
+      </c>
+      <c r="S71" s="8">
+        <v>0</v>
+      </c>
+      <c r="T71" s="8">
+        <v>0</v>
+      </c>
+      <c r="U71" s="8">
+        <v>0</v>
+      </c>
+      <c r="V71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="29">
+        <v>115</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="P72" s="19"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>0</v>
+      </c>
+      <c r="S72" s="8">
+        <v>0</v>
+      </c>
+      <c r="T72" s="8">
+        <v>0</v>
+      </c>
+      <c r="U72" s="8">
+        <v>0</v>
+      </c>
+      <c r="V72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="29">
+        <v>116</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="J73" s="4"/>
       <c r="P73" s="19"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8">
+        <v>0</v>
+      </c>
+      <c r="T73" s="8">
+        <v>0</v>
+      </c>
+      <c r="U73" s="8">
+        <v>0</v>
+      </c>
+      <c r="V73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="29">
+        <v>117</v>
+      </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="J74" s="4"/>
       <c r="P74" s="19"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>0</v>
+      </c>
+      <c r="S74" s="8">
+        <v>0</v>
+      </c>
+      <c r="T74" s="8">
+        <v>0</v>
+      </c>
+      <c r="U74" s="8">
+        <v>0</v>
+      </c>
+      <c r="V74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="29">
+        <v>118</v>
+      </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="P75" s="19"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>1</v>
+      </c>
+      <c r="S75" s="8">
+        <v>1</v>
+      </c>
+      <c r="T75" s="8">
+        <v>1</v>
+      </c>
+      <c r="U75" s="8">
+        <v>1</v>
+      </c>
+      <c r="V75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>119</v>
+      </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="P76" s="19"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="Q76" s="8">
+        <v>1</v>
+      </c>
+      <c r="R76" s="8">
+        <v>1</v>
+      </c>
+      <c r="S76" s="8">
+        <v>1</v>
+      </c>
+      <c r="T76" s="8">
+        <v>1</v>
+      </c>
+      <c r="U76" s="8">
+        <v>1</v>
+      </c>
+      <c r="V76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>120</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="P77" s="19"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>0</v>
+      </c>
+      <c r="S77" s="8">
+        <v>0</v>
+      </c>
+      <c r="T77" s="8">
+        <v>0</v>
+      </c>
+      <c r="U77" s="8">
+        <v>0</v>
+      </c>
+      <c r="V77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4308,7 +5490,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4321,7 +5503,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4334,7 +5516,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4346,7 +5528,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4358,7 +5540,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4370,7 +5552,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4382,7 +5564,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4394,7 +5576,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4406,7 +5588,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4418,7 +5600,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4431,7 +5613,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4444,7 +5626,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4459,7 +5641,7 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4474,7 +5656,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4489,21 +5671,31 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V30">
+  <autoFilter ref="A9:V77">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A10:T48">
       <sortCondition ref="A9:A30"/>
     </sortState>
@@ -4512,8 +5704,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I91:I93"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="3" scale="40" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4531,27 +5723,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4576,7 +5768,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +5815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -4643,7 +5835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -4666,7 +5858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -4689,7 +5881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -4713,7 +5905,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -4736,7 +5928,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -4760,7 +5952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -4780,7 +5972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -4800,7 +5992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -4823,7 +6015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -4846,7 +6038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -4862,7 +6054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -4873,7 +6065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -4884,7 +6076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -4905,7 +6097,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -4924,7 +6116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -4948,7 +6140,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4958,7 +6150,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4968,7 +6160,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4978,7 +6170,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4988,7 +6180,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4998,7 +6190,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5008,7 +6200,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5018,7 +6210,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5028,7 +6220,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -5038,7 +6230,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -5048,7 +6240,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -5058,7 +6250,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -5068,7 +6260,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -5078,7 +6270,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -5088,7 +6280,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5098,7 +6290,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5108,129 +6300,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -5238,119 +6430,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -5359,7 +6551,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -5368,7 +6560,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -5377,7 +6569,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5388,8 +6580,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="H12 H10 H85:H87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="20" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="3" scale="56" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5401,9 +6593,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -5411,7 +6603,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -5419,7 +6611,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5433,7 +6625,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -5451,7 +6643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -5469,7 +6661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -5487,7 +6679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -5505,7 +6697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -5523,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5541,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -5559,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -5577,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -5595,7 +6787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5613,7 +6805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5631,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -5649,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -5667,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -5685,7 +6877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -5703,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -5721,7 +6913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5739,7 +6931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -5757,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -5775,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5793,7 +6985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5811,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -5829,7 +7021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -5847,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -5865,7 +7057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5883,7 +7075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -5901,7 +7093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5919,7 +7111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -5937,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -5955,7 +7147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -5973,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -5991,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -6009,7 +7201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6027,7 +7219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6045,7 +7237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -6063,7 +7255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -6081,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -6099,7 +7291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -6117,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -6135,7 +7327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -6145,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>37</v>
       </c>
@@ -6154,7 +7346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>37</v>
       </c>
@@ -6163,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>27</v>
       </c>
@@ -6172,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>33</v>
       </c>
@@ -6181,7 +7373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>36</v>
       </c>
@@ -6190,7 +7382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>37</v>
       </c>
@@ -6199,7 +7391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>27</v>
       </c>
@@ -6208,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>27</v>
       </c>
@@ -6217,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>37</v>
       </c>
@@ -6226,7 +7418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>27</v>
       </c>
@@ -6235,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>37</v>
       </c>
@@ -6244,7 +7436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>39</v>
       </c>
@@ -6253,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>31</v>
       </c>
@@ -6262,7 +7454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>41</v>
       </c>
@@ -6271,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>30</v>
       </c>
@@ -6280,7 +7472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>30</v>
       </c>
@@ -6289,7 +7481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>32</v>
       </c>
@@ -6298,7 +7490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>32</v>
       </c>
@@ -6307,7 +7499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>32</v>
       </c>
@@ -6316,7 +7508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>31</v>
       </c>
@@ -6325,7 +7517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>42</v>
       </c>
@@ -6334,7 +7526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>41</v>
       </c>
@@ -6343,7 +7535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>5</v>
       </c>
@@ -6352,7 +7544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>41</v>
       </c>
@@ -6361,7 +7553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>5</v>
       </c>
@@ -6370,7 +7562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>5</v>
       </c>
@@ -6379,7 +7571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>5</v>
       </c>
@@ -6388,7 +7580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>41</v>
       </c>
@@ -6397,7 +7589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>41</v>
       </c>
@@ -6406,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>5</v>
       </c>
@@ -6415,7 +7607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>41</v>
       </c>
@@ -6424,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I75">
         <v>41</v>
       </c>
@@ -6433,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I76">
         <v>5</v>
       </c>
@@ -6442,7 +7634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I77">
         <v>5</v>
       </c>
@@ -6451,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>41</v>
       </c>
@@ -6460,7 +7652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>41</v>
       </c>
@@ -6469,7 +7661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>41</v>
       </c>
@@ -6478,7 +7670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>41</v>
       </c>
@@ -6487,7 +7679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I82">
         <v>41</v>
       </c>
@@ -6496,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I83">
         <v>6</v>
       </c>
@@ -6505,7 +7697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I84">
         <v>6</v>
       </c>
@@ -6514,7 +7706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I85">
         <v>6</v>
       </c>
@@ -6523,7 +7715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I86">
         <v>30</v>
       </c>
@@ -6532,7 +7724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I87">
         <v>30</v>
       </c>
@@ -6541,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I88">
         <v>42</v>
       </c>
@@ -6550,7 +7742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>41</v>
       </c>
@@ -6559,7 +7751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>41</v>
       </c>
@@ -6568,7 +7760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>41</v>
       </c>
@@ -6577,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>41</v>
       </c>
@@ -6586,7 +7778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I93">
         <v>41</v>
       </c>
@@ -6595,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I94">
         <v>18</v>
       </c>
@@ -6604,7 +7796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I95">
         <v>30</v>
       </c>
@@ -6613,7 +7805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I96">
         <v>30</v>
       </c>
@@ -6622,7 +7814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <v>30</v>
       </c>
@@ -6631,7 +7823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I98">
         <v>30</v>
       </c>
@@ -6640,7 +7832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <v>30</v>
       </c>
@@ -6649,7 +7841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>30</v>
       </c>
@@ -6658,7 +7850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I101">
         <v>30</v>
       </c>
@@ -6667,7 +7859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I102">
         <v>30</v>
       </c>
@@ -6676,7 +7868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I103">
         <v>32</v>
       </c>
@@ -6685,7 +7877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>32</v>
       </c>
@@ -6694,7 +7886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I105">
         <v>32</v>
       </c>
@@ -6703,7 +7895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>32</v>
       </c>
@@ -6712,7 +7904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>18</v>
       </c>
@@ -6721,7 +7913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I108">
         <v>18</v>
       </c>
@@ -6730,7 +7922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I109">
         <v>41</v>
       </c>
@@ -6739,7 +7931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I110">
         <v>42</v>
       </c>
@@ -6748,7 +7940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I111">
         <v>42</v>
       </c>
@@ -6757,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I112">
         <v>42</v>
       </c>
@@ -6766,7 +7958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113">
         <v>42</v>
       </c>
@@ -6775,7 +7967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114">
         <v>42</v>
       </c>
@@ -6784,7 +7976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115">
         <v>42</v>
       </c>
@@ -6793,7 +7985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116">
         <v>42</v>
       </c>
@@ -6802,7 +7994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117">
         <v>42</v>
       </c>
@@ -6811,7 +8003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118">
         <v>42</v>
       </c>
@@ -6820,7 +8012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119">
         <v>14</v>
       </c>
@@ -6829,7 +8021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120">
         <v>23</v>
       </c>
@@ -6838,7 +8030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121">
         <v>2</v>
       </c>
@@ -6847,7 +8039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122">
         <v>25</v>
       </c>
@@ -6856,7 +8048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123">
         <v>25</v>
       </c>
@@ -6865,7 +8057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124">
         <v>25</v>
       </c>
@@ -6874,7 +8066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125">
         <v>25</v>
       </c>
@@ -6883,7 +8075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126">
         <v>25</v>
       </c>
@@ -6892,7 +8084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127">
         <v>25</v>
       </c>
@@ -6901,7 +8093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128">
         <v>25</v>
       </c>
@@ -6910,7 +8102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129">
         <v>26</v>
       </c>
@@ -6919,7 +8111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130">
         <v>2</v>
       </c>
@@ -6928,7 +8120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131">
         <v>2</v>
       </c>
@@ -6937,7 +8129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132">
         <v>39</v>
       </c>
@@ -6946,7 +8138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133">
         <v>2</v>
       </c>
@@ -6955,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134">
         <v>2</v>
       </c>
@@ -6964,7 +8156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135">
         <v>2</v>
       </c>
@@ -6973,7 +8165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136">
         <v>14</v>
       </c>
@@ -6982,7 +8174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137">
         <v>14</v>
       </c>
@@ -6991,7 +8183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138">
         <v>14</v>
       </c>
@@ -7000,7 +8192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139">
         <v>14</v>
       </c>
@@ -7009,7 +8201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140">
         <v>14</v>
       </c>
@@ -7018,7 +8210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141">
         <v>14</v>
       </c>
@@ -7027,7 +8219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142">
         <v>14</v>
       </c>
@@ -7036,7 +8228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143">
         <v>23</v>
       </c>
@@ -7045,7 +8237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144">
         <v>14</v>
       </c>
@@ -7054,7 +8246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145">
         <v>23</v>
       </c>
@@ -7063,7 +8255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146">
         <v>14</v>
       </c>
@@ -7072,7 +8264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147">
         <v>14</v>
       </c>
@@ -7081,7 +8273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148">
         <v>23</v>
       </c>
@@ -7090,7 +8282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149">
         <v>14</v>
       </c>
@@ -7099,7 +8291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150">
         <v>14</v>
       </c>
@@ -7108,7 +8300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151">
         <v>14</v>
       </c>
@@ -7117,7 +8309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152">
         <v>23</v>
       </c>
@@ -7126,7 +8318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153">
         <v>23</v>
       </c>
@@ -7135,7 +8327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154">
         <v>23</v>
       </c>
@@ -7144,7 +8336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155">
         <v>23</v>
       </c>
@@ -7153,7 +8345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156">
         <v>14</v>
       </c>
@@ -7162,7 +8354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157">
         <v>14</v>
       </c>
@@ -7171,7 +8363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158">
         <v>14</v>
       </c>
@@ -7180,7 +8372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159">
         <v>14</v>
       </c>
@@ -7189,7 +8381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160">
         <v>14</v>
       </c>
@@ -7198,7 +8390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161">
         <v>14</v>
       </c>
@@ -7207,7 +8399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162">
         <v>23</v>
       </c>
@@ -7216,7 +8408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163">
         <v>23</v>
       </c>
@@ -7225,7 +8417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164">
         <v>23</v>
       </c>
@@ -7234,7 +8426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165">
         <v>23</v>
       </c>
@@ -7243,7 +8435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166">
         <v>23</v>
       </c>
@@ -7252,7 +8444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167">
         <v>23</v>
       </c>
@@ -7261,7 +8453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168">
         <v>14</v>
       </c>
@@ -7270,7 +8462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169">
         <v>14</v>
       </c>
@@ -7279,7 +8471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170">
         <v>14</v>
       </c>
@@ -7288,7 +8480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171">
         <v>23</v>
       </c>
@@ -7297,7 +8489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172">
         <v>15</v>
       </c>
@@ -7306,7 +8498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173">
         <v>15</v>
       </c>
@@ -7315,7 +8507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174">
         <v>2</v>
       </c>
@@ -7324,7 +8516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175">
         <v>2</v>
       </c>
@@ -7333,7 +8525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176">
         <v>2</v>
       </c>
@@ -7342,7 +8534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177">
         <v>2</v>
       </c>
@@ -7351,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178">
         <v>2</v>
       </c>
@@ -7360,7 +8552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179">
         <v>2</v>
       </c>
@@ -7369,7 +8561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180">
         <v>2</v>
       </c>
@@ -7378,7 +8570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181">
         <v>2</v>
       </c>
@@ -7387,7 +8579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182">
         <v>26</v>
       </c>
@@ -7396,7 +8588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183">
         <v>2</v>
       </c>
@@ -7405,7 +8597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184">
         <v>2</v>
       </c>
@@ -7414,7 +8606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185">
         <v>2</v>
       </c>
@@ -7423,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186">
         <v>2</v>
       </c>
@@ -7432,7 +8624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I187">
         <v>2</v>
       </c>
@@ -7441,7 +8633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I188">
         <v>2</v>
       </c>
@@ -7450,7 +8642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I189">
         <v>2</v>
       </c>
@@ -7459,7 +8651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I190">
         <v>2</v>
       </c>
@@ -7468,7 +8660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I191">
         <v>23</v>
       </c>
@@ -7477,7 +8669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I192">
         <v>23</v>
       </c>
@@ -7486,7 +8678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I193">
         <v>14</v>
       </c>
@@ -7495,7 +8687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I194">
         <v>23</v>
       </c>
@@ -7504,7 +8696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I195">
         <v>2</v>
       </c>
@@ -7513,7 +8705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I196">
         <v>2</v>
       </c>
@@ -7522,7 +8714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I197">
         <v>9</v>
       </c>
@@ -7531,7 +8723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I198">
         <v>2</v>
       </c>
@@ -7540,7 +8732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I199">
         <v>2</v>
       </c>
@@ -7549,7 +8741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I200">
         <v>13</v>
       </c>
@@ -7558,7 +8750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I201">
         <v>23</v>
       </c>
@@ -7567,7 +8759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I202">
         <v>23</v>
       </c>
@@ -7576,7 +8768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I203">
         <v>13</v>
       </c>
@@ -7585,7 +8777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I204">
         <v>13</v>
       </c>
@@ -7594,7 +8786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I205">
         <v>13</v>
       </c>
@@ -7603,7 +8795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I206">
         <v>13</v>
       </c>
@@ -7612,7 +8804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I207">
         <v>23</v>
       </c>
@@ -7621,7 +8813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I208">
         <v>23</v>
       </c>
@@ -7630,7 +8822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I209">
         <v>2</v>
       </c>
@@ -7639,7 +8831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I210">
         <v>2</v>
       </c>
@@ -7648,7 +8840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I211">
         <v>2</v>
       </c>
@@ -7657,7 +8849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I212">
         <v>2</v>
       </c>
@@ -7666,7 +8858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I213">
         <v>2</v>
       </c>
@@ -7675,7 +8867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I214">
         <v>34</v>
       </c>
@@ -7684,7 +8876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I215">
         <v>33</v>
       </c>
@@ -7693,7 +8885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I216">
         <v>4</v>
       </c>
@@ -7702,7 +8894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I217">
         <v>40</v>
       </c>
@@ -7711,7 +8903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I218">
         <v>4</v>
       </c>
@@ -7720,7 +8912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I219">
         <v>4</v>
       </c>
@@ -7729,7 +8921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I220">
         <v>4</v>
       </c>
@@ -7738,7 +8930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I221">
         <v>4</v>
       </c>
@@ -7747,7 +8939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I222">
         <v>34</v>
       </c>
@@ -7756,7 +8948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I223">
         <v>34</v>
       </c>
@@ -7765,7 +8957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I224">
         <v>34</v>
       </c>
@@ -7774,7 +8966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I225">
         <v>34</v>
       </c>
@@ -7783,7 +8975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I226">
         <v>15</v>
       </c>
@@ -7792,7 +8984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I227">
         <v>15</v>
       </c>
@@ -7801,7 +8993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I228">
         <v>15</v>
       </c>
@@ -7810,7 +9002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I229">
         <v>15</v>
       </c>
@@ -7819,7 +9011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I230">
         <v>15</v>
       </c>
@@ -7828,7 +9020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I231">
         <v>12</v>
       </c>
@@ -7837,7 +9029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I232">
         <v>14</v>
       </c>
@@ -7846,7 +9038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I233">
         <v>14</v>
       </c>
@@ -7855,7 +9047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I234">
         <v>23</v>
       </c>
@@ -7864,7 +9056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I235">
         <v>23</v>
       </c>
@@ -7873,7 +9065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I236">
         <v>28</v>
       </c>
@@ -7882,7 +9074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I237">
         <v>11</v>
       </c>
@@ -7891,7 +9083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I238">
         <v>28</v>
       </c>
@@ -7900,7 +9092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I239">
         <v>32</v>
       </c>
@@ -7909,7 +9101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I240">
         <v>32</v>
       </c>
@@ -7918,7 +9110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I241">
         <v>32</v>
       </c>
@@ -7927,7 +9119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I242">
         <v>43</v>
       </c>
@@ -7936,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I243">
         <v>16</v>
       </c>
@@ -7945,7 +9137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I244">
         <v>12</v>
       </c>
@@ -7954,7 +9146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I245">
         <v>36</v>
       </c>
@@ -7963,7 +9155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I246">
         <v>12</v>
       </c>
@@ -7972,7 +9164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I247">
         <v>16</v>
       </c>
@@ -7981,7 +9173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I248">
         <v>10</v>
       </c>
@@ -7990,7 +9182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I249">
         <v>10</v>
       </c>
@@ -7999,7 +9191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I250">
         <v>10</v>
       </c>
@@ -8008,7 +9200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I251">
         <v>43</v>
       </c>
@@ -8017,7 +9209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I252">
         <v>43</v>
       </c>
@@ -8026,7 +9218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I253">
         <v>37</v>
       </c>
@@ -8035,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I254">
         <v>43</v>
       </c>
@@ -8044,7 +9236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I255">
         <v>43</v>
       </c>
@@ -8053,7 +9245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I256">
         <v>37</v>
       </c>
@@ -8062,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I257">
         <v>43</v>
       </c>
@@ -8071,7 +9263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I258">
         <v>43</v>
       </c>
@@ -8080,7 +9272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I259">
         <v>43</v>
       </c>
@@ -8089,7 +9281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I260">
         <v>43</v>
       </c>
@@ -8098,7 +9290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I261">
         <v>43</v>
       </c>
@@ -8107,7 +9299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I262">
         <v>43</v>
       </c>
@@ -8116,7 +9308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I263">
         <v>43</v>
       </c>
@@ -8125,7 +9317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I264">
         <v>16</v>
       </c>
@@ -8134,7 +9326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I265">
         <v>37</v>
       </c>
@@ -8143,7 +9335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I266">
         <v>22</v>
       </c>
@@ -8152,7 +9344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I267">
         <v>40</v>
       </c>
@@ -8161,7 +9353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I268">
         <v>40</v>
       </c>
@@ -8170,7 +9362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269">
         <v>40</v>
       </c>
@@ -8179,7 +9371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270">
         <v>27</v>
       </c>
@@ -8188,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I271">
         <v>28</v>
       </c>
@@ -8197,7 +9389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I272">
         <v>27</v>
       </c>
@@ -8206,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I273">
         <v>40</v>
       </c>
@@ -8215,7 +9407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I274">
         <v>12</v>
       </c>
@@ -8224,7 +9416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I275">
         <v>43</v>
       </c>
@@ -8233,7 +9425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I276">
         <v>43</v>
       </c>
@@ -8242,7 +9434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I277">
         <v>26</v>
       </c>
@@ -8251,7 +9443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I278">
         <v>26</v>
       </c>
@@ -8260,7 +9452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I279">
         <v>26</v>
       </c>
@@ -8269,7 +9461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I280">
         <v>26</v>
       </c>
@@ -8278,7 +9470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I281">
         <v>16</v>
       </c>
@@ -8287,7 +9479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I282">
         <v>16</v>
       </c>
@@ -8296,7 +9488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I283">
         <v>16</v>
       </c>
@@ -8305,7 +9497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I284">
         <v>27</v>
       </c>
@@ -8314,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I285">
         <v>24</v>
       </c>
@@ -8323,7 +9515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I286">
         <v>24</v>
       </c>
@@ -8332,7 +9524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I287">
         <v>24</v>
       </c>
@@ -8341,7 +9533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I288">
         <v>24</v>
       </c>
@@ -8350,7 +9542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I289">
         <v>28</v>
       </c>
@@ -8359,7 +9551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I290">
         <v>27</v>
       </c>
@@ -8368,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I291">
         <v>40</v>
       </c>
@@ -8377,7 +9569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I292">
         <v>40</v>
       </c>
@@ -8386,7 +9578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I293">
         <v>40</v>
       </c>
@@ -8395,7 +9587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I294">
         <v>38</v>
       </c>
@@ -8404,7 +9596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I295">
         <v>29</v>
       </c>
@@ -8413,7 +9605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I296">
         <v>29</v>
       </c>
@@ -8422,7 +9614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I297">
         <v>10</v>
       </c>
@@ -8431,7 +9623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I298">
         <v>3</v>
       </c>
@@ -8440,7 +9632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I299">
         <v>3</v>
       </c>
@@ -8449,7 +9641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I300">
         <v>29</v>
       </c>
@@ -8458,7 +9650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I301">
         <v>29</v>
       </c>
@@ -8467,7 +9659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I302">
         <v>28</v>
       </c>
@@ -8476,7 +9668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I303">
         <v>28</v>
       </c>
@@ -8485,7 +9677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I304">
         <v>44</v>
       </c>
@@ -8510,12 +9702,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -8583,7 +9775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -8651,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -8719,7 +9911,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -8787,7 +9979,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -8855,7 +10047,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -8923,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -8991,7 +10183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -9059,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9127,7 +10319,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>248</v>
       </c>
@@ -9195,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -9263,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -9331,7 +10523,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -9399,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -9467,7 +10659,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -9535,7 +10727,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9603,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9671,7 +10863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -9739,7 +10931,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -9807,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -9875,7 +11067,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -9943,7 +11135,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -10011,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -10079,7 +11271,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -10147,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -10215,7 +11407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -10283,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -10351,7 +11543,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -10425,4 +11617,636 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="S8" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="S10" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+      <c r="S11" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="S12" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="S13" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="S14" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+      <c r="S15" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="S16" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q17">
+        <v>21</v>
+      </c>
+      <c r="S17" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+      <c r="S18" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="S19" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q20">
+        <v>25</v>
+      </c>
+      <c r="S20" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q21">
+        <v>26</v>
+      </c>
+      <c r="S21" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q22">
+        <v>27</v>
+      </c>
+      <c r="S22" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q23">
+        <v>29</v>
+      </c>
+      <c r="S23" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="S24" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25">
+        <v>31</v>
+      </c>
+      <c r="S25" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26">
+        <v>32</v>
+      </c>
+      <c r="S26" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q27">
+        <v>33</v>
+      </c>
+      <c r="S27" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+      <c r="S28" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q29">
+        <v>38</v>
+      </c>
+      <c r="S29" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+      <c r="S30" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q31">
+        <v>41</v>
+      </c>
+      <c r="S31" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>42</v>
+      </c>
+      <c r="Q32">
+        <v>42</v>
+      </c>
+      <c r="S32" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="Q33">
+        <v>43</v>
+      </c>
+      <c r="S33" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>101</v>
+      </c>
+      <c r="Q34">
+        <v>101</v>
+      </c>
+      <c r="S34" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>102</v>
+      </c>
+      <c r="Q35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>103</v>
+      </c>
+      <c r="Q36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>104</v>
+      </c>
+      <c r="Q37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>105</v>
+      </c>
+      <c r="Q38">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>106</v>
+      </c>
+      <c r="Q39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>107</v>
+      </c>
+      <c r="Q40">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>108</v>
+      </c>
+      <c r="Q41">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>109</v>
+      </c>
+      <c r="Q42">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>110</v>
+      </c>
+      <c r="Q43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>111</v>
+      </c>
+      <c r="Q44">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>112</v>
+      </c>
+      <c r="Q45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>113</v>
+      </c>
+      <c r="Q46">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>114</v>
+      </c>
+      <c r="Q47">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
+    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
@@ -1814,8 +1814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2245360" y="0"/>
-          <a:ext cx="10303436" cy="1313343"/>
+          <a:off x="2197100" y="0"/>
+          <a:ext cx="10049436" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2427,75 +2427,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="W75" sqref="W75"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="7" width="32.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2527,7 +2527,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>273</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>101</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>102</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>103</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>104</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>105</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>106</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>107</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>108</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>109</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>110</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>111</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>112</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>113</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>114</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>115</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>116</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>117</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>118</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>119</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>120</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5490,7 +5490,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -5503,7 +5503,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -5516,7 +5516,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5528,7 +5528,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5540,7 +5540,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5552,7 +5552,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5564,7 +5564,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5576,7 +5576,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5588,7 +5588,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5600,7 +5600,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5613,7 +5613,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5626,7 +5626,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5641,7 +5641,7 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5656,7 +5656,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5671,14 +5671,14 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5686,16 +5686,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:V77">
-    <filterColumn colId="19">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A10:T48">
       <sortCondition ref="A9:A30"/>
     </sortState>
@@ -5723,27 +5713,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5768,7 +5758,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -5815,7 +5805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -5835,7 +5825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -5858,7 +5848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -5881,7 +5871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -5905,7 +5895,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -5928,7 +5918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -5952,7 +5942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -5972,7 +5962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -5992,7 +5982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -6015,7 +6005,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -6038,7 +6028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -6054,7 +6044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -6065,7 +6055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -6076,7 +6066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -6097,7 +6087,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -6116,7 +6106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -6140,7 +6130,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6150,7 +6140,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6160,7 +6150,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6170,7 +6160,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6180,7 +6170,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6190,7 +6180,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6200,7 +6190,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6210,7 +6200,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6220,7 +6210,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6230,7 +6220,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6240,7 +6230,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6250,7 +6240,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6260,7 +6250,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6270,7 +6260,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6280,7 +6270,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6290,7 +6280,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6300,129 +6290,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -6430,119 +6420,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -6551,7 +6541,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -6560,7 +6550,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -6569,7 +6559,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6593,9 +6583,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>271</v>
       </c>
@@ -6603,7 +6593,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -6611,7 +6601,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6625,7 +6615,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -6643,7 +6633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -6661,7 +6651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -6679,7 +6669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -6697,7 +6687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -6715,7 +6705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6733,7 +6723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -6751,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -6769,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6787,7 +6777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6805,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6823,7 +6813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -6841,7 +6831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -6859,7 +6849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -6877,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -6895,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -6913,7 +6903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -6931,7 +6921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -6949,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -6967,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -6985,7 +6975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7003,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -7021,7 +7011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -7039,7 +7029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -7057,7 +7047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -7075,7 +7065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -7093,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7111,7 +7101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -7129,7 +7119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -7147,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -7165,7 +7155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -7183,7 +7173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -7201,7 +7191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7219,7 +7209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -7237,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -7255,7 +7245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -7273,7 +7263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -7291,7 +7281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -7309,7 +7299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -7327,7 +7317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -7337,7 +7327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>37</v>
       </c>
@@ -7346,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>37</v>
       </c>
@@ -7355,7 +7345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>27</v>
       </c>
@@ -7364,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>33</v>
       </c>
@@ -7373,7 +7363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>36</v>
       </c>
@@ -7382,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>37</v>
       </c>
@@ -7391,7 +7381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>27</v>
       </c>
@@ -7400,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>27</v>
       </c>
@@ -7409,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>37</v>
       </c>
@@ -7418,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>27</v>
       </c>
@@ -7427,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>37</v>
       </c>
@@ -7436,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>39</v>
       </c>
@@ -7445,7 +7435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>31</v>
       </c>
@@ -7454,7 +7444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>41</v>
       </c>
@@ -7463,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>30</v>
       </c>
@@ -7472,7 +7462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>30</v>
       </c>
@@ -7481,7 +7471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>32</v>
       </c>
@@ -7490,7 +7480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>32</v>
       </c>
@@ -7499,7 +7489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>32</v>
       </c>
@@ -7508,7 +7498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>31</v>
       </c>
@@ -7517,7 +7507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>42</v>
       </c>
@@ -7526,7 +7516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>41</v>
       </c>
@@ -7535,7 +7525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>5</v>
       </c>
@@ -7544,7 +7534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>41</v>
       </c>
@@ -7553,7 +7543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>5</v>
       </c>
@@ -7562,7 +7552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>5</v>
       </c>
@@ -7571,7 +7561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>5</v>
       </c>
@@ -7580,7 +7570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>41</v>
       </c>
@@ -7589,7 +7579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>41</v>
       </c>
@@ -7598,7 +7588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>5</v>
       </c>
@@ -7607,7 +7597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>41</v>
       </c>
@@ -7616,7 +7606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>41</v>
       </c>
@@ -7625,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>5</v>
       </c>
@@ -7634,7 +7624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>5</v>
       </c>
@@ -7643,7 +7633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>41</v>
       </c>
@@ -7652,7 +7642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>41</v>
       </c>
@@ -7661,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>41</v>
       </c>
@@ -7670,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>41</v>
       </c>
@@ -7679,7 +7669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>41</v>
       </c>
@@ -7688,7 +7678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I83">
         <v>6</v>
       </c>
@@ -7697,7 +7687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>6</v>
       </c>
@@ -7706,7 +7696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I85">
         <v>6</v>
       </c>
@@ -7715,7 +7705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I86">
         <v>30</v>
       </c>
@@ -7724,7 +7714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I87">
         <v>30</v>
       </c>
@@ -7733,7 +7723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I88">
         <v>42</v>
       </c>
@@ -7742,7 +7732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I89">
         <v>41</v>
       </c>
@@ -7751,7 +7741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I90">
         <v>41</v>
       </c>
@@ -7760,7 +7750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I91">
         <v>41</v>
       </c>
@@ -7769,7 +7759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I92">
         <v>41</v>
       </c>
@@ -7778,7 +7768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I93">
         <v>41</v>
       </c>
@@ -7787,7 +7777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I94">
         <v>18</v>
       </c>
@@ -7796,7 +7786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>30</v>
       </c>
@@ -7805,7 +7795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I96">
         <v>30</v>
       </c>
@@ -7814,7 +7804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97">
         <v>30</v>
       </c>
@@ -7823,7 +7813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98">
         <v>30</v>
       </c>
@@ -7832,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99">
         <v>30</v>
       </c>
@@ -7841,7 +7831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100">
         <v>30</v>
       </c>
@@ -7850,7 +7840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101">
         <v>30</v>
       </c>
@@ -7859,7 +7849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102">
         <v>30</v>
       </c>
@@ -7868,7 +7858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103">
         <v>32</v>
       </c>
@@ -7877,7 +7867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104">
         <v>32</v>
       </c>
@@ -7886,7 +7876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105">
         <v>32</v>
       </c>
@@ -7895,7 +7885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106">
         <v>32</v>
       </c>
@@ -7904,7 +7894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107">
         <v>18</v>
       </c>
@@ -7913,7 +7903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108">
         <v>18</v>
       </c>
@@ -7922,7 +7912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109">
         <v>41</v>
       </c>
@@ -7931,7 +7921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110">
         <v>42</v>
       </c>
@@ -7940,7 +7930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111">
         <v>42</v>
       </c>
@@ -7949,7 +7939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>42</v>
       </c>
@@ -7958,7 +7948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113">
         <v>42</v>
       </c>
@@ -7967,7 +7957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114">
         <v>42</v>
       </c>
@@ -7976,7 +7966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115">
         <v>42</v>
       </c>
@@ -7985,7 +7975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116">
         <v>42</v>
       </c>
@@ -7994,7 +7984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117">
         <v>42</v>
       </c>
@@ -8003,7 +7993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118">
         <v>42</v>
       </c>
@@ -8012,7 +8002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119">
         <v>14</v>
       </c>
@@ -8021,7 +8011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I120">
         <v>23</v>
       </c>
@@ -8030,7 +8020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I121">
         <v>2</v>
       </c>
@@ -8039,7 +8029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I122">
         <v>25</v>
       </c>
@@ -8048,7 +8038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I123">
         <v>25</v>
       </c>
@@ -8057,7 +8047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I124">
         <v>25</v>
       </c>
@@ -8066,7 +8056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I125">
         <v>25</v>
       </c>
@@ -8075,7 +8065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I126">
         <v>25</v>
       </c>
@@ -8084,7 +8074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I127">
         <v>25</v>
       </c>
@@ -8093,7 +8083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128">
         <v>25</v>
       </c>
@@ -8102,7 +8092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I129">
         <v>26</v>
       </c>
@@ -8111,7 +8101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I130">
         <v>2</v>
       </c>
@@ -8120,7 +8110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I131">
         <v>2</v>
       </c>
@@ -8129,7 +8119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I132">
         <v>39</v>
       </c>
@@ -8138,7 +8128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I133">
         <v>2</v>
       </c>
@@ -8147,7 +8137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I134">
         <v>2</v>
       </c>
@@ -8156,7 +8146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I135">
         <v>2</v>
       </c>
@@ -8165,7 +8155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I136">
         <v>14</v>
       </c>
@@ -8174,7 +8164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I137">
         <v>14</v>
       </c>
@@ -8183,7 +8173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>14</v>
       </c>
@@ -8192,7 +8182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I139">
         <v>14</v>
       </c>
@@ -8201,7 +8191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I140">
         <v>14</v>
       </c>
@@ -8210,7 +8200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I141">
         <v>14</v>
       </c>
@@ -8219,7 +8209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I142">
         <v>14</v>
       </c>
@@ -8228,7 +8218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I143">
         <v>23</v>
       </c>
@@ -8237,7 +8227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I144">
         <v>14</v>
       </c>
@@ -8246,7 +8236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I145">
         <v>23</v>
       </c>
@@ -8255,7 +8245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I146">
         <v>14</v>
       </c>
@@ -8264,7 +8254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I147">
         <v>14</v>
       </c>
@@ -8273,7 +8263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I148">
         <v>23</v>
       </c>
@@ -8282,7 +8272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I149">
         <v>14</v>
       </c>
@@ -8291,7 +8281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I150">
         <v>14</v>
       </c>
@@ -8300,7 +8290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I151">
         <v>14</v>
       </c>
@@ -8309,7 +8299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I152">
         <v>23</v>
       </c>
@@ -8318,7 +8308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I153">
         <v>23</v>
       </c>
@@ -8327,7 +8317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I154">
         <v>23</v>
       </c>
@@ -8336,7 +8326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I155">
         <v>23</v>
       </c>
@@ -8345,7 +8335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I156">
         <v>14</v>
       </c>
@@ -8354,7 +8344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I157">
         <v>14</v>
       </c>
@@ -8363,7 +8353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I158">
         <v>14</v>
       </c>
@@ -8372,7 +8362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I159">
         <v>14</v>
       </c>
@@ -8381,7 +8371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I160">
         <v>14</v>
       </c>
@@ -8390,7 +8380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I161">
         <v>14</v>
       </c>
@@ -8399,7 +8389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I162">
         <v>23</v>
       </c>
@@ -8408,7 +8398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I163">
         <v>23</v>
       </c>
@@ -8417,7 +8407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I164">
         <v>23</v>
       </c>
@@ -8426,7 +8416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I165">
         <v>23</v>
       </c>
@@ -8435,7 +8425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I166">
         <v>23</v>
       </c>
@@ -8444,7 +8434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I167">
         <v>23</v>
       </c>
@@ -8453,7 +8443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I168">
         <v>14</v>
       </c>
@@ -8462,7 +8452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I169">
         <v>14</v>
       </c>
@@ -8471,7 +8461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I170">
         <v>14</v>
       </c>
@@ -8480,7 +8470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I171">
         <v>23</v>
       </c>
@@ -8489,7 +8479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I172">
         <v>15</v>
       </c>
@@ -8498,7 +8488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I173">
         <v>15</v>
       </c>
@@ -8507,7 +8497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I174">
         <v>2</v>
       </c>
@@ -8516,7 +8506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I175">
         <v>2</v>
       </c>
@@ -8525,7 +8515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I176">
         <v>2</v>
       </c>
@@ -8534,7 +8524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I177">
         <v>2</v>
       </c>
@@ -8543,7 +8533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I178">
         <v>2</v>
       </c>
@@ -8552,7 +8542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I179">
         <v>2</v>
       </c>
@@ -8561,7 +8551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I180">
         <v>2</v>
       </c>
@@ -8570,7 +8560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I181">
         <v>2</v>
       </c>
@@ -8579,7 +8569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I182">
         <v>26</v>
       </c>
@@ -8588,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I183">
         <v>2</v>
       </c>
@@ -8597,7 +8587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I184">
         <v>2</v>
       </c>
@@ -8606,7 +8596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I185">
         <v>2</v>
       </c>
@@ -8615,7 +8605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I186">
         <v>2</v>
       </c>
@@ -8624,7 +8614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I187">
         <v>2</v>
       </c>
@@ -8633,7 +8623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I188">
         <v>2</v>
       </c>
@@ -8642,7 +8632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I189">
         <v>2</v>
       </c>
@@ -8651,7 +8641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I190">
         <v>2</v>
       </c>
@@ -8660,7 +8650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I191">
         <v>23</v>
       </c>
@@ -8669,7 +8659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I192">
         <v>23</v>
       </c>
@@ -8678,7 +8668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I193">
         <v>14</v>
       </c>
@@ -8687,7 +8677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I194">
         <v>23</v>
       </c>
@@ -8696,7 +8686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I195">
         <v>2</v>
       </c>
@@ -8705,7 +8695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I196">
         <v>2</v>
       </c>
@@ -8714,7 +8704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I197">
         <v>9</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I198">
         <v>2</v>
       </c>
@@ -8732,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I199">
         <v>2</v>
       </c>
@@ -8741,7 +8731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I200">
         <v>13</v>
       </c>
@@ -8750,7 +8740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I201">
         <v>23</v>
       </c>
@@ -8759,7 +8749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I202">
         <v>23</v>
       </c>
@@ -8768,7 +8758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I203">
         <v>13</v>
       </c>
@@ -8777,7 +8767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I204">
         <v>13</v>
       </c>
@@ -8786,7 +8776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I205">
         <v>13</v>
       </c>
@@ -8795,7 +8785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I206">
         <v>13</v>
       </c>
@@ -8804,7 +8794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I207">
         <v>23</v>
       </c>
@@ -8813,7 +8803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I208">
         <v>23</v>
       </c>
@@ -8822,7 +8812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I209">
         <v>2</v>
       </c>
@@ -8831,7 +8821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I210">
         <v>2</v>
       </c>
@@ -8840,7 +8830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I211">
         <v>2</v>
       </c>
@@ -8849,7 +8839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I212">
         <v>2</v>
       </c>
@@ -8858,7 +8848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I213">
         <v>2</v>
       </c>
@@ -8867,7 +8857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I214">
         <v>34</v>
       </c>
@@ -8876,7 +8866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I215">
         <v>33</v>
       </c>
@@ -8885,7 +8875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I216">
         <v>4</v>
       </c>
@@ -8894,7 +8884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I217">
         <v>40</v>
       </c>
@@ -8903,7 +8893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I218">
         <v>4</v>
       </c>
@@ -8912,7 +8902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I219">
         <v>4</v>
       </c>
@@ -8921,7 +8911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I220">
         <v>4</v>
       </c>
@@ -8930,7 +8920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I221">
         <v>4</v>
       </c>
@@ -8939,7 +8929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I222">
         <v>34</v>
       </c>
@@ -8948,7 +8938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I223">
         <v>34</v>
       </c>
@@ -8957,7 +8947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I224">
         <v>34</v>
       </c>
@@ -8966,7 +8956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I225">
         <v>34</v>
       </c>
@@ -8975,7 +8965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I226">
         <v>15</v>
       </c>
@@ -8984,7 +8974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I227">
         <v>15</v>
       </c>
@@ -8993,7 +8983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I228">
         <v>15</v>
       </c>
@@ -9002,7 +8992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I229">
         <v>15</v>
       </c>
@@ -9011,7 +9001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I230">
         <v>15</v>
       </c>
@@ -9020,7 +9010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I231">
         <v>12</v>
       </c>
@@ -9029,7 +9019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I232">
         <v>14</v>
       </c>
@@ -9038,7 +9028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I233">
         <v>14</v>
       </c>
@@ -9047,7 +9037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I234">
         <v>23</v>
       </c>
@@ -9056,7 +9046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I235">
         <v>23</v>
       </c>
@@ -9065,7 +9055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I236">
         <v>28</v>
       </c>
@@ -9074,7 +9064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I237">
         <v>11</v>
       </c>
@@ -9083,7 +9073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I238">
         <v>28</v>
       </c>
@@ -9092,7 +9082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I239">
         <v>32</v>
       </c>
@@ -9101,7 +9091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I240">
         <v>32</v>
       </c>
@@ -9110,7 +9100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I241">
         <v>32</v>
       </c>
@@ -9119,7 +9109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I242">
         <v>43</v>
       </c>
@@ -9128,7 +9118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I243">
         <v>16</v>
       </c>
@@ -9137,7 +9127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I244">
         <v>12</v>
       </c>
@@ -9146,7 +9136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I245">
         <v>36</v>
       </c>
@@ -9155,7 +9145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I246">
         <v>12</v>
       </c>
@@ -9164,7 +9154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I247">
         <v>16</v>
       </c>
@@ -9173,7 +9163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I248">
         <v>10</v>
       </c>
@@ -9182,7 +9172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I249">
         <v>10</v>
       </c>
@@ -9191,7 +9181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I250">
         <v>10</v>
       </c>
@@ -9200,7 +9190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I251">
         <v>43</v>
       </c>
@@ -9209,7 +9199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I252">
         <v>43</v>
       </c>
@@ -9218,7 +9208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I253">
         <v>37</v>
       </c>
@@ -9227,7 +9217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I254">
         <v>43</v>
       </c>
@@ -9236,7 +9226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I255">
         <v>43</v>
       </c>
@@ -9245,7 +9235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I256">
         <v>37</v>
       </c>
@@ -9254,7 +9244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I257">
         <v>43</v>
       </c>
@@ -9263,7 +9253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I258">
         <v>43</v>
       </c>
@@ -9272,7 +9262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I259">
         <v>43</v>
       </c>
@@ -9281,7 +9271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I260">
         <v>43</v>
       </c>
@@ -9290,7 +9280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I261">
         <v>43</v>
       </c>
@@ -9299,7 +9289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I262">
         <v>43</v>
       </c>
@@ -9308,7 +9298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I263">
         <v>43</v>
       </c>
@@ -9317,7 +9307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I264">
         <v>16</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I265">
         <v>37</v>
       </c>
@@ -9335,7 +9325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I266">
         <v>22</v>
       </c>
@@ -9344,7 +9334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I267">
         <v>40</v>
       </c>
@@ -9353,7 +9343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I268">
         <v>40</v>
       </c>
@@ -9362,7 +9352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I269">
         <v>40</v>
       </c>
@@ -9371,7 +9361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I270">
         <v>27</v>
       </c>
@@ -9380,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I271">
         <v>28</v>
       </c>
@@ -9389,7 +9379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I272">
         <v>27</v>
       </c>
@@ -9398,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I273">
         <v>40</v>
       </c>
@@ -9407,7 +9397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I274">
         <v>12</v>
       </c>
@@ -9416,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I275">
         <v>43</v>
       </c>
@@ -9425,7 +9415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I276">
         <v>43</v>
       </c>
@@ -9434,7 +9424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I277">
         <v>26</v>
       </c>
@@ -9443,7 +9433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I278">
         <v>26</v>
       </c>
@@ -9452,7 +9442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I279">
         <v>26</v>
       </c>
@@ -9461,7 +9451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I280">
         <v>26</v>
       </c>
@@ -9470,7 +9460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I281">
         <v>16</v>
       </c>
@@ -9479,7 +9469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I282">
         <v>16</v>
       </c>
@@ -9488,7 +9478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I283">
         <v>16</v>
       </c>
@@ -9497,7 +9487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I284">
         <v>27</v>
       </c>
@@ -9506,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I285">
         <v>24</v>
       </c>
@@ -9515,7 +9505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I286">
         <v>24</v>
       </c>
@@ -9524,7 +9514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I287">
         <v>24</v>
       </c>
@@ -9533,7 +9523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I288">
         <v>24</v>
       </c>
@@ -9542,7 +9532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I289">
         <v>28</v>
       </c>
@@ -9551,7 +9541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I290">
         <v>27</v>
       </c>
@@ -9560,7 +9550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I291">
         <v>40</v>
       </c>
@@ -9569,7 +9559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I292">
         <v>40</v>
       </c>
@@ -9578,7 +9568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I293">
         <v>40</v>
       </c>
@@ -9587,7 +9577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I294">
         <v>38</v>
       </c>
@@ -9596,7 +9586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I295">
         <v>29</v>
       </c>
@@ -9605,7 +9595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I296">
         <v>29</v>
       </c>
@@ -9614,7 +9604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I297">
         <v>10</v>
       </c>
@@ -9623,7 +9613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I298">
         <v>3</v>
       </c>
@@ -9632,7 +9622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I299">
         <v>3</v>
       </c>
@@ -9641,7 +9631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I300">
         <v>29</v>
       </c>
@@ -9650,7 +9640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I301">
         <v>29</v>
       </c>
@@ -9659,7 +9649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I302">
         <v>28</v>
       </c>
@@ -9668,7 +9658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I303">
         <v>28</v>
       </c>
@@ -9677,7 +9667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I304">
         <v>44</v>
       </c>
@@ -9702,12 +9692,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -9775,7 +9765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -9843,7 +9833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -9911,7 +9901,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -9979,7 +9969,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -10047,7 +10037,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -10183,7 +10173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -10251,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -10319,7 +10309,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>248</v>
       </c>
@@ -10387,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -10455,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -10523,7 +10513,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -10591,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -10659,7 +10649,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -10727,7 +10717,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -10795,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -10863,7 +10853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -10931,7 +10921,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -10999,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -11067,7 +11057,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11135,7 +11125,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -11203,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -11271,7 +11261,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -11339,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -11407,7 +11397,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -11475,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -11543,7 +11533,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -11627,9 +11617,9 @@
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -11640,7 +11630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11651,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11662,7 +11652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11673,7 +11663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11684,7 +11674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11695,7 +11685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11706,7 +11696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11720,7 +11710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11737,7 +11727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11754,7 +11744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -11771,7 +11761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -11788,7 +11778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -11805,7 +11795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -11822,7 +11812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -11839,7 +11829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -11857,7 +11847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -11877,7 +11867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -11894,7 +11884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -11911,7 +11901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -11928,7 +11918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11945,7 +11935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -11962,7 +11952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -11979,7 +11969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -11996,7 +11986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -12013,7 +12003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -12030,7 +12020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -12047,7 +12037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -12064,7 +12054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -12081,7 +12071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -12092,7 +12082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -12106,7 +12096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
@@ -12117,7 +12107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43</v>
       </c>
@@ -12128,7 +12118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>101</v>
       </c>
@@ -12139,7 +12129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>102</v>
       </c>
@@ -12147,7 +12137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>103</v>
       </c>
@@ -12155,7 +12145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>104</v>
       </c>
@@ -12163,7 +12153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>105</v>
       </c>
@@ -12171,7 +12161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>106</v>
       </c>
@@ -12179,7 +12169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>107</v>
       </c>
@@ -12187,7 +12177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>108</v>
       </c>
@@ -12195,7 +12185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>109</v>
       </c>
@@ -12203,7 +12193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>110</v>
       </c>
@@ -12211,7 +12201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>111</v>
       </c>
@@ -12219,7 +12209,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>112</v>
       </c>
@@ -12227,7 +12217,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>113</v>
       </c>
@@ -12235,7 +12225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
+    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,330 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+one direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+varies</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="352">
   <si>
     <t>Cost</t>
   </si>
@@ -756,9 +1078,6 @@
   </si>
   <si>
     <t>Widening (1 lane per direction)</t>
-  </si>
-  <si>
-    <t>Varies</t>
   </si>
   <si>
     <t>Kamehameha Highway</t>
@@ -1092,7 +1411,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1570,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1617,7 +1952,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1668,6 +2003,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1814,8 +2151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2197100" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="2245360" y="0"/>
+          <a:ext cx="10303436" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2426,76 +2763,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2527,9 +2864,9 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
@@ -2583,19 +2920,19 @@
         <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="V9" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2616,11 +2953,20 @@
         <v>9</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="K10">
+      <c r="J10" s="31">
+        <v>2.5040770000000001</v>
+      </c>
+      <c r="K10" s="29">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>4</v>
+      <c r="L10" s="29">
+        <v>8</v>
+      </c>
+      <c r="M10" s="29">
+        <v>5</v>
+      </c>
+      <c r="N10" s="29">
+        <v>5</v>
       </c>
       <c r="Q10" s="5">
         <v>0</v>
@@ -2641,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2653,7 +2999,7 @@
         <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>231</v>
@@ -2662,12 +3008,21 @@
         <v>9</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="K11">
+      <c r="J11" s="31">
+        <v>7.1985114999999995</v>
+      </c>
+      <c r="K11" s="29">
         <v>4</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="29">
         <v>6</v>
       </c>
+      <c r="M11" s="29">
+        <v>3</v>
+      </c>
+      <c r="N11" s="29">
+        <v>3</v>
+      </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
@@ -2687,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2699,7 +3054,7 @@
         <v>232</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>240</v>
@@ -2708,12 +3063,21 @@
         <v>9</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="K12">
+      <c r="J12" s="31">
+        <v>2.7484425000000003</v>
+      </c>
+      <c r="K12" s="29">
         <v>4</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="29">
         <v>6</v>
       </c>
+      <c r="M12" s="29">
+        <v>3</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3</v>
+      </c>
       <c r="Q12" s="5">
         <v>0</v>
       </c>
@@ -2733,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2745,7 +3109,7 @@
         <v>251</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>232</v>
@@ -2757,12 +3121,21 @@
         <v>9</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="K13">
+      <c r="J13" s="31">
+        <v>1.2529369999999997</v>
+      </c>
+      <c r="K13" s="29">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="29">
         <v>4</v>
       </c>
+      <c r="M13" s="29">
+        <v>4</v>
+      </c>
+      <c r="N13" s="29">
+        <v>4</v>
+      </c>
       <c r="Q13" s="5">
         <v>0</v>
       </c>
@@ -2782,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2791,24 +3164,33 @@
         <v>353</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>239</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="31">
+        <v>0.28132499999999999</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
+      <c r="L14" s="29">
         <v>4</v>
       </c>
+      <c r="M14" s="29">
+        <v>7</v>
+      </c>
+      <c r="N14" s="29">
+        <v>4</v>
+      </c>
       <c r="Q14" s="5">
         <v>0</v>
       </c>
@@ -2828,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2850,7 +3232,21 @@
       <c r="H15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K15"/>
+      <c r="J15" s="31">
+        <v>1.0511140000000001</v>
+      </c>
+      <c r="K15" s="29">
+        <v>5</v>
+      </c>
+      <c r="L15" s="29">
+        <v>6</v>
+      </c>
+      <c r="M15" s="29">
+        <v>2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
       <c r="Q15" s="5">
         <v>0</v>
       </c>
@@ -2870,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2891,11 +3287,20 @@
         <v>242</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="K16" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>243</v>
+      <c r="J16" s="31">
+        <v>1.7461354999999998</v>
+      </c>
+      <c r="K16" s="6">
+        <v>8</v>
+      </c>
+      <c r="L16" s="6">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
@@ -2916,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2934,14 +3339,23 @@
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="K17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>243</v>
+      <c r="J17" s="31">
+        <v>2.0251964999999998</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <v>12</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1</v>
+      </c>
+      <c r="N17" s="29">
+        <v>1</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
@@ -2962,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -2981,8 +3395,21 @@
       <c r="H18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="J18" s="31">
+        <v>9.9100000000000004E-3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="5">
         <v>0</v>
@@ -3003,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3028,12 +3455,21 @@
       <c r="H19" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="J19" s="31">
+        <v>4.1771409999999998</v>
+      </c>
       <c r="K19">
         <v>6</v>
       </c>
       <c r="L19">
         <v>8</v>
       </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
@@ -3056,10 +3492,10 @@
         <v>2012</v>
       </c>
       <c r="AD19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3081,8 +3517,21 @@
       <c r="H20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="31">
+        <v>1.0767329999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
       <c r="Q20" s="5">
         <v>0</v>
       </c>
@@ -3105,10 +3554,10 @@
         <v>2020</v>
       </c>
       <c r="AD20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3130,8 +3579,21 @@
       <c r="H21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="31">
+        <v>1.3563859999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
       <c r="Q21" s="8">
         <v>1</v>
       </c>
@@ -3154,10 +3616,10 @@
         <v>2030</v>
       </c>
       <c r="AD21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3177,12 +3639,13 @@
         <v>123</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="J22" s="31"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
       <c r="P22" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
@@ -3203,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3212,7 +3675,7 @@
         <v>308</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3220,11 +3683,20 @@
         <v>103</v>
       </c>
       <c r="H23" s="4"/>
+      <c r="J23" s="31">
+        <v>5.5674774999999999</v>
+      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
@@ -3245,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3253,24 +3725,33 @@
         <v>301</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
         <v>232</v>
       </c>
       <c r="F24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="H24" s="4"/>
+      <c r="J24" s="31">
+        <v>2.7244279999999996</v>
+      </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
       <c r="Q24" s="5">
         <v>0</v>
       </c>
@@ -3290,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3299,10 +3780,10 @@
         <v>211</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>31</v>
@@ -3311,12 +3792,21 @@
         <v>9</v>
       </c>
       <c r="H25" s="4"/>
+      <c r="J25" s="31">
+        <v>3.3249329999999997</v>
+      </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
         <v>4</v>
       </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
@@ -3336,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3361,12 +3851,21 @@
       <c r="H26" s="22" t="s">
         <v>40</v>
       </c>
+      <c r="J26" s="31">
+        <v>1.2573460000000001</v>
+      </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
       <c r="O26" t="s">
         <v>113</v>
       </c>
@@ -3389,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3398,24 +3897,33 @@
         <v>354</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>239</v>
       </c>
       <c r="H27" s="4"/>
+      <c r="J27" s="31">
+        <v>3.9915409999999998</v>
+      </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
       <c r="Q27" s="5">
         <v>0</v>
       </c>
@@ -3435,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3444,24 +3952,33 @@
         <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="4"/>
+      <c r="J28" s="31">
+        <v>1.9001210000000002</v>
+      </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
       <c r="Q28" s="5">
         <v>0</v>
       </c>
@@ -3481,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3503,12 +4020,21 @@
       <c r="H29" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="J29" s="31">
+        <v>0.43381999999999998</v>
+      </c>
       <c r="K29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29" s="5">
+        <v>5</v>
+      </c>
+      <c r="M29" s="8">
         <v>3</v>
       </c>
+      <c r="N29" s="8">
+        <v>3</v>
+      </c>
       <c r="Q29" s="5">
         <v>0</v>
       </c>
@@ -3528,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3550,12 +4076,21 @@
       <c r="H30" s="21" t="s">
         <v>115</v>
       </c>
+      <c r="J30" s="31">
+        <v>0.194163</v>
+      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
+      <c r="M30" s="8">
+        <v>4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>4</v>
+      </c>
       <c r="Q30" s="8">
         <v>1</v>
       </c>
@@ -3575,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3584,24 +4119,33 @@
         <v>352</v>
       </c>
       <c r="D31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>239</v>
       </c>
       <c r="H31" s="4"/>
+      <c r="J31" s="31">
+        <v>0.64731099999999997</v>
+      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
         <v>4</v>
       </c>
+      <c r="M31" s="8">
+        <v>4</v>
+      </c>
+      <c r="N31" s="8">
+        <v>4</v>
+      </c>
       <c r="Q31" s="5">
         <v>0</v>
       </c>
@@ -3621,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3643,8 +4187,21 @@
       <c r="H32" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="J32" s="31">
+        <v>2.2996899999999996</v>
+      </c>
+      <c r="K32" s="29">
+        <v>6</v>
+      </c>
+      <c r="L32" s="29">
+        <v>6</v>
+      </c>
+      <c r="M32" s="29">
+        <v>3</v>
+      </c>
+      <c r="N32" s="29">
+        <v>3</v>
+      </c>
       <c r="O32" t="s">
         <v>113</v>
       </c>
@@ -3670,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3689,8 +4246,21 @@
       <c r="H33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="J33" s="31">
+        <v>0.42677799999999999</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
       <c r="Q33" s="5">
         <v>0</v>
       </c>
@@ -3710,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3731,12 +4301,21 @@
         <v>233</v>
       </c>
       <c r="H34" s="4"/>
+      <c r="J34" s="31">
+        <v>1.2772359999999998</v>
+      </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" s="25">
         <v>4</v>
       </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
       <c r="Q34" s="5">
         <v>0</v>
       </c>
@@ -3756,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -3779,12 +4358,21 @@
       <c r="H35" s="22" t="s">
         <v>40</v>
       </c>
+      <c r="J35" s="31">
+        <v>1.434102</v>
+      </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
         <v>6</v>
       </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
       <c r="Q35" s="5">
         <v>0</v>
       </c>
@@ -3804,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -3813,7 +4401,7 @@
         <v>305</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>229</v>
@@ -3825,12 +4413,21 @@
         <v>239</v>
       </c>
       <c r="H36" s="4"/>
+      <c r="J36" s="31">
+        <v>2.1870430000000001</v>
+      </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
         <v>2</v>
       </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
       <c r="Q36" s="5">
         <v>0</v>
       </c>
@@ -3850,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -3872,8 +4469,21 @@
       <c r="H37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="J37" s="31">
+        <v>1.0030085000000002</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
       <c r="Q37" s="8">
         <v>0</v>
       </c>
@@ -3893,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -3914,12 +4524,21 @@
         <v>9</v>
       </c>
       <c r="H38" s="4"/>
+      <c r="J38" s="31">
+        <v>2.361138</v>
+      </c>
       <c r="K38">
         <v>4</v>
       </c>
       <c r="L38">
         <v>6</v>
       </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
@@ -3939,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -3964,12 +4583,21 @@
       <c r="H39" s="21" t="s">
         <v>73</v>
       </c>
+      <c r="J39" s="31">
+        <v>0.35058</v>
+      </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
         <v>4</v>
       </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
       <c r="Q39" s="5">
         <v>0</v>
       </c>
@@ -3989,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4009,11 +4637,20 @@
         <v>9</v>
       </c>
       <c r="H40" s="4"/>
+      <c r="J40" s="31">
+        <v>0.353379</v>
+      </c>
       <c r="K40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
       </c>
       <c r="Q40" s="5">
         <v>0</v>
@@ -4034,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4045,7 +4682,7 @@
         <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
         <v>101</v>
@@ -4059,8 +4696,21 @@
       <c r="H41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="J41" s="31">
+        <v>2.4777050000000003</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
       <c r="O41" t="s">
         <v>113</v>
       </c>
@@ -4083,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4105,11 +4755,20 @@
       <c r="H42" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="J42" s="31">
+        <v>0.53654900000000005</v>
+      </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
       </c>
       <c r="Q42" s="8">
         <v>0</v>
@@ -4130,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4152,11 +4811,20 @@
       <c r="H43" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="J43" s="31">
+        <v>0.466557</v>
+      </c>
       <c r="K43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
       </c>
       <c r="Q43" s="5">
         <v>0</v>
@@ -4177,22 +4845,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H44" s="4"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="J44" s="31">
+        <v>0.50720299999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
       <c r="Q44" s="8">
         <v>0</v>
       </c>
@@ -4212,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4221,7 +4902,7 @@
         <v>209</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>227</v>
@@ -4233,12 +4914,21 @@
         <v>9</v>
       </c>
       <c r="H45" s="4"/>
+      <c r="J45" s="31">
+        <v>1.4611879999999999</v>
+      </c>
       <c r="K45">
         <v>2</v>
       </c>
       <c r="L45">
         <v>6</v>
       </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
       <c r="Q45" s="8">
         <v>0</v>
       </c>
@@ -4258,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4280,8 +4970,21 @@
       <c r="H46" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K46"/>
-      <c r="L46" s="10"/>
+      <c r="J46" s="31">
+        <v>0.88918099999999989</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46" s="10">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
       <c r="O46" t="s">
         <v>113</v>
       </c>
@@ -4307,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4316,7 +5019,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -4324,8 +5027,21 @@
         <v>9</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="J47" s="31">
+        <v>1.2545204999999999</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
@@ -4345,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4367,8 +5083,21 @@
       <c r="H48" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="J48" s="31">
+        <v>0.289636</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
       <c r="O48" t="s">
         <v>113</v>
       </c>
@@ -4394,12 +5123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E49" t="s">
         <v>232</v>
@@ -4410,12 +5139,21 @@
       <c r="G49" t="s">
         <v>239</v>
       </c>
+      <c r="J49" s="31">
+        <v>19.813119</v>
+      </c>
       <c r="K49" s="5">
         <v>0</v>
       </c>
       <c r="L49" s="5">
         <v>2</v>
       </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4</v>
+      </c>
       <c r="Q49" s="8">
         <v>0</v>
       </c>
@@ -4435,12 +5173,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
         <v>232</v>
@@ -4452,8 +5190,21 @@
         <v>239</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="J50" s="31">
+        <v>3.8825969999999996</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>2</v>
+      </c>
+      <c r="M50" s="8">
+        <v>5</v>
+      </c>
+      <c r="N50" s="8">
+        <v>5</v>
+      </c>
       <c r="Q50" s="8">
         <v>0</v>
       </c>
@@ -4473,19 +5224,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
         <v>239</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="J51" s="31">
+        <v>2.6757</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>2</v>
+      </c>
+      <c r="M51" s="8">
+        <v>6</v>
+      </c>
+      <c r="N51" s="8">
+        <v>6</v>
+      </c>
       <c r="Q51" s="8">
         <v>0</v>
       </c>
@@ -4505,19 +5269,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
         <v>239</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="J52" s="31">
+        <v>5.3646930000000008</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>2</v>
+      </c>
+      <c r="M52" s="8">
+        <v>6</v>
+      </c>
+      <c r="N52" s="8">
+        <v>6</v>
+      </c>
       <c r="Q52" s="8">
         <v>0</v>
       </c>
@@ -4537,35 +5314,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
         <v>117</v>
       </c>
       <c r="F53" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" t="s">
         <v>291</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" s="4"/>
+      <c r="J53" s="31">
+        <v>2.953376</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8">
+        <v>1</v>
+      </c>
+      <c r="N53" s="8">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
         <v>292</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="P53" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="P53" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="Q53" s="8">
         <v>0</v>
       </c>
@@ -4585,29 +5371,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
       <c r="D54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" t="s">
         <v>295</v>
-      </c>
-      <c r="E54" t="s">
-        <v>296</v>
       </c>
       <c r="F54" t="s">
         <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H54" s="4"/>
+      <c r="J54" s="31">
+        <v>7.5129155000000001</v>
+      </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
+      <c r="N54" s="8">
+        <v>1</v>
+      </c>
       <c r="Q54" s="8">
         <v>0</v>
       </c>
@@ -4627,29 +5422,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
         <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H55" s="4"/>
+      <c r="J55" s="31">
+        <v>7.6104390000000013</v>
+      </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
       <c r="Q55" s="8">
         <v>0</v>
       </c>
@@ -4669,29 +5473,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" t="s">
         <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H56" s="4"/>
+      <c r="J56" s="31">
+        <v>2.9312590000000003</v>
+      </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
+      <c r="N56" s="8">
+        <v>1</v>
+      </c>
       <c r="Q56" s="8">
         <v>0</v>
       </c>
@@ -4711,27 +5524,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
       <c r="D57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" t="s">
         <v>302</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>303</v>
       </c>
-      <c r="F57" t="s">
-        <v>304</v>
-      </c>
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H57" s="4"/>
+      <c r="J57" s="31">
+        <v>0.78104649999999998</v>
+      </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
+        <v>1</v>
+      </c>
+      <c r="N57" s="8">
         <v>1</v>
       </c>
       <c r="Q57" s="8">
@@ -4753,23 +5575,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>101</v>
       </c>
       <c r="D58" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" t="s">
         <v>318</v>
-      </c>
-      <c r="E58" t="s">
-        <v>319</v>
       </c>
       <c r="F58" t="s">
         <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H58" s="4"/>
+      <c r="J58" s="31"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="Q58" s="8">
@@ -4791,19 +5614,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H59" s="4"/>
-      <c r="K59"/>
-      <c r="L59"/>
+      <c r="J59" s="31">
+        <v>0.22734399999999999</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>8</v>
+      </c>
+      <c r="N59">
+        <v>8</v>
+      </c>
       <c r="Q59" s="8">
         <v>0</v>
       </c>
@@ -4823,19 +5659,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>103</v>
       </c>
       <c r="D60" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" t="s">
         <v>321</v>
       </c>
-      <c r="G60" t="s">
-        <v>322</v>
-      </c>
       <c r="H60" s="4"/>
-      <c r="K60"/>
-      <c r="L60"/>
+      <c r="J60" s="31">
+        <v>0.41011600000000004</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>8</v>
+      </c>
       <c r="Q60" s="8">
         <v>0</v>
       </c>
@@ -4855,25 +5704,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E61" t="s">
         <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H61" s="4"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="J61" s="31">
+        <v>10.036644000000001</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
       <c r="Q61" s="8">
         <v>0</v>
       </c>
@@ -4893,25 +5755,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>105</v>
       </c>
       <c r="D62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" t="s">
         <v>325</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>326</v>
       </c>
-      <c r="F62" t="s">
-        <v>327</v>
-      </c>
       <c r="G62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="J62" s="31">
+        <v>6.279827</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
       <c r="Q62" s="8">
         <v>0</v>
       </c>
@@ -4931,19 +5806,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H63" s="4"/>
-      <c r="K63"/>
-      <c r="L63"/>
+      <c r="J63" s="31">
+        <v>5.0626499999999998E-2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
       <c r="Q63" s="8">
         <v>0</v>
       </c>
@@ -4963,25 +5851,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E64" t="s">
         <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="K64"/>
-      <c r="L64"/>
+      <c r="J64" s="31">
+        <v>0.48705300000000001</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
       <c r="Q64" s="8">
         <v>0</v>
       </c>
@@ -5001,24 +5902,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>108</v>
       </c>
       <c r="D65" t="s">
+        <v>330</v>
+      </c>
+      <c r="E65" t="s">
+        <v>318</v>
+      </c>
+      <c r="F65" t="s">
         <v>331</v>
       </c>
-      <c r="E65" t="s">
-        <v>319</v>
-      </c>
-      <c r="F65" t="s">
-        <v>332</v>
-      </c>
       <c r="G65" t="s">
-        <v>292</v>
-      </c>
-      <c r="K65"/>
-      <c r="L65"/>
+        <v>291</v>
+      </c>
+      <c r="J65" s="31">
+        <v>3.2425380000000006</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
       <c r="Q65" s="8">
         <v>0</v>
       </c>
@@ -5038,18 +5952,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>109</v>
       </c>
       <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" t="s">
         <v>333</v>
       </c>
-      <c r="G66" t="s">
-        <v>334</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66"/>
+      <c r="J66" s="31">
+        <v>3.8108604999999995</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
       <c r="Q66" s="8">
         <v>0</v>
       </c>
@@ -5069,24 +5996,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>110</v>
       </c>
       <c r="D67" t="s">
+        <v>334</v>
+      </c>
+      <c r="E67" t="s">
         <v>335</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>336</v>
       </c>
-      <c r="F67" t="s">
-        <v>337</v>
-      </c>
       <c r="G67" t="s">
-        <v>292</v>
-      </c>
-      <c r="K67"/>
-      <c r="L67"/>
+        <v>291</v>
+      </c>
+      <c r="J67" s="31">
+        <v>0.68827700000000003</v>
+      </c>
+      <c r="K67" s="5">
+        <v>3</v>
+      </c>
+      <c r="L67" s="5">
+        <v>5</v>
+      </c>
+      <c r="M67" s="8">
+        <v>3</v>
+      </c>
+      <c r="N67" s="8">
+        <v>3</v>
+      </c>
       <c r="Q67" s="8">
         <v>0</v>
       </c>
@@ -5106,24 +6046,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>111</v>
       </c>
       <c r="D68" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68" t="s">
         <v>338</v>
-      </c>
-      <c r="E68" t="s">
-        <v>339</v>
       </c>
       <c r="F68" t="s">
         <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
-      </c>
-      <c r="K68"/>
-      <c r="L68"/>
+        <v>291</v>
+      </c>
+      <c r="J68" s="31">
+        <v>16.185812000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
       <c r="Q68" s="8">
         <v>0</v>
       </c>
@@ -5143,21 +6096,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>112</v>
       </c>
       <c r="D69" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" t="s">
         <v>340</v>
       </c>
-      <c r="E69" t="s">
-        <v>341</v>
-      </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="J69" s="31">
+        <v>3.2503919999999997</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>2</v>
+      </c>
+      <c r="M69" s="8">
+        <v>4</v>
+      </c>
+      <c r="N69" s="8">
+        <v>4</v>
       </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="8">
@@ -5179,25 +6147,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>113</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E70" t="s">
         <v>232</v>
       </c>
       <c r="F70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H70" s="4"/>
+      <c r="J70" s="31">
+        <v>4.8497159999999999</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <v>2</v>
+      </c>
+      <c r="M70" s="8">
+        <v>7</v>
+      </c>
+      <c r="N70" s="8">
+        <v>7</v>
+      </c>
       <c r="P70" s="19"/>
       <c r="Q70" s="8">
         <v>0</v>
@@ -5218,22 +6201,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="5"/>
+      <c r="J71" s="31"/>
       <c r="P71" s="19"/>
       <c r="Q71" s="8">
         <v>0</v>
@@ -5254,27 +6235,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>115</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>231</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="31">
+        <v>0.29454999999999998</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>2</v>
+      </c>
+      <c r="M72" s="8">
+        <v>4</v>
+      </c>
+      <c r="N72" s="8">
+        <v>4</v>
+      </c>
       <c r="P72" s="19"/>
       <c r="Q72" s="8">
         <v>0</v>
@@ -5295,20 +6290,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>116</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="31">
+        <v>0.22639400000000001</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>2</v>
+      </c>
+      <c r="M73" s="8">
+        <v>7</v>
+      </c>
+      <c r="N73" s="8">
+        <v>6</v>
+      </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="8">
         <v>0</v>
@@ -5329,20 +6338,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="29">
         <v>117</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="J74" s="31">
+        <v>0.42425299999999999</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>2</v>
+      </c>
+      <c r="M74" s="8">
+        <v>7</v>
+      </c>
+      <c r="N74" s="8">
+        <v>6</v>
+      </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="8">
         <v>0</v>
@@ -5363,20 +6386,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>118</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
+      <c r="J75" s="31">
+        <v>4.4136069999999998</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>2</v>
+      </c>
+      <c r="M75" s="8">
+        <v>7</v>
+      </c>
+      <c r="N75" s="8">
+        <v>7</v>
+      </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="8">
         <v>0</v>
@@ -5397,26 +6435,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>119</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
+      <c r="J76" s="31">
+        <v>2.5748820000000001</v>
+      </c>
+      <c r="K76" s="8">
+        <v>4</v>
+      </c>
+      <c r="L76" s="8">
+        <v>6</v>
+      </c>
+      <c r="M76" s="8">
+        <v>3</v>
+      </c>
+      <c r="N76" s="8">
+        <v>3</v>
+      </c>
       <c r="P76" s="19"/>
       <c r="Q76" s="8">
         <v>1</v>
@@ -5437,26 +6490,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>120</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
+      <c r="J77" s="31">
+        <v>0.367091</v>
+      </c>
+      <c r="K77" s="8">
+        <v>5</v>
+      </c>
+      <c r="L77" s="8">
+        <v>6</v>
+      </c>
+      <c r="M77" s="8">
+        <v>3</v>
+      </c>
+      <c r="N77" s="8">
+        <v>3</v>
+      </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="8">
         <v>0</v>
@@ -5477,12 +6545,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
+      <c r="J78" s="30"/>
       <c r="P78" s="19"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -5490,12 +6559,13 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
+      <c r="J79" s="30"/>
       <c r="P79" s="19"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
@@ -5503,12 +6573,13 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
+      <c r="J80" s="30"/>
       <c r="P80" s="19"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -5516,7 +6587,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5528,7 +6599,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5540,7 +6611,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5552,7 +6623,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5564,7 +6635,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5576,7 +6647,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5588,7 +6659,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5600,7 +6671,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5613,7 +6684,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5626,7 +6697,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5641,12 +6712,11 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="J91" s="5"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="P91" s="19"/>
@@ -5656,12 +6726,11 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="J92" s="5"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="P92" s="19"/>
@@ -5671,14 +6740,22 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="J93" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5696,6 +6773,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="40" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5713,27 +6791,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5758,7 +6836,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -5805,7 +6883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -5825,7 +6903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -5848,7 +6926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -5871,7 +6949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -5895,7 +6973,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -5918,7 +6996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -5942,7 +7020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -5962,7 +7040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -5982,7 +7060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -6005,7 +7083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -6028,7 +7106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -6044,7 +7122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -6055,7 +7133,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -6066,7 +7144,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -6087,7 +7165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -6106,7 +7184,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -6130,7 +7208,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6140,7 +7218,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6150,7 +7228,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6160,7 +7238,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6170,7 +7248,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6180,7 +7258,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6190,7 +7268,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6200,7 +7278,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6210,7 +7288,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6220,7 +7298,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6230,7 +7308,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6240,7 +7318,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6250,7 +7328,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6260,7 +7338,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6270,7 +7348,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6280,7 +7358,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6290,129 +7368,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -6420,119 +7498,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -6541,7 +7619,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -6550,7 +7628,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -6559,7 +7637,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6583,25 +7661,25 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6609,13 +7687,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
         <v>267</v>
       </c>
-      <c r="J3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -6633,7 +7711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -6651,7 +7729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -6669,12 +7747,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -6687,12 +7765,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6705,7 +7783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6723,7 +7801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -6741,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -6759,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6777,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6795,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6813,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -6831,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -6849,12 +7927,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -6867,12 +7945,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -6885,12 +7963,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -6903,7 +7981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -6921,12 +7999,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -6939,12 +8017,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -6957,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -6975,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -6993,12 +8071,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -7011,7 +8089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -7029,7 +8107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -7047,7 +8125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -7065,7 +8143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -7083,12 +8161,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -7101,7 +8179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -7119,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -7137,7 +8215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -7155,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -7173,12 +8251,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -7191,7 +8269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7209,7 +8287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -7227,7 +8305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -7245,12 +8323,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C39">
         <v>36</v>
@@ -7263,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -7281,12 +8359,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -7299,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -7317,7 +8395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -7327,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>37</v>
       </c>
@@ -7336,7 +8414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>37</v>
       </c>
@@ -7345,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>27</v>
       </c>
@@ -7354,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>33</v>
       </c>
@@ -7363,7 +8441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>36</v>
       </c>
@@ -7372,7 +8450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>37</v>
       </c>
@@ -7381,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>27</v>
       </c>
@@ -7390,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>27</v>
       </c>
@@ -7399,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>37</v>
       </c>
@@ -7408,7 +8486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>27</v>
       </c>
@@ -7417,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>37</v>
       </c>
@@ -7426,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>39</v>
       </c>
@@ -7435,7 +8513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>31</v>
       </c>
@@ -7444,7 +8522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>41</v>
       </c>
@@ -7453,7 +8531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>30</v>
       </c>
@@ -7462,7 +8540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>30</v>
       </c>
@@ -7471,7 +8549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>32</v>
       </c>
@@ -7480,7 +8558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>32</v>
       </c>
@@ -7489,7 +8567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>32</v>
       </c>
@@ -7498,7 +8576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>31</v>
       </c>
@@ -7507,7 +8585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>42</v>
       </c>
@@ -7516,7 +8594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>41</v>
       </c>
@@ -7525,7 +8603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>5</v>
       </c>
@@ -7534,7 +8612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>41</v>
       </c>
@@ -7543,7 +8621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>5</v>
       </c>
@@ -7552,7 +8630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>5</v>
       </c>
@@ -7561,7 +8639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>5</v>
       </c>
@@ -7570,7 +8648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>41</v>
       </c>
@@ -7579,7 +8657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>41</v>
       </c>
@@ -7588,7 +8666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>5</v>
       </c>
@@ -7597,7 +8675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>41</v>
       </c>
@@ -7606,7 +8684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I75">
         <v>41</v>
       </c>
@@ -7615,7 +8693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I76">
         <v>5</v>
       </c>
@@ -7624,7 +8702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I77">
         <v>5</v>
       </c>
@@ -7633,7 +8711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>41</v>
       </c>
@@ -7642,7 +8720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>41</v>
       </c>
@@ -7651,7 +8729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>41</v>
       </c>
@@ -7660,7 +8738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>41</v>
       </c>
@@ -7669,7 +8747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I82">
         <v>41</v>
       </c>
@@ -7678,7 +8756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I83">
         <v>6</v>
       </c>
@@ -7687,7 +8765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I84">
         <v>6</v>
       </c>
@@ -7696,7 +8774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I85">
         <v>6</v>
       </c>
@@ -7705,7 +8783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I86">
         <v>30</v>
       </c>
@@ -7714,7 +8792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I87">
         <v>30</v>
       </c>
@@ -7723,7 +8801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I88">
         <v>42</v>
       </c>
@@ -7732,7 +8810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>41</v>
       </c>
@@ -7741,7 +8819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>41</v>
       </c>
@@ -7750,7 +8828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>41</v>
       </c>
@@ -7759,7 +8837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>41</v>
       </c>
@@ -7768,7 +8846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I93">
         <v>41</v>
       </c>
@@ -7777,7 +8855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I94">
         <v>18</v>
       </c>
@@ -7786,7 +8864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I95">
         <v>30</v>
       </c>
@@ -7795,7 +8873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I96">
         <v>30</v>
       </c>
@@ -7804,7 +8882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <v>30</v>
       </c>
@@ -7813,7 +8891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I98">
         <v>30</v>
       </c>
@@ -7822,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <v>30</v>
       </c>
@@ -7831,7 +8909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>30</v>
       </c>
@@ -7840,7 +8918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I101">
         <v>30</v>
       </c>
@@ -7849,7 +8927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I102">
         <v>30</v>
       </c>
@@ -7858,7 +8936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I103">
         <v>32</v>
       </c>
@@ -7867,7 +8945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>32</v>
       </c>
@@ -7876,7 +8954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I105">
         <v>32</v>
       </c>
@@ -7885,7 +8963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>32</v>
       </c>
@@ -7894,7 +8972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>18</v>
       </c>
@@ -7903,7 +8981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I108">
         <v>18</v>
       </c>
@@ -7912,7 +8990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I109">
         <v>41</v>
       </c>
@@ -7921,7 +8999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I110">
         <v>42</v>
       </c>
@@ -7930,7 +9008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I111">
         <v>42</v>
       </c>
@@ -7939,7 +9017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I112">
         <v>42</v>
       </c>
@@ -7948,7 +9026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113">
         <v>42</v>
       </c>
@@ -7957,7 +9035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114">
         <v>42</v>
       </c>
@@ -7966,7 +9044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115">
         <v>42</v>
       </c>
@@ -7975,7 +9053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116">
         <v>42</v>
       </c>
@@ -7984,7 +9062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117">
         <v>42</v>
       </c>
@@ -7993,7 +9071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118">
         <v>42</v>
       </c>
@@ -8002,7 +9080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119">
         <v>14</v>
       </c>
@@ -8011,7 +9089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120">
         <v>23</v>
       </c>
@@ -8020,7 +9098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121">
         <v>2</v>
       </c>
@@ -8029,7 +9107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122">
         <v>25</v>
       </c>
@@ -8038,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123">
         <v>25</v>
       </c>
@@ -8047,7 +9125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124">
         <v>25</v>
       </c>
@@ -8056,7 +9134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125">
         <v>25</v>
       </c>
@@ -8065,7 +9143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126">
         <v>25</v>
       </c>
@@ -8074,7 +9152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127">
         <v>25</v>
       </c>
@@ -8083,7 +9161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128">
         <v>25</v>
       </c>
@@ -8092,7 +9170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129">
         <v>26</v>
       </c>
@@ -8101,7 +9179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130">
         <v>2</v>
       </c>
@@ -8110,7 +9188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131">
         <v>2</v>
       </c>
@@ -8119,7 +9197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132">
         <v>39</v>
       </c>
@@ -8128,7 +9206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133">
         <v>2</v>
       </c>
@@ -8137,7 +9215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134">
         <v>2</v>
       </c>
@@ -8146,7 +9224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135">
         <v>2</v>
       </c>
@@ -8155,7 +9233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136">
         <v>14</v>
       </c>
@@ -8164,7 +9242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137">
         <v>14</v>
       </c>
@@ -8173,7 +9251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138">
         <v>14</v>
       </c>
@@ -8182,7 +9260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139">
         <v>14</v>
       </c>
@@ -8191,7 +9269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140">
         <v>14</v>
       </c>
@@ -8200,7 +9278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141">
         <v>14</v>
       </c>
@@ -8209,7 +9287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142">
         <v>14</v>
       </c>
@@ -8218,7 +9296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143">
         <v>23</v>
       </c>
@@ -8227,7 +9305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144">
         <v>14</v>
       </c>
@@ -8236,7 +9314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145">
         <v>23</v>
       </c>
@@ -8245,7 +9323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146">
         <v>14</v>
       </c>
@@ -8254,7 +9332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147">
         <v>14</v>
       </c>
@@ -8263,7 +9341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148">
         <v>23</v>
       </c>
@@ -8272,7 +9350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149">
         <v>14</v>
       </c>
@@ -8281,7 +9359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150">
         <v>14</v>
       </c>
@@ -8290,7 +9368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151">
         <v>14</v>
       </c>
@@ -8299,7 +9377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152">
         <v>23</v>
       </c>
@@ -8308,7 +9386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153">
         <v>23</v>
       </c>
@@ -8317,7 +9395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154">
         <v>23</v>
       </c>
@@ -8326,7 +9404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155">
         <v>23</v>
       </c>
@@ -8335,7 +9413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156">
         <v>14</v>
       </c>
@@ -8344,7 +9422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157">
         <v>14</v>
       </c>
@@ -8353,7 +9431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158">
         <v>14</v>
       </c>
@@ -8362,7 +9440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159">
         <v>14</v>
       </c>
@@ -8371,7 +9449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160">
         <v>14</v>
       </c>
@@ -8380,7 +9458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161">
         <v>14</v>
       </c>
@@ -8389,7 +9467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162">
         <v>23</v>
       </c>
@@ -8398,7 +9476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163">
         <v>23</v>
       </c>
@@ -8407,7 +9485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164">
         <v>23</v>
       </c>
@@ -8416,7 +9494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165">
         <v>23</v>
       </c>
@@ -8425,7 +9503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166">
         <v>23</v>
       </c>
@@ -8434,7 +9512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167">
         <v>23</v>
       </c>
@@ -8443,7 +9521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168">
         <v>14</v>
       </c>
@@ -8452,7 +9530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169">
         <v>14</v>
       </c>
@@ -8461,7 +9539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170">
         <v>14</v>
       </c>
@@ -8470,7 +9548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171">
         <v>23</v>
       </c>
@@ -8479,7 +9557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172">
         <v>15</v>
       </c>
@@ -8488,7 +9566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173">
         <v>15</v>
       </c>
@@ -8497,7 +9575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174">
         <v>2</v>
       </c>
@@ -8506,7 +9584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175">
         <v>2</v>
       </c>
@@ -8515,7 +9593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176">
         <v>2</v>
       </c>
@@ -8524,7 +9602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177">
         <v>2</v>
       </c>
@@ -8533,7 +9611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178">
         <v>2</v>
       </c>
@@ -8542,7 +9620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179">
         <v>2</v>
       </c>
@@ -8551,7 +9629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180">
         <v>2</v>
       </c>
@@ -8560,7 +9638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181">
         <v>2</v>
       </c>
@@ -8569,7 +9647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182">
         <v>26</v>
       </c>
@@ -8578,7 +9656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183">
         <v>2</v>
       </c>
@@ -8587,7 +9665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184">
         <v>2</v>
       </c>
@@ -8596,7 +9674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185">
         <v>2</v>
       </c>
@@ -8605,7 +9683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186">
         <v>2</v>
       </c>
@@ -8614,7 +9692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I187">
         <v>2</v>
       </c>
@@ -8623,7 +9701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I188">
         <v>2</v>
       </c>
@@ -8632,7 +9710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I189">
         <v>2</v>
       </c>
@@ -8641,7 +9719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I190">
         <v>2</v>
       </c>
@@ -8650,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I191">
         <v>23</v>
       </c>
@@ -8659,7 +9737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I192">
         <v>23</v>
       </c>
@@ -8668,7 +9746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I193">
         <v>14</v>
       </c>
@@ -8677,7 +9755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I194">
         <v>23</v>
       </c>
@@ -8686,7 +9764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I195">
         <v>2</v>
       </c>
@@ -8695,7 +9773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I196">
         <v>2</v>
       </c>
@@ -8704,7 +9782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I197">
         <v>9</v>
       </c>
@@ -8713,7 +9791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I198">
         <v>2</v>
       </c>
@@ -8722,7 +9800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I199">
         <v>2</v>
       </c>
@@ -8731,7 +9809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I200">
         <v>13</v>
       </c>
@@ -8740,7 +9818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I201">
         <v>23</v>
       </c>
@@ -8749,7 +9827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I202">
         <v>23</v>
       </c>
@@ -8758,7 +9836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I203">
         <v>13</v>
       </c>
@@ -8767,7 +9845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I204">
         <v>13</v>
       </c>
@@ -8776,7 +9854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I205">
         <v>13</v>
       </c>
@@ -8785,7 +9863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I206">
         <v>13</v>
       </c>
@@ -8794,7 +9872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I207">
         <v>23</v>
       </c>
@@ -8803,7 +9881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I208">
         <v>23</v>
       </c>
@@ -8812,7 +9890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I209">
         <v>2</v>
       </c>
@@ -8821,7 +9899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I210">
         <v>2</v>
       </c>
@@ -8830,7 +9908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I211">
         <v>2</v>
       </c>
@@ -8839,7 +9917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I212">
         <v>2</v>
       </c>
@@ -8848,7 +9926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I213">
         <v>2</v>
       </c>
@@ -8857,7 +9935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I214">
         <v>34</v>
       </c>
@@ -8866,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I215">
         <v>33</v>
       </c>
@@ -8875,7 +9953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I216">
         <v>4</v>
       </c>
@@ -8884,7 +9962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I217">
         <v>40</v>
       </c>
@@ -8893,7 +9971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I218">
         <v>4</v>
       </c>
@@ -8902,7 +9980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I219">
         <v>4</v>
       </c>
@@ -8911,7 +9989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I220">
         <v>4</v>
       </c>
@@ -8920,7 +9998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I221">
         <v>4</v>
       </c>
@@ -8929,7 +10007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I222">
         <v>34</v>
       </c>
@@ -8938,7 +10016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I223">
         <v>34</v>
       </c>
@@ -8947,7 +10025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I224">
         <v>34</v>
       </c>
@@ -8956,7 +10034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I225">
         <v>34</v>
       </c>
@@ -8965,7 +10043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I226">
         <v>15</v>
       </c>
@@ -8974,7 +10052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I227">
         <v>15</v>
       </c>
@@ -8983,7 +10061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I228">
         <v>15</v>
       </c>
@@ -8992,7 +10070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I229">
         <v>15</v>
       </c>
@@ -9001,7 +10079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I230">
         <v>15</v>
       </c>
@@ -9010,7 +10088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I231">
         <v>12</v>
       </c>
@@ -9019,7 +10097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I232">
         <v>14</v>
       </c>
@@ -9028,7 +10106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I233">
         <v>14</v>
       </c>
@@ -9037,7 +10115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I234">
         <v>23</v>
       </c>
@@ -9046,7 +10124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I235">
         <v>23</v>
       </c>
@@ -9055,7 +10133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I236">
         <v>28</v>
       </c>
@@ -9064,7 +10142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I237">
         <v>11</v>
       </c>
@@ -9073,7 +10151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I238">
         <v>28</v>
       </c>
@@ -9082,7 +10160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I239">
         <v>32</v>
       </c>
@@ -9091,7 +10169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I240">
         <v>32</v>
       </c>
@@ -9100,7 +10178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I241">
         <v>32</v>
       </c>
@@ -9109,7 +10187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I242">
         <v>43</v>
       </c>
@@ -9118,7 +10196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I243">
         <v>16</v>
       </c>
@@ -9127,7 +10205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I244">
         <v>12</v>
       </c>
@@ -9136,7 +10214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I245">
         <v>36</v>
       </c>
@@ -9145,7 +10223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I246">
         <v>12</v>
       </c>
@@ -9154,7 +10232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I247">
         <v>16</v>
       </c>
@@ -9163,7 +10241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I248">
         <v>10</v>
       </c>
@@ -9172,7 +10250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I249">
         <v>10</v>
       </c>
@@ -9181,7 +10259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I250">
         <v>10</v>
       </c>
@@ -9190,7 +10268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I251">
         <v>43</v>
       </c>
@@ -9199,7 +10277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I252">
         <v>43</v>
       </c>
@@ -9208,7 +10286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I253">
         <v>37</v>
       </c>
@@ -9217,7 +10295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I254">
         <v>43</v>
       </c>
@@ -9226,7 +10304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I255">
         <v>43</v>
       </c>
@@ -9235,7 +10313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I256">
         <v>37</v>
       </c>
@@ -9244,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I257">
         <v>43</v>
       </c>
@@ -9253,7 +10331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I258">
         <v>43</v>
       </c>
@@ -9262,7 +10340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I259">
         <v>43</v>
       </c>
@@ -9271,7 +10349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I260">
         <v>43</v>
       </c>
@@ -9280,7 +10358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I261">
         <v>43</v>
       </c>
@@ -9289,7 +10367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I262">
         <v>43</v>
       </c>
@@ -9298,7 +10376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I263">
         <v>43</v>
       </c>
@@ -9307,7 +10385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I264">
         <v>16</v>
       </c>
@@ -9316,7 +10394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I265">
         <v>37</v>
       </c>
@@ -9325,7 +10403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I266">
         <v>22</v>
       </c>
@@ -9334,7 +10412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I267">
         <v>40</v>
       </c>
@@ -9343,7 +10421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I268">
         <v>40</v>
       </c>
@@ -9352,7 +10430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269">
         <v>40</v>
       </c>
@@ -9361,7 +10439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270">
         <v>27</v>
       </c>
@@ -9370,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I271">
         <v>28</v>
       </c>
@@ -9379,7 +10457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I272">
         <v>27</v>
       </c>
@@ -9388,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I273">
         <v>40</v>
       </c>
@@ -9397,7 +10475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I274">
         <v>12</v>
       </c>
@@ -9406,7 +10484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I275">
         <v>43</v>
       </c>
@@ -9415,7 +10493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I276">
         <v>43</v>
       </c>
@@ -9424,7 +10502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I277">
         <v>26</v>
       </c>
@@ -9433,7 +10511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I278">
         <v>26</v>
       </c>
@@ -9442,7 +10520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I279">
         <v>26</v>
       </c>
@@ -9451,7 +10529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I280">
         <v>26</v>
       </c>
@@ -9460,7 +10538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I281">
         <v>16</v>
       </c>
@@ -9469,7 +10547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I282">
         <v>16</v>
       </c>
@@ -9478,7 +10556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I283">
         <v>16</v>
       </c>
@@ -9487,7 +10565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I284">
         <v>27</v>
       </c>
@@ -9496,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I285">
         <v>24</v>
       </c>
@@ -9505,7 +10583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I286">
         <v>24</v>
       </c>
@@ -9514,7 +10592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I287">
         <v>24</v>
       </c>
@@ -9523,7 +10601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I288">
         <v>24</v>
       </c>
@@ -9532,7 +10610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I289">
         <v>28</v>
       </c>
@@ -9541,7 +10619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I290">
         <v>27</v>
       </c>
@@ -9550,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I291">
         <v>40</v>
       </c>
@@ -9559,7 +10637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I292">
         <v>40</v>
       </c>
@@ -9568,7 +10646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I293">
         <v>40</v>
       </c>
@@ -9577,7 +10655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I294">
         <v>38</v>
       </c>
@@ -9586,7 +10664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I295">
         <v>29</v>
       </c>
@@ -9595,7 +10673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I296">
         <v>29</v>
       </c>
@@ -9604,7 +10682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I297">
         <v>10</v>
       </c>
@@ -9613,7 +10691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I298">
         <v>3</v>
       </c>
@@ -9622,7 +10700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I299">
         <v>3</v>
       </c>
@@ -9631,7 +10709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I300">
         <v>29</v>
       </c>
@@ -9640,7 +10718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I301">
         <v>29</v>
       </c>
@@ -9649,7 +10727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I302">
         <v>28</v>
       </c>
@@ -9658,7 +10736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I303">
         <v>28</v>
       </c>
@@ -9667,7 +10745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I304">
         <v>44</v>
       </c>
@@ -9692,12 +10770,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -9765,7 +10843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -9833,7 +10911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -9901,7 +10979,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -9969,7 +11047,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -10037,7 +11115,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -10105,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -10173,7 +11251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -10241,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -10309,9 +11387,9 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -10377,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -10445,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -10513,7 +11591,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -10581,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -10649,7 +11727,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -10717,7 +11795,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -10785,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -10853,7 +11931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -10921,7 +11999,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -10989,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -11057,7 +12135,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11125,7 +12203,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -11193,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -11261,7 +12339,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -11329,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -11397,7 +12475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -11465,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -11533,7 +12611,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -11617,20 +12695,20 @@
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11641,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11652,7 +12730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11663,7 +12741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11674,7 +12752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11685,7 +12763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11696,12 +12774,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -11710,7 +12788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11718,7 +12796,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -11727,7 +12805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11735,7 +12813,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -11744,7 +12822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -11752,7 +12830,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -11761,7 +12839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -11769,7 +12847,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -11778,7 +12856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -11786,7 +12864,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -11795,7 +12873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -11803,7 +12881,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>16</v>
@@ -11812,7 +12890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -11820,7 +12898,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q15">
         <v>18</v>
@@ -11829,7 +12907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -11838,7 +12916,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q16">
         <v>19</v>
@@ -11847,18 +12925,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E17">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q17">
         <v>21</v>
@@ -11867,7 +12945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -11875,7 +12953,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q18">
         <v>23</v>
@@ -11884,7 +12962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -11892,7 +12970,7 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q19">
         <v>24</v>
@@ -11901,7 +12979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>25</v>
       </c>
@@ -11909,7 +12987,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q20">
         <v>25</v>
@@ -11918,7 +12996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11926,7 +13004,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q21">
         <v>26</v>
@@ -11935,7 +13013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -11943,7 +13021,7 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q22">
         <v>27</v>
@@ -11952,7 +13030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -11960,7 +13038,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q23">
         <v>29</v>
@@ -11969,7 +13047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -11977,7 +13055,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q24">
         <v>30</v>
@@ -11986,7 +13064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31</v>
       </c>
@@ -11994,7 +13072,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q25">
         <v>31</v>
@@ -12003,7 +13081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -12011,7 +13089,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q26">
         <v>32</v>
@@ -12020,7 +13098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -12028,7 +13106,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>33</v>
@@ -12037,7 +13115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -12045,7 +13123,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q28">
         <v>35</v>
@@ -12054,7 +13132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -12062,7 +13140,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q29">
         <v>38</v>
@@ -12071,7 +13149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40</v>
       </c>
@@ -12082,12 +13160,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q31">
         <v>41</v>
@@ -12096,7 +13174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42</v>
       </c>
@@ -12107,7 +13185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43</v>
       </c>
@@ -12118,7 +13196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>101</v>
       </c>
@@ -12129,7 +13207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>102</v>
       </c>
@@ -12137,7 +13215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>103</v>
       </c>
@@ -12145,7 +13223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>104</v>
       </c>
@@ -12153,7 +13231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>105</v>
       </c>
@@ -12161,7 +13239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>106</v>
       </c>
@@ -12169,7 +13247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>107</v>
       </c>
@@ -12177,7 +13255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>108</v>
       </c>
@@ -12185,7 +13263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>109</v>
       </c>
@@ -12193,7 +13271,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>110</v>
       </c>
@@ -12201,7 +13279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>111</v>
       </c>
@@ -12209,7 +13287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>112</v>
       </c>
@@ -12217,7 +13295,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>113</v>
       </c>
@@ -12225,7 +13303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
+    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -123,30 +99,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K33" authorId="0" shapeId="0">
       <text>
         <r>
@@ -172,54 +124,6 @@
       </text>
     </comment>
     <comment ref="K43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-pm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1585,7 +1489,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,6 +1681,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1952,7 +1868,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2004,7 +1920,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -2151,8 +2077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2245360" y="0"/>
-          <a:ext cx="10303436" cy="1313343"/>
+          <a:off x="2178326" y="0"/>
+          <a:ext cx="10042810" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2769,70 +2695,70 @@
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L77" sqref="L77"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="7" width="32.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2864,7 +2790,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>272</v>
       </c>
@@ -2932,7 +2858,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2987,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3042,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -3100,7 +3026,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -3155,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -3210,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3266,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -3290,10 +3216,10 @@
       <c r="J16" s="31">
         <v>1.7461354999999998</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="33">
         <v>8</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="33">
         <v>10</v>
       </c>
       <c r="M16">
@@ -3321,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3376,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3433,7 +3359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3495,7 +3421,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3557,7 +3483,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3582,11 +3508,11 @@
       <c r="J21" s="31">
         <v>1.3563859999999999</v>
       </c>
-      <c r="K21" s="6">
-        <v>10</v>
-      </c>
-      <c r="L21" s="7">
-        <v>12</v>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34">
+        <v>1</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -3619,7 +3545,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3666,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3717,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3771,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3826,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3888,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3943,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3998,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -4054,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -4110,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -4165,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -4227,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -4280,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4335,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4392,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4447,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4503,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4558,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4617,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4671,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4733,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4789,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4845,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4893,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4948,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -5010,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -5061,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -5123,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -5173,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -5224,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -5269,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -5314,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -5371,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -5391,10 +5317,10 @@
       <c r="J54" s="31">
         <v>7.5129155000000001</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" s="35">
+        <v>1</v>
+      </c>
+      <c r="L54" s="35">
         <v>0</v>
       </c>
       <c r="M54" s="8">
@@ -5422,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -5442,10 +5368,10 @@
       <c r="J55" s="31">
         <v>7.6104390000000013</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
+      <c r="K55" s="35">
+        <v>1</v>
+      </c>
+      <c r="L55" s="35">
         <v>0</v>
       </c>
       <c r="M55" s="8">
@@ -5473,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -5493,10 +5419,10 @@
       <c r="J56" s="31">
         <v>2.9312590000000003</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="K56" s="35">
+        <v>1</v>
+      </c>
+      <c r="L56" s="35">
         <v>0</v>
       </c>
       <c r="M56" s="8">
@@ -5524,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -5575,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>101</v>
       </c>
@@ -5614,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>102</v>
       </c>
@@ -5628,11 +5554,11 @@
       <c r="J59" s="31">
         <v>0.22734399999999999</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="35">
+        <v>1</v>
+      </c>
+      <c r="L59" s="35">
         <v>2</v>
-      </c>
-      <c r="L59">
-        <v>4</v>
       </c>
       <c r="M59">
         <v>8</v>
@@ -5659,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>103</v>
       </c>
@@ -5704,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>104</v>
       </c>
@@ -5755,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>105</v>
       </c>
@@ -5806,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>106</v>
       </c>
@@ -5851,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>107</v>
       </c>
@@ -5902,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>108</v>
       </c>
@@ -5952,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>109</v>
       </c>
@@ -5996,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>110</v>
       </c>
@@ -6046,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>111</v>
       </c>
@@ -6096,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>112</v>
       </c>
@@ -6147,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>113</v>
       </c>
@@ -6201,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>114</v>
       </c>
@@ -6235,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>115</v>
       </c>
@@ -6290,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>116</v>
       </c>
@@ -6338,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>117</v>
       </c>
@@ -6386,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>118</v>
       </c>
@@ -6435,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>119</v>
       </c>
@@ -6490,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>120</v>
       </c>
@@ -6545,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6559,7 +6485,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6573,7 +6499,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6587,7 +6513,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6599,7 +6525,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6611,7 +6537,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6623,7 +6549,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6635,7 +6561,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6647,7 +6573,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6659,7 +6585,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6671,7 +6597,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6684,7 +6610,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6697,7 +6623,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6712,7 +6638,7 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6726,7 +6652,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6740,22 +6666,22 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J96" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6791,27 +6717,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6836,7 +6762,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -6903,7 +6829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -6926,7 +6852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -6949,7 +6875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6973,7 +6899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6996,7 +6922,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -7020,7 +6946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -7040,7 +6966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -7060,7 +6986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -7083,7 +7009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -7106,7 +7032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -7122,7 +7048,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -7133,7 +7059,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -7144,7 +7070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7165,7 +7091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -7184,7 +7110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7208,7 +7134,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7218,7 +7144,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7228,7 +7154,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7238,7 +7164,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7248,7 +7174,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7258,7 +7184,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7268,7 +7194,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7278,7 +7204,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7288,7 +7214,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7298,7 +7224,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7308,7 +7234,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7318,7 +7244,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7328,7 +7254,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7338,7 +7264,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7348,7 +7274,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7358,7 +7284,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7368,129 +7294,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -7498,119 +7424,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -7619,7 +7545,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -7628,7 +7554,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -7637,7 +7563,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7661,9 +7587,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>270</v>
       </c>
@@ -7671,7 +7597,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -7679,7 +7605,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7693,7 +7619,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -7711,7 +7637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -7729,7 +7655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -7747,7 +7673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -7765,7 +7691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -7783,7 +7709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7801,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -7819,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -7837,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -7855,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7873,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7891,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7909,7 +7835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7927,7 +7853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -7945,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -7963,7 +7889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -7981,7 +7907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -7999,7 +7925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -8017,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -8035,7 +7961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8053,7 +7979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -8071,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -8089,7 +8015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -8107,7 +8033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -8125,7 +8051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8143,7 +8069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -8161,7 +8087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8179,7 +8105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -8197,7 +8123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -8215,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -8233,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -8251,7 +8177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -8269,7 +8195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8287,7 +8213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8305,7 +8231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -8323,7 +8249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -8341,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -8359,7 +8285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -8377,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -8395,7 +8321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -8405,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>37</v>
       </c>
@@ -8414,7 +8340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>37</v>
       </c>
@@ -8423,7 +8349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>27</v>
       </c>
@@ -8432,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>33</v>
       </c>
@@ -8441,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>36</v>
       </c>
@@ -8450,7 +8376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>37</v>
       </c>
@@ -8459,7 +8385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>27</v>
       </c>
@@ -8468,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>27</v>
       </c>
@@ -8477,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>37</v>
       </c>
@@ -8486,7 +8412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>27</v>
       </c>
@@ -8495,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>37</v>
       </c>
@@ -8504,7 +8430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>39</v>
       </c>
@@ -8513,7 +8439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>31</v>
       </c>
@@ -8522,7 +8448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>41</v>
       </c>
@@ -8531,7 +8457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>30</v>
       </c>
@@ -8540,7 +8466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>30</v>
       </c>
@@ -8549,7 +8475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>32</v>
       </c>
@@ -8558,7 +8484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>32</v>
       </c>
@@ -8567,7 +8493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>32</v>
       </c>
@@ -8576,7 +8502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>31</v>
       </c>
@@ -8585,7 +8511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>42</v>
       </c>
@@ -8594,7 +8520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>41</v>
       </c>
@@ -8603,7 +8529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>5</v>
       </c>
@@ -8612,7 +8538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>41</v>
       </c>
@@ -8621,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>5</v>
       </c>
@@ -8630,7 +8556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>5</v>
       </c>
@@ -8639,7 +8565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>5</v>
       </c>
@@ -8648,7 +8574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>41</v>
       </c>
@@ -8657,7 +8583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>41</v>
       </c>
@@ -8666,7 +8592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>5</v>
       </c>
@@ -8675,7 +8601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>41</v>
       </c>
@@ -8684,7 +8610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>41</v>
       </c>
@@ -8693,7 +8619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>5</v>
       </c>
@@ -8702,7 +8628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>5</v>
       </c>
@@ -8711,7 +8637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>41</v>
       </c>
@@ -8720,7 +8646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>41</v>
       </c>
@@ -8729,7 +8655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>41</v>
       </c>
@@ -8738,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>41</v>
       </c>
@@ -8747,7 +8673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>41</v>
       </c>
@@ -8756,7 +8682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I83">
         <v>6</v>
       </c>
@@ -8765,7 +8691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>6</v>
       </c>
@@ -8774,7 +8700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I85">
         <v>6</v>
       </c>
@@ -8783,7 +8709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I86">
         <v>30</v>
       </c>
@@ -8792,7 +8718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I87">
         <v>30</v>
       </c>
@@ -8801,7 +8727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I88">
         <v>42</v>
       </c>
@@ -8810,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I89">
         <v>41</v>
       </c>
@@ -8819,7 +8745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I90">
         <v>41</v>
       </c>
@@ -8828,7 +8754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I91">
         <v>41</v>
       </c>
@@ -8837,7 +8763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I92">
         <v>41</v>
       </c>
@@ -8846,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I93">
         <v>41</v>
       </c>
@@ -8855,7 +8781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I94">
         <v>18</v>
       </c>
@@ -8864,7 +8790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>30</v>
       </c>
@@ -8873,7 +8799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I96">
         <v>30</v>
       </c>
@@ -8882,7 +8808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97">
         <v>30</v>
       </c>
@@ -8891,7 +8817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98">
         <v>30</v>
       </c>
@@ -8900,7 +8826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99">
         <v>30</v>
       </c>
@@ -8909,7 +8835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100">
         <v>30</v>
       </c>
@@ -8918,7 +8844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101">
         <v>30</v>
       </c>
@@ -8927,7 +8853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102">
         <v>30</v>
       </c>
@@ -8936,7 +8862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103">
         <v>32</v>
       </c>
@@ -8945,7 +8871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104">
         <v>32</v>
       </c>
@@ -8954,7 +8880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105">
         <v>32</v>
       </c>
@@ -8963,7 +8889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106">
         <v>32</v>
       </c>
@@ -8972,7 +8898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107">
         <v>18</v>
       </c>
@@ -8981,7 +8907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108">
         <v>18</v>
       </c>
@@ -8990,7 +8916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109">
         <v>41</v>
       </c>
@@ -8999,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110">
         <v>42</v>
       </c>
@@ -9008,7 +8934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111">
         <v>42</v>
       </c>
@@ -9017,7 +8943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>42</v>
       </c>
@@ -9026,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113">
         <v>42</v>
       </c>
@@ -9035,7 +8961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114">
         <v>42</v>
       </c>
@@ -9044,7 +8970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115">
         <v>42</v>
       </c>
@@ -9053,7 +8979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116">
         <v>42</v>
       </c>
@@ -9062,7 +8988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117">
         <v>42</v>
       </c>
@@ -9071,7 +8997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118">
         <v>42</v>
       </c>
@@ -9080,7 +9006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119">
         <v>14</v>
       </c>
@@ -9089,7 +9015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I120">
         <v>23</v>
       </c>
@@ -9098,7 +9024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I121">
         <v>2</v>
       </c>
@@ -9107,7 +9033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I122">
         <v>25</v>
       </c>
@@ -9116,7 +9042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I123">
         <v>25</v>
       </c>
@@ -9125,7 +9051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I124">
         <v>25</v>
       </c>
@@ -9134,7 +9060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I125">
         <v>25</v>
       </c>
@@ -9143,7 +9069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I126">
         <v>25</v>
       </c>
@@ -9152,7 +9078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I127">
         <v>25</v>
       </c>
@@ -9161,7 +9087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128">
         <v>25</v>
       </c>
@@ -9170,7 +9096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I129">
         <v>26</v>
       </c>
@@ -9179,7 +9105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I130">
         <v>2</v>
       </c>
@@ -9188,7 +9114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I131">
         <v>2</v>
       </c>
@@ -9197,7 +9123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I132">
         <v>39</v>
       </c>
@@ -9206,7 +9132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I133">
         <v>2</v>
       </c>
@@ -9215,7 +9141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I134">
         <v>2</v>
       </c>
@@ -9224,7 +9150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I135">
         <v>2</v>
       </c>
@@ -9233,7 +9159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I136">
         <v>14</v>
       </c>
@@ -9242,7 +9168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I137">
         <v>14</v>
       </c>
@@ -9251,7 +9177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>14</v>
       </c>
@@ -9260,7 +9186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I139">
         <v>14</v>
       </c>
@@ -9269,7 +9195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I140">
         <v>14</v>
       </c>
@@ -9278,7 +9204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I141">
         <v>14</v>
       </c>
@@ -9287,7 +9213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I142">
         <v>14</v>
       </c>
@@ -9296,7 +9222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I143">
         <v>23</v>
       </c>
@@ -9305,7 +9231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I144">
         <v>14</v>
       </c>
@@ -9314,7 +9240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I145">
         <v>23</v>
       </c>
@@ -9323,7 +9249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I146">
         <v>14</v>
       </c>
@@ -9332,7 +9258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I147">
         <v>14</v>
       </c>
@@ -9341,7 +9267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I148">
         <v>23</v>
       </c>
@@ -9350,7 +9276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I149">
         <v>14</v>
       </c>
@@ -9359,7 +9285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I150">
         <v>14</v>
       </c>
@@ -9368,7 +9294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I151">
         <v>14</v>
       </c>
@@ -9377,7 +9303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I152">
         <v>23</v>
       </c>
@@ -9386,7 +9312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I153">
         <v>23</v>
       </c>
@@ -9395,7 +9321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I154">
         <v>23</v>
       </c>
@@ -9404,7 +9330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I155">
         <v>23</v>
       </c>
@@ -9413,7 +9339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I156">
         <v>14</v>
       </c>
@@ -9422,7 +9348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I157">
         <v>14</v>
       </c>
@@ -9431,7 +9357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I158">
         <v>14</v>
       </c>
@@ -9440,7 +9366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I159">
         <v>14</v>
       </c>
@@ -9449,7 +9375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I160">
         <v>14</v>
       </c>
@@ -9458,7 +9384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I161">
         <v>14</v>
       </c>
@@ -9467,7 +9393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I162">
         <v>23</v>
       </c>
@@ -9476,7 +9402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I163">
         <v>23</v>
       </c>
@@ -9485,7 +9411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I164">
         <v>23</v>
       </c>
@@ -9494,7 +9420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I165">
         <v>23</v>
       </c>
@@ -9503,7 +9429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I166">
         <v>23</v>
       </c>
@@ -9512,7 +9438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I167">
         <v>23</v>
       </c>
@@ -9521,7 +9447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I168">
         <v>14</v>
       </c>
@@ -9530,7 +9456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I169">
         <v>14</v>
       </c>
@@ -9539,7 +9465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I170">
         <v>14</v>
       </c>
@@ -9548,7 +9474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I171">
         <v>23</v>
       </c>
@@ -9557,7 +9483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I172">
         <v>15</v>
       </c>
@@ -9566,7 +9492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I173">
         <v>15</v>
       </c>
@@ -9575,7 +9501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I174">
         <v>2</v>
       </c>
@@ -9584,7 +9510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I175">
         <v>2</v>
       </c>
@@ -9593,7 +9519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I176">
         <v>2</v>
       </c>
@@ -9602,7 +9528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I177">
         <v>2</v>
       </c>
@@ -9611,7 +9537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I178">
         <v>2</v>
       </c>
@@ -9620,7 +9546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I179">
         <v>2</v>
       </c>
@@ -9629,7 +9555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I180">
         <v>2</v>
       </c>
@@ -9638,7 +9564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I181">
         <v>2</v>
       </c>
@@ -9647,7 +9573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I182">
         <v>26</v>
       </c>
@@ -9656,7 +9582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I183">
         <v>2</v>
       </c>
@@ -9665,7 +9591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I184">
         <v>2</v>
       </c>
@@ -9674,7 +9600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I185">
         <v>2</v>
       </c>
@@ -9683,7 +9609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I186">
         <v>2</v>
       </c>
@@ -9692,7 +9618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I187">
         <v>2</v>
       </c>
@@ -9701,7 +9627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I188">
         <v>2</v>
       </c>
@@ -9710,7 +9636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I189">
         <v>2</v>
       </c>
@@ -9719,7 +9645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I190">
         <v>2</v>
       </c>
@@ -9728,7 +9654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I191">
         <v>23</v>
       </c>
@@ -9737,7 +9663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I192">
         <v>23</v>
       </c>
@@ -9746,7 +9672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I193">
         <v>14</v>
       </c>
@@ -9755,7 +9681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I194">
         <v>23</v>
       </c>
@@ -9764,7 +9690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I195">
         <v>2</v>
       </c>
@@ -9773,7 +9699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I196">
         <v>2</v>
       </c>
@@ -9782,7 +9708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I197">
         <v>9</v>
       </c>
@@ -9791,7 +9717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I198">
         <v>2</v>
       </c>
@@ -9800,7 +9726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I199">
         <v>2</v>
       </c>
@@ -9809,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I200">
         <v>13</v>
       </c>
@@ -9818,7 +9744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I201">
         <v>23</v>
       </c>
@@ -9827,7 +9753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I202">
         <v>23</v>
       </c>
@@ -9836,7 +9762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I203">
         <v>13</v>
       </c>
@@ -9845,7 +9771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I204">
         <v>13</v>
       </c>
@@ -9854,7 +9780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I205">
         <v>13</v>
       </c>
@@ -9863,7 +9789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I206">
         <v>13</v>
       </c>
@@ -9872,7 +9798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I207">
         <v>23</v>
       </c>
@@ -9881,7 +9807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I208">
         <v>23</v>
       </c>
@@ -9890,7 +9816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I209">
         <v>2</v>
       </c>
@@ -9899,7 +9825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I210">
         <v>2</v>
       </c>
@@ -9908,7 +9834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I211">
         <v>2</v>
       </c>
@@ -9917,7 +9843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I212">
         <v>2</v>
       </c>
@@ -9926,7 +9852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I213">
         <v>2</v>
       </c>
@@ -9935,7 +9861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I214">
         <v>34</v>
       </c>
@@ -9944,7 +9870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I215">
         <v>33</v>
       </c>
@@ -9953,7 +9879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I216">
         <v>4</v>
       </c>
@@ -9962,7 +9888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I217">
         <v>40</v>
       </c>
@@ -9971,7 +9897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I218">
         <v>4</v>
       </c>
@@ -9980,7 +9906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I219">
         <v>4</v>
       </c>
@@ -9989,7 +9915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I220">
         <v>4</v>
       </c>
@@ -9998,7 +9924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I221">
         <v>4</v>
       </c>
@@ -10007,7 +9933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I222">
         <v>34</v>
       </c>
@@ -10016,7 +9942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I223">
         <v>34</v>
       </c>
@@ -10025,7 +9951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I224">
         <v>34</v>
       </c>
@@ -10034,7 +9960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I225">
         <v>34</v>
       </c>
@@ -10043,7 +9969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I226">
         <v>15</v>
       </c>
@@ -10052,7 +9978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I227">
         <v>15</v>
       </c>
@@ -10061,7 +9987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I228">
         <v>15</v>
       </c>
@@ -10070,7 +9996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I229">
         <v>15</v>
       </c>
@@ -10079,7 +10005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I230">
         <v>15</v>
       </c>
@@ -10088,7 +10014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I231">
         <v>12</v>
       </c>
@@ -10097,7 +10023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I232">
         <v>14</v>
       </c>
@@ -10106,7 +10032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I233">
         <v>14</v>
       </c>
@@ -10115,7 +10041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I234">
         <v>23</v>
       </c>
@@ -10124,7 +10050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I235">
         <v>23</v>
       </c>
@@ -10133,7 +10059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I236">
         <v>28</v>
       </c>
@@ -10142,7 +10068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I237">
         <v>11</v>
       </c>
@@ -10151,7 +10077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I238">
         <v>28</v>
       </c>
@@ -10160,7 +10086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I239">
         <v>32</v>
       </c>
@@ -10169,7 +10095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I240">
         <v>32</v>
       </c>
@@ -10178,7 +10104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I241">
         <v>32</v>
       </c>
@@ -10187,7 +10113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I242">
         <v>43</v>
       </c>
@@ -10196,7 +10122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I243">
         <v>16</v>
       </c>
@@ -10205,7 +10131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I244">
         <v>12</v>
       </c>
@@ -10214,7 +10140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I245">
         <v>36</v>
       </c>
@@ -10223,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I246">
         <v>12</v>
       </c>
@@ -10232,7 +10158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I247">
         <v>16</v>
       </c>
@@ -10241,7 +10167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I248">
         <v>10</v>
       </c>
@@ -10250,7 +10176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I249">
         <v>10</v>
       </c>
@@ -10259,7 +10185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I250">
         <v>10</v>
       </c>
@@ -10268,7 +10194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I251">
         <v>43</v>
       </c>
@@ -10277,7 +10203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I252">
         <v>43</v>
       </c>
@@ -10286,7 +10212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I253">
         <v>37</v>
       </c>
@@ -10295,7 +10221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I254">
         <v>43</v>
       </c>
@@ -10304,7 +10230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I255">
         <v>43</v>
       </c>
@@ -10313,7 +10239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I256">
         <v>37</v>
       </c>
@@ -10322,7 +10248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I257">
         <v>43</v>
       </c>
@@ -10331,7 +10257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I258">
         <v>43</v>
       </c>
@@ -10340,7 +10266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I259">
         <v>43</v>
       </c>
@@ -10349,7 +10275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I260">
         <v>43</v>
       </c>
@@ -10358,7 +10284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I261">
         <v>43</v>
       </c>
@@ -10367,7 +10293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I262">
         <v>43</v>
       </c>
@@ -10376,7 +10302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I263">
         <v>43</v>
       </c>
@@ -10385,7 +10311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I264">
         <v>16</v>
       </c>
@@ -10394,7 +10320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I265">
         <v>37</v>
       </c>
@@ -10403,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I266">
         <v>22</v>
       </c>
@@ -10412,7 +10338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I267">
         <v>40</v>
       </c>
@@ -10421,7 +10347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I268">
         <v>40</v>
       </c>
@@ -10430,7 +10356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I269">
         <v>40</v>
       </c>
@@ -10439,7 +10365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I270">
         <v>27</v>
       </c>
@@ -10448,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I271">
         <v>28</v>
       </c>
@@ -10457,7 +10383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I272">
         <v>27</v>
       </c>
@@ -10466,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I273">
         <v>40</v>
       </c>
@@ -10475,7 +10401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I274">
         <v>12</v>
       </c>
@@ -10484,7 +10410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I275">
         <v>43</v>
       </c>
@@ -10493,7 +10419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I276">
         <v>43</v>
       </c>
@@ -10502,7 +10428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I277">
         <v>26</v>
       </c>
@@ -10511,7 +10437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I278">
         <v>26</v>
       </c>
@@ -10520,7 +10446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I279">
         <v>26</v>
       </c>
@@ -10529,7 +10455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I280">
         <v>26</v>
       </c>
@@ -10538,7 +10464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I281">
         <v>16</v>
       </c>
@@ -10547,7 +10473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I282">
         <v>16</v>
       </c>
@@ -10556,7 +10482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I283">
         <v>16</v>
       </c>
@@ -10565,7 +10491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I284">
         <v>27</v>
       </c>
@@ -10574,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I285">
         <v>24</v>
       </c>
@@ -10583,7 +10509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I286">
         <v>24</v>
       </c>
@@ -10592,7 +10518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I287">
         <v>24</v>
       </c>
@@ -10601,7 +10527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I288">
         <v>24</v>
       </c>
@@ -10610,7 +10536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I289">
         <v>28</v>
       </c>
@@ -10619,7 +10545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I290">
         <v>27</v>
       </c>
@@ -10628,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I291">
         <v>40</v>
       </c>
@@ -10637,7 +10563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I292">
         <v>40</v>
       </c>
@@ -10646,7 +10572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I293">
         <v>40</v>
       </c>
@@ -10655,7 +10581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I294">
         <v>38</v>
       </c>
@@ -10664,7 +10590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I295">
         <v>29</v>
       </c>
@@ -10673,7 +10599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I296">
         <v>29</v>
       </c>
@@ -10682,7 +10608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I297">
         <v>10</v>
       </c>
@@ -10691,7 +10617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I298">
         <v>3</v>
       </c>
@@ -10700,7 +10626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I299">
         <v>3</v>
       </c>
@@ -10709,7 +10635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I300">
         <v>29</v>
       </c>
@@ -10718,7 +10644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I301">
         <v>29</v>
       </c>
@@ -10727,7 +10653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I302">
         <v>28</v>
       </c>
@@ -10736,7 +10662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I303">
         <v>28</v>
       </c>
@@ -10745,7 +10671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I304">
         <v>44</v>
       </c>
@@ -10770,12 +10696,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -10843,7 +10769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -10911,7 +10837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -10979,7 +10905,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -11047,7 +10973,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -11115,7 +11041,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -11183,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -11251,7 +11177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -11319,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -11387,7 +11313,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -11455,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -11523,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -11591,7 +11517,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -11659,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -11727,7 +11653,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -11795,7 +11721,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11863,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11931,7 +11857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -11999,7 +11925,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -12067,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -12135,7 +12061,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -12203,7 +12129,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12271,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12339,7 +12265,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -12407,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -12475,7 +12401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -12543,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -12611,7 +12537,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12695,9 +12621,9 @@
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>304</v>
       </c>
@@ -12708,7 +12634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12719,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12730,7 +12656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12741,7 +12667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12752,7 +12678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12763,7 +12689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12774,7 +12700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12788,7 +12714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12805,7 +12731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -12822,7 +12748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -12839,7 +12765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -12856,7 +12782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -12873,7 +12799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -12890,7 +12816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -12907,7 +12833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -12925,7 +12851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -12945,7 +12871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -12962,7 +12888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -12979,7 +12905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -12996,7 +12922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -13013,7 +12939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13030,7 +12956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -13047,7 +12973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -13064,7 +12990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -13081,7 +13007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -13098,7 +13024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -13115,7 +13041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -13132,7 +13058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -13149,7 +13075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -13160,7 +13086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -13174,7 +13100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
@@ -13185,7 +13111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43</v>
       </c>
@@ -13196,7 +13122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>101</v>
       </c>
@@ -13207,7 +13133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>102</v>
       </c>
@@ -13215,7 +13141,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>103</v>
       </c>
@@ -13223,7 +13149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>104</v>
       </c>
@@ -13231,7 +13157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>105</v>
       </c>
@@ -13239,7 +13165,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>106</v>
       </c>
@@ -13247,7 +13173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>107</v>
       </c>
@@ -13255,7 +13181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>108</v>
       </c>
@@ -13263,7 +13189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>109</v>
       </c>
@@ -13271,7 +13197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>110</v>
       </c>
@@ -13279,7 +13205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>111</v>
       </c>
@@ -13287,7 +13213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>112</v>
       </c>
@@ -13295,7 +13221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>113</v>
       </c>
@@ -13303,7 +13229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
+    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
@@ -21,234 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="K17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K60" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K61" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K63" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-one direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K66" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-varies</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="355">
   <si>
     <t>Cost</t>
   </si>
@@ -623,9 +397,6 @@
   </si>
   <si>
     <t>This exists in the base network</t>
-  </si>
-  <si>
-    <t>coded so it can be turned off in future if needed</t>
   </si>
   <si>
     <t>Project Status (@2012)</t>
@@ -1134,9 +905,6 @@
     <t>HDOT</t>
   </si>
   <si>
-    <t>increased capacity per HDOT</t>
-  </si>
-  <si>
     <t>H-2 HOV SB PM Removal</t>
   </si>
   <si>
@@ -1309,6 +1077,21 @@
   </si>
   <si>
     <t>Kupuna Loop</t>
+  </si>
+  <si>
+    <t>need review</t>
+  </si>
+  <si>
+    <t>needs review</t>
+  </si>
+  <si>
+    <t>needs review; coded so it can be turned off in future if needed</t>
+  </si>
+  <si>
+    <t>needs review;coded so it can be turned off in future if needed</t>
+  </si>
+  <si>
+    <t>needs review;increased capacity per HDOT</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,19 +1257,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2077,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2178326" y="0"/>
-          <a:ext cx="10042810" cy="1366683"/>
+          <a:off x="2253343" y="0"/>
+          <a:ext cx="10288922" cy="1328583"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2689,76 +2459,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2790,15 +2560,15 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -2813,7 +2583,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>0</v>
@@ -2846,19 +2616,19 @@
         <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="V9" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2867,13 +2637,13 @@
         <v>205</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -2913,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2922,13 +2692,13 @@
         <v>351</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>9</v>
@@ -2968,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2977,13 +2747,13 @@
         <v>356</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
@@ -3023,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -3035,10 +2805,10 @@
         <v>251</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>55</v>
@@ -3081,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -3090,16 +2860,16 @@
         <v>353</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="31">
@@ -3136,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3192,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -3204,13 +2974,13 @@
         <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
         <v>240</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>241</v>
-      </c>
-      <c r="G16" t="s">
-        <v>242</v>
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="31">
@@ -3247,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3259,23 +3029,23 @@
         <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="31">
         <v>2.0251964999999998</v>
       </c>
       <c r="K17" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L17" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M17" s="29">
         <v>1</v>
@@ -3302,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3328,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -3356,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3376,7 +3146,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>40</v>
@@ -3396,6 +3166,9 @@
       <c r="N19">
         <v>1</v>
       </c>
+      <c r="P19" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
@@ -3418,10 +3191,10 @@
         <v>2012</v>
       </c>
       <c r="AD19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3450,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -3480,10 +3253,10 @@
         <v>2020</v>
       </c>
       <c r="AD20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3542,10 +3315,10 @@
         <v>2030</v>
       </c>
       <c r="AD21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3565,13 +3338,13 @@
         <v>123</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
       <c r="P22" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
@@ -3592,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3601,7 +3374,7 @@
         <v>308</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3643,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3651,16 +3424,16 @@
         <v>301</v>
       </c>
       <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" t="s">
         <v>263</v>
       </c>
-      <c r="E24" t="s">
-        <v>232</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="31">
@@ -3697,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3706,10 +3479,10 @@
         <v>211</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>31</v>
@@ -3752,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3814,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3823,16 +3596,16 @@
         <v>354</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="31">
@@ -3869,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3878,13 +3651,13 @@
         <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>9</v>
@@ -3924,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3980,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3988,16 +3761,16 @@
         <v>803</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>115</v>
@@ -4036,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -4045,16 +3818,16 @@
         <v>352</v>
       </c>
       <c r="D31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H31" s="4"/>
       <c r="J31" s="31">
@@ -4091,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -4132,7 +3905,7 @@
         <v>113</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="Q32" s="5">
         <v>1</v>
@@ -4153,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -4179,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>8</v>
@@ -4206,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4215,16 +3988,16 @@
         <v>303</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H34" s="4"/>
       <c r="J34" s="31">
@@ -4261,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4279,7 +4052,7 @@
         <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>40</v>
@@ -4318,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4327,16 +4100,16 @@
         <v>305</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s">
         <v>238</v>
-      </c>
-      <c r="G36" t="s">
-        <v>239</v>
       </c>
       <c r="H36" s="4"/>
       <c r="J36" s="31">
@@ -4373,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4381,16 +4154,16 @@
         <v>858</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>40</v>
@@ -4399,10 +4172,10 @@
         <v>1.0030085000000002</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -4429,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4438,10 +4211,10 @@
         <v>304</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>80</v>
@@ -4484,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4504,7 +4277,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>73</v>
@@ -4543,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4567,7 +4340,7 @@
         <v>0.353379</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -4597,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4608,7 +4381,7 @@
         <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
         <v>101</v>
@@ -4617,7 +4390,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>73</v>
@@ -4659,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4667,16 +4440,16 @@
         <v>709</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>17</v>
@@ -4715,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4741,10 +4514,10 @@
         <v>0.466557</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4771,18 +4544,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="31">
@@ -4792,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>8</v>
@@ -4800,6 +4573,9 @@
       <c r="N44">
         <v>8</v>
       </c>
+      <c r="P44" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="Q44" s="8">
         <v>0</v>
       </c>
@@ -4819,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4828,13 +4604,13 @@
         <v>209</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>9</v>
@@ -4874,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4915,7 +4691,7 @@
         <v>113</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="Q46" s="5">
         <v>1</v>
@@ -4936,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4945,7 +4721,7 @@
         <v>307</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -4957,10 +4733,10 @@
         <v>1.2545204999999999</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>8</v>
@@ -4987,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -5028,7 +4804,7 @@
         <v>113</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="Q48" s="5">
         <v>1</v>
@@ -5049,21 +4825,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J49" s="31">
         <v>19.813119</v>
@@ -5099,21 +4875,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H50" s="4"/>
       <c r="J50" s="31">
@@ -5150,15 +4926,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H51" s="4"/>
       <c r="J51" s="31">
@@ -5195,15 +4971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H52" s="4"/>
       <c r="J52" s="31">
@@ -5240,31 +5016,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
         <v>117</v>
       </c>
       <c r="F53" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" t="s">
         <v>290</v>
-      </c>
-      <c r="G53" t="s">
-        <v>291</v>
       </c>
       <c r="H53" s="4"/>
       <c r="J53" s="31">
         <v>2.953376</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" s="8">
         <v>1</v>
@@ -5273,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="Q53" s="8">
         <v>0</v>
@@ -5297,21 +5073,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
         <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="31">
@@ -5348,21 +5124,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E55" t="s">
         <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H55" s="4"/>
       <c r="J55" s="31">
@@ -5399,21 +5175,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
         <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H56" s="4"/>
       <c r="J56" s="31">
@@ -5450,21 +5226,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
       <c r="D57" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" t="s">
         <v>301</v>
       </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="F57" t="s">
-        <v>303</v>
-      </c>
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H57" s="4"/>
       <c r="J57" s="31">
@@ -5474,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="8">
         <v>1</v>
@@ -5482,6 +5258,9 @@
       <c r="N57" s="8">
         <v>1</v>
       </c>
+      <c r="P57" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="Q57" s="8">
         <v>0</v>
       </c>
@@ -5501,21 +5280,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H58" s="4"/>
       <c r="J58" s="31"/>
@@ -5540,15 +5319,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H59" s="4"/>
       <c r="J59" s="31">
@@ -5585,22 +5364,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G60" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H60" s="4"/>
       <c r="J60" s="31">
         <v>0.41011600000000004</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5611,6 +5390,9 @@
       <c r="N60">
         <v>8</v>
       </c>
+      <c r="P60" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="Q60" s="8">
         <v>0</v>
       </c>
@@ -5630,21 +5412,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H61" s="4"/>
       <c r="J61" s="31">
@@ -5662,6 +5444,9 @@
       <c r="N61">
         <v>1</v>
       </c>
+      <c r="P61" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="Q61" s="8">
         <v>0</v>
       </c>
@@ -5681,21 +5466,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>105</v>
       </c>
       <c r="D62" t="s">
+        <v>322</v>
+      </c>
+      <c r="E62" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" t="s">
         <v>324</v>
       </c>
-      <c r="E62" t="s">
-        <v>325</v>
-      </c>
-      <c r="F62" t="s">
-        <v>326</v>
-      </c>
       <c r="G62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H62" s="4"/>
       <c r="J62" s="31">
@@ -5732,15 +5517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="31">
@@ -5750,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>8</v>
@@ -5777,21 +5562,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E64" t="s">
         <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H64" s="4"/>
       <c r="J64" s="31">
@@ -5828,30 +5613,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J65" s="31">
         <v>3.2425380000000006</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -5878,21 +5663,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J66" s="31">
         <v>3.8108604999999995</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -5922,21 +5707,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>110</v>
       </c>
       <c r="D67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E67" t="s">
+        <v>333</v>
+      </c>
+      <c r="F67" t="s">
         <v>334</v>
       </c>
-      <c r="E67" t="s">
-        <v>335</v>
-      </c>
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
       <c r="G67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J67" s="31">
         <v>0.68827700000000003</v>
@@ -5972,21 +5757,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F68" t="s">
         <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J68" s="31">
         <v>16.185812000000002</v>
@@ -6022,21 +5807,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J69" s="31">
         <v>3.2503919999999997</v>
@@ -6073,23 +5858,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>113</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H70" s="4"/>
       <c r="J70" s="31">
@@ -6127,17 +5912,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I71"/>
       <c r="J71" s="31"/>
@@ -6161,23 +5946,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>115</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -6216,17 +6001,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>116</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H73" s="4"/>
       <c r="J73" s="31">
@@ -6264,17 +6049,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="29">
         <v>117</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H74" s="4"/>
       <c r="J74" s="31">
@@ -6312,17 +6097,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>118</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -6361,23 +6146,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>119</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -6416,23 +6201,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>120</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E77" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -6471,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6485,7 +6270,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6499,7 +6284,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6513,7 +6298,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6525,7 +6310,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6537,7 +6322,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6549,7 +6334,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6561,7 +6346,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6573,7 +6358,7 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6585,7 +6370,7 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6597,7 +6382,7 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6610,7 +6395,7 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6623,7 +6408,7 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6638,7 +6423,7 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6652,7 +6437,7 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6666,22 +6451,22 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J96" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6699,7 +6484,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="40" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6717,27 +6501,27 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6762,7 +6546,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6809,7 +6593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -6829,7 +6613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -6852,7 +6636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -6875,7 +6659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6899,7 +6683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6922,7 +6706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -6946,7 +6730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -6966,7 +6750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -6986,7 +6770,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -7009,7 +6793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -7032,7 +6816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -7048,7 +6832,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -7059,7 +6843,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -7070,7 +6854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7091,7 +6875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -7110,7 +6894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7134,7 +6918,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7144,7 +6928,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7154,7 +6938,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7164,7 +6948,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -7174,7 +6958,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7184,7 +6968,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7194,7 +6978,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7204,7 +6988,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7214,7 +6998,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7224,7 +7008,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7234,7 +7018,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7244,7 +7028,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7254,7 +7038,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7264,7 +7048,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7274,7 +7058,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7284,7 +7068,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7294,129 +7078,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -7424,119 +7208,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -7545,7 +7329,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -7554,7 +7338,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -7563,7 +7347,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7587,25 +7371,25 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7613,18 +7397,18 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" t="s">
         <v>266</v>
       </c>
-      <c r="J3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7637,12 +7421,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -7655,12 +7439,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -7673,12 +7457,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -7691,12 +7475,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7709,7 +7493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7727,7 +7511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -7745,7 +7529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -7763,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -7781,7 +7565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7799,7 +7583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7817,7 +7601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7835,7 +7619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7853,12 +7637,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -7871,12 +7655,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -7889,12 +7673,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -7907,7 +7691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -7925,12 +7709,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -7943,12 +7727,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -7961,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7979,12 +7763,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24">
         <v>21</v>
@@ -7997,12 +7781,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -8015,7 +7799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -8033,7 +7817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -8051,12 +7835,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -8069,7 +7853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -8087,12 +7871,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -8105,12 +7889,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>28</v>
@@ -8123,12 +7907,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32">
         <v>29</v>
@@ -8141,7 +7925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -8159,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -8177,12 +7961,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -8195,12 +7979,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -8213,7 +7997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8231,7 +8015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -8249,12 +8033,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39">
         <v>36</v>
@@ -8267,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -8285,12 +8069,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -8303,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -8321,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -8331,7 +8115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>37</v>
       </c>
@@ -8340,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>37</v>
       </c>
@@ -8349,7 +8133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>27</v>
       </c>
@@ -8358,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>33</v>
       </c>
@@ -8367,7 +8151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>36</v>
       </c>
@@ -8376,7 +8160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>37</v>
       </c>
@@ -8385,7 +8169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>27</v>
       </c>
@@ -8394,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>27</v>
       </c>
@@ -8403,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>37</v>
       </c>
@@ -8412,7 +8196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>27</v>
       </c>
@@ -8421,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>37</v>
       </c>
@@ -8430,7 +8214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>39</v>
       </c>
@@ -8439,7 +8223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>31</v>
       </c>
@@ -8448,7 +8232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>41</v>
       </c>
@@ -8457,7 +8241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>30</v>
       </c>
@@ -8466,7 +8250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>30</v>
       </c>
@@ -8475,7 +8259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>32</v>
       </c>
@@ -8484,7 +8268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>32</v>
       </c>
@@ -8493,7 +8277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>32</v>
       </c>
@@ -8502,7 +8286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>31</v>
       </c>
@@ -8511,7 +8295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>42</v>
       </c>
@@ -8520,7 +8304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>41</v>
       </c>
@@ -8529,7 +8313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>5</v>
       </c>
@@ -8538,7 +8322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>41</v>
       </c>
@@ -8547,7 +8331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>5</v>
       </c>
@@ -8556,7 +8340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>5</v>
       </c>
@@ -8565,7 +8349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>5</v>
       </c>
@@ -8574,7 +8358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>41</v>
       </c>
@@ -8583,7 +8367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>41</v>
       </c>
@@ -8592,7 +8376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>5</v>
       </c>
@@ -8601,7 +8385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>41</v>
       </c>
@@ -8610,7 +8394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I75">
         <v>41</v>
       </c>
@@ -8619,7 +8403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I76">
         <v>5</v>
       </c>
@@ -8628,7 +8412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I77">
         <v>5</v>
       </c>
@@ -8637,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>41</v>
       </c>
@@ -8646,7 +8430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>41</v>
       </c>
@@ -8655,7 +8439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>41</v>
       </c>
@@ -8664,7 +8448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>41</v>
       </c>
@@ -8673,7 +8457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I82">
         <v>41</v>
       </c>
@@ -8682,7 +8466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I83">
         <v>6</v>
       </c>
@@ -8691,7 +8475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I84">
         <v>6</v>
       </c>
@@ -8700,7 +8484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I85">
         <v>6</v>
       </c>
@@ -8709,7 +8493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I86">
         <v>30</v>
       </c>
@@ -8718,7 +8502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I87">
         <v>30</v>
       </c>
@@ -8727,7 +8511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I88">
         <v>42</v>
       </c>
@@ -8736,7 +8520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>41</v>
       </c>
@@ -8745,7 +8529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>41</v>
       </c>
@@ -8754,7 +8538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>41</v>
       </c>
@@ -8763,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>41</v>
       </c>
@@ -8772,7 +8556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I93">
         <v>41</v>
       </c>
@@ -8781,7 +8565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I94">
         <v>18</v>
       </c>
@@ -8790,7 +8574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I95">
         <v>30</v>
       </c>
@@ -8799,7 +8583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I96">
         <v>30</v>
       </c>
@@ -8808,7 +8592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <v>30</v>
       </c>
@@ -8817,7 +8601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I98">
         <v>30</v>
       </c>
@@ -8826,7 +8610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <v>30</v>
       </c>
@@ -8835,7 +8619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>30</v>
       </c>
@@ -8844,7 +8628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I101">
         <v>30</v>
       </c>
@@ -8853,7 +8637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I102">
         <v>30</v>
       </c>
@@ -8862,7 +8646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I103">
         <v>32</v>
       </c>
@@ -8871,7 +8655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>32</v>
       </c>
@@ -8880,7 +8664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I105">
         <v>32</v>
       </c>
@@ -8889,7 +8673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>32</v>
       </c>
@@ -8898,7 +8682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>18</v>
       </c>
@@ -8907,7 +8691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I108">
         <v>18</v>
       </c>
@@ -8916,7 +8700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I109">
         <v>41</v>
       </c>
@@ -8925,7 +8709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I110">
         <v>42</v>
       </c>
@@ -8934,7 +8718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I111">
         <v>42</v>
       </c>
@@ -8943,7 +8727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I112">
         <v>42</v>
       </c>
@@ -8952,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113">
         <v>42</v>
       </c>
@@ -8961,7 +8745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114">
         <v>42</v>
       </c>
@@ -8970,7 +8754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115">
         <v>42</v>
       </c>
@@ -8979,7 +8763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116">
         <v>42</v>
       </c>
@@ -8988,7 +8772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117">
         <v>42</v>
       </c>
@@ -8997,7 +8781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118">
         <v>42</v>
       </c>
@@ -9006,7 +8790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119">
         <v>14</v>
       </c>
@@ -9015,7 +8799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120">
         <v>23</v>
       </c>
@@ -9024,7 +8808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121">
         <v>2</v>
       </c>
@@ -9033,7 +8817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122">
         <v>25</v>
       </c>
@@ -9042,7 +8826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123">
         <v>25</v>
       </c>
@@ -9051,7 +8835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124">
         <v>25</v>
       </c>
@@ -9060,7 +8844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125">
         <v>25</v>
       </c>
@@ -9069,7 +8853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126">
         <v>25</v>
       </c>
@@ -9078,7 +8862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127">
         <v>25</v>
       </c>
@@ -9087,7 +8871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128">
         <v>25</v>
       </c>
@@ -9096,7 +8880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129">
         <v>26</v>
       </c>
@@ -9105,7 +8889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130">
         <v>2</v>
       </c>
@@ -9114,7 +8898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131">
         <v>2</v>
       </c>
@@ -9123,7 +8907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132">
         <v>39</v>
       </c>
@@ -9132,7 +8916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133">
         <v>2</v>
       </c>
@@ -9141,7 +8925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134">
         <v>2</v>
       </c>
@@ -9150,7 +8934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135">
         <v>2</v>
       </c>
@@ -9159,7 +8943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136">
         <v>14</v>
       </c>
@@ -9168,7 +8952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137">
         <v>14</v>
       </c>
@@ -9177,7 +8961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138">
         <v>14</v>
       </c>
@@ -9186,7 +8970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139">
         <v>14</v>
       </c>
@@ -9195,7 +8979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140">
         <v>14</v>
       </c>
@@ -9204,7 +8988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141">
         <v>14</v>
       </c>
@@ -9213,7 +8997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142">
         <v>14</v>
       </c>
@@ -9222,7 +9006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143">
         <v>23</v>
       </c>
@@ -9231,7 +9015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144">
         <v>14</v>
       </c>
@@ -9240,7 +9024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145">
         <v>23</v>
       </c>
@@ -9249,7 +9033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146">
         <v>14</v>
       </c>
@@ -9258,7 +9042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147">
         <v>14</v>
       </c>
@@ -9267,7 +9051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148">
         <v>23</v>
       </c>
@@ -9276,7 +9060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149">
         <v>14</v>
       </c>
@@ -9285,7 +9069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150">
         <v>14</v>
       </c>
@@ -9294,7 +9078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151">
         <v>14</v>
       </c>
@@ -9303,7 +9087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152">
         <v>23</v>
       </c>
@@ -9312,7 +9096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153">
         <v>23</v>
       </c>
@@ -9321,7 +9105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154">
         <v>23</v>
       </c>
@@ -9330,7 +9114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155">
         <v>23</v>
       </c>
@@ -9339,7 +9123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156">
         <v>14</v>
       </c>
@@ -9348,7 +9132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157">
         <v>14</v>
       </c>
@@ -9357,7 +9141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158">
         <v>14</v>
       </c>
@@ -9366,7 +9150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159">
         <v>14</v>
       </c>
@@ -9375,7 +9159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160">
         <v>14</v>
       </c>
@@ -9384,7 +9168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161">
         <v>14</v>
       </c>
@@ -9393,7 +9177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162">
         <v>23</v>
       </c>
@@ -9402,7 +9186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163">
         <v>23</v>
       </c>
@@ -9411,7 +9195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164">
         <v>23</v>
       </c>
@@ -9420,7 +9204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165">
         <v>23</v>
       </c>
@@ -9429,7 +9213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166">
         <v>23</v>
       </c>
@@ -9438,7 +9222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167">
         <v>23</v>
       </c>
@@ -9447,7 +9231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168">
         <v>14</v>
       </c>
@@ -9456,7 +9240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169">
         <v>14</v>
       </c>
@@ -9465,7 +9249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170">
         <v>14</v>
       </c>
@@ -9474,7 +9258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171">
         <v>23</v>
       </c>
@@ -9483,7 +9267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172">
         <v>15</v>
       </c>
@@ -9492,7 +9276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173">
         <v>15</v>
       </c>
@@ -9501,7 +9285,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174">
         <v>2</v>
       </c>
@@ -9510,7 +9294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175">
         <v>2</v>
       </c>
@@ -9519,7 +9303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176">
         <v>2</v>
       </c>
@@ -9528,7 +9312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177">
         <v>2</v>
       </c>
@@ -9537,7 +9321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178">
         <v>2</v>
       </c>
@@ -9546,7 +9330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179">
         <v>2</v>
       </c>
@@ -9555,7 +9339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180">
         <v>2</v>
       </c>
@@ -9564,7 +9348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181">
         <v>2</v>
       </c>
@@ -9573,7 +9357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182">
         <v>26</v>
       </c>
@@ -9582,7 +9366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183">
         <v>2</v>
       </c>
@@ -9591,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184">
         <v>2</v>
       </c>
@@ -9600,7 +9384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185">
         <v>2</v>
       </c>
@@ -9609,7 +9393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186">
         <v>2</v>
       </c>
@@ -9618,7 +9402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I187">
         <v>2</v>
       </c>
@@ -9627,7 +9411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I188">
         <v>2</v>
       </c>
@@ -9636,7 +9420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I189">
         <v>2</v>
       </c>
@@ -9645,7 +9429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I190">
         <v>2</v>
       </c>
@@ -9654,7 +9438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I191">
         <v>23</v>
       </c>
@@ -9663,7 +9447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I192">
         <v>23</v>
       </c>
@@ -9672,7 +9456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I193">
         <v>14</v>
       </c>
@@ -9681,7 +9465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I194">
         <v>23</v>
       </c>
@@ -9690,7 +9474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I195">
         <v>2</v>
       </c>
@@ -9699,7 +9483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I196">
         <v>2</v>
       </c>
@@ -9708,7 +9492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I197">
         <v>9</v>
       </c>
@@ -9717,7 +9501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I198">
         <v>2</v>
       </c>
@@ -9726,7 +9510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I199">
         <v>2</v>
       </c>
@@ -9735,7 +9519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I200">
         <v>13</v>
       </c>
@@ -9744,7 +9528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I201">
         <v>23</v>
       </c>
@@ -9753,7 +9537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I202">
         <v>23</v>
       </c>
@@ -9762,7 +9546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I203">
         <v>13</v>
       </c>
@@ -9771,7 +9555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I204">
         <v>13</v>
       </c>
@@ -9780,7 +9564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I205">
         <v>13</v>
       </c>
@@ -9789,7 +9573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I206">
         <v>13</v>
       </c>
@@ -9798,7 +9582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I207">
         <v>23</v>
       </c>
@@ -9807,7 +9591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I208">
         <v>23</v>
       </c>
@@ -9816,7 +9600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I209">
         <v>2</v>
       </c>
@@ -9825,7 +9609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I210">
         <v>2</v>
       </c>
@@ -9834,7 +9618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I211">
         <v>2</v>
       </c>
@@ -9843,7 +9627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I212">
         <v>2</v>
       </c>
@@ -9852,7 +9636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I213">
         <v>2</v>
       </c>
@@ -9861,7 +9645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I214">
         <v>34</v>
       </c>
@@ -9870,7 +9654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I215">
         <v>33</v>
       </c>
@@ -9879,7 +9663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I216">
         <v>4</v>
       </c>
@@ -9888,7 +9672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I217">
         <v>40</v>
       </c>
@@ -9897,7 +9681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I218">
         <v>4</v>
       </c>
@@ -9906,7 +9690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I219">
         <v>4</v>
       </c>
@@ -9915,7 +9699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I220">
         <v>4</v>
       </c>
@@ -9924,7 +9708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I221">
         <v>4</v>
       </c>
@@ -9933,7 +9717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I222">
         <v>34</v>
       </c>
@@ -9942,7 +9726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I223">
         <v>34</v>
       </c>
@@ -9951,7 +9735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I224">
         <v>34</v>
       </c>
@@ -9960,7 +9744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I225">
         <v>34</v>
       </c>
@@ -9969,7 +9753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I226">
         <v>15</v>
       </c>
@@ -9978,7 +9762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I227">
         <v>15</v>
       </c>
@@ -9987,7 +9771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I228">
         <v>15</v>
       </c>
@@ -9996,7 +9780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I229">
         <v>15</v>
       </c>
@@ -10005,7 +9789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I230">
         <v>15</v>
       </c>
@@ -10014,7 +9798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I231">
         <v>12</v>
       </c>
@@ -10023,7 +9807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I232">
         <v>14</v>
       </c>
@@ -10032,7 +9816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I233">
         <v>14</v>
       </c>
@@ -10041,7 +9825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I234">
         <v>23</v>
       </c>
@@ -10050,7 +9834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I235">
         <v>23</v>
       </c>
@@ -10059,7 +9843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I236">
         <v>28</v>
       </c>
@@ -10068,7 +9852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I237">
         <v>11</v>
       </c>
@@ -10077,7 +9861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I238">
         <v>28</v>
       </c>
@@ -10086,7 +9870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I239">
         <v>32</v>
       </c>
@@ -10095,7 +9879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I240">
         <v>32</v>
       </c>
@@ -10104,7 +9888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I241">
         <v>32</v>
       </c>
@@ -10113,7 +9897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I242">
         <v>43</v>
       </c>
@@ -10122,7 +9906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I243">
         <v>16</v>
       </c>
@@ -10131,7 +9915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I244">
         <v>12</v>
       </c>
@@ -10140,7 +9924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I245">
         <v>36</v>
       </c>
@@ -10149,7 +9933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I246">
         <v>12</v>
       </c>
@@ -10158,7 +9942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I247">
         <v>16</v>
       </c>
@@ -10167,7 +9951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I248">
         <v>10</v>
       </c>
@@ -10176,7 +9960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I249">
         <v>10</v>
       </c>
@@ -10185,7 +9969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I250">
         <v>10</v>
       </c>
@@ -10194,7 +9978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I251">
         <v>43</v>
       </c>
@@ -10203,7 +9987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I252">
         <v>43</v>
       </c>
@@ -10212,7 +9996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I253">
         <v>37</v>
       </c>
@@ -10221,7 +10005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I254">
         <v>43</v>
       </c>
@@ -10230,7 +10014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I255">
         <v>43</v>
       </c>
@@ -10239,7 +10023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I256">
         <v>37</v>
       </c>
@@ -10248,7 +10032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I257">
         <v>43</v>
       </c>
@@ -10257,7 +10041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I258">
         <v>43</v>
       </c>
@@ -10266,7 +10050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I259">
         <v>43</v>
       </c>
@@ -10275,7 +10059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I260">
         <v>43</v>
       </c>
@@ -10284,7 +10068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I261">
         <v>43</v>
       </c>
@@ -10293,7 +10077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I262">
         <v>43</v>
       </c>
@@ -10302,7 +10086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I263">
         <v>43</v>
       </c>
@@ -10311,7 +10095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I264">
         <v>16</v>
       </c>
@@ -10320,7 +10104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I265">
         <v>37</v>
       </c>
@@ -10329,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I266">
         <v>22</v>
       </c>
@@ -10338,7 +10122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I267">
         <v>40</v>
       </c>
@@ -10347,7 +10131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I268">
         <v>40</v>
       </c>
@@ -10356,7 +10140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269">
         <v>40</v>
       </c>
@@ -10365,7 +10149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270">
         <v>27</v>
       </c>
@@ -10374,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I271">
         <v>28</v>
       </c>
@@ -10383,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I272">
         <v>27</v>
       </c>
@@ -10392,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I273">
         <v>40</v>
       </c>
@@ -10401,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I274">
         <v>12</v>
       </c>
@@ -10410,7 +10194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I275">
         <v>43</v>
       </c>
@@ -10419,7 +10203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I276">
         <v>43</v>
       </c>
@@ -10428,7 +10212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I277">
         <v>26</v>
       </c>
@@ -10437,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I278">
         <v>26</v>
       </c>
@@ -10446,7 +10230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I279">
         <v>26</v>
       </c>
@@ -10455,7 +10239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I280">
         <v>26</v>
       </c>
@@ -10464,7 +10248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I281">
         <v>16</v>
       </c>
@@ -10473,7 +10257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I282">
         <v>16</v>
       </c>
@@ -10482,7 +10266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I283">
         <v>16</v>
       </c>
@@ -10491,7 +10275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I284">
         <v>27</v>
       </c>
@@ -10500,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I285">
         <v>24</v>
       </c>
@@ -10509,7 +10293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I286">
         <v>24</v>
       </c>
@@ -10518,7 +10302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I287">
         <v>24</v>
       </c>
@@ -10527,7 +10311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I288">
         <v>24</v>
       </c>
@@ -10536,7 +10320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I289">
         <v>28</v>
       </c>
@@ -10545,7 +10329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I290">
         <v>27</v>
       </c>
@@ -10554,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I291">
         <v>40</v>
       </c>
@@ -10563,7 +10347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I292">
         <v>40</v>
       </c>
@@ -10572,7 +10356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I293">
         <v>40</v>
       </c>
@@ -10581,7 +10365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I294">
         <v>38</v>
       </c>
@@ -10590,7 +10374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I295">
         <v>29</v>
       </c>
@@ -10599,7 +10383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I296">
         <v>29</v>
       </c>
@@ -10608,7 +10392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I297">
         <v>10</v>
       </c>
@@ -10617,7 +10401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I298">
         <v>3</v>
       </c>
@@ -10626,7 +10410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I299">
         <v>3</v>
       </c>
@@ -10635,7 +10419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I300">
         <v>29</v>
       </c>
@@ -10644,7 +10428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I301">
         <v>29</v>
       </c>
@@ -10653,7 +10437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I302">
         <v>28</v>
       </c>
@@ -10662,7 +10446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I303">
         <v>28</v>
       </c>
@@ -10671,7 +10455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I304">
         <v>44</v>
       </c>
@@ -10696,80 +10480,80 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>149</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>153</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>154</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>155</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>156</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>157</v>
       </c>
-      <c r="V1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -10780,34 +10564,34 @@
         <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
         <v>162</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L2">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N2">
         <v>33</v>
@@ -10837,7 +10621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -10848,34 +10632,34 @@
         <v>351</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L3">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N3">
         <v>233.1</v>
@@ -10905,7 +10689,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -10916,34 +10700,34 @@
         <v>356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L4">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N4">
         <v>130.80000000000004</v>
@@ -10973,7 +10757,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -10984,34 +10768,34 @@
         <v>353</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N5">
         <v>10.713452725559549</v>
@@ -11041,7 +10825,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -11052,34 +10836,34 @@
         <v>251</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
         <v>162</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L6">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>23.5</v>
@@ -11109,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -11120,34 +10904,34 @@
         <v>301</v>
       </c>
       <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" t="s">
         <v>166</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N7">
         <v>120</v>
@@ -11177,7 +10961,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -11188,34 +10972,34 @@
         <v>852</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
         <v>205</v>
       </c>
-      <c r="H8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" t="s">
-        <v>206</v>
-      </c>
       <c r="J8" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N8">
         <v>5532.5</v>
@@ -11245,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -11256,34 +11040,34 @@
         <v>204</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>159</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" t="s">
         <v>161</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>162</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L9">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9">
         <v>47.7</v>
@@ -11313,9 +11097,9 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -11324,34 +11108,34 @@
         <v>503</v>
       </c>
       <c r="D10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>159</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>160</v>
-      </c>
       <c r="G10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="H10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="L10">
         <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N10">
         <v>100</v>
@@ -11381,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -11392,34 +11176,34 @@
         <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
         <v>162</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L11">
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -11449,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -11460,34 +11244,34 @@
         <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" t="s">
         <v>162</v>
       </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
       <c r="J12" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12">
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12">
         <v>16.2</v>
@@ -11517,7 +11301,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -11528,34 +11312,34 @@
         <v>952</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="H13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>224</v>
       </c>
       <c r="L13">
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N13">
         <v>540.29999999999995</v>
@@ -11585,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -11596,34 +11380,34 @@
         <v>357</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L14">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N14">
         <v>102.5</v>
@@ -11653,7 +11437,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -11664,34 +11448,34 @@
         <v>307</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
       <c r="J15" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15">
         <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>30.6</v>
@@ -11721,7 +11505,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11732,34 +11516,34 @@
         <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" t="s">
         <v>202</v>
       </c>
-      <c r="H16" t="s">
-        <v>203</v>
-      </c>
       <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N16">
         <v>75</v>
@@ -11789,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11800,34 +11584,34 @@
         <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>171</v>
-      </c>
       <c r="H17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
         <v>162</v>
       </c>
-      <c r="I17" t="s">
-        <v>163</v>
-      </c>
       <c r="J17" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L17">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N17">
         <v>30</v>
@@ -11857,7 +11641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -11868,34 +11652,34 @@
         <v>354</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L18">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N18">
         <v>271.10000000000002</v>
@@ -11925,7 +11709,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -11936,34 +11720,34 @@
         <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" t="s">
         <v>162</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N19">
         <v>130</v>
@@ -11993,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -12004,34 +11788,34 @@
         <v>352</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N20">
         <v>24.2</v>
@@ -12061,7 +11845,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -12072,34 +11856,34 @@
         <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" t="s">
         <v>162</v>
       </c>
-      <c r="I21" t="s">
-        <v>163</v>
-      </c>
       <c r="J21" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L21">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21">
         <v>44.1</v>
@@ -12129,7 +11913,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12140,34 +11924,34 @@
         <v>801</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="H22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="L22">
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N22">
         <v>13.3</v>
@@ -12197,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12208,34 +11992,34 @@
         <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" t="s">
         <v>162</v>
       </c>
-      <c r="I23" t="s">
-        <v>163</v>
-      </c>
       <c r="J23" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L23">
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N23">
         <v>209.5</v>
@@ -12265,7 +12049,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -12276,34 +12060,34 @@
         <v>206</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="24">
         <v>1</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H24" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L24" s="24">
         <v>12</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N24" s="24">
         <v>200</v>
@@ -12333,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -12344,34 +12128,34 @@
         <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" t="s">
-        <v>163</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L25">
         <v>12</v>
       </c>
       <c r="M25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N25">
         <v>200</v>
@@ -12401,7 +12185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -12412,34 +12196,34 @@
         <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" t="s">
         <v>199</v>
       </c>
-      <c r="H26" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" t="s">
-        <v>200</v>
-      </c>
       <c r="J26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L26">
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N26">
         <v>69.09</v>
@@ -12469,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -12480,34 +12264,34 @@
         <v>355</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L27">
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>18.2</v>
@@ -12537,7 +12321,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12548,34 +12332,34 @@
         <v>209</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
         <v>162</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="L28">
         <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>66</v>
@@ -12621,20 +12405,20 @@
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12645,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12656,7 +12440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12667,7 +12451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12678,7 +12462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12689,7 +12473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12700,12 +12484,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -12714,7 +12498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12722,7 +12506,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -12731,7 +12515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -12739,7 +12523,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -12748,7 +12532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -12756,7 +12540,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q11">
         <v>12</v>
@@ -12765,7 +12549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -12773,7 +12557,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -12782,7 +12566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -12790,7 +12574,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -12799,7 +12583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -12807,7 +12591,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>16</v>
@@ -12816,7 +12600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -12824,7 +12608,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q15">
         <v>18</v>
@@ -12833,7 +12617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -12842,7 +12626,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q16">
         <v>19</v>
@@ -12851,18 +12635,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E17">
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q17">
         <v>21</v>
@@ -12871,7 +12655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -12879,7 +12663,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>23</v>
@@ -12888,7 +12672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -12896,7 +12680,7 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q19">
         <v>24</v>
@@ -12905,7 +12689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>25</v>
       </c>
@@ -12913,7 +12697,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q20">
         <v>25</v>
@@ -12922,7 +12706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -12930,7 +12714,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q21">
         <v>26</v>
@@ -12939,7 +12723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -12947,7 +12731,7 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q22">
         <v>27</v>
@@ -12956,7 +12740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12964,7 +12748,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q23">
         <v>29</v>
@@ -12973,7 +12757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -12981,7 +12765,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q24">
         <v>30</v>
@@ -12990,7 +12774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31</v>
       </c>
@@ -12998,7 +12782,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q25">
         <v>31</v>
@@ -13007,7 +12791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -13015,7 +12799,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q26">
         <v>32</v>
@@ -13024,7 +12808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -13032,7 +12816,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q27">
         <v>33</v>
@@ -13041,7 +12825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -13049,7 +12833,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>35</v>
@@ -13058,7 +12842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -13066,7 +12850,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q29">
         <v>38</v>
@@ -13075,7 +12859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40</v>
       </c>
@@ -13086,12 +12870,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q31">
         <v>41</v>
@@ -13100,7 +12884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42</v>
       </c>
@@ -13111,7 +12895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43</v>
       </c>
@@ -13122,7 +12906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>101</v>
       </c>
@@ -13133,7 +12917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>102</v>
       </c>
@@ -13141,7 +12925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>103</v>
       </c>
@@ -13149,7 +12933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>104</v>
       </c>
@@ -13157,7 +12941,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>105</v>
       </c>
@@ -13165,7 +12949,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>106</v>
       </c>
@@ -13173,7 +12957,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>107</v>
       </c>
@@ -13181,7 +12965,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>108</v>
       </c>
@@ -13189,7 +12973,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>109</v>
       </c>
@@ -13197,7 +12981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>110</v>
       </c>
@@ -13205,7 +12989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>111</v>
       </c>
@@ -13213,7 +12997,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>112</v>
       </c>
@@ -13221,7 +13005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>113</v>
       </c>
@@ -13229,7 +13013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
+    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="350">
   <si>
     <t>Cost</t>
   </si>
@@ -986,9 +986,6 @@
     <t>H-1 University Avenue Interchange On/Off Ramp Modifications</t>
   </si>
   <si>
-    <t>Revised Ramps</t>
-  </si>
-  <si>
     <t>H-1 HOV Median Lanes</t>
   </si>
   <si>
@@ -1079,28 +1076,13 @@
     <t>Kupuna Loop</t>
   </si>
   <si>
-    <t>need review</t>
-  </si>
-  <si>
-    <t>needs review</t>
-  </si>
-  <si>
-    <t>needs review; coded so it can be turned off in future if needed</t>
-  </si>
-  <si>
-    <t>needs review;coded so it can be turned off in future if needed</t>
-  </si>
-  <si>
-    <t>needs review;increased capacity per HDOT</t>
+    <t>varies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1259,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,18 +1433,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1638,7 +1608,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1682,7 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1690,17 +1659,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1847,8 +1807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2253343" y="0"/>
-          <a:ext cx="10288922" cy="1328583"/>
+          <a:off x="2178326" y="0"/>
+          <a:ext cx="10042810" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2043,8 +2003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1219200" y="0"/>
-          <a:ext cx="10293276" cy="1313343"/>
+          <a:off x="1181100" y="0"/>
+          <a:ext cx="10049436" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2463,72 +2423,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD99"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="7" width="32.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2560,7 +2520,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -2628,7 +2588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2652,16 +2612,16 @@
       <c r="J10" s="31">
         <v>2.5040770000000001</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>2</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <v>8</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <v>5</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>5</v>
       </c>
       <c r="Q10" s="5">
@@ -2683,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2707,16 +2667,16 @@
       <c r="J11" s="31">
         <v>7.1985114999999995</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>4</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="28">
         <v>6</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="28">
         <v>3</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="28">
         <v>3</v>
       </c>
       <c r="Q11" s="5">
@@ -2738,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2762,16 +2722,16 @@
       <c r="J12" s="31">
         <v>2.7484425000000003</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>4</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="28">
         <v>6</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="28">
         <v>3</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="28">
         <v>3</v>
       </c>
       <c r="Q12" s="5">
@@ -2796,7 +2756,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2820,16 +2780,16 @@
       <c r="J13" s="31">
         <v>1.2529369999999997</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <v>4</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="28">
         <v>4</v>
       </c>
       <c r="Q13" s="5">
@@ -2851,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2875,16 +2835,16 @@
       <c r="J14" s="31">
         <v>0.28132499999999999</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="4">
         <v>4</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="28">
         <v>7</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="28">
         <v>4</v>
       </c>
       <c r="Q14" s="5">
@@ -2906,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2931,16 +2891,16 @@
       <c r="J15" s="31">
         <v>1.0511140000000001</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="4">
         <v>5</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="4">
         <v>6</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <v>2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <v>2</v>
       </c>
       <c r="Q15" s="5">
@@ -2962,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2970,7 +2930,7 @@
       <c r="C16" s="4">
         <v>306</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2986,10 +2946,10 @@
       <c r="J16" s="31">
         <v>1.7461354999999998</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="12">
         <v>8</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="12">
         <v>10</v>
       </c>
       <c r="M16">
@@ -3017,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3041,16 +3001,16 @@
       <c r="J17" s="31">
         <v>2.0251964999999998</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="12">
         <v>5</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="12">
         <v>6</v>
       </c>
-      <c r="M17" s="29">
-        <v>1</v>
-      </c>
-      <c r="N17" s="29">
+      <c r="M17" s="28">
+        <v>1</v>
+      </c>
+      <c r="N17" s="28">
         <v>1</v>
       </c>
       <c r="Q17" s="5">
@@ -3072,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3094,10 +3054,10 @@
       <c r="J18" s="31">
         <v>9.9100000000000004E-3</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
         <v>1</v>
       </c>
       <c r="M18">
@@ -3129,7 +3089,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3146,7 +3106,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>40</v>
@@ -3154,10 +3114,10 @@
       <c r="J19" s="31">
         <v>4.1771409999999998</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>8</v>
       </c>
       <c r="M19">
@@ -3165,9 +3125,6 @@
       </c>
       <c r="N19">
         <v>1</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>350</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
@@ -3194,7 +3151,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3219,7 +3176,7 @@
       <c r="J20" s="31">
         <v>1.0767329999999999</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="7">
@@ -3256,7 +3213,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3281,10 +3238,10 @@
       <c r="J21" s="31">
         <v>1.3563859999999999</v>
       </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34">
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
         <v>1</v>
       </c>
       <c r="M21">
@@ -3318,7 +3275,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3341,7 +3298,7 @@
         <v>270</v>
       </c>
       <c r="J22" s="31"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="7"/>
       <c r="P22" s="19" t="s">
         <v>273</v>
@@ -3365,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3385,10 +3342,10 @@
       <c r="J23" s="31">
         <v>5.5674774999999999</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
         <v>4</v>
       </c>
       <c r="M23">
@@ -3416,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3439,10 +3396,10 @@
       <c r="J24" s="31">
         <v>2.7244279999999996</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
         <v>2</v>
       </c>
       <c r="M24">
@@ -3470,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3494,10 +3451,10 @@
       <c r="J25" s="31">
         <v>3.3249329999999997</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>4</v>
       </c>
       <c r="M25">
@@ -3525,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3553,10 +3510,10 @@
       <c r="J26" s="31">
         <v>1.2573460000000001</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>4</v>
       </c>
       <c r="M26">
@@ -3587,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3611,10 +3568,10 @@
       <c r="J27" s="31">
         <v>3.9915409999999998</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <v>4</v>
       </c>
       <c r="M27">
@@ -3642,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3666,10 +3623,10 @@
       <c r="J28" s="31">
         <v>1.9001210000000002</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>4</v>
       </c>
       <c r="M28">
@@ -3697,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3722,10 +3679,10 @@
       <c r="J29" s="31">
         <v>0.43381999999999998</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>4</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="8">
         <v>5</v>
       </c>
       <c r="M29" s="8">
@@ -3753,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3778,10 +3735,10 @@
       <c r="J30" s="31">
         <v>0.194163</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
         <v>4</v>
       </c>
       <c r="M30" s="8">
@@ -3809,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3833,10 +3790,10 @@
       <c r="J31" s="31">
         <v>0.64731099999999997</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
         <v>4</v>
       </c>
       <c r="M31" s="8">
@@ -3864,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3889,24 +3846,21 @@
       <c r="J32" s="31">
         <v>2.2996899999999996</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="4">
         <v>6</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="4">
         <v>6</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="28">
         <v>3</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="28">
         <v>3</v>
       </c>
       <c r="O32" t="s">
         <v>113</v>
       </c>
-      <c r="P32" s="18" t="s">
-        <v>352</v>
-      </c>
       <c r="Q32" s="5">
         <v>1</v>
       </c>
@@ -3926,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3948,10 +3902,10 @@
       <c r="J33" s="31">
         <v>0.42677799999999999</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
         <v>1</v>
       </c>
       <c r="M33">
@@ -3979,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4003,10 +3957,10 @@
       <c r="J34" s="31">
         <v>1.2772359999999998</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="25">
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="30">
         <v>4</v>
       </c>
       <c r="M34">
@@ -4034,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4060,10 +4014,10 @@
       <c r="J35" s="31">
         <v>1.434102</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
         <v>6</v>
       </c>
       <c r="M35">
@@ -4091,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4115,10 +4069,10 @@
       <c r="J36" s="31">
         <v>2.1870430000000001</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
         <v>2</v>
       </c>
       <c r="M36">
@@ -4146,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4171,10 +4125,10 @@
       <c r="J37" s="31">
         <v>1.0030085000000002</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>4</v>
       </c>
       <c r="M37">
@@ -4202,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4226,10 +4180,10 @@
       <c r="J38" s="31">
         <v>2.361138</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>4</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>6</v>
       </c>
       <c r="M38">
@@ -4257,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4285,10 +4239,10 @@
       <c r="J39" s="31">
         <v>0.35058</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
         <v>4</v>
       </c>
       <c r="M39">
@@ -4316,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4339,10 +4293,10 @@
       <c r="J40" s="31">
         <v>0.353379</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
         <v>2</v>
       </c>
       <c r="M40">
@@ -4370,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4398,10 +4352,10 @@
       <c r="J41" s="31">
         <v>2.4777050000000003</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
         <v>4</v>
       </c>
       <c r="M41">
@@ -4432,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4457,10 +4411,10 @@
       <c r="J42" s="31">
         <v>0.53654900000000005</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
         <v>1</v>
       </c>
       <c r="M42">
@@ -4488,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4513,10 +4467,10 @@
       <c r="J43" s="31">
         <v>0.466557</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>2</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>3</v>
       </c>
       <c r="M43">
@@ -4544,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4561,11 +4515,11 @@
       <c r="J44" s="31">
         <v>0.50720299999999996</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
+      <c r="K44" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="M44">
         <v>8</v>
@@ -4573,9 +4527,6 @@
       <c r="N44">
         <v>8</v>
       </c>
-      <c r="P44" s="18" t="s">
-        <v>351</v>
-      </c>
       <c r="Q44" s="8">
         <v>0</v>
       </c>
@@ -4595,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4619,10 +4570,10 @@
       <c r="J45" s="31">
         <v>1.4611879999999999</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>2</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>6</v>
       </c>
       <c r="M45">
@@ -4650,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4675,7 +4626,7 @@
       <c r="J46" s="31">
         <v>0.88918099999999989</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>5</v>
       </c>
       <c r="L46" s="10">
@@ -4690,9 +4641,6 @@
       <c r="O46" t="s">
         <v>113</v>
       </c>
-      <c r="P46" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="Q46" s="5">
         <v>1</v>
       </c>
@@ -4712,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4732,10 +4680,10 @@
       <c r="J47" s="31">
         <v>1.2545204999999999</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>3</v>
       </c>
       <c r="M47">
@@ -4763,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4788,10 +4736,10 @@
       <c r="J48" s="31">
         <v>0.289636</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>4</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="4">
         <v>4</v>
       </c>
       <c r="M48">
@@ -4803,9 +4751,6 @@
       <c r="O48" t="s">
         <v>113</v>
       </c>
-      <c r="P48" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="Q48" s="5">
         <v>1</v>
       </c>
@@ -4825,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -4844,10 +4789,10 @@
       <c r="J49" s="31">
         <v>19.813119</v>
       </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
         <v>2</v>
       </c>
       <c r="M49" s="8">
@@ -4875,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -4926,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -4971,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -5016,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -5036,10 +4981,10 @@
       <c r="J53" s="31">
         <v>2.953376</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4">
         <v>2</v>
       </c>
       <c r="M53" s="8">
@@ -5051,9 +4996,6 @@
       <c r="O53" t="s">
         <v>291</v>
       </c>
-      <c r="P53" s="18" t="s">
-        <v>354</v>
-      </c>
       <c r="Q53" s="8">
         <v>0</v>
       </c>
@@ -5073,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -5091,12 +5033,12 @@
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="31">
-        <v>7.5129155000000001</v>
-      </c>
-      <c r="K54" s="35">
-        <v>1</v>
-      </c>
-      <c r="L54" s="35">
+        <v>5.03</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4">
         <v>0</v>
       </c>
       <c r="M54" s="8">
@@ -5124,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -5144,10 +5086,10 @@
       <c r="J55" s="31">
         <v>7.6104390000000013</v>
       </c>
-      <c r="K55" s="35">
-        <v>1</v>
-      </c>
-      <c r="L55" s="35">
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" s="4">
         <v>0</v>
       </c>
       <c r="M55" s="8">
@@ -5175,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -5195,10 +5137,10 @@
       <c r="J56" s="31">
         <v>2.9312590000000003</v>
       </c>
-      <c r="K56" s="35">
-        <v>1</v>
-      </c>
-      <c r="L56" s="35">
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
         <v>0</v>
       </c>
       <c r="M56" s="8">
@@ -5226,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -5246,10 +5188,10 @@
       <c r="J57" s="31">
         <v>0.78104649999999998</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
         <v>1</v>
       </c>
       <c r="M57" s="8">
@@ -5258,9 +5200,6 @@
       <c r="N57" s="8">
         <v>1</v>
       </c>
-      <c r="P57" s="18" t="s">
-        <v>351</v>
-      </c>
       <c r="Q57" s="8">
         <v>0</v>
       </c>
@@ -5280,26 +5219,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="29">
-        <v>101</v>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
-      </c>
-      <c r="E58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F58" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="G58" t="s">
         <v>290</v>
       </c>
       <c r="H58" s="4"/>
-      <c r="J58" s="31"/>
-      <c r="K58"/>
-      <c r="L58"/>
+      <c r="J58" s="31">
+        <v>0.22734399999999999</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>8</v>
+      </c>
       <c r="Q58" s="8">
         <v>0</v>
       </c>
@@ -5319,25 +5264,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" s="29">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" t="s">
         <v>102</v>
-      </c>
-      <c r="D59" t="s">
-        <v>317</v>
-      </c>
-      <c r="G59" t="s">
-        <v>290</v>
       </c>
       <c r="H59" s="4"/>
       <c r="J59" s="31">
-        <v>0.22734399999999999</v>
-      </c>
-      <c r="K59" s="35">
-        <v>1</v>
-      </c>
-      <c r="L59" s="35">
-        <v>2</v>
+        <v>0.41011600000000004</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
       </c>
       <c r="M59">
         <v>8</v>
@@ -5364,34 +5309,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
-        <v>103</v>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" t="s">
+        <v>320</v>
       </c>
       <c r="G60" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="H60" s="4"/>
       <c r="J60" s="31">
-        <v>0.41011600000000004</v>
+        <v>4.97</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>8</v>
-      </c>
-      <c r="P60" s="18" t="s">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
@@ -5412,40 +5360,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" s="29">
-        <v>104</v>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="28">
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
         <v>290</v>
       </c>
       <c r="H61" s="4"/>
       <c r="J61" s="31">
-        <v>10.036644000000001</v>
+        <v>6.279827</v>
       </c>
       <c r="K61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="P61" s="18" t="s">
-        <v>351</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="8">
         <v>0</v>
@@ -5466,17 +5411,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="29">
-        <v>105</v>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="28">
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>322</v>
-      </c>
-      <c r="E62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F62" t="s">
         <v>324</v>
       </c>
       <c r="G62" t="s">
@@ -5484,19 +5423,19 @@
       </c>
       <c r="H62" s="4"/>
       <c r="J62" s="31">
-        <v>6.279827</v>
+        <v>5.0626499999999998E-2</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q62" s="8">
         <v>0</v>
@@ -5517,31 +5456,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="29">
-        <v>106</v>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>325</v>
       </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
       <c r="G63" t="s">
         <v>290</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="31">
-        <v>5.0626499999999998E-2</v>
+        <v>0.48705300000000001</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q63" s="8">
         <v>0</v>
@@ -5562,130 +5507,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="29">
-        <v>107</v>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="28">
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G64" t="s">
         <v>290</v>
       </c>
-      <c r="H64" s="4"/>
       <c r="J64" s="31">
-        <v>0.48705300000000001</v>
+        <v>3.2425380000000006</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8">
+        <v>0</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="G65" t="s">
+        <v>330</v>
+      </c>
+      <c r="J65" s="31">
+        <v>3.8108604999999995</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
         <v>3</v>
       </c>
-      <c r="N64">
+      <c r="N65">
         <v>3</v>
       </c>
-      <c r="Q64" s="8">
-        <v>0</v>
-      </c>
-      <c r="R64" s="8">
-        <v>0</v>
-      </c>
-      <c r="S64" s="8">
-        <v>0</v>
-      </c>
-      <c r="T64" s="8">
-        <v>0</v>
-      </c>
-      <c r="U64" s="8">
-        <v>0</v>
-      </c>
-      <c r="V64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="29">
-        <v>108</v>
-      </c>
-      <c r="D65" t="s">
-        <v>328</v>
-      </c>
-      <c r="E65" t="s">
-        <v>316</v>
-      </c>
-      <c r="F65" t="s">
-        <v>329</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="S65" s="8">
+        <v>0</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" t="s">
         <v>290</v>
       </c>
-      <c r="J65" s="31">
-        <v>3.2425380000000006</v>
-      </c>
-      <c r="K65">
+      <c r="J66" s="31">
+        <v>0.68827700000000003</v>
+      </c>
+      <c r="K66" s="5">
         <v>3</v>
       </c>
-      <c r="L65">
+      <c r="L66" s="5">
         <v>5</v>
       </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="8">
-        <v>0</v>
-      </c>
-      <c r="R65" s="8">
-        <v>0</v>
-      </c>
-      <c r="S65" s="8">
-        <v>0</v>
-      </c>
-      <c r="T65" s="8">
-        <v>0</v>
-      </c>
-      <c r="U65" s="8">
-        <v>0</v>
-      </c>
-      <c r="V65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="29">
-        <v>109</v>
-      </c>
-      <c r="D66" t="s">
-        <v>330</v>
-      </c>
-      <c r="G66" t="s">
-        <v>331</v>
-      </c>
-      <c r="J66" s="31">
-        <v>3.8108604999999995</v>
-      </c>
-      <c r="K66">
-        <v>2</v>
-      </c>
-      <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66">
+      <c r="M66" s="8">
         <v>3</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="8">
         <v>3</v>
       </c>
       <c r="Q66" s="8">
@@ -5707,36 +5651,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
-        <v>110</v>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E67" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>334</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
         <v>290</v>
       </c>
       <c r="J67" s="31">
-        <v>0.68827700000000003</v>
-      </c>
-      <c r="K67" s="5">
-        <v>3</v>
-      </c>
-      <c r="L67" s="5">
-        <v>5</v>
-      </c>
-      <c r="M67" s="8">
-        <v>3</v>
-      </c>
-      <c r="N67" s="8">
-        <v>3</v>
+        <v>16.185812000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
       </c>
       <c r="Q67" s="8">
         <v>0</v>
@@ -5757,37 +5701,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="29">
-        <v>111</v>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>112</v>
       </c>
       <c r="D68" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" t="s">
         <v>335</v>
-      </c>
-      <c r="E68" t="s">
-        <v>336</v>
-      </c>
-      <c r="F68" t="s">
-        <v>120</v>
       </c>
       <c r="G68" t="s">
         <v>290</v>
       </c>
       <c r="J68" s="31">
-        <v>16.185812000000002</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+        <v>3.2503919999999997</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>2</v>
+      </c>
+      <c r="M68" s="8">
         <v>4</v>
       </c>
-      <c r="M68">
+      <c r="N68" s="8">
         <v>4</v>
       </c>
-      <c r="N68">
-        <v>4</v>
-      </c>
+      <c r="P68" s="19"/>
       <c r="Q68" s="8">
         <v>0</v>
       </c>
@@ -5807,36 +5752,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="29">
-        <v>112</v>
-      </c>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>113</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E69" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G69" t="s">
         <v>290</v>
       </c>
+      <c r="H69" s="4"/>
       <c r="J69" s="31">
-        <v>3.2503919999999997</v>
-      </c>
-      <c r="K69" s="5">
-        <v>0</v>
-      </c>
-      <c r="L69" s="5">
+        <v>4.8497159999999999</v>
+      </c>
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
         <v>2</v>
       </c>
       <c r="M69" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N69" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="8">
@@ -5858,27 +5806,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="29">
-        <v>113</v>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>115</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" t="s">
-        <v>231</v>
-      </c>
-      <c r="F70" t="s">
-        <v>340</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="D70" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="31">
-        <v>4.8497159999999999</v>
+        <v>0.29454999999999998</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
@@ -5887,10 +5836,10 @@
         <v>2</v>
       </c>
       <c r="M70" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N70" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P70" s="19"/>
       <c r="Q70" s="8">
@@ -5912,20 +5861,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29">
-        <v>114</v>
-      </c>
-      <c r="D71" t="s">
-        <v>341</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="28">
+        <v>116</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="G71" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I71"/>
-      <c r="J71" s="31"/>
+        <v>290</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="J71" s="31">
+        <v>0.22639400000000001</v>
+      </c>
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>2</v>
+      </c>
+      <c r="M71" s="8">
+        <v>7</v>
+      </c>
+      <c r="N71" s="8">
+        <v>6</v>
+      </c>
       <c r="P71" s="19"/>
       <c r="Q71" s="8">
         <v>0</v>
@@ -5946,28 +5909,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="29">
-        <v>115</v>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>117</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
       <c r="J72" s="31">
-        <v>0.29454999999999998</v>
+        <v>0.42425299999999999</v>
       </c>
       <c r="K72" s="8">
         <v>0</v>
@@ -5976,10 +5932,10 @@
         <v>2</v>
       </c>
       <c r="M72" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N72" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P72" s="19"/>
       <c r="Q72" s="8">
@@ -6001,21 +5957,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="29">
-        <v>116</v>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>118</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="31">
-        <v>0.22639400000000001</v>
+        <v>4.4136069999999998</v>
       </c>
       <c r="K73" s="8">
         <v>0</v>
@@ -6027,84 +5984,97 @@
         <v>7</v>
       </c>
       <c r="N73" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="8">
         <v>0</v>
       </c>
       <c r="R73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="29">
-        <v>117</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>119</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>259</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="31">
-        <v>0.42425299999999999</v>
+        <v>2.5748820000000001</v>
       </c>
       <c r="K74" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M74" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N74" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="29">
-        <v>118</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>120</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>347</v>
+        <v>321</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" t="s">
+        <v>80</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>290</v>
@@ -6112,157 +6082,75 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="31">
-        <v>4.4136069999999998</v>
+        <v>0.367091</v>
       </c>
       <c r="K75" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L75" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N75" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="8">
         <v>0</v>
       </c>
       <c r="R75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E76" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" t="s">
-        <v>259</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="31">
-        <v>2.5748820000000001</v>
-      </c>
-      <c r="K76" s="8">
-        <v>4</v>
-      </c>
-      <c r="L76" s="8">
-        <v>6</v>
-      </c>
-      <c r="M76" s="8">
-        <v>3</v>
-      </c>
-      <c r="N76" s="8">
-        <v>3</v>
-      </c>
+      <c r="J76" s="29"/>
       <c r="P76" s="19"/>
-      <c r="Q76" s="8">
-        <v>1</v>
-      </c>
-      <c r="R76" s="8">
-        <v>1</v>
-      </c>
-      <c r="S76" s="8">
-        <v>1</v>
-      </c>
-      <c r="T76" s="8">
-        <v>1</v>
-      </c>
-      <c r="U76" s="8">
-        <v>1</v>
-      </c>
-      <c r="V76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>120</v>
-      </c>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E77" t="s">
-        <v>349</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="31">
-        <v>0.367091</v>
-      </c>
-      <c r="K77" s="8">
-        <v>5</v>
-      </c>
-      <c r="L77" s="8">
-        <v>6</v>
-      </c>
-      <c r="M77" s="8">
-        <v>3</v>
-      </c>
-      <c r="N77" s="8">
-        <v>3</v>
-      </c>
+      <c r="J77" s="29"/>
       <c r="P77" s="19"/>
-      <c r="Q77" s="8">
-        <v>0</v>
-      </c>
-      <c r="R77" s="8">
-        <v>0</v>
-      </c>
-      <c r="S77" s="8">
-        <v>0</v>
-      </c>
-      <c r="T77" s="8">
-        <v>0</v>
-      </c>
-      <c r="U77" s="8">
-        <v>0</v>
-      </c>
-      <c r="V77" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="30"/>
+      <c r="J78" s="29"/>
       <c r="P78" s="19"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
@@ -6270,13 +6158,11 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="30"/>
       <c r="P79" s="19"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
@@ -6284,13 +6170,11 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="30"/>
       <c r="P80" s="19"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -6298,7 +6182,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6310,7 +6194,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6322,7 +6206,7 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6334,7 +6218,7 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6346,7 +6230,7 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6358,11 +6242,12 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
@@ -6370,10 +6255,11 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="H87" s="4"/>
       <c r="P87" s="19"/>
       <c r="Q87" s="8"/>
@@ -6382,12 +6268,14 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="8"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
@@ -6395,12 +6283,13 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
       <c r="H89" s="4"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
       <c r="P89" s="19"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
@@ -6408,13 +6297,12 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="K90" s="9"/>
+      <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="P90" s="19"/>
       <c r="Q90" s="8"/>
@@ -6423,63 +6311,35 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J96" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V77">
+  <autoFilter ref="A9:V75">
     <sortState ref="A10:T48">
       <sortCondition ref="A9:A30"/>
     </sortState>
   </autoFilter>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I91:I93"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I89:I91"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="40" orientation="landscape" r:id="rId1"/>
@@ -6498,30 +6358,30 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6546,7 +6406,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6593,7 +6453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -6613,7 +6473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -6636,7 +6496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -6659,7 +6519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6683,7 +6543,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6706,7 +6566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -6730,7 +6590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -6750,7 +6610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -6770,7 +6630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -6793,7 +6653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -6816,7 +6676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -6832,7 +6692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -6843,7 +6703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -6854,7 +6714,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -6875,7 +6735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -6894,7 +6754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -6918,7 +6778,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6928,7 +6788,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6938,37 +6798,149 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29" s="31"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6978,7 +6950,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6988,7 +6960,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6998,7 +6970,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7008,7 +6980,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7018,7 +6990,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7028,7 +7000,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7038,7 +7010,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7048,7 +7020,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7058,7 +7030,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7068,7 +7040,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7078,129 +7050,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -7208,119 +7180,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -7329,7 +7301,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -7338,7 +7310,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -7347,7 +7319,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7371,9 +7343,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -7381,7 +7353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -7389,7 +7361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7403,7 +7375,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -7421,7 +7393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -7439,7 +7411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -7457,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -7475,7 +7447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -7493,7 +7465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7511,11 +7483,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>80</v>
       </c>
       <c r="C10">
@@ -7529,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -7547,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -7565,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7583,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7601,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7619,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7637,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -7655,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -7673,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -7691,7 +7663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -7709,7 +7681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -7727,7 +7699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -7745,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7763,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7781,7 +7753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -7799,7 +7771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -7817,7 +7789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -7835,7 +7807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -7853,7 +7825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -7871,7 +7843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7889,7 +7861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -7907,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -7925,7 +7897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -7943,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -7961,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -7979,7 +7951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7997,7 +7969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8015,7 +7987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -8033,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -8051,7 +8023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -8069,7 +8041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -8087,7 +8059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -8105,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -8115,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>37</v>
       </c>
@@ -8124,7 +8096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>37</v>
       </c>
@@ -8133,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>27</v>
       </c>
@@ -8142,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>33</v>
       </c>
@@ -8151,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>36</v>
       </c>
@@ -8160,7 +8132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>37</v>
       </c>
@@ -8169,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>27</v>
       </c>
@@ -8178,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>27</v>
       </c>
@@ -8187,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>37</v>
       </c>
@@ -8196,7 +8168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>27</v>
       </c>
@@ -8205,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>37</v>
       </c>
@@ -8214,7 +8186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>39</v>
       </c>
@@ -8223,7 +8195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I56">
         <v>31</v>
       </c>
@@ -8232,7 +8204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57">
         <v>41</v>
       </c>
@@ -8241,7 +8213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>30</v>
       </c>
@@ -8250,7 +8222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>30</v>
       </c>
@@ -8259,7 +8231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>32</v>
       </c>
@@ -8268,7 +8240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>32</v>
       </c>
@@ -8277,7 +8249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>32</v>
       </c>
@@ -8286,7 +8258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>31</v>
       </c>
@@ -8295,7 +8267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>42</v>
       </c>
@@ -8304,7 +8276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>41</v>
       </c>
@@ -8313,7 +8285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>5</v>
       </c>
@@ -8322,7 +8294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>41</v>
       </c>
@@ -8331,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>5</v>
       </c>
@@ -8340,7 +8312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>5</v>
       </c>
@@ -8349,7 +8321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>5</v>
       </c>
@@ -8358,7 +8330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>41</v>
       </c>
@@ -8367,7 +8339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>41</v>
       </c>
@@ -8376,7 +8348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>5</v>
       </c>
@@ -8385,7 +8357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>41</v>
       </c>
@@ -8394,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>41</v>
       </c>
@@ -8403,7 +8375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>5</v>
       </c>
@@ -8412,7 +8384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>5</v>
       </c>
@@ -8421,7 +8393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>41</v>
       </c>
@@ -8430,7 +8402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>41</v>
       </c>
@@ -8439,7 +8411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>41</v>
       </c>
@@ -8448,7 +8420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>41</v>
       </c>
@@ -8457,7 +8429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>41</v>
       </c>
@@ -8466,7 +8438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I83">
         <v>6</v>
       </c>
@@ -8475,7 +8447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>6</v>
       </c>
@@ -8484,7 +8456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I85">
         <v>6</v>
       </c>
@@ -8493,7 +8465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I86">
         <v>30</v>
       </c>
@@ -8502,7 +8474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I87">
         <v>30</v>
       </c>
@@ -8511,7 +8483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I88">
         <v>42</v>
       </c>
@@ -8520,7 +8492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I89">
         <v>41</v>
       </c>
@@ -8529,7 +8501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I90">
         <v>41</v>
       </c>
@@ -8538,7 +8510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I91">
         <v>41</v>
       </c>
@@ -8547,7 +8519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I92">
         <v>41</v>
       </c>
@@ -8556,7 +8528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I93">
         <v>41</v>
       </c>
@@ -8565,7 +8537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I94">
         <v>18</v>
       </c>
@@ -8574,7 +8546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>30</v>
       </c>
@@ -8583,7 +8555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I96">
         <v>30</v>
       </c>
@@ -8592,7 +8564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97">
         <v>30</v>
       </c>
@@ -8601,7 +8573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98">
         <v>30</v>
       </c>
@@ -8610,7 +8582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99">
         <v>30</v>
       </c>
@@ -8619,7 +8591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100">
         <v>30</v>
       </c>
@@ -8628,7 +8600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101">
         <v>30</v>
       </c>
@@ -8637,7 +8609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102">
         <v>30</v>
       </c>
@@ -8646,7 +8618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103">
         <v>32</v>
       </c>
@@ -8655,7 +8627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104">
         <v>32</v>
       </c>
@@ -8664,7 +8636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105">
         <v>32</v>
       </c>
@@ -8673,7 +8645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106">
         <v>32</v>
       </c>
@@ -8682,7 +8654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107">
         <v>18</v>
       </c>
@@ -8691,7 +8663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108">
         <v>18</v>
       </c>
@@ -8700,7 +8672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109">
         <v>41</v>
       </c>
@@ -8709,7 +8681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110">
         <v>42</v>
       </c>
@@ -8718,7 +8690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111">
         <v>42</v>
       </c>
@@ -8727,7 +8699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>42</v>
       </c>
@@ -8736,7 +8708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113">
         <v>42</v>
       </c>
@@ -8745,7 +8717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114">
         <v>42</v>
       </c>
@@ -8754,7 +8726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115">
         <v>42</v>
       </c>
@@ -8763,7 +8735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116">
         <v>42</v>
       </c>
@@ -8772,7 +8744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117">
         <v>42</v>
       </c>
@@ -8781,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118">
         <v>42</v>
       </c>
@@ -8790,7 +8762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119">
         <v>14</v>
       </c>
@@ -8799,7 +8771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I120">
         <v>23</v>
       </c>
@@ -8808,7 +8780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I121">
         <v>2</v>
       </c>
@@ -8817,7 +8789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I122">
         <v>25</v>
       </c>
@@ -8826,7 +8798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I123">
         <v>25</v>
       </c>
@@ -8835,7 +8807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I124">
         <v>25</v>
       </c>
@@ -8844,7 +8816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I125">
         <v>25</v>
       </c>
@@ -8853,7 +8825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I126">
         <v>25</v>
       </c>
@@ -8862,7 +8834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I127">
         <v>25</v>
       </c>
@@ -8871,7 +8843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128">
         <v>25</v>
       </c>
@@ -8880,7 +8852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I129">
         <v>26</v>
       </c>
@@ -8889,7 +8861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I130">
         <v>2</v>
       </c>
@@ -8898,7 +8870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I131">
         <v>2</v>
       </c>
@@ -8907,7 +8879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I132">
         <v>39</v>
       </c>
@@ -8916,7 +8888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I133">
         <v>2</v>
       </c>
@@ -8925,7 +8897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I134">
         <v>2</v>
       </c>
@@ -8934,7 +8906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I135">
         <v>2</v>
       </c>
@@ -8943,7 +8915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I136">
         <v>14</v>
       </c>
@@ -8952,7 +8924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I137">
         <v>14</v>
       </c>
@@ -8961,7 +8933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>14</v>
       </c>
@@ -8970,7 +8942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I139">
         <v>14</v>
       </c>
@@ -8979,7 +8951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I140">
         <v>14</v>
       </c>
@@ -8988,7 +8960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I141">
         <v>14</v>
       </c>
@@ -8997,7 +8969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I142">
         <v>14</v>
       </c>
@@ -9006,7 +8978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I143">
         <v>23</v>
       </c>
@@ -9015,7 +8987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I144">
         <v>14</v>
       </c>
@@ -9024,7 +8996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I145">
         <v>23</v>
       </c>
@@ -9033,7 +9005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I146">
         <v>14</v>
       </c>
@@ -9042,7 +9014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I147">
         <v>14</v>
       </c>
@@ -9051,7 +9023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I148">
         <v>23</v>
       </c>
@@ -9060,7 +9032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I149">
         <v>14</v>
       </c>
@@ -9069,7 +9041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I150">
         <v>14</v>
       </c>
@@ -9078,7 +9050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I151">
         <v>14</v>
       </c>
@@ -9087,7 +9059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I152">
         <v>23</v>
       </c>
@@ -9096,7 +9068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I153">
         <v>23</v>
       </c>
@@ -9105,7 +9077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I154">
         <v>23</v>
       </c>
@@ -9114,7 +9086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I155">
         <v>23</v>
       </c>
@@ -9123,7 +9095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I156">
         <v>14</v>
       </c>
@@ -9132,7 +9104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I157">
         <v>14</v>
       </c>
@@ -9141,7 +9113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I158">
         <v>14</v>
       </c>
@@ -9150,7 +9122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I159">
         <v>14</v>
       </c>
@@ -9159,7 +9131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I160">
         <v>14</v>
       </c>
@@ -9168,7 +9140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I161">
         <v>14</v>
       </c>
@@ -9177,7 +9149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I162">
         <v>23</v>
       </c>
@@ -9186,7 +9158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I163">
         <v>23</v>
       </c>
@@ -9195,7 +9167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I164">
         <v>23</v>
       </c>
@@ -9204,7 +9176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I165">
         <v>23</v>
       </c>
@@ -9213,7 +9185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I166">
         <v>23</v>
       </c>
@@ -9222,7 +9194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I167">
         <v>23</v>
       </c>
@@ -9231,7 +9203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I168">
         <v>14</v>
       </c>
@@ -9240,7 +9212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I169">
         <v>14</v>
       </c>
@@ -9249,7 +9221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I170">
         <v>14</v>
       </c>
@@ -9258,7 +9230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I171">
         <v>23</v>
       </c>
@@ -9267,7 +9239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I172">
         <v>15</v>
       </c>
@@ -9276,7 +9248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I173">
         <v>15</v>
       </c>
@@ -9285,7 +9257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I174">
         <v>2</v>
       </c>
@@ -9294,7 +9266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I175">
         <v>2</v>
       </c>
@@ -9303,7 +9275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I176">
         <v>2</v>
       </c>
@@ -9312,7 +9284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I177">
         <v>2</v>
       </c>
@@ -9321,7 +9293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I178">
         <v>2</v>
       </c>
@@ -9330,7 +9302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I179">
         <v>2</v>
       </c>
@@ -9339,7 +9311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I180">
         <v>2</v>
       </c>
@@ -9348,7 +9320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I181">
         <v>2</v>
       </c>
@@ -9357,7 +9329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I182">
         <v>26</v>
       </c>
@@ -9366,7 +9338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I183">
         <v>2</v>
       </c>
@@ -9375,7 +9347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I184">
         <v>2</v>
       </c>
@@ -9384,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I185">
         <v>2</v>
       </c>
@@ -9393,7 +9365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I186">
         <v>2</v>
       </c>
@@ -9402,7 +9374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I187">
         <v>2</v>
       </c>
@@ -9411,7 +9383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I188">
         <v>2</v>
       </c>
@@ -9420,7 +9392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I189">
         <v>2</v>
       </c>
@@ -9429,7 +9401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I190">
         <v>2</v>
       </c>
@@ -9438,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I191">
         <v>23</v>
       </c>
@@ -9447,7 +9419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I192">
         <v>23</v>
       </c>
@@ -9456,7 +9428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I193">
         <v>14</v>
       </c>
@@ -9465,7 +9437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I194">
         <v>23</v>
       </c>
@@ -9474,7 +9446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I195">
         <v>2</v>
       </c>
@@ -9483,7 +9455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I196">
         <v>2</v>
       </c>
@@ -9492,7 +9464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I197">
         <v>9</v>
       </c>
@@ -9501,7 +9473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I198">
         <v>2</v>
       </c>
@@ -9510,7 +9482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I199">
         <v>2</v>
       </c>
@@ -9519,7 +9491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I200">
         <v>13</v>
       </c>
@@ -9528,7 +9500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I201">
         <v>23</v>
       </c>
@@ -9537,7 +9509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I202">
         <v>23</v>
       </c>
@@ -9546,7 +9518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I203">
         <v>13</v>
       </c>
@@ -9555,7 +9527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I204">
         <v>13</v>
       </c>
@@ -9564,7 +9536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I205">
         <v>13</v>
       </c>
@@ -9573,7 +9545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I206">
         <v>13</v>
       </c>
@@ -9582,7 +9554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I207">
         <v>23</v>
       </c>
@@ -9591,7 +9563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I208">
         <v>23</v>
       </c>
@@ -9600,7 +9572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I209">
         <v>2</v>
       </c>
@@ -9609,7 +9581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I210">
         <v>2</v>
       </c>
@@ -9618,7 +9590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I211">
         <v>2</v>
       </c>
@@ -9627,7 +9599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I212">
         <v>2</v>
       </c>
@@ -9636,7 +9608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I213">
         <v>2</v>
       </c>
@@ -9645,7 +9617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I214">
         <v>34</v>
       </c>
@@ -9654,7 +9626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I215">
         <v>33</v>
       </c>
@@ -9663,7 +9635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I216">
         <v>4</v>
       </c>
@@ -9672,7 +9644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I217">
         <v>40</v>
       </c>
@@ -9681,7 +9653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I218">
         <v>4</v>
       </c>
@@ -9690,7 +9662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I219">
         <v>4</v>
       </c>
@@ -9699,7 +9671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I220">
         <v>4</v>
       </c>
@@ -9708,7 +9680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I221">
         <v>4</v>
       </c>
@@ -9717,7 +9689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I222">
         <v>34</v>
       </c>
@@ -9726,7 +9698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I223">
         <v>34</v>
       </c>
@@ -9735,7 +9707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I224">
         <v>34</v>
       </c>
@@ -9744,7 +9716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I225">
         <v>34</v>
       </c>
@@ -9753,7 +9725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I226">
         <v>15</v>
       </c>
@@ -9762,7 +9734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I227">
         <v>15</v>
       </c>
@@ -9771,7 +9743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I228">
         <v>15</v>
       </c>
@@ -9780,7 +9752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I229">
         <v>15</v>
       </c>
@@ -9789,7 +9761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I230">
         <v>15</v>
       </c>
@@ -9798,7 +9770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I231">
         <v>12</v>
       </c>
@@ -9807,7 +9779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I232">
         <v>14</v>
       </c>
@@ -9816,7 +9788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I233">
         <v>14</v>
       </c>
@@ -9825,7 +9797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I234">
         <v>23</v>
       </c>
@@ -9834,7 +9806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I235">
         <v>23</v>
       </c>
@@ -9843,7 +9815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I236">
         <v>28</v>
       </c>
@@ -9852,7 +9824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I237">
         <v>11</v>
       </c>
@@ -9861,7 +9833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I238">
         <v>28</v>
       </c>
@@ -9870,7 +9842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I239">
         <v>32</v>
       </c>
@@ -9879,7 +9851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I240">
         <v>32</v>
       </c>
@@ -9888,7 +9860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I241">
         <v>32</v>
       </c>
@@ -9897,7 +9869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I242">
         <v>43</v>
       </c>
@@ -9906,7 +9878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I243">
         <v>16</v>
       </c>
@@ -9915,7 +9887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I244">
         <v>12</v>
       </c>
@@ -9924,7 +9896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I245">
         <v>36</v>
       </c>
@@ -9933,7 +9905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I246">
         <v>12</v>
       </c>
@@ -9942,7 +9914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I247">
         <v>16</v>
       </c>
@@ -9951,7 +9923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I248">
         <v>10</v>
       </c>
@@ -9960,7 +9932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I249">
         <v>10</v>
       </c>
@@ -9969,7 +9941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I250">
         <v>10</v>
       </c>
@@ -9978,7 +9950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I251">
         <v>43</v>
       </c>
@@ -9987,7 +9959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I252">
         <v>43</v>
       </c>
@@ -9996,7 +9968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I253">
         <v>37</v>
       </c>
@@ -10005,7 +9977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I254">
         <v>43</v>
       </c>
@@ -10014,7 +9986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I255">
         <v>43</v>
       </c>
@@ -10023,7 +9995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I256">
         <v>37</v>
       </c>
@@ -10032,7 +10004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I257">
         <v>43</v>
       </c>
@@ -10041,7 +10013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I258">
         <v>43</v>
       </c>
@@ -10050,7 +10022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I259">
         <v>43</v>
       </c>
@@ -10059,7 +10031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I260">
         <v>43</v>
       </c>
@@ -10068,7 +10040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I261">
         <v>43</v>
       </c>
@@ -10077,7 +10049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I262">
         <v>43</v>
       </c>
@@ -10086,7 +10058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I263">
         <v>43</v>
       </c>
@@ -10095,7 +10067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I264">
         <v>16</v>
       </c>
@@ -10104,7 +10076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I265">
         <v>37</v>
       </c>
@@ -10113,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I266">
         <v>22</v>
       </c>
@@ -10122,7 +10094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I267">
         <v>40</v>
       </c>
@@ -10131,7 +10103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I268">
         <v>40</v>
       </c>
@@ -10140,7 +10112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I269">
         <v>40</v>
       </c>
@@ -10149,7 +10121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I270">
         <v>27</v>
       </c>
@@ -10158,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I271">
         <v>28</v>
       </c>
@@ -10167,7 +10139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I272">
         <v>27</v>
       </c>
@@ -10176,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I273">
         <v>40</v>
       </c>
@@ -10185,7 +10157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I274">
         <v>12</v>
       </c>
@@ -10194,7 +10166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I275">
         <v>43</v>
       </c>
@@ -10203,7 +10175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I276">
         <v>43</v>
       </c>
@@ -10212,7 +10184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I277">
         <v>26</v>
       </c>
@@ -10221,7 +10193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I278">
         <v>26</v>
       </c>
@@ -10230,7 +10202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I279">
         <v>26</v>
       </c>
@@ -10239,7 +10211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I280">
         <v>26</v>
       </c>
@@ -10248,7 +10220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I281">
         <v>16</v>
       </c>
@@ -10257,7 +10229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I282">
         <v>16</v>
       </c>
@@ -10266,7 +10238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I283">
         <v>16</v>
       </c>
@@ -10275,7 +10247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I284">
         <v>27</v>
       </c>
@@ -10284,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I285">
         <v>24</v>
       </c>
@@ -10293,7 +10265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I286">
         <v>24</v>
       </c>
@@ -10302,7 +10274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I287">
         <v>24</v>
       </c>
@@ -10311,7 +10283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I288">
         <v>24</v>
       </c>
@@ -10320,7 +10292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I289">
         <v>28</v>
       </c>
@@ -10329,7 +10301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I290">
         <v>27</v>
       </c>
@@ -10338,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I291">
         <v>40</v>
       </c>
@@ -10347,7 +10319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I292">
         <v>40</v>
       </c>
@@ -10356,7 +10328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I293">
         <v>40</v>
       </c>
@@ -10365,7 +10337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I294">
         <v>38</v>
       </c>
@@ -10374,7 +10346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I295">
         <v>29</v>
       </c>
@@ -10383,7 +10355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I296">
         <v>29</v>
       </c>
@@ -10392,7 +10364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I297">
         <v>10</v>
       </c>
@@ -10401,7 +10373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I298">
         <v>3</v>
       </c>
@@ -10410,7 +10382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I299">
         <v>3</v>
       </c>
@@ -10419,7 +10391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I300">
         <v>29</v>
       </c>
@@ -10428,7 +10400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I301">
         <v>29</v>
       </c>
@@ -10437,7 +10409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I302">
         <v>28</v>
       </c>
@@ -10446,7 +10418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I303">
         <v>28</v>
       </c>
@@ -10455,7 +10427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I304">
         <v>44</v>
       </c>
@@ -10480,12 +10452,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -10553,7 +10525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -10621,7 +10593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -10689,7 +10661,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -10757,7 +10729,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -10825,7 +10797,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -10893,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -10961,7 +10933,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -11029,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -11097,7 +11069,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -11165,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -11233,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -11301,7 +11273,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -11369,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -11437,7 +11409,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -11505,7 +11477,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11573,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11641,7 +11613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -11709,7 +11681,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -11777,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -11845,7 +11817,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11913,7 +11885,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -11981,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12049,7 +12021,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -12117,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -12185,7 +12157,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -12253,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -12321,7 +12293,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12405,86 +12377,86 @@
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>302</v>
       </c>
       <c r="Q1" t="s">
         <v>302</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12494,11 +12466,11 @@
       <c r="Q8">
         <v>7</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12511,11 +12483,11 @@
       <c r="Q9">
         <v>8</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -12528,11 +12500,11 @@
       <c r="Q10">
         <v>10</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -12545,11 +12517,11 @@
       <c r="Q11">
         <v>12</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -12562,11 +12534,11 @@
       <c r="Q12">
         <v>14</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -12579,11 +12551,11 @@
       <c r="Q13">
         <v>15</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -12596,11 +12568,11 @@
       <c r="Q14">
         <v>16</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -12613,15 +12585,15 @@
       <c r="Q15">
         <v>18</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="E16">
         <v>22</v>
       </c>
@@ -12631,15 +12603,15 @@
       <c r="Q16">
         <v>19</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>314</v>
       </c>
       <c r="E17">
@@ -12651,11 +12623,11 @@
       <c r="Q17">
         <v>21</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -12668,11 +12640,11 @@
       <c r="Q18">
         <v>23</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="27">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -12685,11 +12657,11 @@
       <c r="Q19">
         <v>24</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -12702,11 +12674,11 @@
       <c r="Q20">
         <v>25</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="27">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -12719,11 +12691,11 @@
       <c r="Q21">
         <v>26</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="27">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -12736,11 +12708,11 @@
       <c r="Q22">
         <v>27</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="27">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12753,11 +12725,11 @@
       <c r="Q23">
         <v>29</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="27">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -12770,11 +12742,11 @@
       <c r="Q24">
         <v>30</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="27">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -12787,11 +12759,11 @@
       <c r="Q25">
         <v>31</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="27">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -12804,11 +12776,11 @@
       <c r="Q26">
         <v>32</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="27">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -12821,11 +12793,11 @@
       <c r="Q27">
         <v>33</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="27">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -12838,11 +12810,11 @@
       <c r="Q28">
         <v>35</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="27">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -12855,22 +12827,22 @@
       <c r="Q29">
         <v>38</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="27">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
       <c r="Q30">
         <v>40</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="27">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -12880,44 +12852,44 @@
       <c r="Q31">
         <v>41</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="27">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
       <c r="Q32">
         <v>42</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="27">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43</v>
       </c>
       <c r="Q33">
         <v>43</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>101</v>
       </c>
       <c r="Q34">
         <v>101</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="27">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>102</v>
       </c>
@@ -12925,7 +12897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>103</v>
       </c>
@@ -12933,7 +12905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>104</v>
       </c>
@@ -12941,7 +12913,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>105</v>
       </c>
@@ -12949,7 +12921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>106</v>
       </c>
@@ -12957,7 +12929,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>107</v>
       </c>
@@ -12965,7 +12937,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>108</v>
       </c>
@@ -12973,7 +12945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>109</v>
       </c>
@@ -12981,7 +12953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>110</v>
       </c>
@@ -12989,7 +12961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>111</v>
       </c>
@@ -12997,7 +12969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>112</v>
       </c>
@@ -13005,7 +12977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>113</v>
       </c>
@@ -13013,7 +12985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -2423,7 +2423,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
@@ -2452,43 +2452,43 @@
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2520,7 +2520,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="31">
-        <v>2.5040770000000001</v>
+        <v>2.5</v>
       </c>
       <c r="K10" s="28">
         <v>2</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="J11" s="31">
-        <v>7.1985114999999995</v>
+        <v>7.2</v>
       </c>
       <c r="K11" s="28">
         <v>4</v>
@@ -2697,8 +2697,9 @@
       <c r="V11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI11" s="28"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2720,7 +2721,7 @@
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="31">
-        <v>2.7484425000000003</v>
+        <v>2.75</v>
       </c>
       <c r="K12" s="28">
         <v>4</v>
@@ -2755,8 +2756,9 @@
       <c r="Y12" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI12" s="28"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="31">
-        <v>1.2529369999999997</v>
+        <v>1.25</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -2810,8 +2812,9 @@
       <c r="V13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI13" s="28"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2833,7 +2836,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="31">
-        <v>0.28132499999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2865,8 +2868,9 @@
       <c r="V14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI14" s="28"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="31">
-        <v>1.0511140000000001</v>
+        <v>1.05</v>
       </c>
       <c r="K15" s="4">
         <v>5</v>
@@ -2921,8 +2925,9 @@
       <c r="V15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI15" s="28"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2944,7 +2949,7 @@
       </c>
       <c r="H16" s="4"/>
       <c r="J16" s="31">
-        <v>1.7461354999999998</v>
+        <v>1.75</v>
       </c>
       <c r="K16" s="12">
         <v>8</v>
@@ -2976,8 +2981,9 @@
       <c r="V16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI16" s="28"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2999,7 +3005,7 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="31">
-        <v>2.0251964999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K17" s="12">
         <v>5</v>
@@ -3031,8 +3037,9 @@
       <c r="V17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI17" s="28"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>73</v>
       </c>
       <c r="J18" s="31">
-        <v>9.9100000000000004E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -3088,8 +3095,9 @@
       <c r="AC18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI18" s="28"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3112,7 +3120,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="31">
-        <v>4.1771409999999998</v>
+        <v>4.18</v>
       </c>
       <c r="K19" s="4">
         <v>6</v>
@@ -3150,8 +3158,9 @@
       <c r="AD19" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI19" s="28"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="31">
-        <v>1.0767329999999999</v>
+        <v>1.08</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
@@ -3212,8 +3221,9 @@
       <c r="AD20" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI20" s="28"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>115</v>
       </c>
       <c r="J21" s="31">
-        <v>1.3563859999999999</v>
+        <v>1.36</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>
@@ -3274,8 +3284,9 @@
       <c r="AD21" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI21" s="28"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3321,8 +3332,9 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI22" s="28"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3340,7 +3352,7 @@
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="31">
-        <v>5.5674774999999999</v>
+        <v>5.57</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -3372,8 +3384,9 @@
       <c r="V23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI23" s="28"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3394,7 +3407,7 @@
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="31">
-        <v>2.7244279999999996</v>
+        <v>2.72</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -3426,8 +3439,9 @@
       <c r="V24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI24" s="28"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3449,7 +3463,7 @@
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="31">
-        <v>3.3249329999999997</v>
+        <v>3.32</v>
       </c>
       <c r="K25" s="4">
         <v>2</v>
@@ -3481,8 +3495,9 @@
       <c r="V25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI25" s="28"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="31">
-        <v>1.2573460000000001</v>
+        <v>1.26</v>
       </c>
       <c r="K26" s="4">
         <v>2</v>
@@ -3543,8 +3558,9 @@
       <c r="V26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI26" s="28"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3566,7 +3582,7 @@
       </c>
       <c r="H27" s="4"/>
       <c r="J27" s="31">
-        <v>3.9915409999999998</v>
+        <v>3.99</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
@@ -3598,8 +3614,9 @@
       <c r="V27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI27" s="28"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3621,7 +3638,7 @@
       </c>
       <c r="H28" s="4"/>
       <c r="J28" s="31">
-        <v>1.9001210000000002</v>
+        <v>1.9</v>
       </c>
       <c r="K28" s="4">
         <v>3</v>
@@ -3653,8 +3670,9 @@
       <c r="V28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI28" s="28"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="31">
-        <v>0.43381999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="K29" s="4">
         <v>4</v>
@@ -3709,8 +3727,9 @@
       <c r="V29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI29" s="28"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>115</v>
       </c>
       <c r="J30" s="31">
-        <v>0.194163</v>
+        <v>0.19</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
@@ -3765,8 +3784,9 @@
       <c r="V30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI30" s="28"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3788,7 +3808,7 @@
       </c>
       <c r="H31" s="4"/>
       <c r="J31" s="31">
-        <v>0.64731099999999997</v>
+        <v>0.65</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
@@ -3820,8 +3840,9 @@
       <c r="V31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AI31" s="28"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3844,7 +3865,7 @@
         <v>115</v>
       </c>
       <c r="J32" s="31">
-        <v>2.2996899999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K32" s="4">
         <v>6</v>
@@ -3879,8 +3900,9 @@
       <c r="V32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI32" s="28"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3900,7 +3922,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="31">
-        <v>0.42677799999999999</v>
+        <v>0.43</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
@@ -3932,8 +3954,9 @@
       <c r="V33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI33" s="28"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3955,7 +3978,7 @@
       </c>
       <c r="H34" s="4"/>
       <c r="J34" s="31">
-        <v>1.2772359999999998</v>
+        <v>1.28</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
@@ -3987,8 +4010,9 @@
       <c r="V34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI34" s="28"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="31">
-        <v>1.434102</v>
+        <v>1.43</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
@@ -4044,8 +4068,9 @@
       <c r="V35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI35" s="28"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4067,7 +4092,7 @@
       </c>
       <c r="H36" s="4"/>
       <c r="J36" s="31">
-        <v>2.1870430000000001</v>
+        <v>2.19</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
@@ -4099,8 +4124,9 @@
       <c r="V36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI36" s="28"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4123,7 +4149,7 @@
         <v>40</v>
       </c>
       <c r="J37" s="31">
-        <v>1.0030085000000002</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
@@ -4155,8 +4181,9 @@
       <c r="V37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI37" s="28"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4178,7 +4205,7 @@
       </c>
       <c r="H38" s="4"/>
       <c r="J38" s="31">
-        <v>2.361138</v>
+        <v>2.36</v>
       </c>
       <c r="K38" s="4">
         <v>4</v>
@@ -4210,8 +4237,9 @@
       <c r="V38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI38" s="28"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4237,7 +4265,7 @@
         <v>73</v>
       </c>
       <c r="J39" s="31">
-        <v>0.35058</v>
+        <v>0.35</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
@@ -4269,8 +4297,9 @@
       <c r="V39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI39" s="28"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4291,7 +4320,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="J40" s="31">
-        <v>0.353379</v>
+        <v>0.35</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
@@ -4323,8 +4352,9 @@
       <c r="V40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI40" s="28"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4350,7 +4380,7 @@
         <v>73</v>
       </c>
       <c r="J41" s="31">
-        <v>2.4777050000000003</v>
+        <v>2.48</v>
       </c>
       <c r="K41" s="4">
         <v>0</v>
@@ -4385,8 +4415,9 @@
       <c r="V41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI41" s="28"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4409,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="J42" s="31">
-        <v>0.53654900000000005</v>
+        <v>0.54</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
@@ -4441,8 +4472,9 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI42" s="28"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4465,7 +4497,7 @@
         <v>40</v>
       </c>
       <c r="J43" s="31">
-        <v>0.466557</v>
+        <v>0.47</v>
       </c>
       <c r="K43" s="4">
         <v>2</v>
@@ -4497,8 +4529,9 @@
       <c r="V43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI43" s="28"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4513,7 +4546,7 @@
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="31">
-        <v>0.50720299999999996</v>
+        <v>0.51</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>349</v>
@@ -4545,8 +4578,9 @@
       <c r="V44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI44" s="28"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4568,7 +4602,7 @@
       </c>
       <c r="H45" s="4"/>
       <c r="J45" s="31">
-        <v>1.4611879999999999</v>
+        <v>1.46</v>
       </c>
       <c r="K45" s="4">
         <v>2</v>
@@ -4600,8 +4634,9 @@
       <c r="V45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI45" s="28"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4624,7 +4659,7 @@
         <v>115</v>
       </c>
       <c r="J46" s="31">
-        <v>0.88918099999999989</v>
+        <v>0.89</v>
       </c>
       <c r="K46" s="4">
         <v>5</v>
@@ -4659,8 +4694,9 @@
       <c r="V46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI46" s="28"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4678,7 +4714,7 @@
       </c>
       <c r="H47" s="4"/>
       <c r="J47" s="31">
-        <v>1.2545204999999999</v>
+        <v>1.25</v>
       </c>
       <c r="K47" s="4">
         <v>2</v>
@@ -4710,8 +4746,9 @@
       <c r="V47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI47" s="28"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4734,7 +4771,7 @@
         <v>115</v>
       </c>
       <c r="J48" s="31">
-        <v>0.289636</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K48" s="4">
         <v>4</v>
@@ -4769,8 +4806,9 @@
       <c r="V48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI48" s="28"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -4787,7 +4825,7 @@
         <v>238</v>
       </c>
       <c r="J49" s="31">
-        <v>19.813119</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="K49" s="8">
         <v>0</v>
@@ -4819,8 +4857,9 @@
       <c r="V49" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI49" s="28"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -4838,7 +4877,7 @@
       </c>
       <c r="H50" s="4"/>
       <c r="J50" s="31">
-        <v>3.8825969999999996</v>
+        <v>3.88</v>
       </c>
       <c r="K50" s="8">
         <v>0</v>
@@ -4870,8 +4909,9 @@
       <c r="V50" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI50" s="28"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -4883,7 +4923,7 @@
       </c>
       <c r="H51" s="4"/>
       <c r="J51" s="31">
-        <v>2.6757</v>
+        <v>2.68</v>
       </c>
       <c r="K51" s="8">
         <v>0</v>
@@ -4915,8 +4955,9 @@
       <c r="V51" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI51" s="28"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -4928,7 +4969,7 @@
       </c>
       <c r="H52" s="4"/>
       <c r="J52" s="31">
-        <v>5.3646930000000008</v>
+        <v>5.36</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -4960,8 +5001,9 @@
       <c r="V52" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI52" s="28"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -4979,7 +5021,7 @@
       </c>
       <c r="H53" s="4"/>
       <c r="J53" s="31">
-        <v>2.953376</v>
+        <v>2.95</v>
       </c>
       <c r="K53" s="4">
         <v>1</v>
@@ -5014,8 +5056,9 @@
       <c r="V53" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI53" s="28"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -5065,8 +5108,9 @@
       <c r="V54" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI54" s="28"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -5084,7 +5128,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="J55" s="31">
-        <v>7.6104390000000013</v>
+        <v>7.61</v>
       </c>
       <c r="K55" s="4">
         <v>1</v>
@@ -5116,8 +5160,9 @@
       <c r="V55" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI55" s="28"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -5135,7 +5180,7 @@
       </c>
       <c r="H56" s="4"/>
       <c r="J56" s="31">
-        <v>2.9312590000000003</v>
+        <v>2.93</v>
       </c>
       <c r="K56" s="4">
         <v>1</v>
@@ -5167,8 +5212,9 @@
       <c r="V56" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI56" s="28"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -5186,7 +5232,7 @@
       </c>
       <c r="H57" s="4"/>
       <c r="J57" s="31">
-        <v>0.78104649999999998</v>
+        <v>0.78</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
@@ -5218,8 +5264,9 @@
       <c r="V57" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI57" s="28"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>102</v>
       </c>
@@ -5231,7 +5278,7 @@
       </c>
       <c r="H58" s="4"/>
       <c r="J58" s="31">
-        <v>0.22734399999999999</v>
+        <v>0.23</v>
       </c>
       <c r="K58" s="4">
         <v>1</v>
@@ -5263,8 +5310,9 @@
       <c r="V58" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI58" s="28"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>103</v>
       </c>
@@ -5276,7 +5324,7 @@
       </c>
       <c r="H59" s="4"/>
       <c r="J59" s="31">
-        <v>0.41011600000000004</v>
+        <v>0.41</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5308,8 +5356,9 @@
       <c r="V59" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI59" s="28"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>104</v>
       </c>
@@ -5359,8 +5408,9 @@
       <c r="V60" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI60" s="28"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>105</v>
       </c>
@@ -5378,7 +5428,7 @@
       </c>
       <c r="H61" s="4"/>
       <c r="J61" s="31">
-        <v>6.279827</v>
+        <v>6.28</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5410,8 +5460,9 @@
       <c r="V61" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI61" s="28"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>106</v>
       </c>
@@ -5423,7 +5474,7 @@
       </c>
       <c r="H62" s="4"/>
       <c r="J62" s="31">
-        <v>5.0626499999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5455,8 +5506,9 @@
       <c r="V62" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI62" s="28"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>107</v>
       </c>
@@ -5474,7 +5526,7 @@
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="31">
-        <v>0.48705300000000001</v>
+        <v>0.49</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -5506,8 +5558,9 @@
       <c r="V63" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI63" s="28"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>108</v>
       </c>
@@ -5524,7 +5577,7 @@
         <v>290</v>
       </c>
       <c r="J64" s="31">
-        <v>3.2425380000000006</v>
+        <v>3.24</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -5556,8 +5609,9 @@
       <c r="V64" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI64" s="28"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>109</v>
       </c>
@@ -5568,7 +5622,7 @@
         <v>330</v>
       </c>
       <c r="J65" s="31">
-        <v>3.8108604999999995</v>
+        <v>3.81</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -5600,8 +5654,9 @@
       <c r="V65" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI65" s="28"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>110</v>
       </c>
@@ -5618,7 +5673,7 @@
         <v>290</v>
       </c>
       <c r="J66" s="31">
-        <v>0.68827700000000003</v>
+        <v>0.69</v>
       </c>
       <c r="K66" s="5">
         <v>3</v>
@@ -5650,8 +5705,9 @@
       <c r="V66" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI66" s="28"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>111</v>
       </c>
@@ -5668,7 +5724,7 @@
         <v>290</v>
       </c>
       <c r="J67" s="31">
-        <v>16.185812000000002</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5700,8 +5756,9 @@
       <c r="V67" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI67" s="28"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>112</v>
       </c>
@@ -5718,7 +5775,7 @@
         <v>290</v>
       </c>
       <c r="J68" s="31">
-        <v>3.2503919999999997</v>
+        <v>3.25</v>
       </c>
       <c r="K68" s="5">
         <v>0</v>
@@ -5751,8 +5808,9 @@
       <c r="V68" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI68" s="28"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>113</v>
       </c>
@@ -5772,7 +5830,7 @@
       </c>
       <c r="H69" s="4"/>
       <c r="J69" s="31">
-        <v>4.8497159999999999</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
@@ -5805,8 +5863,9 @@
       <c r="V69" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI69" s="28"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>115</v>
       </c>
@@ -5827,7 +5886,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="31">
-        <v>0.29454999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
@@ -5860,8 +5919,9 @@
       <c r="V70" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI70" s="28"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>116</v>
       </c>
@@ -5875,7 +5935,7 @@
       </c>
       <c r="H71" s="4"/>
       <c r="J71" s="31">
-        <v>0.22639400000000001</v>
+        <v>0.23</v>
       </c>
       <c r="K71" s="8">
         <v>0</v>
@@ -5908,8 +5968,9 @@
       <c r="V71" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI71" s="28"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>117</v>
       </c>
@@ -5923,7 +5984,7 @@
       </c>
       <c r="H72" s="4"/>
       <c r="J72" s="31">
-        <v>0.42425299999999999</v>
+        <v>0.42</v>
       </c>
       <c r="K72" s="8">
         <v>0</v>
@@ -5956,8 +6017,9 @@
       <c r="V72" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI72" s="28"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>118</v>
       </c>
@@ -5972,7 +6034,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="31">
-        <v>4.4136069999999998</v>
+        <v>4.41</v>
       </c>
       <c r="K73" s="8">
         <v>0</v>
@@ -6005,8 +6067,9 @@
       <c r="V73" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI73" s="28"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>119</v>
       </c>
@@ -6027,7 +6090,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="31">
-        <v>2.5748820000000001</v>
+        <v>2.57</v>
       </c>
       <c r="K74" s="8">
         <v>4</v>
@@ -6060,8 +6123,9 @@
       <c r="V74" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI74" s="28"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>120</v>
       </c>
@@ -6082,7 +6146,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="31">
-        <v>0.367091</v>
+        <v>0.37</v>
       </c>
       <c r="K75" s="8">
         <v>5</v>
@@ -6115,8 +6179,9 @@
       <c r="V75" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AI75" s="28"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6130,7 +6195,7 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6144,7 +6209,7 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6158,7 +6223,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6170,7 +6235,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
+    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Non-Modeled Projects" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="mosj_projects" sheetId="7" r:id="rId5"/>
+    <sheet name="CMP_Rep_Link" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="mosj_projects" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CMP_Rep_Link!$A$1:$X$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$W$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="357">
   <si>
     <t>Cost</t>
   </si>
@@ -1077,6 +1079,27 @@
   </si>
   <si>
     <t>varies</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Rep LinkID</t>
+  </si>
+  <si>
+    <t>4109;9189</t>
+  </si>
+  <si>
+    <t>3799;3800</t>
+  </si>
+  <si>
+    <t>4035;8798;8832;8731;8830;8792;4037;8726;10408;3865;9338;8801;8926;8837;8836;3860;3875;4025;9156;3870;10411;10412;10396;10392;10410;10409;10383;10430</t>
+  </si>
+  <si>
+    <t>8951;10554;10556;3158</t>
+  </si>
+  <si>
+    <t>10780;4622;10779;2227</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,6 +1456,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1608,7 +1637,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1661,6 +1690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1807,8 +1837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2178326" y="0"/>
-          <a:ext cx="10042810" cy="1366683"/>
+          <a:off x="2253343" y="0"/>
+          <a:ext cx="10288922" cy="1328583"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1936,13 +1966,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>343458</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85843</xdr:rowOff>
@@ -2003,8 +2033,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1181100" y="0"/>
-          <a:ext cx="10049436" cy="1366683"/>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="10293276" cy="1313343"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2423,72 +2453,73 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI97"/>
+  <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="28" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2519,8 +2550,9 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -2576,19 +2608,22 @@
         <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2630,7 +2665,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="28">
         <v>1</v>
       </c>
       <c r="T10">
@@ -2642,8 +2677,11 @@
       <c r="V10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2685,8 +2723,8 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
+      <c r="S11" s="28">
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2695,11 +2733,14 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="28"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="28"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2741,8 +2782,8 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
+      <c r="S12" s="28">
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2751,14 +2792,17 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
         <v>277</v>
       </c>
-      <c r="AI12" s="28"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="28"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2800,11 +2844,11 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
+      <c r="S13" s="28">
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2812,9 +2856,12 @@
       <c r="V13">
         <v>1</v>
       </c>
-      <c r="AI13" s="28"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="28"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2856,8 +2903,8 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14">
-        <v>0</v>
+      <c r="S14" s="28">
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2866,11 +2913,14 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="28"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="28"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2913,8 +2963,8 @@
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>1</v>
+      <c r="S15" s="28">
+        <v>0</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -2925,9 +2975,12 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="AI15" s="28"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="28"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2969,21 +3022,24 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16">
-        <v>0</v>
+      <c r="S16" s="28">
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="28"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="28"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3025,7 +3081,7 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="28">
         <v>1</v>
       </c>
       <c r="T17">
@@ -3037,9 +3093,12 @@
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="AI17" s="28"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="28"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3080,8 +3139,8 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18">
-        <v>1</v>
+      <c r="S18" s="28">
+        <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -3092,12 +3151,15 @@
       <c r="V18">
         <v>1</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
         <v>278</v>
       </c>
-      <c r="AI18" s="28"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="28"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3140,8 +3202,8 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <v>1</v>
+      <c r="S19" s="28">
+        <v>0</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -3152,15 +3214,18 @@
       <c r="V19">
         <v>1</v>
       </c>
-      <c r="AC19">
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
         <v>2012</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>279</v>
       </c>
-      <c r="AI19" s="28"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="28"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3203,8 +3268,8 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20">
-        <v>1</v>
+      <c r="S20" s="28">
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -3215,15 +3280,18 @@
       <c r="V20">
         <v>1</v>
       </c>
-      <c r="AC20">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
         <v>2020</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>280</v>
       </c>
-      <c r="AI20" s="28"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="28"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3266,8 +3334,8 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21">
-        <v>1</v>
+      <c r="S21" s="28">
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -3278,15 +3346,18 @@
       <c r="V21">
         <v>1</v>
       </c>
-      <c r="AC21">
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>2030</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>281</v>
       </c>
-      <c r="AI21" s="28"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="28"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3320,7 +3391,7 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="28">
         <v>0</v>
       </c>
       <c r="T22">
@@ -3332,9 +3403,12 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="AI22" s="28"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="28"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3372,21 +3446,24 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23">
-        <v>0</v>
+      <c r="S23" s="28">
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="28"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="28"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3427,21 +3504,24 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24">
-        <v>0</v>
+      <c r="S24" s="28">
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="28"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="28"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3483,7 +3563,7 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="28">
         <v>1</v>
       </c>
       <c r="T25">
@@ -3495,9 +3575,12 @@
       <c r="V25">
         <v>1</v>
       </c>
-      <c r="AI25" s="28"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="28"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3546,21 +3629,24 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26">
-        <v>0</v>
+      <c r="S26" s="28">
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="28"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="28"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3602,8 +3688,8 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27">
-        <v>0</v>
+      <c r="S27" s="28">
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3612,11 +3698,14 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="28"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="28"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3658,7 +3747,7 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="28">
         <v>1</v>
       </c>
       <c r="T28">
@@ -3670,9 +3759,12 @@
       <c r="V28">
         <v>1</v>
       </c>
-      <c r="AI28" s="28"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="28"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3715,8 +3807,8 @@
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29">
-        <v>1</v>
+      <c r="S29" s="28">
+        <v>0</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3727,9 +3819,12 @@
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="AI29" s="28"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="28"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3772,8 +3867,8 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30">
-        <v>1</v>
+      <c r="S30" s="28">
+        <v>0</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3784,9 +3879,12 @@
       <c r="V30">
         <v>1</v>
       </c>
-      <c r="AI30" s="28"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="28"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3828,8 +3926,8 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31">
-        <v>0</v>
+      <c r="S31" s="28">
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3838,11 +3936,14 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="28"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="28"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3888,8 +3989,8 @@
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32">
-        <v>1</v>
+      <c r="S32" s="28">
+        <v>0</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -3900,9 +4001,12 @@
       <c r="V32">
         <v>1</v>
       </c>
-      <c r="AI32" s="28"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="28"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -3942,8 +4046,8 @@
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33">
-        <v>1</v>
+      <c r="S33" s="28">
+        <v>0</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3954,9 +4058,12 @@
       <c r="V33">
         <v>1</v>
       </c>
-      <c r="AI33" s="28"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="28"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -3998,21 +4105,24 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34">
-        <v>0</v>
+      <c r="S34" s="28">
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="28"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="28"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4056,8 +4166,8 @@
       <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35">
-        <v>1</v>
+      <c r="S35" s="28">
+        <v>0</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -4068,9 +4178,12 @@
       <c r="V35">
         <v>1</v>
       </c>
-      <c r="AI35" s="28"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="28"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4112,21 +4225,24 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36">
-        <v>0</v>
+      <c r="S36" s="28">
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="28"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="28"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4169,8 +4285,8 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37">
-        <v>1</v>
+      <c r="S37" s="28">
+        <v>0</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -4181,9 +4297,12 @@
       <c r="V37">
         <v>1</v>
       </c>
-      <c r="AI37" s="28"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="28"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4225,21 +4344,24 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38">
-        <v>0</v>
+      <c r="S38" s="28">
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="28"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="28"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4285,7 +4407,7 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="28">
         <v>1</v>
       </c>
       <c r="T39">
@@ -4297,9 +4419,12 @@
       <c r="V39">
         <v>1</v>
       </c>
-      <c r="AI39" s="28"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="28"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4340,21 +4465,24 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40">
-        <v>0</v>
+      <c r="S40" s="28">
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="28"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="28"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4403,7 +4531,7 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="28">
         <v>1</v>
       </c>
       <c r="T41">
@@ -4415,9 +4543,12 @@
       <c r="V41">
         <v>1</v>
       </c>
-      <c r="AI41" s="28"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="28"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4460,8 +4591,8 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42">
-        <v>0</v>
+      <c r="S42" s="28">
+        <v>1</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4472,9 +4603,12 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="AI42" s="28"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="28"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4517,8 +4651,8 @@
       <c r="R43">
         <v>1</v>
       </c>
-      <c r="S43">
-        <v>1</v>
+      <c r="S43" s="28">
+        <v>0</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -4529,9 +4663,12 @@
       <c r="V43">
         <v>1</v>
       </c>
-      <c r="AI43" s="28"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="28"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4566,8 +4703,8 @@
       <c r="R44">
         <v>1</v>
       </c>
-      <c r="S44">
-        <v>1</v>
+      <c r="S44" s="28">
+        <v>0</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -4578,9 +4715,12 @@
       <c r="V44">
         <v>1</v>
       </c>
-      <c r="AI44" s="28"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="28"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4622,7 +4762,7 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="28">
         <v>1</v>
       </c>
       <c r="T45">
@@ -4634,9 +4774,12 @@
       <c r="V45">
         <v>1</v>
       </c>
-      <c r="AI45" s="28"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="28"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4682,8 +4825,8 @@
       <c r="R46">
         <v>1</v>
       </c>
-      <c r="S46">
-        <v>1</v>
+      <c r="S46" s="28">
+        <v>0</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -4694,9 +4837,12 @@
       <c r="V46">
         <v>1</v>
       </c>
-      <c r="AI46" s="28"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="28"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4734,21 +4880,24 @@
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="28">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="28"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="28"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4794,8 +4943,8 @@
       <c r="R48">
         <v>1</v>
       </c>
-      <c r="S48">
-        <v>1</v>
+      <c r="S48" s="28">
+        <v>0</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -4806,9 +4955,12 @@
       <c r="V48">
         <v>1</v>
       </c>
-      <c r="AI48" s="28"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="28"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -4845,8 +4997,8 @@
       <c r="R49" s="8">
         <v>1</v>
       </c>
-      <c r="S49" s="8">
-        <v>1</v>
+      <c r="S49" s="28">
+        <v>0</v>
       </c>
       <c r="T49" s="8">
         <v>1</v>
@@ -4857,9 +5009,12 @@
       <c r="V49" s="8">
         <v>1</v>
       </c>
-      <c r="AI49" s="28"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W49" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="28"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -4897,8 +5052,8 @@
       <c r="R50" s="8">
         <v>1</v>
       </c>
-      <c r="S50" s="8">
-        <v>1</v>
+      <c r="S50" s="28">
+        <v>0</v>
       </c>
       <c r="T50" s="8">
         <v>1</v>
@@ -4909,9 +5064,12 @@
       <c r="V50" s="8">
         <v>1</v>
       </c>
-      <c r="AI50" s="28"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W50" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="28"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -4943,8 +5101,8 @@
       <c r="R51" s="8">
         <v>1</v>
       </c>
-      <c r="S51" s="8">
-        <v>1</v>
+      <c r="S51" s="28">
+        <v>0</v>
       </c>
       <c r="T51" s="8">
         <v>1</v>
@@ -4955,9 +5113,12 @@
       <c r="V51" s="8">
         <v>1</v>
       </c>
-      <c r="AI51" s="28"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="28"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -4989,8 +5150,8 @@
       <c r="R52" s="8">
         <v>1</v>
       </c>
-      <c r="S52" s="8">
-        <v>1</v>
+      <c r="S52" s="28">
+        <v>0</v>
       </c>
       <c r="T52" s="8">
         <v>1</v>
@@ -5001,9 +5162,12 @@
       <c r="V52" s="8">
         <v>1</v>
       </c>
-      <c r="AI52" s="28"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W52" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="28"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -5044,8 +5208,8 @@
       <c r="R53" s="8">
         <v>1</v>
       </c>
-      <c r="S53" s="8">
-        <v>1</v>
+      <c r="S53" s="28">
+        <v>0</v>
       </c>
       <c r="T53" s="8">
         <v>1</v>
@@ -5056,9 +5220,12 @@
       <c r="V53" s="8">
         <v>1</v>
       </c>
-      <c r="AI53" s="28"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="28"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -5096,8 +5263,8 @@
       <c r="R54" s="8">
         <v>1</v>
       </c>
-      <c r="S54" s="8">
-        <v>1</v>
+      <c r="S54" s="28">
+        <v>0</v>
       </c>
       <c r="T54" s="8">
         <v>1</v>
@@ -5108,9 +5275,12 @@
       <c r="V54" s="8">
         <v>1</v>
       </c>
-      <c r="AI54" s="28"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="28"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -5148,8 +5318,8 @@
       <c r="R55" s="8">
         <v>1</v>
       </c>
-      <c r="S55" s="8">
-        <v>1</v>
+      <c r="S55" s="28">
+        <v>0</v>
       </c>
       <c r="T55" s="8">
         <v>1</v>
@@ -5160,9 +5330,12 @@
       <c r="V55" s="8">
         <v>1</v>
       </c>
-      <c r="AI55" s="28"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W55" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="28"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -5200,8 +5373,8 @@
       <c r="R56" s="8">
         <v>1</v>
       </c>
-      <c r="S56" s="8">
-        <v>1</v>
+      <c r="S56" s="28">
+        <v>0</v>
       </c>
       <c r="T56" s="8">
         <v>1</v>
@@ -5212,9 +5385,12 @@
       <c r="V56" s="8">
         <v>1</v>
       </c>
-      <c r="AI56" s="28"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="28"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -5252,8 +5428,8 @@
       <c r="R57" s="8">
         <v>1</v>
       </c>
-      <c r="S57" s="8">
-        <v>1</v>
+      <c r="S57" s="28">
+        <v>0</v>
       </c>
       <c r="T57" s="8">
         <v>1</v>
@@ -5264,9 +5440,12 @@
       <c r="V57" s="8">
         <v>1</v>
       </c>
-      <c r="AI57" s="28"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="28"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="28">
         <v>102</v>
       </c>
@@ -5298,8 +5477,8 @@
       <c r="R58" s="8">
         <v>0</v>
       </c>
-      <c r="S58" s="8">
-        <v>0</v>
+      <c r="S58" s="28">
+        <v>1</v>
       </c>
       <c r="T58" s="8">
         <v>0</v>
@@ -5310,9 +5489,12 @@
       <c r="V58" s="8">
         <v>0</v>
       </c>
-      <c r="AI58" s="28"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="28"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" s="28">
         <v>103</v>
       </c>
@@ -5344,7 +5526,7 @@
       <c r="R59" s="8">
         <v>0</v>
       </c>
-      <c r="S59" s="8">
+      <c r="S59" s="28">
         <v>0</v>
       </c>
       <c r="T59" s="8">
@@ -5356,9 +5538,12 @@
       <c r="V59" s="8">
         <v>0</v>
       </c>
-      <c r="AI59" s="28"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="28"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="28">
         <v>104</v>
       </c>
@@ -5396,8 +5581,8 @@
       <c r="R60" s="8">
         <v>0</v>
       </c>
-      <c r="S60" s="8">
-        <v>0</v>
+      <c r="S60" s="28">
+        <v>1</v>
       </c>
       <c r="T60" s="8">
         <v>0</v>
@@ -5408,9 +5593,12 @@
       <c r="V60" s="8">
         <v>0</v>
       </c>
-      <c r="AI60" s="28"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="28"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="28">
         <v>105</v>
       </c>
@@ -5448,8 +5636,8 @@
       <c r="R61" s="8">
         <v>0</v>
       </c>
-      <c r="S61" s="8">
-        <v>0</v>
+      <c r="S61" s="28">
+        <v>1</v>
       </c>
       <c r="T61" s="8">
         <v>0</v>
@@ -5460,9 +5648,12 @@
       <c r="V61" s="8">
         <v>0</v>
       </c>
-      <c r="AI61" s="28"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="28"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" s="28">
         <v>106</v>
       </c>
@@ -5494,8 +5685,8 @@
       <c r="R62" s="8">
         <v>0</v>
       </c>
-      <c r="S62" s="8">
-        <v>0</v>
+      <c r="S62" s="28">
+        <v>1</v>
       </c>
       <c r="T62" s="8">
         <v>0</v>
@@ -5506,9 +5697,12 @@
       <c r="V62" s="8">
         <v>0</v>
       </c>
-      <c r="AI62" s="28"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="28"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="28">
         <v>107</v>
       </c>
@@ -5546,8 +5740,8 @@
       <c r="R63" s="8">
         <v>0</v>
       </c>
-      <c r="S63" s="8">
-        <v>0</v>
+      <c r="S63" s="28">
+        <v>1</v>
       </c>
       <c r="T63" s="8">
         <v>0</v>
@@ -5558,9 +5752,12 @@
       <c r="V63" s="8">
         <v>0</v>
       </c>
-      <c r="AI63" s="28"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W63" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="28"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>108</v>
       </c>
@@ -5597,8 +5794,8 @@
       <c r="R64" s="8">
         <v>0</v>
       </c>
-      <c r="S64" s="8">
-        <v>0</v>
+      <c r="S64" s="28">
+        <v>1</v>
       </c>
       <c r="T64" s="8">
         <v>0</v>
@@ -5609,9 +5806,12 @@
       <c r="V64" s="8">
         <v>0</v>
       </c>
-      <c r="AI64" s="28"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="28"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="28">
         <v>109</v>
       </c>
@@ -5642,8 +5842,8 @@
       <c r="R65" s="8">
         <v>0</v>
       </c>
-      <c r="S65" s="8">
-        <v>0</v>
+      <c r="S65" s="28">
+        <v>1</v>
       </c>
       <c r="T65" s="8">
         <v>0</v>
@@ -5654,9 +5854,12 @@
       <c r="V65" s="8">
         <v>0</v>
       </c>
-      <c r="AI65" s="28"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="28"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="28">
         <v>110</v>
       </c>
@@ -5693,8 +5896,8 @@
       <c r="R66" s="8">
         <v>0</v>
       </c>
-      <c r="S66" s="8">
-        <v>0</v>
+      <c r="S66" s="28">
+        <v>1</v>
       </c>
       <c r="T66" s="8">
         <v>0</v>
@@ -5705,9 +5908,12 @@
       <c r="V66" s="8">
         <v>0</v>
       </c>
-      <c r="AI66" s="28"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W66" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="28"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="28">
         <v>111</v>
       </c>
@@ -5744,8 +5950,8 @@
       <c r="R67" s="8">
         <v>0</v>
       </c>
-      <c r="S67" s="8">
-        <v>0</v>
+      <c r="S67" s="28">
+        <v>1</v>
       </c>
       <c r="T67" s="8">
         <v>0</v>
@@ -5756,9 +5962,12 @@
       <c r="V67" s="8">
         <v>0</v>
       </c>
-      <c r="AI67" s="28"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="28"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="28">
         <v>112</v>
       </c>
@@ -5796,8 +6005,8 @@
       <c r="R68" s="8">
         <v>0</v>
       </c>
-      <c r="S68" s="8">
-        <v>0</v>
+      <c r="S68" s="28">
+        <v>1</v>
       </c>
       <c r="T68" s="8">
         <v>0</v>
@@ -5808,9 +6017,12 @@
       <c r="V68" s="8">
         <v>0</v>
       </c>
-      <c r="AI68" s="28"/>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W68" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="28"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="28">
         <v>113</v>
       </c>
@@ -5851,8 +6063,8 @@
       <c r="R69" s="8">
         <v>0</v>
       </c>
-      <c r="S69" s="8">
-        <v>0</v>
+      <c r="S69" s="28">
+        <v>1</v>
       </c>
       <c r="T69" s="8">
         <v>0</v>
@@ -5863,9 +6075,12 @@
       <c r="V69" s="8">
         <v>0</v>
       </c>
-      <c r="AI69" s="28"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="28"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="28">
         <v>115</v>
       </c>
@@ -5907,8 +6122,8 @@
       <c r="R70" s="8">
         <v>0</v>
       </c>
-      <c r="S70" s="8">
-        <v>0</v>
+      <c r="S70" s="28">
+        <v>1</v>
       </c>
       <c r="T70" s="8">
         <v>0</v>
@@ -5919,9 +6134,12 @@
       <c r="V70" s="8">
         <v>0</v>
       </c>
-      <c r="AI70" s="28"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="28"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" s="28">
         <v>116</v>
       </c>
@@ -5956,8 +6174,8 @@
       <c r="R71" s="8">
         <v>0</v>
       </c>
-      <c r="S71" s="8">
-        <v>0</v>
+      <c r="S71" s="28">
+        <v>1</v>
       </c>
       <c r="T71" s="8">
         <v>0</v>
@@ -5968,9 +6186,12 @@
       <c r="V71" s="8">
         <v>0</v>
       </c>
-      <c r="AI71" s="28"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="28"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" s="28">
         <v>117</v>
       </c>
@@ -6005,8 +6226,8 @@
       <c r="R72" s="8">
         <v>0</v>
       </c>
-      <c r="S72" s="8">
-        <v>0</v>
+      <c r="S72" s="28">
+        <v>1</v>
       </c>
       <c r="T72" s="8">
         <v>0</v>
@@ -6017,9 +6238,12 @@
       <c r="V72" s="8">
         <v>0</v>
       </c>
-      <c r="AI72" s="28"/>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="28"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="28">
         <v>118</v>
       </c>
@@ -6055,8 +6279,8 @@
       <c r="R73" s="8">
         <v>1</v>
       </c>
-      <c r="S73" s="8">
-        <v>1</v>
+      <c r="S73" s="28">
+        <v>0</v>
       </c>
       <c r="T73" s="8">
         <v>1</v>
@@ -6067,9 +6291,12 @@
       <c r="V73" s="8">
         <v>1</v>
       </c>
-      <c r="AI73" s="28"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W73" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="28"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>119</v>
       </c>
@@ -6111,8 +6338,8 @@
       <c r="R74" s="8">
         <v>1</v>
       </c>
-      <c r="S74" s="8">
-        <v>1</v>
+      <c r="S74" s="28">
+        <v>0</v>
       </c>
       <c r="T74" s="8">
         <v>1</v>
@@ -6123,9 +6350,12 @@
       <c r="V74" s="8">
         <v>1</v>
       </c>
-      <c r="AI74" s="28"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W74" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="28"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>120</v>
       </c>
@@ -6167,8 +6397,8 @@
       <c r="R75" s="8">
         <v>0</v>
       </c>
-      <c r="S75" s="8">
-        <v>0</v>
+      <c r="S75" s="28">
+        <v>1</v>
       </c>
       <c r="T75" s="8">
         <v>0</v>
@@ -6179,9 +6409,12 @@
       <c r="V75" s="8">
         <v>0</v>
       </c>
-      <c r="AI75" s="28"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="28"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6194,8 +6427,9 @@
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V76" s="8"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6208,8 +6442,9 @@
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V77" s="8"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6222,8 +6457,9 @@
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V78" s="8"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6234,8 +6470,9 @@
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V79" s="8"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6246,8 +6483,9 @@
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="8"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6258,8 +6496,9 @@
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="8"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6270,8 +6509,9 @@
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="8"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6282,8 +6522,9 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83" s="8"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6294,8 +6535,9 @@
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84" s="8"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6306,8 +6548,9 @@
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="8"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6319,8 +6562,9 @@
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="8"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6332,8 +6576,9 @@
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="8"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6347,8 +6592,9 @@
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="8"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6361,8 +6607,9 @@
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="8"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6375,34 +6622,31 @@
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="8"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V75">
-    <sortState ref="A10:T48">
-      <sortCondition ref="A9:A30"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A9:W75"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I89:I91"/>
   </dataValidations>
@@ -6423,30 +6667,30 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6471,7 +6715,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6518,7 +6762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -6538,7 +6782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -6561,7 +6805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -6584,7 +6828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6608,7 +6852,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6631,7 +6875,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -6655,7 +6899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -6675,7 +6919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -6695,7 +6939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -6718,7 +6962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -6741,7 +6985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -6757,7 +7001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -6768,7 +7012,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -6779,7 +7023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -6800,7 +7044,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -6819,7 +7063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -6843,7 +7087,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6853,7 +7097,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6863,7 +7107,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>271</v>
       </c>
@@ -6931,7 +7175,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>114</v>
       </c>
@@ -6965,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>101</v>
       </c>
@@ -7005,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7015,7 +7259,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7025,7 +7269,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7035,7 +7279,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7045,7 +7289,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7055,7 +7299,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7065,7 +7309,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7075,7 +7319,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7085,7 +7329,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7095,7 +7339,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7105,7 +7349,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7115,129 +7359,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -7245,119 +7489,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -7366,7 +7610,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -7375,7 +7619,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -7384,7 +7628,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7402,15 +7646,2610 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>205</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="28">
+        <v>2</v>
+      </c>
+      <c r="L2" s="28">
+        <v>8</v>
+      </c>
+      <c r="M2" s="28">
+        <v>5</v>
+      </c>
+      <c r="N2" s="28">
+        <v>5</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="8">
+        <v>10140</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="28">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="28">
+        <v>1</v>
+      </c>
+      <c r="V2" s="28">
+        <v>1</v>
+      </c>
+      <c r="W2" s="28">
+        <v>1</v>
+      </c>
+      <c r="X2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>351</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="31">
+        <v>7.2</v>
+      </c>
+      <c r="K3" s="28">
+        <v>4</v>
+      </c>
+      <c r="L3" s="28">
+        <v>6</v>
+      </c>
+      <c r="M3" s="28">
+        <v>3</v>
+      </c>
+      <c r="N3" s="28">
+        <v>3</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>356</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="31">
+        <v>2.75</v>
+      </c>
+      <c r="K4" s="28">
+        <v>4</v>
+      </c>
+      <c r="L4" s="28">
+        <v>6</v>
+      </c>
+      <c r="M4" s="28">
+        <v>3</v>
+      </c>
+      <c r="N4" s="28">
+        <v>3</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="8">
+        <v>3838</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="28">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="28">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28">
+        <v>0</v>
+      </c>
+      <c r="X4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>251</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4</v>
+      </c>
+      <c r="M5" s="28">
+        <v>4</v>
+      </c>
+      <c r="N5" s="28">
+        <v>4</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="8">
+        <v>10452</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="28">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0</v>
+      </c>
+      <c r="V5" s="28">
+        <v>1</v>
+      </c>
+      <c r="W5" s="28">
+        <v>1</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>353</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="28">
+        <v>7</v>
+      </c>
+      <c r="N6" s="28">
+        <v>4</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="8">
+        <v>10109</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="28">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28">
+        <v>0</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0</v>
+      </c>
+      <c r="X6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>306</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="31">
+        <v>1.75</v>
+      </c>
+      <c r="K7" s="12">
+        <v>8</v>
+      </c>
+      <c r="L7" s="12">
+        <v>10</v>
+      </c>
+      <c r="M7" s="28">
+        <v>1</v>
+      </c>
+      <c r="N7" s="28">
+        <v>1</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>1</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>208</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K8" s="12">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="28">
+        <v>1</v>
+      </c>
+      <c r="N8" s="28">
+        <v>1</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="8">
+        <v>7456</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="28">
+        <v>1</v>
+      </c>
+      <c r="V8" s="28">
+        <v>1</v>
+      </c>
+      <c r="W8" s="28">
+        <v>1</v>
+      </c>
+      <c r="X8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>13</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28">
+        <v>902</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>308</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="31">
+        <v>5.57</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="28">
+        <v>6</v>
+      </c>
+      <c r="N10" s="28">
+        <v>6</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="8">
+        <v>8857</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28">
+        <v>1</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>15</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28">
+        <v>301</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="31">
+        <v>2.72</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="28">
+        <v>7</v>
+      </c>
+      <c r="N11" s="28">
+        <v>7</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="8">
+        <v>10577</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="28">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28">
+        <v>1</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0</v>
+      </c>
+      <c r="X11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>211</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="31">
+        <v>3.32</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="28">
+        <v>3</v>
+      </c>
+      <c r="N12" s="28">
+        <v>3</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="8">
+        <v>4379</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="28">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="28">
+        <v>1</v>
+      </c>
+      <c r="V12" s="28">
+        <v>1</v>
+      </c>
+      <c r="W12" s="28">
+        <v>1</v>
+      </c>
+      <c r="X12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="28">
+        <v>302</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="31">
+        <v>1.26</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4</v>
+      </c>
+      <c r="M13" s="28">
+        <v>3</v>
+      </c>
+      <c r="N13" s="28">
+        <v>3</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="8">
+        <v>4089</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="28">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>1</v>
+      </c>
+      <c r="W13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>354</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="31">
+        <v>3.99</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4</v>
+      </c>
+      <c r="M14" s="28">
+        <v>7</v>
+      </c>
+      <c r="N14" s="28">
+        <v>4</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="8">
+        <v>10126</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>1</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0</v>
+      </c>
+      <c r="X14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>207</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4</v>
+      </c>
+      <c r="M15" s="28">
+        <v>2</v>
+      </c>
+      <c r="N15" s="28">
+        <v>2</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="8">
+        <v>4213</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" s="28">
+        <v>1</v>
+      </c>
+      <c r="V15" s="28">
+        <v>1</v>
+      </c>
+      <c r="W15" s="28">
+        <v>1</v>
+      </c>
+      <c r="X15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>352</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8">
+        <v>4</v>
+      </c>
+      <c r="N16" s="8">
+        <v>4</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="8">
+        <v>10951</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="28">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1</v>
+      </c>
+      <c r="U16" s="28">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28">
+        <v>0</v>
+      </c>
+      <c r="X16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>303</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="31">
+        <v>1.28</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>4</v>
+      </c>
+      <c r="M17" s="28">
+        <v>4</v>
+      </c>
+      <c r="N17" s="28">
+        <v>4</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="8">
+        <v>10416</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="U17" s="28">
+        <v>0</v>
+      </c>
+      <c r="V17" s="28">
+        <v>1</v>
+      </c>
+      <c r="W17" s="28">
+        <v>0</v>
+      </c>
+      <c r="X17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>305</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="31">
+        <v>2.19</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+      <c r="M18" s="28">
+        <v>5</v>
+      </c>
+      <c r="N18" s="28">
+        <v>5</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="8">
+        <v>10952</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="28">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="28">
+        <v>0</v>
+      </c>
+      <c r="V18" s="28">
+        <v>1</v>
+      </c>
+      <c r="W18" s="28">
+        <v>0</v>
+      </c>
+      <c r="X18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>304</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="31">
+        <v>2.36</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>6</v>
+      </c>
+      <c r="M19" s="28">
+        <v>3</v>
+      </c>
+      <c r="N19" s="28">
+        <v>3</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="8">
+        <v>10507</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="28">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1</v>
+      </c>
+      <c r="U19" s="28">
+        <v>0</v>
+      </c>
+      <c r="V19" s="28">
+        <v>1</v>
+      </c>
+      <c r="W19" s="28">
+        <v>0</v>
+      </c>
+      <c r="X19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>30</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="28">
+        <v>206</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="28">
+        <v>3</v>
+      </c>
+      <c r="N20" s="28">
+        <v>3</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="8">
+        <v>10428</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="28">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>1</v>
+      </c>
+      <c r="U20" s="28">
+        <v>1</v>
+      </c>
+      <c r="V20" s="28">
+        <v>1</v>
+      </c>
+      <c r="W20" s="28">
+        <v>1</v>
+      </c>
+      <c r="X20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>31</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28">
+        <v>304</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+      <c r="M21" s="28">
+        <v>3</v>
+      </c>
+      <c r="N21" s="28">
+        <v>3</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="8">
+        <v>11003</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="28">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>1</v>
+      </c>
+      <c r="U21" s="28">
+        <v>0</v>
+      </c>
+      <c r="V21" s="28">
+        <v>1</v>
+      </c>
+      <c r="W21" s="28">
+        <v>0</v>
+      </c>
+      <c r="X21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>32</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="28">
+        <v>210</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="31">
+        <v>2.48</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
+      <c r="M22" s="28">
+        <v>4</v>
+      </c>
+      <c r="N22" s="28">
+        <v>4</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="8">
+        <v>10447</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="28">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1</v>
+      </c>
+      <c r="V22" s="28">
+        <v>1</v>
+      </c>
+      <c r="W22" s="28">
+        <v>1</v>
+      </c>
+      <c r="X22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>33</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28">
+        <v>709</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="31">
+        <v>0.54</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28">
+        <v>5</v>
+      </c>
+      <c r="N23" s="28">
+        <v>5</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="8">
+        <v>8768</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="28">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1</v>
+      </c>
+      <c r="U23" s="28">
+        <v>0</v>
+      </c>
+      <c r="V23" s="28">
+        <v>0</v>
+      </c>
+      <c r="W23" s="28">
+        <v>0</v>
+      </c>
+      <c r="X23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>209</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="31">
+        <v>1.46</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>6</v>
+      </c>
+      <c r="M24" s="28">
+        <v>4</v>
+      </c>
+      <c r="N24" s="28">
+        <v>4</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="8">
+        <v>3508</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="28">
+        <v>0</v>
+      </c>
+      <c r="T24" s="8">
+        <v>1</v>
+      </c>
+      <c r="U24" s="28">
+        <v>1</v>
+      </c>
+      <c r="V24" s="28">
+        <v>1</v>
+      </c>
+      <c r="W24" s="28">
+        <v>1</v>
+      </c>
+      <c r="X24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>307</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3</v>
+      </c>
+      <c r="M25" s="28">
+        <v>8</v>
+      </c>
+      <c r="N25" s="28">
+        <v>8</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="28">
+        <v>0</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="28">
+        <v>0</v>
+      </c>
+      <c r="V25" s="28">
+        <v>1</v>
+      </c>
+      <c r="W25" s="28">
+        <v>0</v>
+      </c>
+      <c r="X25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>102</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="28">
+        <v>8</v>
+      </c>
+      <c r="N26" s="28">
+        <v>8</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="8">
+        <v>3737</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8">
+        <v>0</v>
+      </c>
+      <c r="V26" s="8">
+        <v>0</v>
+      </c>
+      <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>103</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="31">
+        <v>0.41</v>
+      </c>
+      <c r="K27" s="28">
+        <v>1</v>
+      </c>
+      <c r="L27" s="28">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <v>8</v>
+      </c>
+      <c r="N27" s="28">
+        <v>8</v>
+      </c>
+      <c r="O27" s="28"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
+        <v>104</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="31">
+        <v>4.97</v>
+      </c>
+      <c r="K28" s="28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="28">
+        <v>2</v>
+      </c>
+      <c r="M28" s="28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>105</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="31">
+        <v>6.28</v>
+      </c>
+      <c r="K29" s="28">
+        <v>2</v>
+      </c>
+      <c r="L29" s="28">
+        <v>4</v>
+      </c>
+      <c r="M29" s="28">
+        <v>4</v>
+      </c>
+      <c r="N29" s="28">
+        <v>4</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="8">
+        <v>3994</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>1</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
+        <v>106</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="28">
+        <v>0</v>
+      </c>
+      <c r="L30" s="28">
+        <v>1</v>
+      </c>
+      <c r="M30" s="28">
+        <v>8</v>
+      </c>
+      <c r="N30" s="28">
+        <v>8</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="8">
+        <v>10431</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>107</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="K31" s="28">
+        <v>4</v>
+      </c>
+      <c r="L31" s="28">
+        <v>6</v>
+      </c>
+      <c r="M31" s="28">
+        <v>3</v>
+      </c>
+      <c r="N31" s="28">
+        <v>3</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="8">
+        <v>4394</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
+        <v>108</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="31">
+        <v>3.24</v>
+      </c>
+      <c r="K32" s="28">
+        <v>3</v>
+      </c>
+      <c r="L32" s="28">
+        <v>5</v>
+      </c>
+      <c r="M32" s="28">
+        <v>2</v>
+      </c>
+      <c r="N32" s="28">
+        <v>2</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="28">
+        <v>109</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="31">
+        <v>3.81</v>
+      </c>
+      <c r="K33" s="28">
+        <v>2</v>
+      </c>
+      <c r="L33" s="28">
+        <v>2</v>
+      </c>
+      <c r="M33" s="28">
+        <v>3</v>
+      </c>
+      <c r="N33" s="28">
+        <v>3</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="28">
+        <v>110</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="31">
+        <v>0.69</v>
+      </c>
+      <c r="K34" s="5">
+        <v>3</v>
+      </c>
+      <c r="L34" s="5">
+        <v>5</v>
+      </c>
+      <c r="M34" s="8">
+        <v>3</v>
+      </c>
+      <c r="N34" s="8">
+        <v>3</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="8">
+        <v>5321</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>111</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="31">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="K35" s="28">
+        <v>0</v>
+      </c>
+      <c r="L35" s="28">
+        <v>4</v>
+      </c>
+      <c r="M35" s="28">
+        <v>4</v>
+      </c>
+      <c r="N35" s="28">
+        <v>4</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="8">
+        <v>8735</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>1</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="28">
+        <v>112</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="31">
+        <v>3.25</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2</v>
+      </c>
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+      <c r="N36" s="8">
+        <v>4</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="8">
+        <v>10420</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="28">
+        <v>113</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="31">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2</v>
+      </c>
+      <c r="M37" s="8">
+        <v>7</v>
+      </c>
+      <c r="N37" s="8">
+        <v>7</v>
+      </c>
+      <c r="O37" s="28"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="8">
+        <v>10421</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>1</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="28">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2</v>
+      </c>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>4</v>
+      </c>
+      <c r="O38" s="28"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="8">
+        <v>4071</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8">
+        <v>1</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>116</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>2</v>
+      </c>
+      <c r="M39" s="8">
+        <v>7</v>
+      </c>
+      <c r="N39" s="8">
+        <v>6</v>
+      </c>
+      <c r="O39" s="28"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="8">
+        <v>10456</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>1</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0</v>
+      </c>
+      <c r="W39" s="8">
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="28">
+        <v>117</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="31">
+        <v>0.42</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>2</v>
+      </c>
+      <c r="M40" s="8">
+        <v>7</v>
+      </c>
+      <c r="N40" s="8">
+        <v>6</v>
+      </c>
+      <c r="O40" s="28"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="8">
+        <v>10490</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="8">
+        <v>1</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0</v>
+      </c>
+      <c r="V40" s="8">
+        <v>0</v>
+      </c>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>120</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="K41" s="8">
+        <v>5</v>
+      </c>
+      <c r="L41" s="8">
+        <v>6</v>
+      </c>
+      <c r="M41" s="8">
+        <v>3</v>
+      </c>
+      <c r="N41" s="8">
+        <v>3</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="8">
+        <v>9870</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0</v>
+      </c>
+      <c r="T41" s="8">
+        <v>1</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0</v>
+      </c>
+      <c r="W41" s="8">
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -7418,7 +10257,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -7426,7 +10265,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -7440,7 +10279,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -7458,7 +10297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -7476,7 +10315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41</v>
       </c>
@@ -7494,7 +10333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>36</v>
       </c>
@@ -7512,7 +10351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -7530,7 +10369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7548,7 +10387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -7566,7 +10405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>33</v>
       </c>
@@ -7584,7 +10423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -7602,7 +10441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7620,7 +10459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7638,7 +10477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7656,7 +10495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7674,7 +10513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42</v>
       </c>
@@ -7692,7 +10531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43</v>
       </c>
@@ -7710,7 +10549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -7728,7 +10567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -7746,7 +10585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>40</v>
       </c>
@@ -7764,7 +10603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -7782,7 +10621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7800,7 +10639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7818,7 +10657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38</v>
       </c>
@@ -7836,7 +10675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -7854,7 +10693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
@@ -7872,7 +10711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -7890,7 +10729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -7908,7 +10747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7926,7 +10765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>23</v>
       </c>
@@ -7944,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -7962,7 +10801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>11</v>
       </c>
@@ -7980,7 +10819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -7998,7 +10837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -8016,7 +10855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8034,7 +10873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8052,7 +10891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
@@ -8070,7 +10909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -8088,7 +10927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>15</v>
       </c>
@@ -8106,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -8124,7 +10963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>13</v>
       </c>
@@ -8142,7 +10981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="I43">
         <v>37</v>
@@ -8152,7 +10991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>37</v>
       </c>
@@ -8161,7 +11000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>37</v>
       </c>
@@ -8170,7 +11009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>27</v>
       </c>
@@ -8179,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>33</v>
       </c>
@@ -8188,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>36</v>
       </c>
@@ -8197,7 +11036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>37</v>
       </c>
@@ -8206,7 +11045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>27</v>
       </c>
@@ -8215,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>27</v>
       </c>
@@ -8224,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>37</v>
       </c>
@@ -8233,7 +11072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>27</v>
       </c>
@@ -8242,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>37</v>
       </c>
@@ -8251,7 +11090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>39</v>
       </c>
@@ -8260,7 +11099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>31</v>
       </c>
@@ -8269,7 +11108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>41</v>
       </c>
@@ -8278,7 +11117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>30</v>
       </c>
@@ -8287,7 +11126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>30</v>
       </c>
@@ -8296,7 +11135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>32</v>
       </c>
@@ -8305,7 +11144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>32</v>
       </c>
@@ -8314,7 +11153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>32</v>
       </c>
@@ -8323,7 +11162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>31</v>
       </c>
@@ -8332,7 +11171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>42</v>
       </c>
@@ -8341,7 +11180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>41</v>
       </c>
@@ -8350,7 +11189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>5</v>
       </c>
@@ -8359,7 +11198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>41</v>
       </c>
@@ -8368,7 +11207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>5</v>
       </c>
@@ -8377,7 +11216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>5</v>
       </c>
@@ -8386,7 +11225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>5</v>
       </c>
@@ -8395,7 +11234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>41</v>
       </c>
@@ -8404,7 +11243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>41</v>
       </c>
@@ -8413,7 +11252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>5</v>
       </c>
@@ -8422,7 +11261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>41</v>
       </c>
@@ -8431,7 +11270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I75">
         <v>41</v>
       </c>
@@ -8440,7 +11279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I76">
         <v>5</v>
       </c>
@@ -8449,7 +11288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I77">
         <v>5</v>
       </c>
@@ -8458,7 +11297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>41</v>
       </c>
@@ -8467,7 +11306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>41</v>
       </c>
@@ -8476,7 +11315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>41</v>
       </c>
@@ -8485,7 +11324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>41</v>
       </c>
@@ -8494,7 +11333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I82">
         <v>41</v>
       </c>
@@ -8503,7 +11342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I83">
         <v>6</v>
       </c>
@@ -8512,7 +11351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I84">
         <v>6</v>
       </c>
@@ -8521,7 +11360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I85">
         <v>6</v>
       </c>
@@ -8530,7 +11369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I86">
         <v>30</v>
       </c>
@@ -8539,7 +11378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I87">
         <v>30</v>
       </c>
@@ -8548,7 +11387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I88">
         <v>42</v>
       </c>
@@ -8557,7 +11396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>41</v>
       </c>
@@ -8566,7 +11405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>41</v>
       </c>
@@ -8575,7 +11414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>41</v>
       </c>
@@ -8584,7 +11423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>41</v>
       </c>
@@ -8593,7 +11432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I93">
         <v>41</v>
       </c>
@@ -8602,7 +11441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I94">
         <v>18</v>
       </c>
@@ -8611,7 +11450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I95">
         <v>30</v>
       </c>
@@ -8620,7 +11459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I96">
         <v>30</v>
       </c>
@@ -8629,7 +11468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I97">
         <v>30</v>
       </c>
@@ -8638,7 +11477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I98">
         <v>30</v>
       </c>
@@ -8647,7 +11486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I99">
         <v>30</v>
       </c>
@@ -8656,7 +11495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>30</v>
       </c>
@@ -8665,7 +11504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I101">
         <v>30</v>
       </c>
@@ -8674,7 +11513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I102">
         <v>30</v>
       </c>
@@ -8683,7 +11522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I103">
         <v>32</v>
       </c>
@@ -8692,7 +11531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>32</v>
       </c>
@@ -8701,7 +11540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I105">
         <v>32</v>
       </c>
@@ -8710,7 +11549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>32</v>
       </c>
@@ -8719,7 +11558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>18</v>
       </c>
@@ -8728,7 +11567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I108">
         <v>18</v>
       </c>
@@ -8737,7 +11576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I109">
         <v>41</v>
       </c>
@@ -8746,7 +11585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I110">
         <v>42</v>
       </c>
@@ -8755,7 +11594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I111">
         <v>42</v>
       </c>
@@ -8764,7 +11603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I112">
         <v>42</v>
       </c>
@@ -8773,7 +11612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113">
         <v>42</v>
       </c>
@@ -8782,7 +11621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114">
         <v>42</v>
       </c>
@@ -8791,7 +11630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115">
         <v>42</v>
       </c>
@@ -8800,7 +11639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116">
         <v>42</v>
       </c>
@@ -8809,7 +11648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117">
         <v>42</v>
       </c>
@@ -8818,7 +11657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118">
         <v>42</v>
       </c>
@@ -8827,7 +11666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119">
         <v>14</v>
       </c>
@@ -8836,7 +11675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120">
         <v>23</v>
       </c>
@@ -8845,7 +11684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121">
         <v>2</v>
       </c>
@@ -8854,7 +11693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122">
         <v>25</v>
       </c>
@@ -8863,7 +11702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123">
         <v>25</v>
       </c>
@@ -8872,7 +11711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124">
         <v>25</v>
       </c>
@@ -8881,7 +11720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125">
         <v>25</v>
       </c>
@@ -8890,7 +11729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126">
         <v>25</v>
       </c>
@@ -8899,7 +11738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127">
         <v>25</v>
       </c>
@@ -8908,7 +11747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128">
         <v>25</v>
       </c>
@@ -8917,7 +11756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129">
         <v>26</v>
       </c>
@@ -8926,7 +11765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130">
         <v>2</v>
       </c>
@@ -8935,7 +11774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131">
         <v>2</v>
       </c>
@@ -8944,7 +11783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132">
         <v>39</v>
       </c>
@@ -8953,7 +11792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133">
         <v>2</v>
       </c>
@@ -8962,7 +11801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134">
         <v>2</v>
       </c>
@@ -8971,7 +11810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135">
         <v>2</v>
       </c>
@@ -8980,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136">
         <v>14</v>
       </c>
@@ -8989,7 +11828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137">
         <v>14</v>
       </c>
@@ -8998,7 +11837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138">
         <v>14</v>
       </c>
@@ -9007,7 +11846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139">
         <v>14</v>
       </c>
@@ -9016,7 +11855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140">
         <v>14</v>
       </c>
@@ -9025,7 +11864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141">
         <v>14</v>
       </c>
@@ -9034,7 +11873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142">
         <v>14</v>
       </c>
@@ -9043,7 +11882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143">
         <v>23</v>
       </c>
@@ -9052,7 +11891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144">
         <v>14</v>
       </c>
@@ -9061,7 +11900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145">
         <v>23</v>
       </c>
@@ -9070,7 +11909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146">
         <v>14</v>
       </c>
@@ -9079,7 +11918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147">
         <v>14</v>
       </c>
@@ -9088,7 +11927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148">
         <v>23</v>
       </c>
@@ -9097,7 +11936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149">
         <v>14</v>
       </c>
@@ -9106,7 +11945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150">
         <v>14</v>
       </c>
@@ -9115,7 +11954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151">
         <v>14</v>
       </c>
@@ -9124,7 +11963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152">
         <v>23</v>
       </c>
@@ -9133,7 +11972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153">
         <v>23</v>
       </c>
@@ -9142,7 +11981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154">
         <v>23</v>
       </c>
@@ -9151,7 +11990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155">
         <v>23</v>
       </c>
@@ -9160,7 +11999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156">
         <v>14</v>
       </c>
@@ -9169,7 +12008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157">
         <v>14</v>
       </c>
@@ -9178,7 +12017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158">
         <v>14</v>
       </c>
@@ -9187,7 +12026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159">
         <v>14</v>
       </c>
@@ -9196,7 +12035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160">
         <v>14</v>
       </c>
@@ -9205,7 +12044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161">
         <v>14</v>
       </c>
@@ -9214,7 +12053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162">
         <v>23</v>
       </c>
@@ -9223,7 +12062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163">
         <v>23</v>
       </c>
@@ -9232,7 +12071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164">
         <v>23</v>
       </c>
@@ -9241,7 +12080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165">
         <v>23</v>
       </c>
@@ -9250,7 +12089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166">
         <v>23</v>
       </c>
@@ -9259,7 +12098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167">
         <v>23</v>
       </c>
@@ -9268,7 +12107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168">
         <v>14</v>
       </c>
@@ -9277,7 +12116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169">
         <v>14</v>
       </c>
@@ -9286,7 +12125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170">
         <v>14</v>
       </c>
@@ -9295,7 +12134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171">
         <v>23</v>
       </c>
@@ -9304,7 +12143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172">
         <v>15</v>
       </c>
@@ -9313,7 +12152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173">
         <v>15</v>
       </c>
@@ -9322,7 +12161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174">
         <v>2</v>
       </c>
@@ -9331,7 +12170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175">
         <v>2</v>
       </c>
@@ -9340,7 +12179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176">
         <v>2</v>
       </c>
@@ -9349,7 +12188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177">
         <v>2</v>
       </c>
@@ -9358,7 +12197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178">
         <v>2</v>
       </c>
@@ -9367,7 +12206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179">
         <v>2</v>
       </c>
@@ -9376,7 +12215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180">
         <v>2</v>
       </c>
@@ -9385,7 +12224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181">
         <v>2</v>
       </c>
@@ -9394,7 +12233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182">
         <v>26</v>
       </c>
@@ -9403,7 +12242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183">
         <v>2</v>
       </c>
@@ -9412,7 +12251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184">
         <v>2</v>
       </c>
@@ -9421,7 +12260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185">
         <v>2</v>
       </c>
@@ -9430,7 +12269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186">
         <v>2</v>
       </c>
@@ -9439,7 +12278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I187">
         <v>2</v>
       </c>
@@ -9448,7 +12287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I188">
         <v>2</v>
       </c>
@@ -9457,7 +12296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I189">
         <v>2</v>
       </c>
@@ -9466,7 +12305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I190">
         <v>2</v>
       </c>
@@ -9475,7 +12314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I191">
         <v>23</v>
       </c>
@@ -9484,7 +12323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I192">
         <v>23</v>
       </c>
@@ -9493,7 +12332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I193">
         <v>14</v>
       </c>
@@ -9502,7 +12341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I194">
         <v>23</v>
       </c>
@@ -9511,7 +12350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I195">
         <v>2</v>
       </c>
@@ -9520,7 +12359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I196">
         <v>2</v>
       </c>
@@ -9529,7 +12368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I197">
         <v>9</v>
       </c>
@@ -9538,7 +12377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I198">
         <v>2</v>
       </c>
@@ -9547,7 +12386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I199">
         <v>2</v>
       </c>
@@ -9556,7 +12395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I200">
         <v>13</v>
       </c>
@@ -9565,7 +12404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I201">
         <v>23</v>
       </c>
@@ -9574,7 +12413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I202">
         <v>23</v>
       </c>
@@ -9583,7 +12422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I203">
         <v>13</v>
       </c>
@@ -9592,7 +12431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I204">
         <v>13</v>
       </c>
@@ -9601,7 +12440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I205">
         <v>13</v>
       </c>
@@ -9610,7 +12449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I206">
         <v>13</v>
       </c>
@@ -9619,7 +12458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I207">
         <v>23</v>
       </c>
@@ -9628,7 +12467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I208">
         <v>23</v>
       </c>
@@ -9637,7 +12476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I209">
         <v>2</v>
       </c>
@@ -9646,7 +12485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I210">
         <v>2</v>
       </c>
@@ -9655,7 +12494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I211">
         <v>2</v>
       </c>
@@ -9664,7 +12503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I212">
         <v>2</v>
       </c>
@@ -9673,7 +12512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I213">
         <v>2</v>
       </c>
@@ -9682,7 +12521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I214">
         <v>34</v>
       </c>
@@ -9691,7 +12530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I215">
         <v>33</v>
       </c>
@@ -9700,7 +12539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I216">
         <v>4</v>
       </c>
@@ -9709,7 +12548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I217">
         <v>40</v>
       </c>
@@ -9718,7 +12557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I218">
         <v>4</v>
       </c>
@@ -9727,7 +12566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I219">
         <v>4</v>
       </c>
@@ -9736,7 +12575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I220">
         <v>4</v>
       </c>
@@ -9745,7 +12584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I221">
         <v>4</v>
       </c>
@@ -9754,7 +12593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I222">
         <v>34</v>
       </c>
@@ -9763,7 +12602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I223">
         <v>34</v>
       </c>
@@ -9772,7 +12611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I224">
         <v>34</v>
       </c>
@@ -9781,7 +12620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I225">
         <v>34</v>
       </c>
@@ -9790,7 +12629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I226">
         <v>15</v>
       </c>
@@ -9799,7 +12638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I227">
         <v>15</v>
       </c>
@@ -9808,7 +12647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I228">
         <v>15</v>
       </c>
@@ -9817,7 +12656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I229">
         <v>15</v>
       </c>
@@ -9826,7 +12665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I230">
         <v>15</v>
       </c>
@@ -9835,7 +12674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I231">
         <v>12</v>
       </c>
@@ -9844,7 +12683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I232">
         <v>14</v>
       </c>
@@ -9853,7 +12692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I233">
         <v>14</v>
       </c>
@@ -9862,7 +12701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I234">
         <v>23</v>
       </c>
@@ -9871,7 +12710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I235">
         <v>23</v>
       </c>
@@ -9880,7 +12719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I236">
         <v>28</v>
       </c>
@@ -9889,7 +12728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I237">
         <v>11</v>
       </c>
@@ -9898,7 +12737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I238">
         <v>28</v>
       </c>
@@ -9907,7 +12746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I239">
         <v>32</v>
       </c>
@@ -9916,7 +12755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I240">
         <v>32</v>
       </c>
@@ -9925,7 +12764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I241">
         <v>32</v>
       </c>
@@ -9934,7 +12773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I242">
         <v>43</v>
       </c>
@@ -9943,7 +12782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I243">
         <v>16</v>
       </c>
@@ -9952,7 +12791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I244">
         <v>12</v>
       </c>
@@ -9961,7 +12800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I245">
         <v>36</v>
       </c>
@@ -9970,7 +12809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I246">
         <v>12</v>
       </c>
@@ -9979,7 +12818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I247">
         <v>16</v>
       </c>
@@ -9988,7 +12827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I248">
         <v>10</v>
       </c>
@@ -9997,7 +12836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I249">
         <v>10</v>
       </c>
@@ -10006,7 +12845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I250">
         <v>10</v>
       </c>
@@ -10015,7 +12854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I251">
         <v>43</v>
       </c>
@@ -10024,7 +12863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I252">
         <v>43</v>
       </c>
@@ -10033,7 +12872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I253">
         <v>37</v>
       </c>
@@ -10042,7 +12881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I254">
         <v>43</v>
       </c>
@@ -10051,7 +12890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I255">
         <v>43</v>
       </c>
@@ -10060,7 +12899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I256">
         <v>37</v>
       </c>
@@ -10069,7 +12908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I257">
         <v>43</v>
       </c>
@@ -10078,7 +12917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I258">
         <v>43</v>
       </c>
@@ -10087,7 +12926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I259">
         <v>43</v>
       </c>
@@ -10096,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I260">
         <v>43</v>
       </c>
@@ -10105,7 +12944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I261">
         <v>43</v>
       </c>
@@ -10114,7 +12953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I262">
         <v>43</v>
       </c>
@@ -10123,7 +12962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I263">
         <v>43</v>
       </c>
@@ -10132,7 +12971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I264">
         <v>16</v>
       </c>
@@ -10141,7 +12980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I265">
         <v>37</v>
       </c>
@@ -10150,7 +12989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I266">
         <v>22</v>
       </c>
@@ -10159,7 +12998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I267">
         <v>40</v>
       </c>
@@ -10168,7 +13007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I268">
         <v>40</v>
       </c>
@@ -10177,7 +13016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I269">
         <v>40</v>
       </c>
@@ -10186,7 +13025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I270">
         <v>27</v>
       </c>
@@ -10195,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I271">
         <v>28</v>
       </c>
@@ -10204,7 +13043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I272">
         <v>27</v>
       </c>
@@ -10213,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I273">
         <v>40</v>
       </c>
@@ -10222,7 +13061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I274">
         <v>12</v>
       </c>
@@ -10231,7 +13070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I275">
         <v>43</v>
       </c>
@@ -10240,7 +13079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I276">
         <v>43</v>
       </c>
@@ -10249,7 +13088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I277">
         <v>26</v>
       </c>
@@ -10258,7 +13097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I278">
         <v>26</v>
       </c>
@@ -10267,7 +13106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I279">
         <v>26</v>
       </c>
@@ -10276,7 +13115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I280">
         <v>26</v>
       </c>
@@ -10285,7 +13124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I281">
         <v>16</v>
       </c>
@@ -10294,7 +13133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I282">
         <v>16</v>
       </c>
@@ -10303,7 +13142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I283">
         <v>16</v>
       </c>
@@ -10312,7 +13151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I284">
         <v>27</v>
       </c>
@@ -10321,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I285">
         <v>24</v>
       </c>
@@ -10330,7 +13169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I286">
         <v>24</v>
       </c>
@@ -10339,7 +13178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I287">
         <v>24</v>
       </c>
@@ -10348,7 +13187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I288">
         <v>24</v>
       </c>
@@ -10357,7 +13196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I289">
         <v>28</v>
       </c>
@@ -10366,7 +13205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I290">
         <v>27</v>
       </c>
@@ -10375,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I291">
         <v>40</v>
       </c>
@@ -10384,7 +13223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I292">
         <v>40</v>
       </c>
@@ -10393,7 +13232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I293">
         <v>40</v>
       </c>
@@ -10402,7 +13241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I294">
         <v>38</v>
       </c>
@@ -10411,7 +13250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I295">
         <v>29</v>
       </c>
@@ -10420,7 +13259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I296">
         <v>29</v>
       </c>
@@ -10429,7 +13268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I297">
         <v>10</v>
       </c>
@@ -10438,7 +13277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I298">
         <v>3</v>
       </c>
@@ -10447,7 +13286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I299">
         <v>3</v>
       </c>
@@ -10456,7 +13295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I300">
         <v>29</v>
       </c>
@@ -10465,7 +13304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I301">
         <v>29</v>
       </c>
@@ -10474,7 +13313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I302">
         <v>28</v>
       </c>
@@ -10483,7 +13322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I303">
         <v>28</v>
       </c>
@@ -10492,7 +13331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I304">
         <v>44</v>
       </c>
@@ -10509,7 +13348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
@@ -10517,12 +13356,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -10590,7 +13429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -10658,7 +13497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -10726,7 +13565,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -10794,7 +13633,7 @@
         <v>43.164000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -10862,7 +13701,7 @@
         <v>10.713452725559549</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36</v>
       </c>
@@ -10930,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -10998,7 +13837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -11066,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -11134,7 +13973,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -11202,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33</v>
       </c>
@@ -11270,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -11338,7 +14177,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>33</v>
       </c>
@@ -11406,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -11474,7 +14313,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -11542,7 +14381,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -11610,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11678,7 +14517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>40</v>
       </c>
@@ -11746,7 +14585,7 @@
         <v>216.88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31</v>
       </c>
@@ -11814,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
@@ -11882,7 +14721,7 @@
         <v>24.15396614489789</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -11950,7 +14789,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12018,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12086,7 +14925,7 @@
         <v>188.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -12154,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -12222,7 +15061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -12290,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20</v>
       </c>
@@ -12358,7 +15197,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -12434,17 +15273,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -12455,7 +15294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12466,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12477,7 +15316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12488,7 +15327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12499,7 +15338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12510,7 +15349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12521,7 +15360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12535,7 +15374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12552,7 +15391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -12569,7 +15408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -12586,7 +15425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -12603,7 +15442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -12620,7 +15459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -12637,7 +15476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -12654,7 +15493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -12672,7 +15511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21</v>
       </c>
@@ -12692,7 +15531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -12709,7 +15548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -12726,7 +15565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>25</v>
       </c>
@@ -12743,7 +15582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26</v>
       </c>
@@ -12760,7 +15599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>27</v>
       </c>
@@ -12777,7 +15616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -12794,7 +15633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -12811,7 +15650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31</v>
       </c>
@@ -12828,7 +15667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -12845,7 +15684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -12862,7 +15701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35</v>
       </c>
@@ -12879,7 +15718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>38</v>
       </c>
@@ -12896,7 +15735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40</v>
       </c>
@@ -12907,7 +15746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41</v>
       </c>
@@ -12921,7 +15760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42</v>
       </c>
@@ -12932,7 +15771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43</v>
       </c>
@@ -12943,7 +15782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>101</v>
       </c>
@@ -12954,7 +15793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>102</v>
       </c>
@@ -12962,7 +15801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>103</v>
       </c>
@@ -12970,7 +15809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>104</v>
       </c>
@@ -12978,7 +15817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>105</v>
       </c>
@@ -12986,7 +15825,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>106</v>
       </c>
@@ -12994,7 +15833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>107</v>
       </c>
@@ -13002,7 +15841,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>108</v>
       </c>
@@ -13010,7 +15849,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>109</v>
       </c>
@@ -13018,7 +15857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>110</v>
       </c>
@@ -13026,7 +15865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>111</v>
       </c>
@@ -13034,7 +15873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>112</v>
       </c>
@@ -13042,7 +15881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>113</v>
       </c>
@@ -13050,7 +15889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>114</v>
       </c>

--- a/Project Management Tool.xlsx
+++ b/Project Management Tool.xlsx
@@ -4,27 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="456" windowWidth="18516" windowHeight="12012"/>
+    <workbookView xWindow="4305" yWindow="450" windowWidth="18510" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Attributes and Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Non-Modeled Projects" sheetId="3" r:id="rId2"/>
-    <sheet name="CMP_Rep_Link" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="mosj_projects" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="mosj_projects" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CMP_Rep_Link!$A$1:$X$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Modeled Projects'!$C$64:$O$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$W$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proj Attributes and Scenarios'!$A$9:$V$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="350">
   <si>
     <t>Cost</t>
   </si>
@@ -1079,27 +1077,6 @@
   </si>
   <si>
     <t>varies</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>Rep LinkID</t>
-  </si>
-  <si>
-    <t>4109;9189</t>
-  </si>
-  <si>
-    <t>3799;3800</t>
-  </si>
-  <si>
-    <t>4035;8798;8832;8731;8830;8792;4037;8726;10408;3865;9338;8801;8926;8837;8836;3860;3875;4025;9156;3870;10411;10412;10396;10392;10410;10409;10383;10430</t>
-  </si>
-  <si>
-    <t>8951;10554;10556;3158</t>
-  </si>
-  <si>
-    <t>10780;4622;10779;2227</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,12 +1433,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1637,7 +1608,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1690,7 +1661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1837,8 +1807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2253343" y="0"/>
-          <a:ext cx="10288922" cy="1328583"/>
+          <a:off x="2178326" y="0"/>
+          <a:ext cx="10042810" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -1966,13 +1936,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>343458</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85843</xdr:rowOff>
@@ -2033,8 +2003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1219200" y="0"/>
-          <a:ext cx="10293276" cy="1313343"/>
+          <a:off x="1181100" y="0"/>
+          <a:ext cx="10049436" cy="1366683"/>
           <a:chOff x="3473823" y="78441"/>
           <a:chExt cx="10058400" cy="1366683"/>
         </a:xfrm>
@@ -2453,73 +2423,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="7" width="32.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="5" customWidth="1"/>
+    <col min="13" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="18" style="28" customWidth="1"/>
-    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="16"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P2" s="16"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P3" s="16"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="16"/>
       <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="16"/>
       <c r="Q6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="16"/>
       <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2550,9 +2519,8 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-    </row>
-    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -2608,22 +2576,19 @@
         <v>72</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="W9" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2665,7 +2630,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
@@ -2677,11 +2642,8 @@
       <c r="V10">
         <v>1</v>
       </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -2723,8 +2685,8 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="28">
-        <v>1</v>
+      <c r="S11">
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2733,14 +2695,11 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="28"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="28"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2782,8 +2741,8 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="28">
-        <v>1</v>
+      <c r="S12">
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2792,17 +2751,14 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
         <v>277</v>
       </c>
-      <c r="AJ12" s="28"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI12" s="28"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2844,11 +2800,11 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="28">
-        <v>1</v>
+      <c r="S13">
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2856,12 +2812,9 @@
       <c r="V13">
         <v>1</v>
       </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="28"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI13" s="28"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2903,8 +2856,8 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" s="28">
-        <v>1</v>
+      <c r="S14">
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2913,14 +2866,11 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="28"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="28"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2963,8 +2913,8 @@
       <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15" s="28">
-        <v>0</v>
+      <c r="S15">
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -2975,12 +2925,9 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="28"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI15" s="28"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -3022,24 +2969,21 @@
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" s="28">
-        <v>1</v>
+      <c r="S16">
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="28"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="28"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -3081,7 +3025,7 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
@@ -3093,12 +3037,9 @@
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="28"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI17" s="28"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -3139,8 +3080,8 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" s="28">
-        <v>0</v>
+      <c r="S18">
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -3151,15 +3092,12 @@
       <c r="V18">
         <v>1</v>
       </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AC18" t="s">
         <v>278</v>
       </c>
-      <c r="AJ18" s="28"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI18" s="28"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3202,8 +3140,8 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19" s="28">
-        <v>0</v>
+      <c r="S19">
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -3214,18 +3152,15 @@
       <c r="V19">
         <v>1</v>
       </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
+      <c r="AC19">
         <v>2012</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>279</v>
       </c>
-      <c r="AJ19" s="28"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI19" s="28"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -3268,8 +3203,8 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20" s="28">
-        <v>0</v>
+      <c r="S20">
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -3280,18 +3215,15 @@
       <c r="V20">
         <v>1</v>
       </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
+      <c r="AC20">
         <v>2020</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>280</v>
       </c>
-      <c r="AJ20" s="28"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI20" s="28"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3334,8 +3266,8 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="28">
-        <v>0</v>
+      <c r="S21">
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -3346,18 +3278,15 @@
       <c r="V21">
         <v>1</v>
       </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
+      <c r="AC21">
         <v>2030</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>281</v>
       </c>
-      <c r="AJ21" s="28"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI21" s="28"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -3391,7 +3320,7 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
@@ -3403,12 +3332,9 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="28"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI22" s="28"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -3446,24 +3372,21 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" s="28">
-        <v>1</v>
+      <c r="S23">
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="28"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="28"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -3504,24 +3427,21 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="28">
-        <v>1</v>
+      <c r="S24">
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="28"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="28"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -3563,7 +3483,7 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
@@ -3575,12 +3495,9 @@
       <c r="V25">
         <v>1</v>
       </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="28"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI25" s="28"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -3629,24 +3546,21 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" s="28">
-        <v>1</v>
+      <c r="S26">
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="28"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="28"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -3688,8 +3602,8 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="28">
-        <v>1</v>
+      <c r="S27">
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3698,14 +3612,11 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="28"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="28"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -3747,7 +3658,7 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
@@ -3759,12 +3670,9 @@
       <c r="V28">
         <v>1</v>
       </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="28"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI28" s="28"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3807,8 +3715,8 @@
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29" s="28">
-        <v>0</v>
+      <c r="S29">
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3819,12 +3727,9 @@
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="28"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI29" s="28"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -3867,8 +3772,8 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30" s="28">
-        <v>0</v>
+      <c r="S30">
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3879,12 +3784,9 @@
       <c r="V30">
         <v>1</v>
       </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="28"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI30" s="28"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -3926,8 +3828,8 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="28">
-        <v>1</v>
+      <c r="S31">
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3936,14 +3838,11 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="28"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="28"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -3989,8 +3888,8 @@
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="28">
-        <v>0</v>
+      <c r="S32">
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -4001,12 +3900,9 @@
       <c r="V32">
         <v>1</v>
       </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="28"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI32" s="28"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -4046,8 +3942,8 @@
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33" s="28">
-        <v>0</v>
+      <c r="S33">
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -4058,12 +3954,9 @@
       <c r="V33">
         <v>1</v>
       </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="28"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI33" s="28"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -4105,24 +3998,21 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" s="28">
-        <v>1</v>
+      <c r="S34">
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="28"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="28"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -4166,8 +4056,8 @@
       <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35" s="28">
-        <v>0</v>
+      <c r="S35">
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -4178,12 +4068,9 @@
       <c r="V35">
         <v>1</v>
       </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="28"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI35" s="28"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -4225,24 +4112,21 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" s="28">
-        <v>1</v>
+      <c r="S36">
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="28"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="28"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -4285,8 +4169,8 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37" s="28">
-        <v>0</v>
+      <c r="S37">
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -4297,12 +4181,9 @@
       <c r="V37">
         <v>1</v>
       </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="28"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI37" s="28"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -4344,24 +4225,21 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38" s="28">
-        <v>1</v>
+      <c r="S38">
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="28"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="28"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -4407,7 +4285,7 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
@@ -4419,12 +4297,9 @@
       <c r="V39">
         <v>1</v>
       </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="28"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI39" s="28"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -4465,24 +4340,21 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" s="28">
-        <v>1</v>
+      <c r="S40">
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="28"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="28"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -4531,7 +4403,7 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41" s="28">
+      <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
@@ -4543,12 +4415,9 @@
       <c r="V41">
         <v>1</v>
       </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="AJ41" s="28"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI41" s="28"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -4591,8 +4460,8 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42" s="28">
-        <v>1</v>
+      <c r="S42">
+        <v>0</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4603,12 +4472,9 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="28"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI42" s="28"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4651,8 +4517,8 @@
       <c r="R43">
         <v>1</v>
       </c>
-      <c r="S43" s="28">
-        <v>0</v>
+      <c r="S43">
+        <v>1</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -4663,12 +4529,9 @@
       <c r="V43">
         <v>1</v>
       </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="28"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI43" s="28"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4703,8 +4566,8 @@
       <c r="R44">
         <v>1</v>
       </c>
-      <c r="S44" s="28">
-        <v>0</v>
+      <c r="S44">
+        <v>1</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -4715,12 +4578,9 @@
       <c r="V44">
         <v>1</v>
       </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="28"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI44" s="28"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -4762,7 +4622,7 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45">
         <v>1</v>
       </c>
       <c r="T45">
@@ -4774,12 +4634,9 @@
       <c r="V45">
         <v>1</v>
       </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="28"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI45" s="28"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -4825,8 +4682,8 @@
       <c r="R46">
         <v>1</v>
       </c>
-      <c r="S46" s="28">
-        <v>0</v>
+      <c r="S46">
+        <v>1</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -4837,12 +4694,9 @@
       <c r="V46">
         <v>1</v>
       </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="28"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI46" s="28"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -4880,24 +4734,21 @@
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="S47" s="28">
+      <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="28"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="28"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -4943,8 +4794,8 @@
       <c r="R48">
         <v>1</v>
       </c>
-      <c r="S48" s="28">
-        <v>0</v>
+      <c r="S48">
+        <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -4955,12 +4806,9 @@
       <c r="V48">
         <v>1</v>
       </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="28"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI48" s="28"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -4997,8 +4845,8 @@
       <c r="R49" s="8">
         <v>1</v>
       </c>
-      <c r="S49" s="28">
-        <v>0</v>
+      <c r="S49" s="8">
+        <v>1</v>
       </c>
       <c r="T49" s="8">
         <v>1</v>
@@ -5009,12 +4857,9 @@
       <c r="V49" s="8">
         <v>1</v>
       </c>
-      <c r="W49" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="28"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI49" s="28"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -5052,8 +4897,8 @@
       <c r="R50" s="8">
         <v>1</v>
       </c>
-      <c r="S50" s="28">
-        <v>0</v>
+      <c r="S50" s="8">
+        <v>1</v>
       </c>
       <c r="T50" s="8">
         <v>1</v>
@@ -5064,12 +4909,9 @@
       <c r="V50" s="8">
         <v>1</v>
       </c>
-      <c r="W50" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="28"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI50" s="28"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -5101,8 +4943,8 @@
       <c r="R51" s="8">
         <v>1</v>
       </c>
-      <c r="S51" s="28">
-        <v>0</v>
+      <c r="S51" s="8">
+        <v>1</v>
       </c>
       <c r="T51" s="8">
         <v>1</v>
@@ -5113,12 +4955,9 @@
       <c r="V51" s="8">
         <v>1</v>
       </c>
-      <c r="W51" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="28"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI51" s="28"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -5150,8 +4989,8 @@
       <c r="R52" s="8">
         <v>1</v>
       </c>
-      <c r="S52" s="28">
-        <v>0</v>
+      <c r="S52" s="8">
+        <v>1</v>
       </c>
       <c r="T52" s="8">
         <v>1</v>
@@ -5162,12 +5001,9 @@
       <c r="V52" s="8">
         <v>1</v>
       </c>
-      <c r="W52" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="28"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI52" s="28"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -5208,8 +5044,8 @@
       <c r="R53" s="8">
         <v>1</v>
       </c>
-      <c r="S53" s="28">
-        <v>0</v>
+      <c r="S53" s="8">
+        <v>1</v>
       </c>
       <c r="T53" s="8">
         <v>1</v>
@@ -5220,12 +5056,9 @@
       <c r="V53" s="8">
         <v>1</v>
       </c>
-      <c r="W53" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="28"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI53" s="28"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -5263,8 +5096,8 @@
       <c r="R54" s="8">
         <v>1</v>
       </c>
-      <c r="S54" s="28">
-        <v>0</v>
+      <c r="S54" s="8">
+        <v>1</v>
       </c>
       <c r="T54" s="8">
         <v>1</v>
@@ -5275,12 +5108,9 @@
       <c r="V54" s="8">
         <v>1</v>
       </c>
-      <c r="W54" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ54" s="28"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI54" s="28"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -5318,8 +5148,8 @@
       <c r="R55" s="8">
         <v>1</v>
       </c>
-      <c r="S55" s="28">
-        <v>0</v>
+      <c r="S55" s="8">
+        <v>1</v>
       </c>
       <c r="T55" s="8">
         <v>1</v>
@@ -5330,12 +5160,9 @@
       <c r="V55" s="8">
         <v>1</v>
       </c>
-      <c r="W55" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="28"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI55" s="28"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -5373,8 +5200,8 @@
       <c r="R56" s="8">
         <v>1</v>
       </c>
-      <c r="S56" s="28">
-        <v>0</v>
+      <c r="S56" s="8">
+        <v>1</v>
       </c>
       <c r="T56" s="8">
         <v>1</v>
@@ -5385,12 +5212,9 @@
       <c r="V56" s="8">
         <v>1</v>
       </c>
-      <c r="W56" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="28"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI56" s="28"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -5428,8 +5252,8 @@
       <c r="R57" s="8">
         <v>1</v>
       </c>
-      <c r="S57" s="28">
-        <v>0</v>
+      <c r="S57" s="8">
+        <v>1</v>
       </c>
       <c r="T57" s="8">
         <v>1</v>
@@ -5440,12 +5264,9 @@
       <c r="V57" s="8">
         <v>1</v>
       </c>
-      <c r="W57" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ57" s="28"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI57" s="28"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>102</v>
       </c>
@@ -5477,8 +5298,8 @@
       <c r="R58" s="8">
         <v>0</v>
       </c>
-      <c r="S58" s="28">
-        <v>1</v>
+      <c r="S58" s="8">
+        <v>0</v>
       </c>
       <c r="T58" s="8">
         <v>0</v>
@@ -5489,12 +5310,9 @@
       <c r="V58" s="8">
         <v>0</v>
       </c>
-      <c r="W58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="28"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI58" s="28"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>103</v>
       </c>
@@ -5526,7 +5344,7 @@
       <c r="R59" s="8">
         <v>0</v>
       </c>
-      <c r="S59" s="28">
+      <c r="S59" s="8">
         <v>0</v>
       </c>
       <c r="T59" s="8">
@@ -5538,12 +5356,9 @@
       <c r="V59" s="8">
         <v>0</v>
       </c>
-      <c r="W59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="28"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI59" s="28"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>104</v>
       </c>
@@ -5581,8 +5396,8 @@
       <c r="R60" s="8">
         <v>0</v>
       </c>
-      <c r="S60" s="28">
-        <v>1</v>
+      <c r="S60" s="8">
+        <v>0</v>
       </c>
       <c r="T60" s="8">
         <v>0</v>
@@ -5593,12 +5408,9 @@
       <c r="V60" s="8">
         <v>0</v>
       </c>
-      <c r="W60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="28"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI60" s="28"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>105</v>
       </c>
@@ -5636,8 +5448,8 @@
       <c r="R61" s="8">
         <v>0</v>
       </c>
-      <c r="S61" s="28">
-        <v>1</v>
+      <c r="S61" s="8">
+        <v>0</v>
       </c>
       <c r="T61" s="8">
         <v>0</v>
@@ -5648,12 +5460,9 @@
       <c r="V61" s="8">
         <v>0</v>
       </c>
-      <c r="W61" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="28"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI61" s="28"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>106</v>
       </c>
@@ -5685,8 +5494,8 @@
       <c r="R62" s="8">
         <v>0</v>
       </c>
-      <c r="S62" s="28">
-        <v>1</v>
+      <c r="S62" s="8">
+        <v>0</v>
       </c>
       <c r="T62" s="8">
         <v>0</v>
@@ -5697,12 +5506,9 @@
       <c r="V62" s="8">
         <v>0</v>
       </c>
-      <c r="W62" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="28"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI62" s="28"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>107</v>
       </c>
@@ -5740,8 +5546,8 @@
       <c r="R63" s="8">
         <v>0</v>
       </c>
-      <c r="S63" s="28">
-        <v>1</v>
+      <c r="S63" s="8">
+        <v>0</v>
       </c>
       <c r="T63" s="8">
         <v>0</v>
@@ -5752,12 +5558,9 @@
       <c r="V63" s="8">
         <v>0</v>
       </c>
-      <c r="W63" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="28"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI63" s="28"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>108</v>
       </c>
@@ -5794,8 +5597,8 @@
       <c r="R64" s="8">
         <v>0</v>
       </c>
-      <c r="S64" s="28">
-        <v>1</v>
+      <c r="S64" s="8">
+        <v>0</v>
       </c>
       <c r="T64" s="8">
         <v>0</v>
@@ -5806,12 +5609,9 @@
       <c r="V64" s="8">
         <v>0</v>
       </c>
-      <c r="W64" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="28"/>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI64" s="28"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>109</v>
       </c>
@@ -5842,8 +5642,8 @@
       <c r="R65" s="8">
         <v>0</v>
       </c>
-      <c r="S65" s="28">
-        <v>1</v>
+      <c r="S65" s="8">
+        <v>0</v>
       </c>
       <c r="T65" s="8">
         <v>0</v>
@@ -5854,12 +5654,9 @@
       <c r="V65" s="8">
         <v>0</v>
       </c>
-      <c r="W65" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="28"/>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI65" s="28"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>110</v>
       </c>
@@ -5896,8 +5693,8 @@
       <c r="R66" s="8">
         <v>0</v>
       </c>
-      <c r="S66" s="28">
-        <v>1</v>
+      <c r="S66" s="8">
+        <v>0</v>
       </c>
       <c r="T66" s="8">
         <v>0</v>
@@ -5908,12 +5705,9 @@
       <c r="V66" s="8">
         <v>0</v>
       </c>
-      <c r="W66" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="28"/>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI66" s="28"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>111</v>
       </c>
@@ -5950,8 +5744,8 @@
       <c r="R67" s="8">
         <v>0</v>
       </c>
-      <c r="S67" s="28">
-        <v>1</v>
+      <c r="S67" s="8">
+        <v>0</v>
       </c>
       <c r="T67" s="8">
         <v>0</v>
@@ -5962,12 +5756,9 @@
       <c r="V67" s="8">
         <v>0</v>
       </c>
-      <c r="W67" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="28"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI67" s="28"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>112</v>
       </c>
@@ -6005,8 +5796,8 @@
       <c r="R68" s="8">
         <v>0</v>
       </c>
-      <c r="S68" s="28">
-        <v>1</v>
+      <c r="S68" s="8">
+        <v>0</v>
       </c>
       <c r="T68" s="8">
         <v>0</v>
@@ -6017,12 +5808,9 @@
       <c r="V68" s="8">
         <v>0</v>
       </c>
-      <c r="W68" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="28"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI68" s="28"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>113</v>
       </c>
@@ -6063,8 +5851,8 @@
       <c r="R69" s="8">
         <v>0</v>
       </c>
-      <c r="S69" s="28">
-        <v>1</v>
+      <c r="S69" s="8">
+        <v>0</v>
       </c>
       <c r="T69" s="8">
         <v>0</v>
@@ -6075,12 +5863,9 @@
       <c r="V69" s="8">
         <v>0</v>
       </c>
-      <c r="W69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="28"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI69" s="28"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>115</v>
       </c>
@@ -6122,8 +5907,8 @@
       <c r="R70" s="8">
         <v>0</v>
       </c>
-      <c r="S70" s="28">
-        <v>1</v>
+      <c r="S70" s="8">
+        <v>0</v>
       </c>
       <c r="T70" s="8">
         <v>0</v>
@@ -6134,12 +5919,9 @@
       <c r="V70" s="8">
         <v>0</v>
       </c>
-      <c r="W70" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="28"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI70" s="28"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>116</v>
       </c>
@@ -6174,8 +5956,8 @@
       <c r="R71" s="8">
         <v>0</v>
       </c>
-      <c r="S71" s="28">
-        <v>1</v>
+      <c r="S71" s="8">
+        <v>0</v>
       </c>
       <c r="T71" s="8">
         <v>0</v>
@@ -6186,12 +5968,9 @@
       <c r="V71" s="8">
         <v>0</v>
       </c>
-      <c r="W71" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="28"/>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI71" s="28"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>117</v>
       </c>
@@ -6226,8 +6005,8 @@
       <c r="R72" s="8">
         <v>0</v>
       </c>
-      <c r="S72" s="28">
-        <v>1</v>
+      <c r="S72" s="8">
+        <v>0</v>
       </c>
       <c r="T72" s="8">
         <v>0</v>
@@ -6238,12 +6017,9 @@
       <c r="V72" s="8">
         <v>0</v>
       </c>
-      <c r="W72" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="28"/>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI72" s="28"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>118</v>
       </c>
@@ -6279,8 +6055,8 @@
       <c r="R73" s="8">
         <v>1</v>
       </c>
-      <c r="S73" s="28">
-        <v>0</v>
+      <c r="S73" s="8">
+        <v>1</v>
       </c>
       <c r="T73" s="8">
         <v>1</v>
@@ -6291,12 +6067,9 @@
       <c r="V73" s="8">
         <v>1</v>
       </c>
-      <c r="W73" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ73" s="28"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI73" s="28"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>119</v>
       </c>
@@ -6338,8 +6111,8 @@
       <c r="R74" s="8">
         <v>1</v>
       </c>
-      <c r="S74" s="28">
-        <v>0</v>
+      <c r="S74" s="8">
+        <v>1</v>
       </c>
       <c r="T74" s="8">
         <v>1</v>
@@ -6350,12 +6123,9 @@
       <c r="V74" s="8">
         <v>1</v>
       </c>
-      <c r="W74" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ74" s="28"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI74" s="28"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>120</v>
       </c>
@@ -6397,8 +6167,8 @@
       <c r="R75" s="8">
         <v>0</v>
       </c>
-      <c r="S75" s="28">
-        <v>1</v>
+      <c r="S75" s="8">
+        <v>0</v>
       </c>
       <c r="T75" s="8">
         <v>0</v>
@@ -6409,12 +6179,9 @@
       <c r="V75" s="8">
         <v>0</v>
       </c>
-      <c r="W75" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="28"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AI75" s="28"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6427,9 +6194,8 @@
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6442,9 +6208,8 @@
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6457,9 +6222,8 @@
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6470,9 +6234,8 @@
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6483,9 +6246,8 @@
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6496,9 +6258,8 @@
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6509,9 +6270,8 @@
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6522,9 +6282,8 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6535,9 +6294,8 @@
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6548,9 +6306,8 @@
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6562,9 +6319,8 @@
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6576,9 +6332,8 @@
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6592,9 +6347,8 @@
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6607,9 +6361,8 @@
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6622,31 +6375,34 @@
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W75"/>
+  <autoFilter ref="A9:V75">
+    <sortState ref="A10:T48">
+      <sortCondition ref="A9:A30"/>
+    </sortState>
+  </autoFilter>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Functional Class" sqref="I89:I91"/>
   </dataValidations>
@@ -6667,30 +6423,30 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6715,7 +6471,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6762,7 +6518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -6782,7 +6538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
@@ -6805,7 +6561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>49</v>
@@ -6828,7 +6584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -6852,7 +6608,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -6875,7 +6631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -6899,7 +6655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>63</v>
@@ -6919,7 +6675,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
@@ -6939,7 +6695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -6962,7 +6718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
@@ -6985,7 +6741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -7001,7 +6757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
@@ -7012,7 +6768,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
@@ -7023,7 +6779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
@@ -7044,7 +6800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
@@ -7063,7 +6819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -7087,7 +6843,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7097,7 +6853,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7107,7 +6863,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>271</v>
       </c>
@@ -7175,7 +6931,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>114</v>
       </c>
@@ -7209,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>101</v>
       </c>
@@ -7249,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -7259,7 +7015,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7269,7 +7025,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7279,7 +7035,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7289,7 +7045,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7299,7 +7055,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7309,7 +7065,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7319,7 +7075,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7329,7 +7085,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7339,7 +7095,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7349,7 +7105,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7359,129 +7115,129 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="G64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="F67" s="4"/>
@@ -7489,119 +7245,119 @@
       <c r="I67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="G75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="G76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="G77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="G78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="G79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="G81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="G83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="G84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="G85" s="4"/>
@@ -7610,7 +7366,7 @@
       <c r="K85" s="8"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="G86" s="4"/>
@@ -7619,7 +7375,7 @@
       <c r="K86" s="8"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="G87" s="4"/>
@@ -7628,7 +7384,7 @@
       <c r="K87" s="8"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7646,2610 +7402,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>205</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="K2" s="28">
-        <v>2</v>
-      </c>
-      <c r="L2" s="28">
-        <v>8</v>
-      </c>
-      <c r="M2" s="28">
-        <v>5</v>
-      </c>
-      <c r="N2" s="28">
-        <v>5</v>
-      </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="8">
-        <v>10140</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="28">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>1</v>
-      </c>
-      <c r="U2" s="28">
-        <v>1</v>
-      </c>
-      <c r="V2" s="28">
-        <v>1</v>
-      </c>
-      <c r="W2" s="28">
-        <v>1</v>
-      </c>
-      <c r="X2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <v>351</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="31">
-        <v>7.2</v>
-      </c>
-      <c r="K3" s="28">
-        <v>4</v>
-      </c>
-      <c r="L3" s="28">
-        <v>6</v>
-      </c>
-      <c r="M3" s="28">
-        <v>3</v>
-      </c>
-      <c r="N3" s="28">
-        <v>3</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>1</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="28">
-        <v>0</v>
-      </c>
-      <c r="W3" s="28">
-        <v>0</v>
-      </c>
-      <c r="X3" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>356</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="31">
-        <v>2.75</v>
-      </c>
-      <c r="K4" s="28">
-        <v>4</v>
-      </c>
-      <c r="L4" s="28">
-        <v>6</v>
-      </c>
-      <c r="M4" s="28">
-        <v>3</v>
-      </c>
-      <c r="N4" s="28">
-        <v>3</v>
-      </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="8">
-        <v>3838</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="28">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1</v>
-      </c>
-      <c r="U4" s="28">
-        <v>0</v>
-      </c>
-      <c r="V4" s="28">
-        <v>0</v>
-      </c>
-      <c r="W4" s="28">
-        <v>0</v>
-      </c>
-      <c r="X4" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>251</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="31">
-        <v>1.25</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>4</v>
-      </c>
-      <c r="M5" s="28">
-        <v>4</v>
-      </c>
-      <c r="N5" s="28">
-        <v>4</v>
-      </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="8">
-        <v>10452</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="28">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-      <c r="U5" s="28">
-        <v>0</v>
-      </c>
-      <c r="V5" s="28">
-        <v>1</v>
-      </c>
-      <c r="W5" s="28">
-        <v>1</v>
-      </c>
-      <c r="X5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>353</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="31">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>4</v>
-      </c>
-      <c r="M6" s="28">
-        <v>7</v>
-      </c>
-      <c r="N6" s="28">
-        <v>4</v>
-      </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="8">
-        <v>10109</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="28">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>1</v>
-      </c>
-      <c r="U6" s="28">
-        <v>0</v>
-      </c>
-      <c r="V6" s="28">
-        <v>0</v>
-      </c>
-      <c r="W6" s="28">
-        <v>0</v>
-      </c>
-      <c r="X6" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>306</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="31">
-        <v>1.75</v>
-      </c>
-      <c r="K7" s="12">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12">
-        <v>10</v>
-      </c>
-      <c r="M7" s="28">
-        <v>1</v>
-      </c>
-      <c r="N7" s="28">
-        <v>1</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="28">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-      <c r="U7" s="28">
-        <v>0</v>
-      </c>
-      <c r="V7" s="28">
-        <v>1</v>
-      </c>
-      <c r="W7" s="28">
-        <v>0</v>
-      </c>
-      <c r="X7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>208</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="31">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K8" s="12">
-        <v>5</v>
-      </c>
-      <c r="L8" s="12">
-        <v>6</v>
-      </c>
-      <c r="M8" s="28">
-        <v>1</v>
-      </c>
-      <c r="N8" s="28">
-        <v>1</v>
-      </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="8">
-        <v>7456</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="28">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="28">
-        <v>1</v>
-      </c>
-      <c r="V8" s="28">
-        <v>1</v>
-      </c>
-      <c r="W8" s="28">
-        <v>1</v>
-      </c>
-      <c r="X8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28">
-        <v>902</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="28">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="28">
-        <v>0</v>
-      </c>
-      <c r="V9" s="28">
-        <v>0</v>
-      </c>
-      <c r="W9" s="28">
-        <v>0</v>
-      </c>
-      <c r="X9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>308</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="31">
-        <v>5.57</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>4</v>
-      </c>
-      <c r="M10" s="28">
-        <v>6</v>
-      </c>
-      <c r="N10" s="28">
-        <v>6</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="8">
-        <v>8857</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="28">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>1</v>
-      </c>
-      <c r="U10" s="28">
-        <v>0</v>
-      </c>
-      <c r="V10" s="28">
-        <v>1</v>
-      </c>
-      <c r="W10" s="28">
-        <v>0</v>
-      </c>
-      <c r="X10" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>15</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28">
-        <v>301</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="31">
-        <v>2.72</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>2</v>
-      </c>
-      <c r="M11" s="28">
-        <v>7</v>
-      </c>
-      <c r="N11" s="28">
-        <v>7</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="8">
-        <v>10577</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="28">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>1</v>
-      </c>
-      <c r="U11" s="28">
-        <v>0</v>
-      </c>
-      <c r="V11" s="28">
-        <v>1</v>
-      </c>
-      <c r="W11" s="28">
-        <v>0</v>
-      </c>
-      <c r="X11" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <v>211</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="31">
-        <v>3.32</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>4</v>
-      </c>
-      <c r="M12" s="28">
-        <v>3</v>
-      </c>
-      <c r="N12" s="28">
-        <v>3</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="8">
-        <v>4379</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="28">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="28">
-        <v>1</v>
-      </c>
-      <c r="V12" s="28">
-        <v>1</v>
-      </c>
-      <c r="W12" s="28">
-        <v>1</v>
-      </c>
-      <c r="X12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>17</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="28">
-